--- a/aks sell 2 Rows.xlsx
+++ b/aks sell 2 Rows.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\aks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aks\Desktop\aks data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PC Builder" sheetId="3" r:id="rId1"/>
@@ -1699,7 +1699,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2062,34 +2062,6 @@
   </cellStyles>
   <dxfs count="455">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -2346,6 +2318,34 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5518,15 +5518,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="B1:G128"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="9"/>
-    <tableColumn id="2" name="Description" dataDxfId="8"/>
-    <tableColumn id="3" name="Remark" dataDxfId="7"/>
-    <tableColumn id="4" name="Qty" dataDxfId="6"/>
-    <tableColumn id="5" name="Price" dataDxfId="5"/>
-    <tableColumn id="6" name="Amount" dataDxfId="4"/>
+    <tableColumn id="1" name="Category" dataDxfId="5"/>
+    <tableColumn id="2" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" name="Remark" dataDxfId="3"/>
+    <tableColumn id="4" name="Qty" dataDxfId="2"/>
+    <tableColumn id="5" name="Price" dataDxfId="1"/>
+    <tableColumn id="6" name="Amount" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5801,17 +5801,17 @@
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>15</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>18</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>-39500</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>20</v>
       </c>
@@ -5939,7 +5939,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -6015,11 +6015,11 @@
         <v>-60000</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:9" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="5" t="s">
         <v>14</v>
       </c>
@@ -6048,32 +6048,32 @@
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.88671875" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.85546875" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" customWidth="1"/>
-    <col min="11" max="11" width="19.88671875" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" customWidth="1"/>
-    <col min="15" max="16" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.88671875" customWidth="1"/>
-    <col min="19" max="19" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="15" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="18" customHeight="1">
+    <row r="1" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1">
         <f>SUM(B3:B55)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:27" ht="18" customHeight="1">
+    <row r="2" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:27" ht="18" customHeight="1">
+    <row r="3" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3">
         <f t="shared" ref="B3:B67" si="0">IF($F3=0,$P3,IF($F3=$L3,IF($P3-$H3&lt;0,0,IF($E3="set",$P3-$H3,FALSE)),($L3-$F3)*$M3))</f>
         <v>0</v>
@@ -6179,7 +6179,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="4" spans="2:27" ht="18" customHeight="1">
+    <row r="4" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>0</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="2:27" ht="18" customHeight="1">
+    <row r="5" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>0</v>
       </c>
@@ -6290,7 +6290,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="6" spans="2:27" ht="18" customHeight="1">
+    <row r="6" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6349,7 +6349,7 @@
       </c>
       <c r="U6" s="48"/>
     </row>
-    <row r="7" spans="2:27" ht="18" customHeight="1">
+    <row r="7" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6409,7 +6409,7 @@
         <v>76.63</v>
       </c>
     </row>
-    <row r="8" spans="2:27" ht="18" customHeight="1">
+    <row r="8" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="2:27" ht="18" customHeight="1">
+    <row r="9" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6534,7 +6534,7 @@
         <v>479.86577181208054</v>
       </c>
     </row>
-    <row r="10" spans="2:27" ht="18" customHeight="1">
+    <row r="10" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6593,7 +6593,7 @@
       </c>
       <c r="V10" s="35"/>
     </row>
-    <row r="11" spans="2:27" ht="18" customHeight="1">
+    <row r="11" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6650,7 +6650,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="12" spans="2:27" ht="18" customHeight="1">
+    <row r="12" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6709,7 +6709,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="13" spans="2:27" ht="18" customHeight="1">
+    <row r="13" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6779,7 +6779,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="2:27" ht="18" customHeight="1">
+    <row r="14" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6839,7 +6839,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="2:27" ht="18" customHeight="1">
+    <row r="15" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6895,7 +6895,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="2:27" ht="18" customHeight="1">
+    <row r="16" spans="2:27" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6953,7 +6953,7 @@
         <v>7315835.3899999997</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="18" customHeight="1">
+    <row r="17" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="Q17" s="12"/>
     </row>
-    <row r="18" spans="1:23" ht="18" customHeight="1">
+    <row r="18" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7065,7 +7065,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="18" customHeight="1">
+    <row r="19" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="Q19" s="12"/>
     </row>
-    <row r="20" spans="1:23" ht="18" customHeight="1">
+    <row r="20" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7177,7 +7177,7 @@
         <v>7684164.6100000003</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="18" customHeight="1">
+    <row r="21" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>0</v>
       </c>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="Q21" s="12"/>
     </row>
-    <row r="22" spans="1:23" ht="18" customHeight="1">
+    <row r="22" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7280,7 +7280,7 @@
       </c>
       <c r="Q22" s="12"/>
     </row>
-    <row r="23" spans="1:23" ht="18" customHeight="1">
+    <row r="23" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9"/>
       <c r="B23" s="9">
         <f t="shared" si="0"/>
@@ -7335,7 +7335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="18" customHeight="1">
+    <row r="24" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="9">
         <v>0</v>
@@ -7393,7 +7393,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="18" customHeight="1">
+    <row r="25" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9"/>
       <c r="B25" s="9">
         <v>0</v>
@@ -7446,7 +7446,7 @@
       <c r="R25" s="34"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:23" ht="18" customHeight="1">
+    <row r="26" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7502,7 +7502,7 @@
       <c r="R26" s="34"/>
       <c r="S26" s="31"/>
     </row>
-    <row r="27" spans="1:23" ht="18" customHeight="1">
+    <row r="27" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7555,7 +7555,7 @@
       <c r="R27" s="34"/>
       <c r="S27" s="31"/>
     </row>
-    <row r="28" spans="1:23" ht="18" customHeight="1">
+    <row r="28" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7608,7 +7608,7 @@
       <c r="R28" s="34"/>
       <c r="S28" s="31"/>
     </row>
-    <row r="29" spans="1:23" ht="18" customHeight="1">
+    <row r="29" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7661,7 +7661,7 @@
       <c r="R29" s="34"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="1:23" ht="18" customHeight="1">
+    <row r="30" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>0</v>
       </c>
@@ -7716,7 +7716,7 @@
       <c r="R30" s="65"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="31" spans="1:23" ht="18" customHeight="1">
+    <row r="31" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7776,7 +7776,7 @@
       <c r="V31" s="9"/>
       <c r="W31" s="9"/>
     </row>
-    <row r="32" spans="1:23" ht="18" customHeight="1">
+    <row r="32" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7836,7 +7836,7 @@
       <c r="V32" s="9"/>
       <c r="W32" s="9"/>
     </row>
-    <row r="33" spans="2:23" ht="18" customHeight="1">
+    <row r="33" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7892,7 +7892,7 @@
       <c r="V33" s="9"/>
       <c r="W33" s="9"/>
     </row>
-    <row r="34" spans="2:23" ht="18" customHeight="1">
+    <row r="34" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -7949,7 +7949,7 @@
       <c r="V34" s="9"/>
       <c r="W34" s="9"/>
     </row>
-    <row r="35" spans="2:23" ht="18" customHeight="1">
+    <row r="35" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8006,7 +8006,7 @@
       <c r="V35" s="9"/>
       <c r="W35" s="9"/>
     </row>
-    <row r="36" spans="2:23" ht="18" customHeight="1">
+    <row r="36" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8063,7 +8063,7 @@
       <c r="V36" s="9"/>
       <c r="W36" s="9"/>
     </row>
-    <row r="37" spans="2:23" ht="18" customHeight="1">
+    <row r="37" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8120,7 +8120,7 @@
       <c r="V37" s="9"/>
       <c r="W37" s="9"/>
     </row>
-    <row r="38" spans="2:23" ht="18" customHeight="1">
+    <row r="38" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8177,7 +8177,7 @@
       <c r="V38" s="9"/>
       <c r="W38" s="9"/>
     </row>
-    <row r="39" spans="2:23" ht="18" customHeight="1">
+    <row r="39" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8234,7 +8234,7 @@
       <c r="V39" s="9"/>
       <c r="W39" s="9"/>
     </row>
-    <row r="40" spans="2:23" ht="18" customHeight="1">
+    <row r="40" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8291,7 +8291,7 @@
       <c r="V40" s="9"/>
       <c r="W40" s="9"/>
     </row>
-    <row r="41" spans="2:23" ht="18" customHeight="1">
+    <row r="41" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8348,7 +8348,7 @@
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
     </row>
-    <row r="42" spans="2:23" ht="18" customHeight="1">
+    <row r="42" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8405,7 +8405,7 @@
       <c r="V42" s="9"/>
       <c r="W42" s="9"/>
     </row>
-    <row r="43" spans="2:23" ht="18" customHeight="1">
+    <row r="43" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8462,7 +8462,7 @@
       <c r="V43" s="9"/>
       <c r="W43" s="9"/>
     </row>
-    <row r="44" spans="2:23" ht="18" customHeight="1">
+    <row r="44" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8513,7 +8513,7 @@
       </c>
       <c r="Q44" s="12"/>
     </row>
-    <row r="45" spans="2:23" ht="18" customHeight="1">
+    <row r="45" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8565,7 +8565,7 @@
       <c r="R45" s="34"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="2:23" ht="18" customHeight="1">
+    <row r="46" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>86000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="18" customHeight="1">
+    <row r="47" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8665,7 +8665,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" ht="18" customHeight="1">
+    <row r="48" spans="2:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8715,7 +8715,7 @@
         <v>605100</v>
       </c>
     </row>
-    <row r="49" spans="2:16" ht="18" customHeight="1">
+    <row r="49" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8766,7 +8766,7 @@
         <v>1101700</v>
       </c>
     </row>
-    <row r="50" spans="2:16" ht="18" customHeight="1">
+    <row r="50" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>1479690</v>
       </c>
     </row>
-    <row r="51" spans="2:16" ht="18" customHeight="1">
+    <row r="51" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8867,7 +8867,7 @@
         <v>356000</v>
       </c>
     </row>
-    <row r="52" spans="2:16" ht="18" customHeight="1">
+    <row r="52" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8917,7 +8917,7 @@
         <v>117000</v>
       </c>
     </row>
-    <row r="53" spans="2:16" ht="18" customHeight="1">
+    <row r="53" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8967,7 +8967,7 @@
         <v>165250</v>
       </c>
     </row>
-    <row r="54" spans="2:16" ht="18" customHeight="1">
+    <row r="54" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>99900</v>
       </c>
     </row>
-    <row r="55" spans="2:16" ht="18" customHeight="1">
+    <row r="55" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9067,7 +9067,7 @@
         <v>79700</v>
       </c>
     </row>
-    <row r="56" spans="2:16" ht="18" customHeight="1">
+    <row r="56" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9117,7 +9117,7 @@
         <v>88250</v>
       </c>
     </row>
-    <row r="57" spans="2:16" ht="18" customHeight="1">
+    <row r="57" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>277750</v>
       </c>
     </row>
-    <row r="58" spans="2:16" ht="18" customHeight="1">
+    <row r="58" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9217,7 +9217,7 @@
         <v>486200</v>
       </c>
     </row>
-    <row r="59" spans="2:16" ht="18" customHeight="1">
+    <row r="59" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9267,7 +9267,7 @@
         <v>489500</v>
       </c>
     </row>
-    <row r="60" spans="2:16" ht="18" customHeight="1">
+    <row r="60" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>24500</v>
       </c>
     </row>
-    <row r="61" spans="2:16" ht="18" customHeight="1">
+    <row r="61" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B61" s="9">
         <v>0</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="62" spans="2:16" ht="18" customHeight="1">
+    <row r="62" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>197700</v>
       </c>
     </row>
-    <row r="63" spans="2:16" ht="18" customHeight="1">
+    <row r="63" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9466,7 +9466,7 @@
         <v>456000</v>
       </c>
     </row>
-    <row r="64" spans="2:16" ht="18" customHeight="1">
+    <row r="64" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9516,7 +9516,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="65" spans="1:30" ht="18" customHeight="1">
+    <row r="65" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B65">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>1505020</v>
       </c>
     </row>
-    <row r="66" spans="1:30" ht="18" customHeight="1">
+    <row r="66" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B66">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9618,7 +9618,7 @@
         <v>1093980</v>
       </c>
     </row>
-    <row r="67" spans="1:30" ht="18" customHeight="1">
+    <row r="67" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -9668,7 +9668,7 @@
         <v>385000</v>
       </c>
     </row>
-    <row r="68" spans="1:30" ht="18" customHeight="1">
+    <row r="68" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68">
         <v>0</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>203990</v>
       </c>
     </row>
-    <row r="69" spans="1:30" ht="18" customHeight="1">
+    <row r="69" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B69">
         <f>IF($F69=0,$P69,IF($F69=$L69,IF($P69-$H69&lt;0,0,IF($E69="set",$P69-$H69,FALSE)),($L69-$F69)*$M69))</f>
         <v>0</v>
@@ -9767,7 +9767,7 @@
         <v>134130</v>
       </c>
     </row>
-    <row r="70" spans="1:30" ht="18" customHeight="1">
+    <row r="70" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70">
         <f>IF($F70=0,$P70,IF($F70=$L70,IF($P70-$H70&lt;0,0,IF($E70="set",$P70-$H70,FALSE)),($L70-$F70)*$M70))</f>
         <v>0</v>
@@ -9819,7 +9819,7 @@
       <c r="S70" s="9"/>
       <c r="U70" s="9"/>
     </row>
-    <row r="71" spans="1:30" ht="18" customHeight="1">
+    <row r="71" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B71">
         <f>IF($F71=0,$P71,IF($F71=$L71,IF($P71-$H71&lt;0,0,IF($E71="set",$P71-$H71,FALSE)),($L71-$F71)*$M71))</f>
         <v>0</v>
@@ -9869,7 +9869,7 @@
         <v>246700</v>
       </c>
     </row>
-    <row r="72" spans="1:30" ht="18" customHeight="1">
+    <row r="72" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B72">
         <f>IF($F72=0,$P72,IF($F72=$L72,IF($P72-$H72&lt;0,0,IF($E72="set",$P72-$H72,FALSE)),($L72-$F72)*$M72))</f>
         <v>0</v>
@@ -9919,7 +9919,7 @@
         <v>39180</v>
       </c>
     </row>
-    <row r="73" spans="1:30" ht="18" customHeight="1">
+    <row r="73" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B73">
         <f>IF($F73=0,$P73,IF($F73=$L73,IF($P73-$H73&lt;0,0,IF($E73="set",$P73-$H73,FALSE)),($L73-$F73)*$M73))</f>
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>24300</v>
       </c>
     </row>
-    <row r="74" spans="1:30" ht="18" customHeight="1">
+    <row r="74" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="36">
         <v>63930</v>
       </c>
@@ -10019,7 +10019,7 @@
         <v>789500</v>
       </c>
     </row>
-    <row r="75" spans="1:30" ht="18" customHeight="1">
+    <row r="75" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="36">
         <v>168750</v>
       </c>
@@ -10083,7 +10083,7 @@
       <c r="AC75" s="12"/>
       <c r="AD75" s="12"/>
     </row>
-    <row r="76" spans="1:30" ht="18" customHeight="1">
+    <row r="76" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9"/>
       <c r="B76">
         <f t="shared" ref="B76:B134" si="18">IF($F76=0,$P76,IF($F76=$L76,IF($P76-$H76&lt;0,0,IF($E76="set",$P76-$H76,FALSE)),($L76-$F76)*$M76))</f>
@@ -10134,7 +10134,7 @@
         <v>162412</v>
       </c>
     </row>
-    <row r="77" spans="1:30" ht="18" customHeight="1">
+    <row r="77" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B77">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10184,7 +10184,7 @@
         <v>1355500</v>
       </c>
     </row>
-    <row r="78" spans="1:30" ht="18" customHeight="1">
+    <row r="78" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>805650</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="18" customHeight="1">
+    <row r="79" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10284,7 +10284,7 @@
         <v>1089200</v>
       </c>
     </row>
-    <row r="80" spans="1:30" ht="18" customHeight="1">
+    <row r="80" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10334,7 +10334,7 @@
         <v>84000</v>
       </c>
     </row>
-    <row r="81" spans="2:19" ht="18" customHeight="1">
+    <row r="81" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10384,7 +10384,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="82" spans="2:19" ht="18" customHeight="1">
+    <row r="82" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10434,7 +10434,7 @@
         <v>486500</v>
       </c>
     </row>
-    <row r="83" spans="2:19" ht="18" customHeight="1">
+    <row r="83" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10484,7 +10484,7 @@
         <v>501000</v>
       </c>
     </row>
-    <row r="84" spans="2:19" ht="18" customHeight="1">
+    <row r="84" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10534,7 +10534,7 @@
         <v>20700</v>
       </c>
     </row>
-    <row r="85" spans="2:19" ht="18" customHeight="1">
+    <row r="85" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>449000</v>
       </c>
     </row>
-    <row r="86" spans="2:19" ht="18" customHeight="1">
+    <row r="86" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10634,7 +10634,7 @@
         <v>1392750</v>
       </c>
     </row>
-    <row r="87" spans="2:19" ht="18" customHeight="1">
+    <row r="87" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10684,7 +10684,7 @@
         <v>489000</v>
       </c>
     </row>
-    <row r="88" spans="2:19" ht="18" customHeight="1">
+    <row r="88" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>0</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>503500</v>
       </c>
     </row>
-    <row r="89" spans="2:19" ht="18" customHeight="1">
+    <row r="89" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>0</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>491000</v>
       </c>
     </row>
-    <row r="90" spans="2:19" ht="18" customHeight="1">
+    <row r="90" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10832,7 +10832,7 @@
       <c r="Q90" s="42"/>
       <c r="R90" s="12"/>
     </row>
-    <row r="91" spans="2:19" ht="18" customHeight="1">
+    <row r="91" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10882,7 +10882,7 @@
         <v>1346850</v>
       </c>
     </row>
-    <row r="92" spans="2:19" ht="18" customHeight="1">
+    <row r="92" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10932,7 +10932,7 @@
         <v>207007</v>
       </c>
     </row>
-    <row r="93" spans="2:19" ht="18" customHeight="1">
+    <row r="93" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -10984,7 +10984,7 @@
       <c r="Q93" s="42"/>
       <c r="R93" s="12"/>
     </row>
-    <row r="94" spans="2:19" ht="18" customHeight="1">
+    <row r="94" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11044,7 +11044,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="2:19" ht="18" customHeight="1">
+    <row r="95" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11104,7 +11104,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" spans="2:19" ht="18" customHeight="1">
+    <row r="96" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11164,7 +11164,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" spans="1:20" ht="18" customHeight="1">
+    <row r="97" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11224,7 +11224,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" spans="1:20" ht="18" customHeight="1">
+    <row r="98" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11284,7 +11284,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99" spans="1:20" ht="18" customHeight="1">
+    <row r="99" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>149</v>
       </c>
@@ -11351,7 +11351,7 @@
         <v>3402.6927784577724</v>
       </c>
     </row>
-    <row r="100" spans="1:20" ht="18" customHeight="1">
+    <row r="100" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B100">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" spans="1:20" ht="18" customHeight="1">
+    <row r="101" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>149</v>
       </c>
@@ -11478,7 +11478,7 @@
         <v>3095.8475540386808</v>
       </c>
     </row>
-    <row r="102" spans="1:20" ht="18" customHeight="1">
+    <row r="102" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B102">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11538,7 +11538,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:20" ht="18" customHeight="1">
+    <row r="103" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11598,7 +11598,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="104" spans="1:20" ht="18" customHeight="1">
+    <row r="104" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>149</v>
       </c>
@@ -11665,7 +11665,7 @@
         <v>3776.0949943117184</v>
       </c>
     </row>
-    <row r="105" spans="1:20" ht="18" customHeight="1">
+    <row r="105" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>149</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>85.76</v>
       </c>
     </row>
-    <row r="106" spans="1:20" ht="18" customHeight="1">
+    <row r="106" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>149</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>85.5</v>
       </c>
     </row>
-    <row r="107" spans="1:20" ht="18" customHeight="1">
+    <row r="107" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>149</v>
       </c>
@@ -11857,7 +11857,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" spans="1:20" ht="18" customHeight="1">
+    <row r="108" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B108">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -11917,7 +11917,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="109" spans="1:20" ht="18" customHeight="1">
+    <row r="109" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>149</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="110" spans="1:20" ht="18" customHeight="1">
+    <row r="110" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>149</v>
       </c>
@@ -12038,7 +12038,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" spans="1:20" ht="18" customHeight="1">
+    <row r="111" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>149</v>
       </c>
@@ -12099,7 +12099,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="112" spans="1:20" ht="18" customHeight="1">
+    <row r="112" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -12157,7 +12157,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" spans="1:20" ht="18" customHeight="1">
+    <row r="113" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>173</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" spans="1:20" ht="18" customHeight="1">
+    <row r="114" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>173</v>
       </c>
@@ -12281,7 +12281,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" spans="1:20" ht="18" customHeight="1">
+    <row r="115" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>173</v>
       </c>
@@ -12343,7 +12343,7 @@
       <c r="S115" s="15"/>
       <c r="T115" s="35"/>
     </row>
-    <row r="116" spans="1:20" ht="18" customHeight="1">
+    <row r="116" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>173</v>
       </c>
@@ -12402,7 +12402,7 @@
       </c>
       <c r="S116" s="15"/>
     </row>
-    <row r="117" spans="1:20" ht="18" customHeight="1">
+    <row r="117" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>173</v>
       </c>
@@ -12463,7 +12463,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="118" spans="1:20" ht="18" customHeight="1">
+    <row r="118" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>173</v>
       </c>
@@ -12524,7 +12524,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:20" ht="18" customHeight="1">
+    <row r="119" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>173</v>
       </c>
@@ -12585,7 +12585,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:20" ht="18" customHeight="1">
+    <row r="120" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>173</v>
       </c>
@@ -12648,7 +12648,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="121" spans="1:20" ht="18" customHeight="1">
+    <row r="121" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>149</v>
       </c>
@@ -12711,7 +12711,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:20" ht="18" customHeight="1">
+    <row r="122" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>173</v>
       </c>
@@ -12774,7 +12774,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" spans="1:20" ht="18" customHeight="1">
+    <row r="123" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>186</v>
       </c>
@@ -12837,7 +12837,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="124" spans="1:20" ht="18" customHeight="1">
+    <row r="124" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>149</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="125" spans="1:20" ht="18" customHeight="1">
+    <row r="125" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>149</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="126" spans="1:20" ht="18" customHeight="1">
+    <row r="126" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>149</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="127" spans="1:20" ht="18" customHeight="1">
+    <row r="127" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13082,7 +13082,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="128" spans="1:20" ht="18" customHeight="1">
+    <row r="128" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="129" spans="2:19" ht="18" customHeight="1">
+    <row r="129" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B129">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13189,7 +13189,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" spans="2:19" ht="18" customHeight="1">
+    <row r="130" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13242,7 +13242,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" spans="2:19" ht="18" customHeight="1">
+    <row r="131" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13295,7 +13295,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="2:19" ht="18" customHeight="1">
+    <row r="132" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B132">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13349,7 +13349,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="2:19" ht="18" customHeight="1">
+    <row r="133" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B133">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13403,7 +13403,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="134" spans="2:19" ht="18" customHeight="1">
+    <row r="134" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B134">
         <f t="shared" si="18"/>
         <v>0</v>
@@ -13457,7 +13457,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="2:19" ht="18" customHeight="1">
+    <row r="135" spans="2:19" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C135" s="1"/>
       <c r="D135" s="3"/>
       <c r="E135" s="11"/>
@@ -14530,18 +14530,18 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="34.5546875" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>37</v>
       </c>
@@ -14563,7 +14563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -14574,7 +14574,7 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -14589,7 +14589,7 @@
         <v>305000</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="1" t="s">
@@ -14600,7 +14600,7 @@
         <v>20300</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
         <v>55</v>
@@ -14615,7 +14615,7 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
     </row>
-    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1" t="s">
@@ -14628,7 +14628,7 @@
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
     </row>
-    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1" t="s">
@@ -14642,7 +14642,7 @@
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
     </row>
-    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="25">
         <v>44745</v>
@@ -14655,7 +14655,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1" t="s">
@@ -14666,7 +14666,7 @@
         <v>38000</v>
       </c>
     </row>
-    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="1" t="s">
@@ -14678,7 +14678,7 @@
         <v>238000</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1" t="s">
@@ -14689,7 +14689,7 @@
         <v>335000</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
         <v>85</v>
@@ -14702,7 +14702,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="1" t="s">
@@ -14713,7 +14713,7 @@
         <v>15680</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1" t="s">
@@ -14724,7 +14724,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="1" t="s">
@@ -14739,7 +14739,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1" t="s">
@@ -14750,7 +14750,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1" t="s">
@@ -14761,7 +14761,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="23.25" customHeight="1">
+    <row r="19" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -14774,7 +14774,7 @@
         <v>32451.47</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="1" t="s">
@@ -14786,7 +14786,7 @@
         <v>56635</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="1" t="s">
@@ -14797,7 +14797,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="1" t="s">
@@ -14808,7 +14808,7 @@
         <v>11200</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="1" t="s">
@@ -14819,7 +14819,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1" t="s">
@@ -14830,7 +14830,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="1" t="s">
@@ -14841,7 +14841,7 @@
         <v>26500</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="1" t="s">
@@ -14852,7 +14852,7 @@
         <v>28750</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="1" t="s">
@@ -14863,7 +14863,7 @@
         <v>13800</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="1" t="s">
@@ -14874,7 +14874,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="1" t="s">
@@ -14886,7 +14886,7 @@
       </c>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="1" t="s">
@@ -14897,7 +14897,7 @@
         <v>37600</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
         <v>137</v>
@@ -14920,7 +14920,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
         <v>136</v>
@@ -14943,7 +14943,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
         <v>136</v>
@@ -14966,7 +14966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
         <v>141</v>
@@ -14989,7 +14989,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
         <v>143</v>
@@ -15012,7 +15012,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="2"/>
       <c r="D36" s="1" t="s">
         <v>152</v>
@@ -15032,7 +15032,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="2"/>
       <c r="D37" s="1" t="s">
         <v>158</v>
@@ -15052,7 +15052,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>160</v>
       </c>
@@ -15074,7 +15074,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="2" t="s">
         <v>160</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="2" t="s">
         <v>160</v>
       </c>
@@ -15118,7 +15118,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="2" t="s">
         <v>160</v>
       </c>
@@ -15154,7 +15154,7 @@
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15172,13 +15172,13 @@
       <selection pane="bottomRight" activeCell="C80" sqref="C80:G80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -15206,7 +15206,7 @@
         <v>2450600</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="75">
         <v>44927</v>
       </c>
@@ -15228,7 +15228,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="75">
         <v>44927</v>
       </c>
@@ -15249,7 +15249,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="75">
         <v>44928</v>
       </c>
@@ -15270,7 +15270,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="75">
         <v>44928</v>
       </c>
@@ -15291,7 +15291,7 @@
         <v>65000</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="75">
         <v>44929</v>
       </c>
@@ -15312,7 +15312,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="75">
         <v>44929</v>
       </c>
@@ -15333,7 +15333,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="75">
         <v>44929</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="75">
         <v>44929</v>
       </c>
@@ -15375,7 +15375,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="75">
         <v>44929</v>
       </c>
@@ -15396,7 +15396,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="75">
         <v>44929</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="75">
         <v>44929</v>
       </c>
@@ -15438,7 +15438,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="75">
         <v>44929</v>
       </c>
@@ -15459,7 +15459,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="75">
         <v>44929</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="75">
         <v>44929</v>
       </c>
@@ -15501,7 +15501,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="75">
         <v>44929</v>
       </c>
@@ -15522,7 +15522,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="75">
         <v>44930</v>
       </c>
@@ -15543,7 +15543,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="75">
         <v>44930</v>
       </c>
@@ -15564,7 +15564,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="75">
         <v>44931</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="75">
         <v>44931</v>
       </c>
@@ -15606,7 +15606,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="75">
         <v>44931</v>
       </c>
@@ -15627,7 +15627,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="75">
         <v>44931</v>
       </c>
@@ -15648,7 +15648,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="75">
         <v>44931</v>
       </c>
@@ -15669,7 +15669,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="75">
         <v>44932</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="75">
         <v>44932</v>
       </c>
@@ -15711,7 +15711,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="26" spans="2:8">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="75">
         <v>44932</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="2:8">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="75">
         <v>44933</v>
       </c>
@@ -15756,7 +15756,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="2:8">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="75">
         <v>44933</v>
       </c>
@@ -15777,7 +15777,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="2:8">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="75">
         <v>44933</v>
       </c>
@@ -15798,7 +15798,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="30" spans="2:8">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="75">
         <v>44934</v>
       </c>
@@ -15822,7 +15822,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="75">
         <v>44934</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="75">
         <v>44935</v>
       </c>
@@ -15864,7 +15864,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="75">
         <v>44935</v>
       </c>
@@ -15885,7 +15885,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="34" spans="2:8">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="75">
         <v>44935</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="35" spans="2:8">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="75">
         <v>44935</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="2:8">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="75">
         <v>44936</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="37" spans="2:8">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="75">
         <v>44937</v>
       </c>
@@ -15969,7 +15969,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="75">
         <v>44937</v>
       </c>
@@ -15990,7 +15990,7 @@
         <v>22500</v>
       </c>
     </row>
-    <row r="39" spans="2:8">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="75">
         <v>44938</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="40" spans="2:8">
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="75">
         <v>44942</v>
       </c>
@@ -16032,7 +16032,7 @@
         <v>170000</v>
       </c>
     </row>
-    <row r="41" spans="2:8">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="75">
         <v>44942</v>
       </c>
@@ -16056,7 +16056,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B42" s="75">
         <v>44942</v>
       </c>
@@ -16077,7 +16077,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="43" spans="2:8">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B43" s="75">
         <v>44942</v>
       </c>
@@ -16098,7 +16098,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="44" spans="2:8">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B44" s="75">
         <v>44942</v>
       </c>
@@ -16119,7 +16119,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="45" spans="2:8">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B45" s="75">
         <v>44942</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="46" spans="2:8">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B46" s="75">
         <v>44942</v>
       </c>
@@ -16161,7 +16161,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:8">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B47" s="75">
         <v>44942</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="48" spans="2:8">
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B48" s="75">
         <v>44942</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="75">
         <v>44943</v>
       </c>
@@ -16224,7 +16224,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="75">
         <v>44943</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="75">
         <v>44943</v>
       </c>
@@ -16266,7 +16266,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="75">
         <v>44943</v>
       </c>
@@ -16287,7 +16287,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="75">
         <v>44943</v>
       </c>
@@ -16308,7 +16308,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="75">
         <v>44943</v>
       </c>
@@ -16329,7 +16329,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="75">
         <v>44943</v>
       </c>
@@ -16350,7 +16350,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="75">
         <v>44943</v>
       </c>
@@ -16371,7 +16371,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="75">
         <v>44945</v>
       </c>
@@ -16392,7 +16392,7 @@
         <v>96000</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="75">
         <v>44945</v>
       </c>
@@ -16413,7 +16413,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="75">
         <v>44945</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="75">
         <v>44945</v>
       </c>
@@ -16455,7 +16455,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="75">
         <v>44945</v>
       </c>
@@ -16476,7 +16476,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="75">
         <v>44946</v>
       </c>
@@ -16497,7 +16497,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="75">
         <v>44946</v>
       </c>
@@ -16518,7 +16518,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="75">
         <v>44947</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>110000</v>
       </c>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B65" s="75">
         <v>44947</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="75">
         <v>44947</v>
       </c>
@@ -16581,7 +16581,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" s="75">
         <v>44947</v>
       </c>
@@ -16602,7 +16602,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B68" s="75">
         <v>44947</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B69" s="75">
         <v>44949</v>
       </c>
@@ -16647,7 +16647,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B70" s="75">
         <v>44949</v>
       </c>
@@ -16668,7 +16668,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B71" s="75">
         <v>44950</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="75">
         <v>44950</v>
       </c>
@@ -16710,7 +16710,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="75">
         <v>44950</v>
       </c>
@@ -16731,7 +16731,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="75">
         <v>44950</v>
       </c>
@@ -16752,7 +16752,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="75">
         <v>44950</v>
       </c>
@@ -16773,7 +16773,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="75">
         <v>44950</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B77" s="75">
         <v>44951</v>
       </c>
@@ -16815,7 +16815,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B78" s="75">
         <v>44951</v>
       </c>
@@ -16836,7 +16836,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B79" s="75">
         <v>44951</v>
       </c>
@@ -16857,7 +16857,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B80" s="75">
         <v>44952</v>
       </c>
@@ -16878,7 +16878,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="75">
         <v>44953</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="75">
         <v>44954</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="75">
         <v>44954</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="75">
         <v>44955</v>
       </c>
@@ -16973,34 +16973,34 @@
   <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="71" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="9.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="4.109375" style="51" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="51" customWidth="1"/>
-    <col min="11" max="11" width="8.5546875" style="51" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" style="51" customWidth="1"/>
-    <col min="13" max="13" width="10.109375" style="51" customWidth="1"/>
-    <col min="14" max="14" width="6.77734375" style="51" customWidth="1"/>
-    <col min="15" max="15" width="9.6640625" style="51" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.44140625" style="51" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="20" max="24" width="9.33203125" style="51" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.109375" style="51"/>
+    <col min="1" max="1" width="12.5703125" style="84" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="71" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="51" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="51" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" style="51" customWidth="1"/>
+    <col min="12" max="12" width="10.28515625" style="51" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="51" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="51" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="51" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" style="51" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="51" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="20" max="24" width="9.28515625" style="51" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="73" t="s">
         <v>220</v>
       </c>
@@ -17046,15 +17046,15 @@
       </c>
       <c r="Q1" s="20">
         <f>SUM(A2:A124)</f>
-        <v>16222020</v>
+        <v>16392020</v>
       </c>
       <c r="R1" s="77">
         <f>Q20</f>
-        <v>-1154039.2199999988</v>
+        <v>-1324039.2199999988</v>
       </c>
       <c r="S1" s="77"/>
     </row>
-    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84">
         <f t="shared" ref="A2" si="0">IF($E2=0,$M2,IF($E2=$I2,IF($M2-$G2&lt;0,0,IF($D2="set",$M2-$G2,FALSE)),($I2-$E2)*$J2))</f>
         <v>216000</v>
@@ -17105,7 +17105,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="84">
         <f t="shared" ref="A3:A7" si="5">IF($E3=0,$M3,IF($E3=$I3,IF($M3-$G3&lt;0,0,IF($D3="set",$M3-$G3,FALSE)),($I3-$E3)*$J3))</f>
         <v>177000</v>
@@ -17156,7 +17156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="84">
         <f t="shared" si="5"/>
         <v>155500</v>
@@ -17207,7 +17207,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="84">
         <f t="shared" si="5"/>
         <v>160000</v>
@@ -17268,7 +17268,7 @@
         <v>88.3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="84">
         <f t="shared" si="5"/>
         <v>46000</v>
@@ -17332,7 +17332,7 @@
         <v>2.110366187542779</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="84">
         <f t="shared" si="5"/>
         <v>29000</v>
@@ -17387,7 +17387,7 @@
         <v>82.99</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84">
         <f t="shared" ref="A8:A17" si="10">IF($E8=0,$M8,IF($E8=$I8,IF($M8-$G8&lt;0,0,IF($D8="set",$M8-$G8,FALSE)),($I8-$E8)*$J8))</f>
         <v>89000</v>
@@ -17444,7 +17444,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="84">
         <f t="shared" si="10"/>
         <v>0</v>
@@ -17498,7 +17498,7 @@
         <v>451.51006711409394</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="84">
         <f t="shared" si="10"/>
         <v>59150</v>
@@ -17550,7 +17550,7 @@
       </c>
       <c r="S10" s="60"/>
     </row>
-    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="84">
         <f t="shared" si="10"/>
         <v>16500</v>
@@ -17603,7 +17603,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84">
         <f t="shared" si="10"/>
         <v>13000</v>
@@ -17668,7 +17668,7 @@
         <v>1144.0920358482169</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="84">
         <f t="shared" si="10"/>
         <v>80000</v>
@@ -17725,7 +17725,7 @@
         <v>432.15</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="84">
         <f t="shared" si="10"/>
         <v>393000</v>
@@ -17786,7 +17786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="84">
         <f t="shared" si="10"/>
         <v>20000</v>
@@ -17841,7 +17841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="76"/>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
@@ -17860,10 +17860,10 @@
       </c>
       <c r="Q16" s="17">
         <f>Q1+SUM(Q2:Q14)+Q15</f>
-        <v>24654039.219999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1">
+        <v>24824039.219999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="84">
         <f t="shared" si="10"/>
         <v>50000</v>
@@ -17920,7 +17920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="76"/>
       <c r="C18" s="52"/>
       <c r="D18" s="52"/>
@@ -17951,7 +17951,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="76"/>
       <c r="C19" s="52"/>
       <c r="D19" s="52"/>
@@ -17966,7 +17966,7 @@
       <c r="M19" s="52"/>
       <c r="N19" s="55"/>
     </row>
-    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="76"/>
       <c r="C20" s="52"/>
       <c r="D20" s="53"/>
@@ -17985,10 +17985,10 @@
       </c>
       <c r="Q20" s="17">
         <f>Q18-Q16</f>
-        <v>-1154039.2199999988</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1">
+        <v>-1324039.2199999988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="76" t="s">
         <v>23</v>
       </c>
@@ -18038,7 +18038,7 @@
         <v>44891</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84">
         <f t="shared" ref="A22:A49" si="23">IF($E22=0,$M22,IF($E22=$I22,IF($M22-$G22&lt;0,0,IF($D22="set",$M22-$G22,FALSE)),($I22-$E22)*$J22))</f>
         <v>0</v>
@@ -18086,7 +18086,7 @@
       <c r="N22" s="55"/>
       <c r="Q22" s="64"/>
     </row>
-    <row r="23" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84">
         <f t="shared" si="23"/>
         <v>164000</v>
@@ -18137,7 +18137,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="84">
         <f t="shared" si="23"/>
         <v>83000</v>
@@ -18189,7 +18189,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:22" ht="19.2" customHeight="1">
+    <row r="25" spans="1:22" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="84">
         <f t="shared" si="23"/>
         <v>109000</v>
@@ -18235,7 +18235,7 @@
       <c r="O25" s="66"/>
       <c r="Q25" s="78"/>
     </row>
-    <row r="26" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84">
         <f t="shared" si="23"/>
         <v>123000</v>
@@ -18279,7 +18279,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="76"/>
       <c r="C27" s="52"/>
       <c r="D27" s="53"/>
@@ -18296,7 +18296,7 @@
       <c r="P27" s="44"/>
       <c r="Q27" s="82"/>
     </row>
-    <row r="28" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="84">
         <f t="shared" si="23"/>
         <v>105600</v>
@@ -18345,7 +18345,7 @@
       <c r="P28" s="44"/>
       <c r="Q28" s="78"/>
     </row>
-    <row r="29" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="76"/>
       <c r="C29" s="52"/>
       <c r="D29" s="52"/>
@@ -18361,7 +18361,7 @@
       <c r="O29" s="66"/>
       <c r="P29" s="44"/>
     </row>
-    <row r="30" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="76"/>
       <c r="C30" s="52"/>
       <c r="D30" s="52"/>
@@ -18379,7 +18379,7 @@
       <c r="Q30" s="78"/>
       <c r="R30" s="44"/>
     </row>
-    <row r="31" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="76"/>
       <c r="C31" s="52"/>
       <c r="D31" s="52"/>
@@ -18397,7 +18397,7 @@
       <c r="P31" s="44"/>
       <c r="Q31" s="78"/>
     </row>
-    <row r="32" spans="1:22" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="76"/>
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
@@ -18415,7 +18415,7 @@
       <c r="Q32" s="78"/>
       <c r="R32" s="63"/>
     </row>
-    <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84">
         <f t="shared" si="23"/>
         <v>130000</v>
@@ -18463,7 +18463,7 @@
       <c r="Q33" s="78"/>
       <c r="S33" s="63"/>
     </row>
-    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="84">
         <f t="shared" si="23"/>
         <v>40000</v>
@@ -18510,7 +18510,7 @@
       <c r="P34" s="44"/>
       <c r="Q34" s="79"/>
     </row>
-    <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="84">
         <f t="shared" si="23"/>
         <v>200970</v>
@@ -18560,7 +18560,7 @@
       <c r="Q35" s="79"/>
       <c r="S35" s="63"/>
     </row>
-    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="84">
         <f t="shared" si="23"/>
         <v>186750</v>
@@ -18609,7 +18609,7 @@
       <c r="P36" s="44"/>
       <c r="Q36" s="78"/>
     </row>
-    <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="76"/>
       <c r="C37" s="52"/>
       <c r="D37" s="52"/>
@@ -18627,7 +18627,7 @@
       <c r="P37" s="44"/>
       <c r="Q37" s="78"/>
     </row>
-    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="84">
         <f t="shared" si="23"/>
         <v>130000</v>
@@ -18676,7 +18676,7 @@
       <c r="P38" s="44"/>
       <c r="Q38" s="78"/>
     </row>
-    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="84">
         <f t="shared" si="23"/>
         <v>511500</v>
@@ -18725,7 +18725,7 @@
       <c r="P39" s="44"/>
       <c r="Q39" s="78"/>
     </row>
-    <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="84">
         <f t="shared" si="23"/>
         <v>251000</v>
@@ -18774,7 +18774,7 @@
       <c r="P40" s="44"/>
       <c r="Q40" s="78"/>
     </row>
-    <row r="41" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="84">
         <f t="shared" si="23"/>
         <v>401600</v>
@@ -18822,7 +18822,7 @@
       <c r="P41" s="44"/>
       <c r="Q41" s="80"/>
     </row>
-    <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="84">
         <f t="shared" si="23"/>
         <v>463000</v>
@@ -18873,7 +18873,7 @@
       </c>
       <c r="Q42" s="80"/>
     </row>
-    <row r="43" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="84">
         <f t="shared" si="23"/>
         <v>39000</v>
@@ -18920,7 +18920,7 @@
       </c>
       <c r="Q43" s="80"/>
     </row>
-    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="84">
         <f t="shared" si="23"/>
         <v>650000</v>
@@ -18967,7 +18967,7 @@
       </c>
       <c r="Q44" s="80"/>
     </row>
-    <row r="45" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="84">
         <f t="shared" si="23"/>
         <v>80000</v>
@@ -19012,7 +19012,7 @@
       </c>
       <c r="Q45" s="80"/>
     </row>
-    <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="84">
         <f t="shared" si="23"/>
         <v>284800</v>
@@ -19059,7 +19059,7 @@
       </c>
       <c r="Q46" s="80"/>
     </row>
-    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="84">
         <f t="shared" si="23"/>
         <v>416300</v>
@@ -19106,7 +19106,7 @@
       </c>
       <c r="Q47" s="80"/>
     </row>
-    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="84">
         <f t="shared" si="23"/>
         <v>82450</v>
@@ -19153,7 +19153,7 @@
       </c>
       <c r="Q48" s="80"/>
     </row>
-    <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="84">
         <f t="shared" si="23"/>
         <v>120000</v>
@@ -19198,7 +19198,7 @@
       </c>
       <c r="Q49" s="80"/>
     </row>
-    <row r="50" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="84">
         <f t="shared" ref="A50:A88" si="48">IF($E50=0,$M50,IF($E50=$I50,IF($M50-$G50&lt;0,0,IF($D50="set",$M50-$G50,FALSE)),($I50-$E50)*$J50))</f>
         <v>37500</v>
@@ -19243,7 +19243,7 @@
       </c>
       <c r="Q50" s="80"/>
     </row>
-    <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="76"/>
       <c r="C51" s="52"/>
       <c r="D51" s="52"/>
@@ -19258,7 +19258,7 @@
       <c r="M51" s="52"/>
       <c r="Q51" s="80"/>
     </row>
-    <row r="52" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="76"/>
       <c r="C52" s="52"/>
       <c r="D52" s="52"/>
@@ -19273,7 +19273,7 @@
       <c r="M52" s="52"/>
       <c r="Q52" s="80"/>
     </row>
-    <row r="53" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="84">
         <f t="shared" si="48"/>
         <v>127000</v>
@@ -19318,7 +19318,7 @@
       </c>
       <c r="Q53" s="80"/>
     </row>
-    <row r="54" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="84">
         <f t="shared" si="48"/>
         <v>21050</v>
@@ -19363,7 +19363,7 @@
       </c>
       <c r="Q54" s="80"/>
     </row>
-    <row r="55" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="84">
         <f t="shared" si="48"/>
         <v>252000</v>
@@ -19408,7 +19408,7 @@
       </c>
       <c r="Q55" s="80"/>
     </row>
-    <row r="56" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="76"/>
       <c r="C56" s="52"/>
       <c r="D56" s="52"/>
@@ -19423,7 +19423,7 @@
       <c r="M56" s="52"/>
       <c r="Q56" s="80"/>
     </row>
-    <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="84">
         <f t="shared" si="48"/>
         <v>336000</v>
@@ -19468,7 +19468,7 @@
       </c>
       <c r="Q57" s="80"/>
     </row>
-    <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="84">
         <f t="shared" si="48"/>
         <v>60000</v>
@@ -19512,7 +19512,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="76"/>
       <c r="C59" s="52"/>
       <c r="D59" s="52"/>
@@ -19526,7 +19526,7 @@
       <c r="L59" s="52"/>
       <c r="M59" s="52"/>
     </row>
-    <row r="60" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="84">
         <f t="shared" si="48"/>
         <v>415000</v>
@@ -19570,7 +19570,7 @@
         <v>415000</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="84">
         <f t="shared" si="48"/>
         <v>219750</v>
@@ -19615,7 +19615,7 @@
       </c>
       <c r="O61" s="55"/>
     </row>
-    <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="76"/>
       <c r="C62" s="52"/>
       <c r="D62" s="52"/>
@@ -19629,7 +19629,7 @@
       <c r="L62" s="52"/>
       <c r="M62" s="52"/>
     </row>
-    <row r="63" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="84">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -19673,7 +19673,7 @@
         <v>105000</v>
       </c>
     </row>
-    <row r="64" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -19717,7 +19717,7 @@
         <v>156850</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="84">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -19761,7 +19761,7 @@
         <v>142550</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="84">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -19805,7 +19805,7 @@
         <v>143650</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -19849,7 +19849,7 @@
         <v>126650</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="84">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -19893,7 +19893,7 @@
         <v>174600</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="84">
         <f t="shared" si="48"/>
         <v>225000</v>
@@ -19937,7 +19937,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B70" s="76"/>
       <c r="C70" s="52"/>
       <c r="D70" s="52"/>
@@ -19951,7 +19951,7 @@
       <c r="L70" s="52"/>
       <c r="M70" s="52"/>
     </row>
-    <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="84">
         <f t="shared" si="48"/>
         <v>140600</v>
@@ -19995,7 +19995,7 @@
         <v>140600</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="84">
         <f t="shared" si="48"/>
         <v>338640</v>
@@ -20039,7 +20039,7 @@
         <v>338640</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="84">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -20083,7 +20083,7 @@
         <v>76000</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="84">
         <f t="shared" si="48"/>
         <v>144000</v>
@@ -20127,7 +20127,7 @@
         <v>144000</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="84">
         <f t="shared" si="48"/>
         <v>83000</v>
@@ -20171,7 +20171,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="84">
         <f t="shared" si="48"/>
         <v>158000</v>
@@ -20215,7 +20215,7 @@
         <v>158000</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="84">
         <f t="shared" si="48"/>
         <v>50750</v>
@@ -20259,7 +20259,7 @@
         <v>50750</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B78" s="76"/>
       <c r="C78" s="52"/>
       <c r="D78" s="52"/>
@@ -20273,7 +20273,7 @@
       <c r="L78" s="52"/>
       <c r="M78" s="52"/>
     </row>
-    <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B79" s="76"/>
       <c r="C79" s="52"/>
       <c r="D79" s="52"/>
@@ -20287,7 +20287,7 @@
       <c r="L79" s="52"/>
       <c r="M79" s="52"/>
     </row>
-    <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="76"/>
       <c r="C80" s="52"/>
       <c r="D80" s="52"/>
@@ -20301,7 +20301,7 @@
       <c r="L80" s="52"/>
       <c r="M80" s="52"/>
     </row>
-    <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="84">
         <f t="shared" si="48"/>
         <v>388200</v>
@@ -20345,7 +20345,7 @@
         <v>388200</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="84">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -20389,7 +20389,7 @@
         <v>115000</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="84">
         <f t="shared" si="48"/>
         <v>455000</v>
@@ -20433,7 +20433,7 @@
         <v>455000</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="84">
         <f t="shared" si="48"/>
         <v>0</v>
@@ -20477,7 +20477,7 @@
         <v>812000</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="76"/>
       <c r="C85" s="52"/>
       <c r="D85" s="52"/>
@@ -20491,7 +20491,7 @@
       <c r="L85" s="52"/>
       <c r="M85" s="52"/>
     </row>
-    <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="84">
         <f t="shared" si="48"/>
         <v>300000</v>
@@ -20535,7 +20535,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="84">
         <f t="shared" si="48"/>
         <v>57600</v>
@@ -20579,7 +20579,7 @@
         <v>57600</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="84">
         <f t="shared" si="48"/>
         <v>66000</v>
@@ -20623,7 +20623,7 @@
         <v>66000</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="84">
         <f t="shared" ref="A89:A116" si="101">IF($E89=0,$M89,IF($E89=$I89,IF($M89-$G89&lt;0,0,IF($D89="set",$M89-$G89,FALSE)),($I89-$E89)*$J89))</f>
         <v>312600</v>
@@ -20667,7 +20667,7 @@
         <v>312600</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="84">
         <f t="shared" si="101"/>
         <v>92000</v>
@@ -20711,7 +20711,7 @@
         <v>92000</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="91" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="84">
         <f t="shared" si="101"/>
         <v>127750</v>
@@ -20755,7 +20755,7 @@
         <v>127750</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="92" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="84">
         <f t="shared" si="101"/>
         <v>31700</v>
@@ -20799,7 +20799,7 @@
         <v>31700</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="93" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="84">
         <f t="shared" si="101"/>
         <v>66600</v>
@@ -20843,7 +20843,7 @@
         <v>66600</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="94" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="84">
         <f t="shared" si="101"/>
         <v>229260</v>
@@ -20887,7 +20887,7 @@
         <v>229260</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="95" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="84">
         <f t="shared" si="101"/>
         <v>1393600</v>
@@ -20908,11 +20908,11 @@
         <v>220000</v>
       </c>
       <c r="G95" s="53">
-        <f t="shared" ref="G95:G96" si="116">F95*E95</f>
+        <f t="shared" ref="G95" si="116">F95*E95</f>
         <v>0</v>
       </c>
       <c r="H95" s="44" t="str">
-        <f t="shared" ref="H95:H96" si="117">IF(E95=I95,"Out of Stock",I95-E95&amp;" qty Left")</f>
+        <f t="shared" ref="H95" si="117">IF(E95=I95,"Out of Stock",I95-E95&amp;" qty Left")</f>
         <v>10 qty Left</v>
       </c>
       <c r="I95" s="52">
@@ -20923,15 +20923,15 @@
       </c>
       <c r="K95" s="52"/>
       <c r="L95" s="52">
-        <f t="shared" ref="L95:L96" si="118">(K95/I95)+J95</f>
+        <f t="shared" ref="L95" si="118">(K95/I95)+J95</f>
         <v>139360</v>
       </c>
       <c r="M95" s="52">
-        <f t="shared" ref="M95:M96" si="119">(J95*I95)+K95</f>
+        <f t="shared" ref="M95" si="119">(J95*I95)+K95</f>
         <v>1393600</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="76"/>
       <c r="C96" s="52"/>
       <c r="D96" s="52"/>
@@ -20945,7 +20945,7 @@
       <c r="L96" s="52"/>
       <c r="M96" s="52"/>
     </row>
-    <row r="97" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="97" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B97" s="76"/>
       <c r="C97" s="52"/>
       <c r="D97" s="52"/>
@@ -20959,7 +20959,7 @@
       <c r="L97" s="52"/>
       <c r="M97" s="52"/>
     </row>
-    <row r="98" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="98" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="86"/>
       <c r="C98" s="87"/>
       <c r="D98" s="53"/>
@@ -20973,7 +20973,7 @@
       <c r="L98" s="52"/>
       <c r="M98" s="52"/>
     </row>
-    <row r="99" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="99" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="84">
         <f t="shared" si="101"/>
         <v>75000</v>
@@ -20994,11 +20994,11 @@
         <v>80000</v>
       </c>
       <c r="G99" s="53">
-        <f t="shared" ref="G98:G99" si="120">F99*E99</f>
+        <f t="shared" ref="G99" si="120">F99*E99</f>
         <v>0</v>
       </c>
       <c r="H99" s="44" t="str">
-        <f t="shared" ref="H98:H99" si="121">IF(E99=I99,"Out of Stock",I99-E99&amp;" qty Left")</f>
+        <f t="shared" ref="H99" si="121">IF(E99=I99,"Out of Stock",I99-E99&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I99" s="52">
@@ -21009,15 +21009,15 @@
       </c>
       <c r="K99" s="52"/>
       <c r="L99" s="52">
-        <f t="shared" ref="L98:L99" si="122">(K99/I99)+J99</f>
+        <f t="shared" ref="L99" si="122">(K99/I99)+J99</f>
         <v>75000</v>
       </c>
       <c r="M99" s="52">
-        <f t="shared" ref="M98:M99" si="123">(J99*I99)+K99</f>
+        <f t="shared" ref="M99" si="123">(J99*I99)+K99</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="100" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="84">
         <f t="shared" si="101"/>
         <v>85000</v>
@@ -21061,7 +21061,7 @@
         <v>85000</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="101" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="84">
         <f t="shared" si="101"/>
         <v>160000</v>
@@ -21105,7 +21105,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="102" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="84">
         <f t="shared" si="101"/>
         <v>36000</v>
@@ -21149,7 +21149,7 @@
         <v>36000</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="103" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="84">
         <f t="shared" si="101"/>
         <v>540000</v>
@@ -21194,7 +21194,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="104" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="84">
         <f t="shared" si="101"/>
         <v>550000</v>
@@ -21240,7 +21240,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="105" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="84">
         <f t="shared" si="101"/>
         <v>42500</v>
@@ -21286,7 +21286,7 @@
         <v>42500</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="106" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="84">
         <f t="shared" si="101"/>
         <v>40800</v>
@@ -21332,7 +21332,7 @@
         <v>40800</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="107" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="84">
         <f t="shared" si="101"/>
         <v>136000</v>
@@ -21378,7 +21378,7 @@
         <v>136000</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="108" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="84">
         <f t="shared" si="101"/>
         <v>119000</v>
@@ -21424,7 +21424,7 @@
         <v>119000</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="109" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="84">
         <f t="shared" si="101"/>
         <v>153000</v>
@@ -21470,7 +21470,7 @@
         <v>153000</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="110" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="84">
         <f t="shared" si="101"/>
         <v>195500</v>
@@ -21516,7 +21516,7 @@
         <v>195500</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="111" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="84">
         <f t="shared" si="101"/>
         <v>86500</v>
@@ -21562,7 +21562,7 @@
         <v>86500</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="112" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="84">
         <f t="shared" si="101"/>
         <v>95000</v>
@@ -21608,7 +21608,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="113" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="84">
         <f t="shared" si="101"/>
         <v>105000</v>
@@ -21654,7 +21654,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="114" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="84">
         <f t="shared" si="101"/>
         <v>168000</v>
@@ -21700,10 +21700,10 @@
         <v>336000</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="115" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="84">
         <f t="shared" si="101"/>
-        <v>830000</v>
+        <v>1000000</v>
       </c>
       <c r="B115" s="72" t="s">
         <v>407</v>
@@ -21732,21 +21732,21 @@
         <v>1</v>
       </c>
       <c r="J115" s="52">
-        <v>830000</v>
+        <v>1000000</v>
       </c>
       <c r="K115" s="52">
         <v>0</v>
       </c>
       <c r="L115" s="52">
         <f t="shared" ref="L115" si="164">(K115/I115)+J115</f>
-        <v>830000</v>
+        <v>1000000</v>
       </c>
       <c r="M115" s="52">
         <f t="shared" ref="M115" si="165">(J115*I115)+K115</f>
-        <v>830000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="20.100000000000001" customHeight="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="84">
         <f t="shared" si="101"/>
         <v>600000</v>
@@ -21792,7 +21792,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="117" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="72"/>
       <c r="C117" s="53"/>
       <c r="D117" s="53"/>
@@ -21805,7 +21805,7 @@
       <c r="L117" s="52"/>
       <c r="M117" s="52"/>
     </row>
-    <row r="118" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="118" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="72"/>
       <c r="C118" s="53"/>
       <c r="D118" s="53"/>
@@ -21818,7 +21818,7 @@
       <c r="L118" s="52"/>
       <c r="M118" s="52"/>
     </row>
-    <row r="119" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="119" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="72"/>
       <c r="C119" s="53"/>
       <c r="D119" s="53"/>
@@ -21831,7 +21831,7 @@
       <c r="L119" s="52"/>
       <c r="M119" s="52"/>
     </row>
-    <row r="120" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="120" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="72"/>
       <c r="C120" s="53"/>
       <c r="D120" s="53"/>
@@ -21844,7 +21844,7 @@
       <c r="L120" s="52"/>
       <c r="M120" s="52"/>
     </row>
-    <row r="121" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="121" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B121" s="72"/>
       <c r="C121" s="53"/>
       <c r="D121" s="53"/>
@@ -21857,7 +21857,7 @@
       <c r="L121" s="52"/>
       <c r="M121" s="52"/>
     </row>
-    <row r="122" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="122" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B122" s="72"/>
       <c r="C122" s="53"/>
       <c r="D122" s="53"/>
@@ -21870,7 +21870,7 @@
       <c r="L122" s="52"/>
       <c r="M122" s="52"/>
     </row>
-    <row r="123" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="123" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B123" s="72"/>
       <c r="C123" s="53"/>
       <c r="D123" s="53"/>
@@ -21883,7 +21883,7 @@
       <c r="L123" s="52"/>
       <c r="M123" s="52"/>
     </row>
-    <row r="124" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="124" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B124" s="72"/>
       <c r="C124" s="53"/>
       <c r="D124" s="53"/>
@@ -21896,7 +21896,7 @@
       <c r="L124" s="52"/>
       <c r="M124" s="52"/>
     </row>
-    <row r="125" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="125" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B125" s="72"/>
       <c r="C125" s="53"/>
       <c r="D125" s="53"/>
@@ -21909,7 +21909,7 @@
       <c r="L125" s="52"/>
       <c r="M125" s="52"/>
     </row>
-    <row r="126" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="126" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B126" s="72"/>
       <c r="C126" s="53"/>
       <c r="D126" s="53"/>
@@ -21922,7 +21922,7 @@
       <c r="L126" s="52"/>
       <c r="M126" s="52"/>
     </row>
-    <row r="127" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="127" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B127" s="72"/>
       <c r="C127" s="53"/>
       <c r="D127" s="53"/>
@@ -21935,7 +21935,7 @@
       <c r="L127" s="52"/>
       <c r="M127" s="52"/>
     </row>
-    <row r="128" spans="1:13" ht="20.100000000000001" customHeight="1">
+    <row r="128" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B128" s="72"/>
       <c r="C128" s="53"/>
       <c r="D128" s="53"/>
@@ -23101,22 +23101,22 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H115">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H116">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23136,14 +23136,14 @@
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="19.95" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="88"/>
-    <col min="3" max="3" width="8.88671875" style="89"/>
+    <col min="2" max="2" width="8.85546875" style="88"/>
+    <col min="3" max="3" width="8.85546875" style="89"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="90" t="s">
         <v>410</v>
       </c>
@@ -23151,7 +23151,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>412</v>
       </c>
@@ -23162,7 +23162,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>58</v>
       </c>
@@ -23173,7 +23173,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>415</v>
       </c>
@@ -23184,7 +23184,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="5" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>416</v>
       </c>
@@ -23195,7 +23195,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>415</v>
       </c>
@@ -23206,7 +23206,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>421</v>
       </c>
@@ -23215,11 +23215,11 @@
         <v>426</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="91"/>
       <c r="C8" s="91"/>
     </row>
-    <row r="9" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="9" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -23232,47 +23232,47 @@
         <v>1005000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="10" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="91"/>
       <c r="C10" s="91"/>
     </row>
-    <row r="11" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="11" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="91"/>
       <c r="C11" s="91"/>
     </row>
-    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="12" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="91"/>
       <c r="C12" s="91"/>
     </row>
-    <row r="13" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="13" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="91"/>
       <c r="C13" s="91"/>
     </row>
-    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="14" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="91"/>
       <c r="C14" s="91"/>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="15" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="91"/>
       <c r="C15" s="91"/>
     </row>
-    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="16" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="91"/>
       <c r="C16" s="91"/>
     </row>
-    <row r="17" spans="2:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="17" spans="2:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="91"/>
       <c r="C17" s="91"/>
     </row>
-    <row r="18" spans="2:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="18" spans="2:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="91"/>
       <c r="C18" s="91"/>
     </row>
-    <row r="19" spans="2:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="19" spans="2:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="91"/>
       <c r="C19" s="92"/>
     </row>
-    <row r="20" spans="2:3" s="4" customFormat="1" ht="19.95" customHeight="1">
+    <row r="20" spans="2:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="91"/>
       <c r="C20" s="92"/>
     </row>
@@ -23292,13 +23292,13 @@
       <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
@@ -23326,7 +23326,7 @@
         <v>476000</v>
       </c>
     </row>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="75">
         <v>44959</v>
       </c>
@@ -23348,7 +23348,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="75">
         <v>44959</v>
       </c>
@@ -23369,7 +23369,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="75">
         <v>44959</v>
       </c>
@@ -23390,7 +23390,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="75">
         <v>44959</v>
       </c>
@@ -23411,7 +23411,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="75">
         <v>44959</v>
       </c>
@@ -23432,7 +23432,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="75">
         <v>44959</v>
       </c>
@@ -23453,7 +23453,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="75">
         <v>44959</v>
       </c>
@@ -23474,7 +23474,7 @@
         <v>44000</v>
       </c>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="75">
         <v>44960</v>
       </c>
@@ -23495,7 +23495,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="75">
         <v>44960</v>
       </c>
@@ -23516,7 +23516,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="75">
         <v>44960</v>
       </c>
@@ -23537,7 +23537,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="75">
         <v>44960</v>
       </c>
@@ -23558,7 +23558,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="75">
         <v>44960</v>
       </c>
@@ -23579,7 +23579,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="75">
         <v>44960</v>
       </c>
@@ -23600,7 +23600,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="75">
         <v>44960</v>
       </c>
@@ -23621,7 +23621,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="75">
         <v>44960</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="75">
         <v>44961</v>
       </c>
@@ -23663,7 +23663,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="75">
         <v>44962</v>
       </c>
@@ -23677,7 +23677,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="75">
         <v>44963</v>
       </c>
@@ -23689,7 +23689,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="75">
         <v>44964</v>
       </c>
@@ -23701,7 +23701,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="75"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -23709,7 +23709,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="75"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -23717,7 +23717,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="2:7">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" s="75"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -23725,7 +23725,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="2:7">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" s="75"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -23733,7 +23733,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="2:7">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="75"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -23741,7 +23741,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="2:7">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="75"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -23749,7 +23749,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="2:7">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="75"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -23757,7 +23757,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="2:7">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="75"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -23765,7 +23765,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="75"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -23773,7 +23773,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="2:7">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="75"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -23781,7 +23781,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="2:7">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="75"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -23789,7 +23789,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="2:7">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="75"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -23797,7 +23797,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="75"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -23805,7 +23805,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="75"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -23813,7 +23813,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="75"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -23821,7 +23821,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="75"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -23829,7 +23829,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="75"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -23837,7 +23837,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="75"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -23845,7 +23845,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="75"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -23853,7 +23853,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="75"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -23861,7 +23861,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="75"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -23869,7 +23869,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="75"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -23877,7 +23877,7 @@
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="75"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -23885,7 +23885,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="75"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -23893,7 +23893,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="75"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -23901,7 +23901,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="75"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -23909,7 +23909,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="75"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -23917,7 +23917,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="75"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -23925,7 +23925,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="75"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -23933,7 +23933,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="75"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -23941,7 +23941,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="75"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -23949,7 +23949,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="75"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -23957,7 +23957,7 @@
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="75"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -23965,7 +23965,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="75"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -23973,7 +23973,7 @@
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="75"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -23981,7 +23981,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="75"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -23989,7 +23989,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="75"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -23997,7 +23997,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="75"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -24005,7 +24005,7 @@
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="75"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -24013,7 +24013,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="75"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -24021,7 +24021,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="75"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -24029,7 +24029,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="75"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -24037,7 +24037,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="75"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -24045,7 +24045,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="75"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -24053,7 +24053,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="75"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -24061,7 +24061,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="75"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -24069,7 +24069,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="75"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -24077,7 +24077,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="75"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -24085,7 +24085,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="75"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -24093,7 +24093,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="75"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -24101,7 +24101,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="75"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -24109,7 +24109,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="75"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -24117,7 +24117,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="75"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -24125,7 +24125,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="75"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -24133,7 +24133,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="75"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -24141,7 +24141,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="75"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -24149,7 +24149,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="75"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -24157,7 +24157,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="75"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -24165,7 +24165,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="75"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -24173,7 +24173,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="75"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -24181,7 +24181,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="75"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -24189,7 +24189,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="75"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -24197,7 +24197,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="75"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -24205,7 +24205,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="75"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>

--- a/aks sell 2 Rows.xlsx
+++ b/aks sell 2 Rows.xlsx
@@ -16974,7 +16974,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
+      <selection pane="bottomLeft" activeCell="J115" sqref="J115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17046,11 +17046,11 @@
       </c>
       <c r="Q1" s="20">
         <f>SUM(A2:A124)</f>
-        <v>16392020</v>
+        <v>16492020</v>
       </c>
       <c r="R1" s="77">
         <f>Q20</f>
-        <v>-1324039.2199999988</v>
+        <v>-1424039.2199999988</v>
       </c>
       <c r="S1" s="77"/>
     </row>
@@ -17860,7 +17860,7 @@
       </c>
       <c r="Q16" s="17">
         <f>Q1+SUM(Q2:Q14)+Q15</f>
-        <v>24824039.219999999</v>
+        <v>24924039.219999999</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="Q20" s="17">
         <f>Q18-Q16</f>
-        <v>-1324039.2199999988</v>
+        <v>-1424039.2199999988</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -21703,7 +21703,7 @@
     <row r="115" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="84">
         <f t="shared" si="101"/>
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="B115" s="72" t="s">
         <v>407</v>
@@ -21732,18 +21732,18 @@
         <v>1</v>
       </c>
       <c r="J115" s="52">
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="K115" s="52">
         <v>0</v>
       </c>
       <c r="L115" s="52">
         <f t="shared" ref="L115" si="164">(K115/I115)+J115</f>
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
       <c r="M115" s="52">
         <f t="shared" ref="M115" si="165">(J115*I115)+K115</f>
-        <v>1000000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">

--- a/aks sell 2 Rows.xlsx
+++ b/aks sell 2 Rows.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="416">
   <si>
     <t>SSD 128</t>
   </si>
@@ -1453,9 +1453,6 @@
     <t>UPS</t>
   </si>
   <si>
-    <t>Chopotic ups</t>
-  </si>
-  <si>
     <t>Armaggedon PSU</t>
   </si>
   <si>
@@ -1582,9 +1579,6 @@
     <t>iPhone 5s</t>
   </si>
   <si>
-    <t>ptz</t>
-  </si>
-  <si>
     <t>Laptop</t>
   </si>
   <si>
@@ -1643,6 +1637,24 @@
   </si>
   <si>
     <t>+60000</t>
+  </si>
+  <si>
+    <t>mtk kpay</t>
+  </si>
+  <si>
+    <t>ryzen 3500</t>
+  </si>
+  <si>
+    <t>xpg d60</t>
+  </si>
+  <si>
+    <t>i5 7400</t>
+  </si>
+  <si>
+    <t>lovescandi</t>
+  </si>
+  <si>
+    <t>asus 950</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2027,63 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="392">
+  <dxfs count="400">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5029,15 +5097,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
   <autoFilter ref="B1:G128"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="5"/>
-    <tableColumn id="2" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" name="Remark" dataDxfId="3"/>
-    <tableColumn id="4" name="Qty" dataDxfId="2"/>
-    <tableColumn id="5" name="Price" dataDxfId="1"/>
-    <tableColumn id="6" name="Amount" dataDxfId="0"/>
+    <tableColumn id="1" name="Category" dataDxfId="13"/>
+    <tableColumn id="2" name="Description" dataDxfId="12"/>
+    <tableColumn id="3" name="Remark" dataDxfId="11"/>
+    <tableColumn id="4" name="Qty" dataDxfId="10"/>
+    <tableColumn id="5" name="Price" dataDxfId="9"/>
+    <tableColumn id="6" name="Amount" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12988,1042 +13056,1042 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I74 I136:I1048576 I1:I32">
-    <cfRule type="cellIs" dxfId="391" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="295" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="390" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="293" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="389" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="292" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="388" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="291" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="387" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="386" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="289" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="385" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="288" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="384" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="287" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="383" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="286" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="382" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="285" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="cellIs" dxfId="381" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="284" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="380" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="283" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="379" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="282" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="378" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="281" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="377" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="280" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="376" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="279" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="375" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="278" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="374" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="276" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="373" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="274" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="372" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="273" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="371" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="272" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="370" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="271" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="369" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="270" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="368" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="269" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="367" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="267" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="366" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="265" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="365" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="264" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="364" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="363" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="362" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="361" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="360" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="259" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="cellIs" dxfId="359" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="258" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="358" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="257" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="cellIs" dxfId="357" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="356" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="355" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="253" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="354" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="252" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="353" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="251" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="352" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="250" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="cellIs" dxfId="351" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="249" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="350" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="247" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="349" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="246" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="348" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="245" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="347" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="240" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="346" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="239" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="345" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="238" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="344" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="237" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="343" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="236" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="342" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="235" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="341" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="234" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="340" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="233" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="339" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="232" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="338" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="231" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="337" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="230" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="336" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="229" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="335" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="228" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="334" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="227" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="333" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="224" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="332" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="223" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="331" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="222" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="330" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="221" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="329" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="212" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="328" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="211" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="327" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="210" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="326" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="209" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="325" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="208" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="324" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="323" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="322" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="205" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="321" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="204" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="320" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="203" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="319" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="202" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="318" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="201" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="317" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="200" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="316" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="315" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="314" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="197" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="313" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="192" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="312" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="191" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="311" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="190" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="310" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="189" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="309" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="188" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="308" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="187" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="307" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="186" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="306" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="185" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="305" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="184" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="304" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="183" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="303" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="180" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="302" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="179" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="301" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="178" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="300" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="177" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="299" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="176" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="298" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="175" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="297" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="174" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="296" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="173" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="295" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="168" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="294" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="167" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="293" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="162" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="292" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="161" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="291" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="160" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="290" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="159" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="289" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="158" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="288" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="287" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="286" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="155" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="285" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="154" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="284" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="283" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="146" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="282" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="145" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="281" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="144" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="280" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="143" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="279" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="142" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="278" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="141" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="277" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="140" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="276" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="139" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="275" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="138" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="274" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="137" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="273" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="136" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="272" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="135" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="271" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="126" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="270" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="125" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="269" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="124" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="268" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="123" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="267" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="122" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="266" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="121" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="265" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="120" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="264" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="119" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="263" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="118" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="262" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="117" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="261" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="260" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="111" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="259" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="258" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="257" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="256" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="255" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="104" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="254" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="103" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="253" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="252" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="251" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="100" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="250" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="99" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="249" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="96" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="248" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="95" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="247" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="94" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="246" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="93" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="245" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="92" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="244" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="91" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="243" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="90" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="242" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="89" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="241" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="88" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="240" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="87" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="239" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="238" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="237" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="236" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="235" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="234" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="233" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="232" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="77" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="231" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="230" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="229" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="228" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="227" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="226" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="225" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="224" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="223" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="222" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="221" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="220" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="219" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="218" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="217" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="216" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="215" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="214" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="213" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="212" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="211" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="210" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="209" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="208" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="207" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="24" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="206" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="23" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="205" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="22" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="204" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="21" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="203" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="20" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="202" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="19" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="201" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="18" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="200" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="17" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="199" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="198" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="197" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="196" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="13" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="195" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="194" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="193" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="192" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="191" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="190" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="189" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="188" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="187" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="186" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="185" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="184" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16484,8 +16552,8 @@
   <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S18" sqref="S18"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O99" sqref="O99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16493,7 +16561,7 @@
     <col min="1" max="1" width="12.5703125" style="84" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="71" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" style="51" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="51" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9.28515625" style="51" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.7109375" style="51" customWidth="1"/>
     <col min="9" max="9" width="4.140625" style="51" bestFit="1" customWidth="1"/>
@@ -16546,22 +16614,22 @@
         <v>38</v>
       </c>
       <c r="N1" s="55">
-        <v>1600</v>
+        <v>2555</v>
       </c>
       <c r="O1" s="51">
         <f>N1*85</f>
-        <v>136000</v>
+        <v>217175</v>
       </c>
       <c r="P1" s="52" t="s">
         <v>48</v>
       </c>
       <c r="Q1" s="20">
         <f>SUM(A2:A124)</f>
-        <v>15008310</v>
+        <v>15763760</v>
       </c>
       <c r="R1" s="77">
         <f>Q20</f>
-        <v>-471329.21999999881</v>
+        <v>-794779.21999999881</v>
       </c>
       <c r="S1" s="77"/>
     </row>
@@ -16613,7 +16681,7 @@
         <v>58</v>
       </c>
       <c r="Q2" s="1">
-        <v>4100000</v>
+        <v>4300000</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16766,7 +16834,7 @@
         <v>60</v>
       </c>
       <c r="Q5" s="1">
-        <v>1774000</v>
+        <v>992000</v>
       </c>
       <c r="R5" s="85">
         <v>86.6</v>
@@ -17113,7 +17181,7 @@
       </c>
       <c r="S11" s="51">
         <f>S12/20</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17158,20 +17226,22 @@
       </c>
       <c r="N12" s="81"/>
       <c r="P12" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q12" s="67"/>
+        <v>410</v>
+      </c>
+      <c r="Q12" s="67">
+        <v>50000</v>
+      </c>
       <c r="R12" s="56"/>
       <c r="S12" s="56">
         <f>(Q12-R12)</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="T12" s="51">
         <v>157.33000000000001</v>
       </c>
       <c r="U12" s="51">
         <f>S12/T12</f>
-        <v>0</v>
+        <v>317.80334329117142</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17217,9 +17287,7 @@
         <f>(J13*I13)+K13</f>
         <v>20000</v>
       </c>
-      <c r="P13" s="62" t="s">
-        <v>327</v>
-      </c>
+      <c r="P13" s="62"/>
       <c r="Q13" s="62"/>
       <c r="S13" s="51">
         <f>S14/1779</f>
@@ -17238,7 +17306,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="53">
@@ -17274,9 +17342,7 @@
       </c>
       <c r="N14" s="55"/>
       <c r="O14" s="55"/>
-      <c r="P14" s="63" t="s">
-        <v>174</v>
-      </c>
+      <c r="P14" s="63"/>
       <c r="Q14" s="56"/>
       <c r="R14" s="56">
         <v>0</v>
@@ -17333,9 +17399,7 @@
         <v>325000</v>
       </c>
       <c r="N15" s="55"/>
-      <c r="P15" s="52" t="s">
-        <v>391</v>
-      </c>
+      <c r="P15" s="52"/>
       <c r="Q15" s="17"/>
       <c r="S15" s="51">
         <f>S14/3</f>
@@ -17391,7 +17455,7 @@
       </c>
       <c r="Q16" s="17">
         <f>Q1+SUM(Q2:Q14)+Q15</f>
-        <v>23971329.219999999</v>
+        <v>24194779.219999999</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17499,8 +17563,8 @@
         <v>13</v>
       </c>
       <c r="Q18" s="17">
-        <f>23000000+500000</f>
-        <v>23500000</v>
+        <f>23000000+400000</f>
+        <v>23400000</v>
       </c>
       <c r="T18" s="51" t="s">
         <v>204</v>
@@ -17608,7 +17672,7 @@
       </c>
       <c r="Q20" s="17">
         <f>Q18-Q16</f>
-        <v>-471329.21999999881</v>
+        <v>-794779.21999999881</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18364,10 +18428,10 @@
         <v>223</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E36" s="74">
         <v>0</v>
@@ -18498,48 +18562,18 @@
       <c r="Q38" s="78"/>
     </row>
     <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="84">
-        <f t="shared" si="20"/>
-        <v>21050</v>
-      </c>
-      <c r="B39" s="76" t="s">
-        <v>347</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>348</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="E39" s="74">
-        <v>0</v>
-      </c>
-      <c r="F39" s="74">
-        <v>220000</v>
-      </c>
-      <c r="G39" s="53">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H39" s="44" t="str">
-        <f t="shared" si="30"/>
-        <v>1 qty Left</v>
-      </c>
-      <c r="I39" s="52">
-        <v>1</v>
-      </c>
-      <c r="J39" s="52">
-        <v>21050</v>
-      </c>
+      <c r="B39" s="76"/>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="53"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
       <c r="K39" s="52"/>
-      <c r="L39" s="52">
-        <f t="shared" si="31"/>
-        <v>21050</v>
-      </c>
-      <c r="M39" s="52">
-        <f t="shared" si="32"/>
-        <v>21050</v>
-      </c>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
       <c r="O39" s="66"/>
       <c r="P39" s="44"/>
       <c r="Q39" s="78"/>
@@ -18547,7 +18581,7 @@
     <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="84">
         <f t="shared" si="20"/>
-        <v>252000</v>
+        <v>231000</v>
       </c>
       <c r="B40" s="76" t="s">
         <v>347</v>
@@ -18556,21 +18590,21 @@
         <v>234</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E40" s="74">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F40" s="74">
         <v>220000</v>
       </c>
       <c r="G40" s="53">
         <f t="shared" si="36"/>
-        <v>1760000</v>
+        <v>1980000</v>
       </c>
       <c r="H40" s="44" t="str">
         <f t="shared" si="30"/>
-        <v>12 qty Left</v>
+        <v>11 qty Left</v>
       </c>
       <c r="I40" s="52">
         <v>20</v>
@@ -18600,7 +18634,7 @@
         <v>220</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D41" s="52" t="s">
         <v>335</v>
@@ -18646,7 +18680,7 @@
         <v>221</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D42" s="52" t="s">
         <v>335</v>
@@ -18691,7 +18725,7 @@
         <v>220</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D43" s="52" t="s">
         <v>335</v>
@@ -18736,7 +18770,7 @@
         <v>23</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>335</v>
@@ -18781,10 +18815,10 @@
         <v>23</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E45" s="74">
         <v>0</v>
@@ -18826,7 +18860,7 @@
         <v>23</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D46" s="52" t="s">
         <v>335</v>
@@ -18871,7 +18905,7 @@
         <v>23</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D47" s="52" t="s">
         <v>335</v>
@@ -18916,10 +18950,10 @@
         <v>221</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E48" s="74">
         <v>0</v>
@@ -18961,10 +18995,10 @@
         <v>221</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E49" s="74">
         <v>0</v>
@@ -19006,10 +19040,10 @@
         <v>221</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E50" s="74">
         <v>0</v>
@@ -19051,7 +19085,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D51" s="52" t="s">
         <v>322</v>
@@ -19096,7 +19130,7 @@
         <v>223</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D52" s="52" t="s">
         <v>335</v>
@@ -19149,7 +19183,7 @@
     </row>
     <row r="54" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="84">
-        <f t="shared" ref="A54:A81" si="49">IF($E54=0,$M54,IF($E54=$I54,IF($M54-$G54&lt;0,0,IF($D54="set",$M54-$G54,FALSE)),($I54-$E54)*$J54))</f>
+        <f t="shared" ref="A54:A85" si="49">IF($E54=0,$M54,IF($E54=$I54,IF($M54-$G54&lt;0,0,IF($D54="set",$M54-$G54,FALSE)),($I54-$E54)*$J54))</f>
         <v>300000</v>
       </c>
       <c r="B54" s="76" t="s">
@@ -19291,7 +19325,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D57" s="52" t="s">
         <v>335</v>
@@ -19336,7 +19370,7 @@
         <v>21</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D58" s="52" t="s">
         <v>335</v>
@@ -19424,7 +19458,7 @@
         <v>280</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D60" s="52" t="s">
         <v>335</v>
@@ -19468,7 +19502,7 @@
         <v>21</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D61" s="52" t="s">
         <v>335</v>
@@ -19513,10 +19547,10 @@
         <v>21</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E62" s="74">
         <v>0</v>
@@ -19557,7 +19591,7 @@
         <v>223</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D63" s="53" t="s">
         <v>341</v>
@@ -19601,7 +19635,7 @@
         <v>21</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D64" s="53" t="s">
         <v>324</v>
@@ -19645,7 +19679,7 @@
         <v>347</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D65" s="53" t="s">
         <v>324</v>
@@ -19689,7 +19723,7 @@
         <v>222</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D66" s="53" t="s">
         <v>324</v>
@@ -19733,10 +19767,10 @@
         <v>21</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E67" s="74">
         <v>0</v>
@@ -19777,10 +19811,10 @@
         <v>221</v>
       </c>
       <c r="C68" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="D68" s="52" t="s">
         <v>378</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>379</v>
       </c>
       <c r="E68" s="74">
         <v>0</v>
@@ -19868,7 +19902,7 @@
         <v>21</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D70" s="53" t="s">
         <v>335</v>
@@ -19914,7 +19948,7 @@
         <v>21</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D71" s="53" t="s">
         <v>335</v>
@@ -19960,7 +19994,7 @@
         <v>23</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D72" s="53" t="s">
         <v>335</v>
@@ -20006,7 +20040,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D73" s="53" t="s">
         <v>335</v>
@@ -20052,7 +20086,7 @@
         <v>23</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D74" s="53" t="s">
         <v>335</v>
@@ -20098,7 +20132,7 @@
         <v>23</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D75" s="53" t="s">
         <v>335</v>
@@ -20144,7 +20178,7 @@
         <v>23</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D76" s="53" t="s">
         <v>335</v>
@@ -20190,7 +20224,7 @@
         <v>23</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D77" s="53" t="s">
         <v>323</v>
@@ -20236,7 +20270,7 @@
         <v>221</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D78" s="53" t="s">
         <v>324</v>
@@ -20279,10 +20313,10 @@
         <v>168000</v>
       </c>
       <c r="B79" s="72" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D79" s="53" t="s">
         <v>324</v>
@@ -20325,10 +20359,10 @@
         <v>1000000</v>
       </c>
       <c r="B80" s="72" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D80" s="53" t="s">
         <v>324</v>
@@ -20374,7 +20408,7 @@
         <v>23</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D81" s="53" t="s">
         <v>334</v>
@@ -20411,19 +20445,189 @@
         <v>300000</v>
       </c>
     </row>
+    <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="84">
+        <f t="shared" si="49"/>
+        <v>200000</v>
+      </c>
+      <c r="B82" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C82" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="D82" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="E82" s="74">
+        <v>0</v>
+      </c>
+      <c r="F82" s="74">
+        <v>220000</v>
+      </c>
+      <c r="G82" s="53">
+        <f t="shared" ref="G82:G83" si="126">F82*E82</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="44" t="str">
+        <f t="shared" ref="H82:H83" si="127">IF(E82=I82,"Out of Stock",I82-E82&amp;" qty Left")</f>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I82" s="52">
+        <v>1</v>
+      </c>
+      <c r="J82" s="52">
+        <v>200000</v>
+      </c>
+      <c r="K82" s="52">
+        <v>0</v>
+      </c>
+      <c r="L82" s="52">
+        <f t="shared" ref="L82:L83" si="128">(K82/I82)+J82</f>
+        <v>200000</v>
+      </c>
+      <c r="M82" s="52">
+        <f t="shared" ref="M82:M83" si="129">(J82*I82)+K82</f>
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="84">
+        <f t="shared" si="49"/>
+        <v>140000</v>
+      </c>
+      <c r="B83" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="53" t="s">
+        <v>412</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="E83" s="74">
+        <v>0</v>
+      </c>
+      <c r="F83" s="74">
+        <v>220000</v>
+      </c>
+      <c r="G83" s="53">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="44" t="str">
+        <f t="shared" si="127"/>
+        <v>2 qty Left</v>
+      </c>
+      <c r="I83" s="52">
+        <v>2</v>
+      </c>
+      <c r="J83" s="52">
+        <v>70000</v>
+      </c>
+      <c r="K83" s="52">
+        <v>0</v>
+      </c>
+      <c r="L83" s="52">
+        <f t="shared" si="128"/>
+        <v>70000</v>
+      </c>
+      <c r="M83" s="52">
+        <f t="shared" si="129"/>
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="84">
+        <f t="shared" si="49"/>
+        <v>330000</v>
+      </c>
+      <c r="B84" s="72" t="s">
+        <v>223</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="D84" s="51" t="s">
+        <v>414</v>
+      </c>
+      <c r="E84" s="74">
+        <v>0</v>
+      </c>
+      <c r="F84" s="74">
+        <v>220000</v>
+      </c>
+      <c r="G84" s="53">
+        <f t="shared" ref="G84:G85" si="130">F84*E84</f>
+        <v>0</v>
+      </c>
+      <c r="H84" s="44" t="str">
+        <f t="shared" ref="H84:H85" si="131">IF(E84=I84,"Out of Stock",I84-E84&amp;" qty Left")</f>
+        <v>3 qty Left</v>
+      </c>
+      <c r="I84" s="52">
+        <v>3</v>
+      </c>
+      <c r="J84" s="52">
+        <v>110000</v>
+      </c>
+      <c r="K84" s="52">
+        <v>0</v>
+      </c>
+      <c r="L84" s="52">
+        <f t="shared" ref="L84:L85" si="132">(K84/I84)+J84</f>
+        <v>110000</v>
+      </c>
+      <c r="M84" s="52">
+        <f t="shared" ref="M84:M85" si="133">(J84*I84)+K84</f>
+        <v>330000</v>
+      </c>
+    </row>
     <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="76"/>
-      <c r="C85" s="52"/>
-      <c r="D85" s="52"/>
-      <c r="E85" s="74"/>
-      <c r="F85" s="74"/>
-      <c r="G85" s="53"/>
-      <c r="H85" s="44"/>
-      <c r="I85" s="52"/>
-      <c r="J85" s="52"/>
-      <c r="K85" s="52"/>
-      <c r="L85" s="52"/>
-      <c r="M85" s="52"/>
+      <c r="A85" s="84">
+        <f t="shared" si="49"/>
+        <v>127500</v>
+      </c>
+      <c r="B85" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="D85" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="E85" s="74">
+        <v>0</v>
+      </c>
+      <c r="F85" s="74">
+        <v>220000</v>
+      </c>
+      <c r="G85" s="53">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="44" t="str">
+        <f t="shared" si="131"/>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I85" s="52">
+        <v>1</v>
+      </c>
+      <c r="J85" s="52">
+        <v>127500</v>
+      </c>
+      <c r="K85" s="52">
+        <v>0</v>
+      </c>
+      <c r="L85" s="52">
+        <f t="shared" si="132"/>
+        <v>127500</v>
+      </c>
+      <c r="M85" s="52">
+        <f t="shared" si="133"/>
+        <v>127500</v>
+      </c>
     </row>
     <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="76"/>
@@ -20625,860 +20829,890 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="183" priority="705" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="713" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="182" priority="667" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="675" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="181" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="680" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="180" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="689" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="179" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="694" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="178" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="660" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="177" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="649" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="176" priority="638" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="646" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="175" priority="631" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="639" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="174" priority="627" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="635" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="173" priority="632" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="640" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="172" priority="628" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="636" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="171" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="590" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="170" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="589" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="169" priority="562" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="570" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="168" priority="561" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="569" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="167" priority="488" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="496" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="166" priority="487" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="495" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="165" priority="402" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="410" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="164" priority="401" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="409" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="163" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="343" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="162" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="344" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="161" priority="337" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="345" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="160" priority="334" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="342" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="159" priority="332" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="340" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="158" priority="338" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="346" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="157" priority="333" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="341" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="156" priority="331" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="339" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="155" priority="322" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="330" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="154" priority="321" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="329" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="153" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="289" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="152" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="288" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="151" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="250" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="150" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="149" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="287" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="148" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="251" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="147" priority="275" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="283" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="146" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="282" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="145" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="243" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="144" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="242" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="143" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="279" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="142" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="278" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="141" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="277" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="140" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="276" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="139" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="249" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="138" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="248" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="137" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="245" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="136" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="244" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="135" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="241" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="134" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="240" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="133" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="225" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="132" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="224" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="131" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="223" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="130" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="222" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="129" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="203" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="128" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="202" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="127" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="201" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="126" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="200" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="125" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="187" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="124" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="186" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="123" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="193" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="122" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="192" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="121" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="183" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="120" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="182" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="119" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="179" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="118" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="178" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="117" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="185" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="116" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="184" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="115" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="167" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="114" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="166" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="113" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="112" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="111" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="110" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="152" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="109" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="151" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="108" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="150" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="107" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="155" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="106" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="154" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="105" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="147" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="104" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="146" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="103" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="143" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="102" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="142" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="101" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="133" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="100" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="132" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="99" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="131" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="98" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="130" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="97" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="96" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="95" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="94" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="100" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="93" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="109" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="91" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="89" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="104" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="88" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="103" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="87" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="86" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="99" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="85" priority="90"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="duplicateValues" dxfId="84" priority="89"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="duplicateValues" dxfId="83" priority="88"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="96"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="82" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="81" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="92" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="80" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="88" priority="87"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="79" priority="78"/>
+    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="78" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="86" priority="85"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="77" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="75" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="73" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="77" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="78" priority="70" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="77" priority="69" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="75" priority="67" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="74" priority="66" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="73" priority="64" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="72" priority="63" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="71" priority="62" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="70" priority="61" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="69" priority="60" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="68" priority="59" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="67" priority="58" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="66" priority="57" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="65" priority="56" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="64" priority="55" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="62" priority="53" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="61" priority="52" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="59" priority="50" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H96">
+    <cfRule type="cellIs" dxfId="58" priority="49" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H97">
+    <cfRule type="cellIs" dxfId="56" priority="47" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="cellIs" dxfId="55" priority="46" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H98">
+    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="cellIs" dxfId="53" priority="44" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="49" priority="40" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="46" priority="37" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="44" priority="35" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="cellIs" dxfId="41" priority="32" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="cellIs" dxfId="40" priority="31" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="72" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="71" priority="63" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="70" priority="62" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="69" priority="61" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="68" priority="60" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="67" priority="59" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="66" priority="58" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="65" priority="56" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="64" priority="55" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="62" priority="53" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="61" priority="52" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="59" priority="50" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="58" priority="49" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="56" priority="47" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="55" priority="46" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="53" priority="44" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="49" priority="40" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="46" priority="37" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="44" priority="35" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="41" priority="32" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="40" priority="31" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21507,21 +21741,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="90" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -21529,52 +21763,52 @@
         <v>58</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>400</v>
+      </c>
+      <c r="C5" s="91" t="s">
         <v>401</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>402</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B7" s="91"/>
       <c r="C7" s="91" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/aks sell 2 Rows.xlsx
+++ b/aks sell 2 Rows.xlsx
@@ -1429,9 +1429,6 @@
     <t>D50 + D60</t>
   </si>
   <si>
-    <t>GT1030</t>
-  </si>
-  <si>
     <t>ALP</t>
   </si>
   <si>
@@ -1525,9 +1522,6 @@
     <t>1250va</t>
   </si>
   <si>
-    <t>Aorus 9th gen</t>
-  </si>
-  <si>
     <t>trade</t>
   </si>
   <si>
@@ -1642,9 +1636,6 @@
     <t>mtk kpay</t>
   </si>
   <si>
-    <t>ryzen 3500</t>
-  </si>
-  <si>
     <t>xpg d60</t>
   </si>
   <si>
@@ -1655,6 +1646,15 @@
   </si>
   <si>
     <t>asus 950</t>
+  </si>
+  <si>
+    <t>asus strix 1060</t>
+  </si>
+  <si>
+    <t>palit 1050ti single</t>
+  </si>
+  <si>
+    <t>rtx 3060</t>
   </si>
 </sst>
 </file>
@@ -2027,21 +2027,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="400">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="404">
     <dxf>
       <fill>
         <patternFill>
@@ -2341,6 +2327,48 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5097,15 +5125,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
   <autoFilter ref="B1:G128"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="13"/>
-    <tableColumn id="2" name="Description" dataDxfId="12"/>
-    <tableColumn id="3" name="Remark" dataDxfId="11"/>
-    <tableColumn id="4" name="Qty" dataDxfId="10"/>
-    <tableColumn id="5" name="Price" dataDxfId="9"/>
-    <tableColumn id="6" name="Amount" dataDxfId="8"/>
+    <tableColumn id="1" name="Category" dataDxfId="11"/>
+    <tableColumn id="2" name="Description" dataDxfId="10"/>
+    <tableColumn id="3" name="Remark" dataDxfId="9"/>
+    <tableColumn id="4" name="Qty" dataDxfId="8"/>
+    <tableColumn id="5" name="Price" dataDxfId="7"/>
+    <tableColumn id="6" name="Amount" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13056,1042 +13084,1042 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I74 I136:I1048576 I1:I32">
-    <cfRule type="cellIs" dxfId="399" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="295" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="398" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="293" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="397" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="292" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="396" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="291" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="395" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="394" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="289" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="393" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="288" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="392" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="287" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="391" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="286" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="390" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="285" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="cellIs" dxfId="389" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="284" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="388" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="283" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="387" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="282" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="386" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="281" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="385" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="280" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="384" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="279" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="383" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="278" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="382" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="276" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="381" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="274" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="380" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="273" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="379" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="272" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="378" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="271" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="377" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="270" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="376" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="269" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="375" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="267" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="374" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="265" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="373" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="264" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="372" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="371" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="370" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="369" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="368" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="259" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="cellIs" dxfId="367" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="258" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="366" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="257" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="cellIs" dxfId="365" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="364" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="363" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="253" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="362" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="252" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="361" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="251" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="360" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="250" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="cellIs" dxfId="359" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="249" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="358" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="247" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="357" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="246" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="356" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="245" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="355" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="240" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="354" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="239" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="353" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="238" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="352" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="237" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="351" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="236" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="350" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="235" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="349" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="234" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="348" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="233" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="347" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="232" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="346" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="231" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="345" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="230" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="344" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="229" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="343" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="228" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="342" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="227" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="341" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="224" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="340" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="223" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="339" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="222" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="338" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="221" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="337" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="212" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="336" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="211" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="335" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="210" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="334" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="209" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="333" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="208" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="332" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="331" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="330" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="205" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="329" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="204" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="328" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="203" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="327" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="202" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="326" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="201" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="325" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="200" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="324" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="323" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="322" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="197" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="321" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="192" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="320" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="191" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="319" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="190" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="318" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="189" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="317" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="188" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="316" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="187" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="315" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="186" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="314" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="185" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="313" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="184" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="312" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="183" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="311" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="180" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="310" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="179" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="309" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="178" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="308" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="177" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="307" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="176" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="306" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="175" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="305" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="174" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="304" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="173" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="303" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="168" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="302" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="167" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="301" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="162" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="300" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="161" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="299" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="160" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="298" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="159" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="297" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="158" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="296" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="295" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="294" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="155" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="293" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="154" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="292" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="291" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="146" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="290" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="145" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="289" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="144" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="288" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="143" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="287" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="142" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="286" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="141" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="285" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="140" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="284" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="139" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="283" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="138" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="282" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="137" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="281" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="136" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="280" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="135" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="279" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="126" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="278" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="125" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="277" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="124" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="276" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="123" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="275" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="122" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="274" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="121" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="273" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="120" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="272" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="119" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="271" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="118" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="270" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="117" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="269" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="268" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="111" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="267" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="266" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="265" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="264" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="263" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="104" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="262" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="103" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="261" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="260" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="259" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="100" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="258" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="99" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="257" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="96" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="256" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="95" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="255" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="94" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="254" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="93" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="253" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="92" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="252" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="91" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="251" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="90" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="250" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="89" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="249" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="88" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="248" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="87" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="247" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="246" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="245" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="244" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="243" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="242" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="241" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="240" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="77" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="239" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="238" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="237" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="236" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="235" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="234" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="233" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="232" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="231" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="230" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="229" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="228" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="227" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="226" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="225" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="224" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="223" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="222" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="221" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="220" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="219" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="218" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="217" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="216" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="215" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="24" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="214" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="23" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="213" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="22" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="212" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="21" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="211" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="20" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="210" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="19" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="209" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="18" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="208" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="17" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="207" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="206" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="205" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="204" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="13" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="203" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="202" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="201" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="200" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="199" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="198" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="197" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="196" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="195" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="194" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="193" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="192" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16552,8 +16580,8 @@
   <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O99" sqref="O99"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P76" sqref="P76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16625,11 +16653,11 @@
       </c>
       <c r="Q1" s="20">
         <f>SUM(A2:A124)</f>
-        <v>15763760</v>
+        <v>16175260</v>
       </c>
       <c r="R1" s="77">
         <f>Q20</f>
-        <v>-794779.21999999881</v>
+        <v>-416279.21999999881</v>
       </c>
       <c r="S1" s="77"/>
     </row>
@@ -16834,7 +16862,7 @@
         <v>60</v>
       </c>
       <c r="Q5" s="1">
-        <v>992000</v>
+        <v>542000</v>
       </c>
       <c r="R5" s="85">
         <v>86.6</v>
@@ -17014,7 +17042,7 @@
         <v>201</v>
       </c>
       <c r="Q8" s="1">
-        <v>800000</v>
+        <v>460000</v>
       </c>
       <c r="S8" s="57" t="s">
         <v>127</v>
@@ -17226,7 +17254,7 @@
       </c>
       <c r="N12" s="81"/>
       <c r="P12" s="61" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q12" s="67">
         <v>50000</v>
@@ -17306,7 +17334,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="53">
@@ -17455,7 +17483,7 @@
       </c>
       <c r="Q16" s="17">
         <f>Q1+SUM(Q2:Q14)+Q15</f>
-        <v>24194779.219999999</v>
+        <v>23816279.219999999</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17672,7 +17700,7 @@
       </c>
       <c r="Q20" s="17">
         <f>Q18-Q16</f>
-        <v>-794779.21999999881</v>
+        <v>-416279.21999999881</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17738,7 +17766,7 @@
         <v>221</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="74">
@@ -18028,7 +18056,7 @@
     <row r="28" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="84">
         <f t="shared" si="20"/>
-        <v>401600</v>
+        <v>301200</v>
       </c>
       <c r="B28" s="76" t="s">
         <v>19</v>
@@ -18040,18 +18068,18 @@
         <v>331</v>
       </c>
       <c r="E28" s="74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="74">
         <v>65000</v>
       </c>
       <c r="G28" s="53">
         <f t="shared" si="36"/>
-        <v>130000</v>
+        <v>260000</v>
       </c>
       <c r="H28" s="44" t="str">
         <f t="shared" si="30"/>
-        <v>8 qty Left</v>
+        <v>6 qty Left</v>
       </c>
       <c r="I28" s="52">
         <v>10</v>
@@ -18223,48 +18251,18 @@
       <c r="Q31" s="78"/>
     </row>
     <row r="32" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="84">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="B32" s="76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="52" t="s">
-        <v>340</v>
-      </c>
-      <c r="D32" s="52" t="s">
-        <v>334</v>
-      </c>
-      <c r="E32" s="74">
-        <v>1</v>
-      </c>
-      <c r="F32" s="74">
-        <v>85000</v>
-      </c>
-      <c r="G32" s="53">
-        <f t="shared" si="36"/>
-        <v>85000</v>
-      </c>
-      <c r="H32" s="44" t="str">
-        <f t="shared" si="30"/>
-        <v>Out of Stock</v>
-      </c>
-      <c r="I32" s="52">
-        <v>1</v>
-      </c>
-      <c r="J32" s="52">
-        <v>80000</v>
-      </c>
+      <c r="B32" s="76"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="52"/>
-      <c r="L32" s="52">
-        <f t="shared" si="31"/>
-        <v>80000</v>
-      </c>
-      <c r="M32" s="52">
-        <f t="shared" si="32"/>
-        <v>80000</v>
-      </c>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
       <c r="O32" s="66"/>
       <c r="P32" s="44"/>
       <c r="Q32" s="78"/>
@@ -18282,7 +18280,7 @@
         <v>336</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E33" s="74">
         <v>0</v>
@@ -18329,10 +18327,10 @@
         <v>221</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E34" s="74">
         <v>0</v>
@@ -18378,10 +18376,10 @@
         <v>221</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E35" s="74">
         <v>0</v>
@@ -18428,10 +18426,10 @@
         <v>223</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E36" s="74">
         <v>0</v>
@@ -18475,7 +18473,7 @@
         <v>220</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D37" s="52" t="s">
         <v>335</v>
@@ -18523,7 +18521,7 @@
         <v>221</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D38" s="52" t="s">
         <v>322</v>
@@ -18584,13 +18582,13 @@
         <v>231000</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C40" s="52" t="s">
         <v>234</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E40" s="74">
         <v>9</v>
@@ -18634,7 +18632,7 @@
         <v>220</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D41" s="52" t="s">
         <v>335</v>
@@ -18680,7 +18678,7 @@
         <v>221</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D42" s="52" t="s">
         <v>335</v>
@@ -18725,7 +18723,7 @@
         <v>220</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D43" s="52" t="s">
         <v>335</v>
@@ -18770,7 +18768,7 @@
         <v>23</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>335</v>
@@ -18815,10 +18813,10 @@
         <v>23</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E45" s="74">
         <v>0</v>
@@ -18860,7 +18858,7 @@
         <v>23</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D46" s="52" t="s">
         <v>335</v>
@@ -18905,7 +18903,7 @@
         <v>23</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D47" s="52" t="s">
         <v>335</v>
@@ -18950,10 +18948,10 @@
         <v>221</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E48" s="74">
         <v>0</v>
@@ -18995,10 +18993,10 @@
         <v>221</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E49" s="74">
         <v>0</v>
@@ -19040,10 +19038,10 @@
         <v>221</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E50" s="74">
         <v>0</v>
@@ -19085,7 +19083,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D51" s="52" t="s">
         <v>322</v>
@@ -19130,7 +19128,7 @@
         <v>223</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D52" s="52" t="s">
         <v>335</v>
@@ -19183,7 +19181,7 @@
     </row>
     <row r="54" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="84">
-        <f t="shared" ref="A54:A85" si="49">IF($E54=0,$M54,IF($E54=$I54,IF($M54-$G54&lt;0,0,IF($D54="set",$M54-$G54,FALSE)),($I54-$E54)*$J54))</f>
+        <f t="shared" ref="A54:A87" si="49">IF($E54=0,$M54,IF($E54=$I54,IF($M54-$G54&lt;0,0,IF($D54="set",$M54-$G54,FALSE)),($I54-$E54)*$J54))</f>
         <v>300000</v>
       </c>
       <c r="B54" s="76" t="s">
@@ -19325,7 +19323,7 @@
         <v>23</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D57" s="52" t="s">
         <v>335</v>
@@ -19370,7 +19368,7 @@
         <v>21</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D58" s="52" t="s">
         <v>335</v>
@@ -19458,7 +19456,7 @@
         <v>280</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D60" s="52" t="s">
         <v>335</v>
@@ -19502,7 +19500,7 @@
         <v>21</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D61" s="52" t="s">
         <v>335</v>
@@ -19547,10 +19545,10 @@
         <v>21</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E62" s="74">
         <v>0</v>
@@ -19585,16 +19583,16 @@
     <row r="63" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="84">
         <f t="shared" si="49"/>
-        <v>1393600</v>
+        <v>1398600</v>
       </c>
       <c r="B63" s="86" t="s">
         <v>223</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E63" s="74">
         <v>0</v>
@@ -19616,14 +19614,16 @@
       <c r="J63" s="52">
         <v>139360</v>
       </c>
-      <c r="K63" s="52"/>
+      <c r="K63" s="52">
+        <v>5000</v>
+      </c>
       <c r="L63" s="52">
         <f t="shared" ref="L63" si="74">(K63/I63)+J63</f>
-        <v>139360</v>
+        <v>139860</v>
       </c>
       <c r="M63" s="52">
         <f t="shared" ref="M63" si="75">(J63*I63)+K63</f>
-        <v>1393600</v>
+        <v>1398600</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -19635,7 +19635,7 @@
         <v>21</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D64" s="53" t="s">
         <v>324</v>
@@ -19676,10 +19676,10 @@
         <v>85000</v>
       </c>
       <c r="B65" s="76" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D65" s="53" t="s">
         <v>324</v>
@@ -19715,48 +19715,18 @@
       </c>
     </row>
     <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="84">
-        <f t="shared" si="49"/>
-        <v>160000</v>
-      </c>
-      <c r="B66" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C66" s="53" t="s">
-        <v>372</v>
-      </c>
-      <c r="D66" s="53" t="s">
-        <v>324</v>
-      </c>
-      <c r="E66" s="74">
-        <v>0</v>
-      </c>
-      <c r="F66" s="74">
-        <v>80000</v>
-      </c>
-      <c r="G66" s="53">
-        <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="44" t="str">
-        <f t="shared" si="81"/>
-        <v>1 qty Left</v>
-      </c>
-      <c r="I66" s="52">
-        <v>1</v>
-      </c>
-      <c r="J66" s="52">
-        <v>160000</v>
-      </c>
+      <c r="B66" s="76"/>
+      <c r="C66" s="53"/>
+      <c r="D66" s="53"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
       <c r="K66" s="52"/>
-      <c r="L66" s="52">
-        <f t="shared" si="82"/>
-        <v>160000</v>
-      </c>
-      <c r="M66" s="52">
-        <f t="shared" si="83"/>
-        <v>160000</v>
-      </c>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
     </row>
     <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84">
@@ -19767,10 +19737,10 @@
         <v>21</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E67" s="74">
         <v>0</v>
@@ -19811,10 +19781,10 @@
         <v>221</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E68" s="74">
         <v>0</v>
@@ -19902,7 +19872,7 @@
         <v>21</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D70" s="53" t="s">
         <v>335</v>
@@ -19948,7 +19918,7 @@
         <v>21</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D71" s="53" t="s">
         <v>335</v>
@@ -19994,7 +19964,7 @@
         <v>23</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D72" s="53" t="s">
         <v>335</v>
@@ -20040,7 +20010,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D73" s="53" t="s">
         <v>335</v>
@@ -20086,7 +20056,7 @@
         <v>23</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D74" s="53" t="s">
         <v>335</v>
@@ -20132,7 +20102,7 @@
         <v>23</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D75" s="53" t="s">
         <v>335</v>
@@ -20178,7 +20148,7 @@
         <v>23</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D76" s="53" t="s">
         <v>335</v>
@@ -20224,7 +20194,7 @@
         <v>23</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D77" s="53" t="s">
         <v>323</v>
@@ -20270,7 +20240,7 @@
         <v>221</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D78" s="53" t="s">
         <v>324</v>
@@ -20310,30 +20280,30 @@
     <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="84">
         <f t="shared" si="49"/>
-        <v>168000</v>
+        <v>126000</v>
       </c>
       <c r="B79" s="72" t="s">
+        <v>385</v>
+      </c>
+      <c r="C79" s="53" t="s">
         <v>387</v>
-      </c>
-      <c r="C79" s="53" t="s">
-        <v>389</v>
       </c>
       <c r="D79" s="53" t="s">
         <v>324</v>
       </c>
       <c r="E79" s="74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F79" s="74">
         <v>220000</v>
       </c>
       <c r="G79" s="53">
         <f t="shared" ref="G79" si="114">F79*E79</f>
-        <v>880000</v>
+        <v>1100000</v>
       </c>
       <c r="H79" s="44" t="str">
         <f t="shared" ref="H79" si="115">IF(E79=I79,"Out of Stock",I79-E79&amp;" qty Left")</f>
-        <v>4 qty Left</v>
+        <v>3 qty Left</v>
       </c>
       <c r="I79" s="52">
         <v>8</v>
@@ -20359,10 +20329,10 @@
         <v>1000000</v>
       </c>
       <c r="B80" s="72" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D80" s="53" t="s">
         <v>324</v>
@@ -20408,7 +20378,7 @@
         <v>23</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D81" s="53" t="s">
         <v>334</v>
@@ -20420,11 +20390,11 @@
         <v>220000</v>
       </c>
       <c r="G81" s="53">
-        <f t="shared" ref="G81" si="122">F81*E81</f>
+        <f t="shared" ref="G81:G82" si="122">F81*E81</f>
         <v>0</v>
       </c>
       <c r="H81" s="44" t="str">
-        <f t="shared" ref="H81" si="123">IF(E81=I81,"Out of Stock",I81-E81&amp;" qty Left")</f>
+        <f t="shared" ref="H81:H82" si="123">IF(E81=I81,"Out of Stock",I81-E81&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I81" s="52">
@@ -20437,27 +20407,27 @@
         <v>0</v>
       </c>
       <c r="L81" s="52">
-        <f t="shared" ref="L81" si="124">(K81/I81)+J81</f>
+        <f t="shared" ref="L81:L82" si="124">(K81/I81)+J81</f>
         <v>300000</v>
       </c>
       <c r="M81" s="52">
-        <f t="shared" ref="M81" si="125">(J81*I81)+K81</f>
+        <f t="shared" ref="M81:M82" si="125">(J81*I81)+K81</f>
         <v>300000</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="84">
         <f t="shared" si="49"/>
-        <v>200000</v>
+        <v>558000</v>
       </c>
       <c r="B82" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="C82" s="53" t="s">
+      <c r="C82" s="52" t="s">
+        <v>415</v>
+      </c>
+      <c r="D82" s="51" t="s">
         <v>411</v>
-      </c>
-      <c r="D82" s="53" t="s">
-        <v>324</v>
       </c>
       <c r="E82" s="74">
         <v>0</v>
@@ -20466,29 +20436,29 @@
         <v>220000</v>
       </c>
       <c r="G82" s="53">
-        <f t="shared" ref="G82:G83" si="126">F82*E82</f>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="H82" s="44" t="str">
-        <f t="shared" ref="H82:H83" si="127">IF(E82=I82,"Out of Stock",I82-E82&amp;" qty Left")</f>
+        <f t="shared" si="123"/>
         <v>1 qty Left</v>
       </c>
       <c r="I82" s="52">
         <v>1</v>
       </c>
       <c r="J82" s="52">
-        <v>200000</v>
+        <v>558000</v>
       </c>
       <c r="K82" s="52">
         <v>0</v>
       </c>
       <c r="L82" s="52">
-        <f t="shared" ref="L82:L83" si="128">(K82/I82)+J82</f>
-        <v>200000</v>
+        <f t="shared" si="124"/>
+        <v>558000</v>
       </c>
       <c r="M82" s="52">
-        <f t="shared" ref="M82:M83" si="129">(J82*I82)+K82</f>
-        <v>200000</v>
+        <f t="shared" si="125"/>
+        <v>558000</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -20500,7 +20470,7 @@
         <v>19</v>
       </c>
       <c r="C83" s="53" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D83" s="53" t="s">
         <v>324</v>
@@ -20512,11 +20482,11 @@
         <v>220000</v>
       </c>
       <c r="G83" s="53">
-        <f t="shared" si="126"/>
+        <f t="shared" ref="G82:G83" si="126">F83*E83</f>
         <v>0</v>
       </c>
       <c r="H83" s="44" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" ref="H82:H83" si="127">IF(E83=I83,"Out of Stock",I83-E83&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I83" s="52">
@@ -20529,11 +20499,11 @@
         <v>0</v>
       </c>
       <c r="L83" s="52">
-        <f t="shared" si="128"/>
+        <f t="shared" ref="L82:L83" si="128">(K83/I83)+J83</f>
         <v>70000</v>
       </c>
       <c r="M83" s="52">
-        <f t="shared" si="129"/>
+        <f t="shared" ref="M82:M83" si="129">(J83*I83)+K83</f>
         <v>140000</v>
       </c>
     </row>
@@ -20546,10 +20516,10 @@
         <v>223</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E84" s="74">
         <v>0</v>
@@ -20592,7 +20562,7 @@
         <v>23</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D85" s="53" t="s">
         <v>335</v>
@@ -20627,6 +20597,98 @@
       <c r="M85" s="52">
         <f t="shared" si="133"/>
         <v>127500</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="84">
+        <f t="shared" si="49"/>
+        <v>205550</v>
+      </c>
+      <c r="B86" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="D86" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="E86" s="74">
+        <v>0</v>
+      </c>
+      <c r="F86" s="74">
+        <v>220000</v>
+      </c>
+      <c r="G86" s="53">
+        <f t="shared" ref="G86:G87" si="134">F86*E86</f>
+        <v>0</v>
+      </c>
+      <c r="H86" s="44" t="str">
+        <f t="shared" ref="H86:H87" si="135">IF(E86=I86,"Out of Stock",I86-E86&amp;" qty Left")</f>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I86" s="52">
+        <v>1</v>
+      </c>
+      <c r="J86" s="52">
+        <v>205550</v>
+      </c>
+      <c r="K86" s="52">
+        <v>0</v>
+      </c>
+      <c r="L86" s="52">
+        <f t="shared" ref="L86:L87" si="136">(K86/I86)+J86</f>
+        <v>205550</v>
+      </c>
+      <c r="M86" s="52">
+        <f t="shared" ref="M86:M87" si="137">(J86*I86)+K86</f>
+        <v>205550</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="84">
+        <f t="shared" si="49"/>
+        <v>145350</v>
+      </c>
+      <c r="B87" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="D87" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="E87" s="74">
+        <v>0</v>
+      </c>
+      <c r="F87" s="74">
+        <v>220000</v>
+      </c>
+      <c r="G87" s="53">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="44" t="str">
+        <f t="shared" si="135"/>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I87" s="52">
+        <v>1</v>
+      </c>
+      <c r="J87" s="52">
+        <v>145350</v>
+      </c>
+      <c r="K87" s="52">
+        <v>0</v>
+      </c>
+      <c r="L87" s="52">
+        <f t="shared" si="136"/>
+        <v>145350</v>
+      </c>
+      <c r="M87" s="52">
+        <f t="shared" si="137"/>
+        <v>145350</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -20829,889 +20891,909 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="191" priority="713" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="719" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="190" priority="675" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="681" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="189" priority="680" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="686" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="188" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="695" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="187" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="700" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="186" priority="660" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="666" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="185" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="655" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="184" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="652" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="183" priority="639" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="645" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="182" priority="635" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="641" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="181" priority="640" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="646" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="180" priority="636" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="642" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="179" priority="590" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="596" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="178" priority="589" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="595" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="177" priority="570" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="576" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="176" priority="569" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="575" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="175" priority="496" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="502" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="174" priority="495" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="501" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="173" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="416" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="172" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="415" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="171" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="349" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="170" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="350" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="169" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="351" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="168" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="348" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="167" priority="340" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="346" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="166" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="352" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="165" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="347" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="164" priority="339" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="345" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="163" priority="330" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="336" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="162" priority="329" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="335" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="161" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="295" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="160" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="294" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="159" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="158" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="296" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="157" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="293" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="156" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="257" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="155" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="289" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="154" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="288" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="153" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="249" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="152" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="248" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="151" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="285" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="150" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="284" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="149" priority="277" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="283" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="148" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="282" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="147" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="255" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="146" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="145" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="251" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="144" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="250" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="143" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="247" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="142" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="246" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="141" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="231" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="140" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="230" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="139" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="229" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="138" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="228" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="137" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="209" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="136" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="208" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="135" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="134" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="133" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="193" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="132" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="192" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="131" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="130" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="129" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="189" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="128" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="188" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="127" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="185" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="126" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="184" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="125" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="191" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="124" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="190" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="123" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="173" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="122" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="172" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="125" priority="163" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="124" priority="162" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="123" priority="159" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="122" priority="158" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="cellIs" dxfId="121" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H14">
     <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="119" priority="153" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="118" priority="152" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="117" priority="151" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="116" priority="150" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="115" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="161" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="114" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="160" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="113" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="112" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="152" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="111" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="149" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="110" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="148" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="109" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="139" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="108" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="138" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="107" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="137" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="106" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="136" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="105" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="119" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="104" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="118" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="102" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="101" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="115" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="100" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="99" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="98" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="97" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="110" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="96" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="109" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="95" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="98" priority="105" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="duplicateValues" dxfId="97" priority="104"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="duplicateValues" dxfId="96" priority="103"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="duplicateValues" dxfId="95" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="94" priority="99" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="93" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="duplicateValues" dxfId="92" priority="97"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="duplicateValues" dxfId="91" priority="96"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="90" priority="93" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="89" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="98" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="88" priority="87"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="93"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="87" priority="86"/>
+    <cfRule type="duplicateValues" dxfId="91" priority="92"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="86" priority="85"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="91"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="87" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="83" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="82" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="81" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="78" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="77" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="76" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="75" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="74" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="79" priority="70" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="78" priority="69" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="77" priority="68" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="75" priority="66" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="74" priority="65" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
     <cfRule type="cellIs" dxfId="73" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="H61">
     <cfRule type="cellIs" dxfId="72" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+  <conditionalFormatting sqref="H60">
     <cfRule type="cellIs" dxfId="71" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+  <conditionalFormatting sqref="H60">
     <cfRule type="cellIs" dxfId="70" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H62">
     <cfRule type="cellIs" dxfId="69" priority="60" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H62">
     <cfRule type="cellIs" dxfId="68" priority="59" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="67" priority="58" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="66" priority="57" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="H96">
     <cfRule type="cellIs" dxfId="65" priority="56" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="H96">
     <cfRule type="cellIs" dxfId="64" priority="55" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
+  <conditionalFormatting sqref="H97">
     <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
+  <conditionalFormatting sqref="H97">
     <cfRule type="cellIs" dxfId="62" priority="53" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H98">
     <cfRule type="cellIs" dxfId="61" priority="52" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H98">
     <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H64">
     <cfRule type="cellIs" dxfId="59" priority="50" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H64">
     <cfRule type="cellIs" dxfId="58" priority="49" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H65">
     <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H65">
     <cfRule type="cellIs" dxfId="56" priority="47" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
+  <conditionalFormatting sqref="H66">
     <cfRule type="cellIs" dxfId="55" priority="46" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
+  <conditionalFormatting sqref="H66">
     <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="53" priority="44" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
+  <conditionalFormatting sqref="H69">
     <cfRule type="cellIs" dxfId="49" priority="40" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
+  <conditionalFormatting sqref="H69">
     <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="H70">
     <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="H70">
     <cfRule type="cellIs" dxfId="46" priority="37" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H71">
     <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H71">
     <cfRule type="cellIs" dxfId="44" priority="35" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H72">
     <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H72">
     <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="41" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="40" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H74">
     <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H74">
     <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H77">
     <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H77">
     <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H78">
     <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H78">
     <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H80">
     <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H80">
     <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H81">
     <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H81">
     <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
@@ -21741,21 +21823,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="90" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -21763,52 +21845,52 @@
         <v>58</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>398</v>
+      </c>
+      <c r="C5" s="91" t="s">
         <v>399</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>400</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B7" s="91"/>
       <c r="C7" s="91" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/aks sell 2 Rows.xlsx
+++ b/aks sell 2 Rows.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="417">
   <si>
     <t>SSD 128</t>
   </si>
@@ -1546,9 +1546,6 @@
     <t>asus 960 2gb</t>
   </si>
   <si>
-    <t>rog 1050ti</t>
-  </si>
-  <si>
     <t>gaming x 1060 6gb</t>
   </si>
   <si>
@@ -1655,6 +1652,12 @@
   </si>
   <si>
     <t>rtx 3060</t>
+  </si>
+  <si>
+    <t>MSI Armor 960 2gb</t>
+  </si>
+  <si>
+    <t>Asus Strix 1050ti</t>
   </si>
 </sst>
 </file>
@@ -2027,49 +2030,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="404">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="408">
     <dxf>
       <font>
         <b val="0"/>
@@ -2327,6 +2288,76 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5125,15 +5156,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="B1:G128"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="11"/>
-    <tableColumn id="2" name="Description" dataDxfId="10"/>
-    <tableColumn id="3" name="Remark" dataDxfId="9"/>
-    <tableColumn id="4" name="Qty" dataDxfId="8"/>
-    <tableColumn id="5" name="Price" dataDxfId="7"/>
-    <tableColumn id="6" name="Amount" dataDxfId="6"/>
+    <tableColumn id="1" name="Category" dataDxfId="5"/>
+    <tableColumn id="2" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" name="Remark" dataDxfId="3"/>
+    <tableColumn id="4" name="Qty" dataDxfId="2"/>
+    <tableColumn id="5" name="Price" dataDxfId="1"/>
+    <tableColumn id="6" name="Amount" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13084,1042 +13115,1042 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I74 I136:I1048576 I1:I32">
-    <cfRule type="cellIs" dxfId="403" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="295" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="402" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="293" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="401" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="292" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="400" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="291" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="399" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="398" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="289" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="397" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="288" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="396" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="287" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="395" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="286" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="394" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="285" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="cellIs" dxfId="393" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="284" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="392" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="283" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="391" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="282" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="390" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="281" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="389" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="280" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="388" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="279" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="387" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="278" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="386" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="276" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="385" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="274" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="384" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="273" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="383" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="272" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="382" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="271" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="381" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="270" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="380" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="269" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="379" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="267" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="378" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="265" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="377" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="264" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="376" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="375" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="374" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="373" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="372" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="259" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="cellIs" dxfId="371" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="258" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="370" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="257" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="cellIs" dxfId="369" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="368" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="367" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="253" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="366" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="252" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="365" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="251" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="364" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="250" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="cellIs" dxfId="363" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="249" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="362" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="247" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="361" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="246" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="360" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="245" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="359" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="240" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="358" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="239" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="357" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="238" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="356" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="237" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="355" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="236" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="354" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="235" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="353" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="234" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="352" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="233" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="351" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="232" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="350" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="231" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="349" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="230" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="348" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="229" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="347" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="228" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="346" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="227" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="345" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="224" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="344" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="223" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="343" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="222" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="342" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="221" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="341" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="212" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="340" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="211" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="339" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="210" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="338" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="209" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="337" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="208" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="336" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="335" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="334" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="205" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="333" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="204" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="332" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="203" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="331" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="202" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="330" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="201" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="329" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="200" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="328" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="327" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="326" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="197" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="325" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="192" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="324" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="191" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="323" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="190" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="322" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="189" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="321" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="188" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="320" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="187" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="319" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="186" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="318" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="185" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="317" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="184" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="316" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="183" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="315" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="180" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="314" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="179" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="313" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="178" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="312" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="177" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="311" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="176" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="310" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="175" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="309" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="174" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="308" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="173" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="307" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="168" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="306" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="167" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="305" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="162" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="304" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="161" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="303" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="160" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="302" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="159" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="301" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="158" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="300" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="299" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="298" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="155" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="297" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="154" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="296" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="295" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="146" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="294" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="145" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="293" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="144" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="292" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="143" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="291" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="142" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="290" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="141" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="289" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="140" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="288" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="139" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="287" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="138" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="286" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="137" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="285" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="136" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="284" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="135" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="283" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="126" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="282" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="125" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="281" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="124" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="280" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="123" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="279" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="122" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="278" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="121" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="277" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="120" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="276" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="119" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="275" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="118" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="274" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="117" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="273" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="272" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="111" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="271" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="270" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="269" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="268" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="267" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="104" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="266" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="103" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="265" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="264" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="263" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="100" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="262" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="99" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="261" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="96" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="260" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="95" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="259" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="94" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="258" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="93" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="257" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="92" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="256" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="91" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="255" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="90" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="254" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="89" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="253" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="88" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="252" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="87" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="251" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="250" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="249" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="248" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="247" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="246" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="245" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="244" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="77" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="243" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="242" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="241" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="240" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="239" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="238" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="237" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="236" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="235" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="234" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="233" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="232" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="231" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="230" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="229" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="228" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="227" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="226" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="225" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="224" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="223" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="222" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="221" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="220" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="219" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="24" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="218" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="23" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="217" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="22" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="216" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="21" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="215" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="20" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="214" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="19" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="213" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="18" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="212" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="17" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="211" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="210" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="209" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="208" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="13" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="207" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="206" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="205" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="204" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="203" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="202" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="201" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="200" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="199" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="198" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="197" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="196" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16580,8 +16611,8 @@
   <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P76" sqref="P76"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16642,22 +16673,22 @@
         <v>38</v>
       </c>
       <c r="N1" s="55">
-        <v>2555</v>
+        <v>2044</v>
       </c>
       <c r="O1" s="51">
         <f>N1*85</f>
-        <v>217175</v>
+        <v>173740</v>
       </c>
       <c r="P1" s="52" t="s">
         <v>48</v>
       </c>
       <c r="Q1" s="20">
         <f>SUM(A2:A124)</f>
-        <v>16175260</v>
+        <v>16456260</v>
       </c>
       <c r="R1" s="77">
         <f>Q20</f>
-        <v>-416279.21999999881</v>
+        <v>-617679.21999999881</v>
       </c>
       <c r="S1" s="77"/>
     </row>
@@ -16715,7 +16746,7 @@
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="84">
         <f t="shared" ref="A3:A7" si="5">IF($E3=0,$M3,IF($E3=$I3,IF($M3-$G3&lt;0,0,IF($D3="set",$M3-$G3,FALSE)),($I3-$E3)*$J3))</f>
-        <v>177000</v>
+        <v>170000</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>223</v>
@@ -16725,37 +16756,38 @@
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3" s="53">
         <v>187500</v>
       </c>
       <c r="G3" s="53">
         <f>F3*E3</f>
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="H3" s="44" t="str">
         <f t="shared" ref="H3:H7" si="6">IF(E3=I3,"Out of Stock",I3-E3&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I3" s="53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J3" s="53">
-        <v>177000</v>
-      </c>
-      <c r="K3" s="52">
-        <v>5000</v>
-      </c>
+        <v>170000</v>
+      </c>
+      <c r="K3" s="52"/>
       <c r="L3" s="52">
         <f t="shared" ref="L3:L7" si="7">(K3/I3)+J3</f>
-        <v>178000</v>
+        <v>170000</v>
       </c>
       <c r="M3" s="52">
         <f t="shared" ref="M3:M7" si="8">(J3*I3)+K3</f>
-        <v>890000</v>
-      </c>
-      <c r="N3" s="55"/>
+        <v>170000</v>
+      </c>
+      <c r="N3" s="55">
+        <f>L3+L4</f>
+        <v>290000</v>
+      </c>
       <c r="P3" s="52" t="s">
         <v>301</v>
       </c>
@@ -16766,7 +16798,7 @@
     <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="84">
         <f t="shared" si="5"/>
-        <v>155500</v>
+        <v>120000</v>
       </c>
       <c r="B4" s="72" t="s">
         <v>222</v>
@@ -16776,35 +16808,33 @@
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="53">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F4" s="53">
         <v>167500</v>
       </c>
       <c r="G4" s="53">
         <f>F4*E4</f>
-        <v>670000</v>
+        <v>0</v>
       </c>
       <c r="H4" s="44" t="str">
         <f t="shared" si="6"/>
         <v>1 qty Left</v>
       </c>
       <c r="I4" s="53">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="53">
-        <v>155500</v>
-      </c>
-      <c r="K4" s="52">
-        <v>20000</v>
-      </c>
+        <v>120000</v>
+      </c>
+      <c r="K4" s="52"/>
       <c r="L4" s="52">
         <f t="shared" si="7"/>
-        <v>159500</v>
+        <v>120000</v>
       </c>
       <c r="M4" s="52">
         <f t="shared" si="8"/>
-        <v>797500</v>
+        <v>120000</v>
       </c>
       <c r="N4" s="55"/>
       <c r="P4" s="52" t="s">
@@ -16862,7 +16892,7 @@
         <v>60</v>
       </c>
       <c r="Q5" s="1">
-        <v>542000</v>
+        <v>772400</v>
       </c>
       <c r="R5" s="85">
         <v>86.6</v>
@@ -16987,7 +17017,7 @@
         <v>202</v>
       </c>
       <c r="Q7" s="1">
-        <v>1040000</v>
+        <v>530000</v>
       </c>
       <c r="S7" s="56"/>
       <c r="U7" s="51">
@@ -16996,7 +17026,7 @@
     </row>
     <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84">
-        <f t="shared" ref="A8:A14" si="10">IF($E8=0,$M8,IF($E8=$I8,IF($M8-$G8&lt;0,0,IF($D8="set",$M8-$G8,FALSE)),($I8-$E8)*$J8))</f>
+        <f t="shared" ref="A8:A16" si="10">IF($E8=0,$M8,IF($E8=$I8,IF($M8-$G8&lt;0,0,IF($D8="set",$M8-$G8,FALSE)),($I8-$E8)*$J8))</f>
         <v>59150</v>
       </c>
       <c r="B8" s="72" t="s">
@@ -17160,7 +17190,7 @@
     <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="84">
         <f t="shared" si="10"/>
-        <v>80000</v>
+        <v>110000</v>
       </c>
       <c r="B11" s="72" t="s">
         <v>210</v>
@@ -17170,21 +17200,21 @@
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="53">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="53">
         <v>105000</v>
       </c>
       <c r="G11" s="53">
         <f t="shared" ref="G11" si="13">F11*E11</f>
-        <v>210000</v>
+        <v>0</v>
       </c>
       <c r="H11" s="44" t="str">
         <f>IF(E11=I11,"Out of Stock",I11-E11&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I11" s="53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J11" s="53">
         <v>80000</v>
@@ -17194,11 +17224,11 @@
       </c>
       <c r="L11" s="52">
         <f t="shared" ref="L11" si="14">(K11/I11)+J11</f>
-        <v>90000</v>
+        <v>110000</v>
       </c>
       <c r="M11" s="52">
         <f t="shared" ref="M11" si="15">(J11*I11)+K11</f>
-        <v>270000</v>
+        <v>110000</v>
       </c>
       <c r="N11" s="55"/>
       <c r="P11" s="52" t="s">
@@ -17215,7 +17245,7 @@
     <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="84">
         <f t="shared" si="10"/>
-        <v>393000</v>
+        <v>131000</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>210</v>
@@ -17233,10 +17263,10 @@
       <c r="G12" s="52"/>
       <c r="H12" s="44" t="str">
         <f>IF(E12=I12,"Out of Stock",I12-E12&amp;" qty Left")</f>
-        <v>3 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I12" s="52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" s="52">
         <v>131000</v>
@@ -17250,11 +17280,11 @@
       </c>
       <c r="M12" s="52">
         <f>(J12*I12)+K12</f>
-        <v>393000</v>
+        <v>131000</v>
       </c>
       <c r="N12" s="81"/>
       <c r="P12" s="61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="Q12" s="67">
         <v>50000</v>
@@ -17388,6 +17418,10 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="84">
+        <f t="shared" si="10"/>
+        <v>325000</v>
+      </c>
       <c r="B15" s="76" t="s">
         <v>23</v>
       </c>
@@ -17436,7 +17470,7 @@
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="84">
-        <f t="shared" ref="A16:A52" si="20">IF($E16=0,$M16,IF($E16=$I16,IF($M16-$G16&lt;0,0,IF($D16="set",$M16-$G16,FALSE)),($I16-$E16)*$J16))</f>
+        <f t="shared" si="10"/>
         <v>79000</v>
       </c>
       <c r="B16" s="72" t="s">
@@ -17457,7 +17491,7 @@
         <v>85000</v>
       </c>
       <c r="H16" s="44" t="str">
-        <f t="shared" ref="H16:H17" si="21">IF(E16=I16,"Out of Stock",I16-E16&amp;" qty Left")</f>
+        <f t="shared" ref="H16:H17" si="20">IF(E16=I16,"Out of Stock",I16-E16&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I16" s="53">
@@ -17470,11 +17504,11 @@
         <v>6000</v>
       </c>
       <c r="L16" s="52">
-        <f t="shared" ref="L16:L17" si="22">(K16/I16)+J16</f>
+        <f t="shared" ref="L16:L17" si="21">(K16/I16)+J16</f>
         <v>82000</v>
       </c>
       <c r="M16" s="52">
-        <f t="shared" ref="M16:M17" si="23">(J16*I16)+K16</f>
+        <f t="shared" ref="M16:M17" si="22">(J16*I16)+K16</f>
         <v>164000</v>
       </c>
       <c r="N16" s="55"/>
@@ -17483,12 +17517,12 @@
       </c>
       <c r="Q16" s="17">
         <f>Q1+SUM(Q2:Q14)+Q15</f>
-        <v>23816279.219999999</v>
+        <v>23817679.219999999</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="A17:A52" si="23">IF($E17=0,$M17,IF($E17=$I17,IF($M17-$G17&lt;0,0,IF($D17="set",$M17-$G17,FALSE)),($I17-$E17)*$J17))</f>
         <v>83000</v>
       </c>
       <c r="B17" s="72" t="s">
@@ -17509,7 +17543,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>1 qty Left</v>
       </c>
       <c r="I17" s="53">
@@ -17522,11 +17556,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="52">
+        <f t="shared" si="21"/>
+        <v>83000</v>
+      </c>
+      <c r="M17" s="52">
         <f t="shared" si="22"/>
-        <v>83000</v>
-      </c>
-      <c r="M17" s="52">
-        <f t="shared" si="23"/>
         <v>83000</v>
       </c>
       <c r="N17" s="55"/>
@@ -17545,7 +17579,7 @@
     </row>
     <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>109000</v>
       </c>
       <c r="B18" s="72" t="s">
@@ -17591,8 +17625,8 @@
         <v>13</v>
       </c>
       <c r="Q18" s="17">
-        <f>23000000+400000</f>
-        <v>23400000</v>
+        <f>23000000+200000</f>
+        <v>23200000</v>
       </c>
       <c r="T18" s="51" t="s">
         <v>204</v>
@@ -17606,7 +17640,7 @@
     </row>
     <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>123000</v>
       </c>
       <c r="B19" s="72" t="s">
@@ -17651,7 +17685,7 @@
     </row>
     <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>105600</v>
       </c>
       <c r="B20" s="76" t="s">
@@ -17700,12 +17734,12 @@
       </c>
       <c r="Q20" s="17">
         <f>Q18-Q16</f>
-        <v>-416279.21999999881</v>
+        <v>-617679.21999999881</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>130000</v>
       </c>
       <c r="B21" s="76" t="s">
@@ -17759,7 +17793,7 @@
     </row>
     <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>40000</v>
       </c>
       <c r="B22" s="76" t="s">
@@ -17805,7 +17839,7 @@
     </row>
     <row r="23" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>172260</v>
       </c>
       <c r="B23" s="76" t="s">
@@ -17858,7 +17892,7 @@
     </row>
     <row r="24" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>186750</v>
       </c>
       <c r="B24" s="76" t="s">
@@ -17912,7 +17946,7 @@
     </row>
     <row r="25" spans="1:22" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>130000</v>
       </c>
       <c r="B25" s="76" t="s">
@@ -17960,7 +17994,7 @@
     </row>
     <row r="26" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>511500</v>
       </c>
       <c r="B26" s="83" t="s">
@@ -18006,7 +18040,7 @@
     </row>
     <row r="27" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="B27" s="76" t="s">
@@ -18055,7 +18089,7 @@
     </row>
     <row r="28" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>301200</v>
       </c>
       <c r="B28" s="76" t="s">
@@ -18104,7 +18138,7 @@
     </row>
     <row r="29" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>463000</v>
       </c>
       <c r="B29" s="76" t="s">
@@ -18152,7 +18186,7 @@
     </row>
     <row r="30" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>39000</v>
       </c>
       <c r="B30" s="76" t="s">
@@ -18202,7 +18236,7 @@
     </row>
     <row r="31" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>650000</v>
       </c>
       <c r="B31" s="76" t="s">
@@ -18270,7 +18304,7 @@
     </row>
     <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>284800</v>
       </c>
       <c r="B33" s="76" t="s">
@@ -18320,7 +18354,7 @@
     </row>
     <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>416300</v>
       </c>
       <c r="B34" s="76" t="s">
@@ -18369,7 +18403,7 @@
     </row>
     <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>82450</v>
       </c>
       <c r="B35" s="76" t="s">
@@ -18419,7 +18453,7 @@
     </row>
     <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>120000</v>
       </c>
       <c r="B36" s="76" t="s">
@@ -18466,7 +18500,7 @@
     </row>
     <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>37500</v>
       </c>
       <c r="B37" s="76" t="s">
@@ -18514,7 +18548,7 @@
     </row>
     <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>127000</v>
       </c>
       <c r="B38" s="76" t="s">
@@ -18578,7 +18612,7 @@
     </row>
     <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>231000</v>
       </c>
       <c r="B40" s="76" t="s">
@@ -18625,7 +18659,7 @@
     </row>
     <row r="41" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>336000</v>
       </c>
       <c r="B41" s="76" t="s">
@@ -18671,7 +18705,7 @@
     </row>
     <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>60000</v>
       </c>
       <c r="B42" s="76" t="s">
@@ -18716,7 +18750,7 @@
     </row>
     <row r="43" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>415000</v>
       </c>
       <c r="B43" s="76" t="s">
@@ -18761,7 +18795,7 @@
     </row>
     <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>219750</v>
       </c>
       <c r="B44" s="76" t="s">
@@ -18806,7 +18840,7 @@
     </row>
     <row r="45" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>225000</v>
       </c>
       <c r="B45" s="76" t="s">
@@ -18851,7 +18885,7 @@
     </row>
     <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>140600</v>
       </c>
       <c r="B46" s="76" t="s">
@@ -18896,7 +18930,7 @@
     </row>
     <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>338640</v>
       </c>
       <c r="B47" s="76" t="s">
@@ -18941,7 +18975,7 @@
     </row>
     <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>144000</v>
       </c>
       <c r="B48" s="76" t="s">
@@ -18986,7 +19020,7 @@
     </row>
     <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>83000</v>
       </c>
       <c r="B49" s="76" t="s">
@@ -19031,7 +19065,7 @@
     </row>
     <row r="50" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>158000</v>
       </c>
       <c r="B50" s="76" t="s">
@@ -19075,53 +19109,23 @@
       <c r="Q50" s="80"/>
     </row>
     <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="84">
-        <f t="shared" si="20"/>
-        <v>50750</v>
-      </c>
-      <c r="B51" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C51" s="52" t="s">
-        <v>360</v>
-      </c>
-      <c r="D51" s="52" t="s">
-        <v>322</v>
-      </c>
-      <c r="E51" s="74">
-        <v>0</v>
-      </c>
-      <c r="F51" s="74">
-        <v>220000</v>
-      </c>
-      <c r="G51" s="53">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="H51" s="44" t="str">
-        <f t="shared" si="42"/>
-        <v>1 qty Left</v>
-      </c>
-      <c r="I51" s="52">
-        <v>1</v>
-      </c>
-      <c r="J51" s="52">
-        <v>50750</v>
-      </c>
+      <c r="B51" s="76"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="74"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="52"/>
+      <c r="J51" s="52"/>
       <c r="K51" s="52"/>
-      <c r="L51" s="52">
-        <f t="shared" si="43"/>
-        <v>50750</v>
-      </c>
-      <c r="M51" s="52">
-        <f t="shared" si="44"/>
-        <v>50750</v>
-      </c>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
       <c r="Q51" s="80"/>
     </row>
     <row r="52" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="84">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>388200</v>
       </c>
       <c r="B52" s="76" t="s">
@@ -19181,7 +19185,7 @@
     </row>
     <row r="54" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="84">
-        <f t="shared" ref="A54:A87" si="49">IF($E54=0,$M54,IF($E54=$I54,IF($M54-$G54&lt;0,0,IF($D54="set",$M54-$G54,FALSE)),($I54-$E54)*$J54))</f>
+        <f t="shared" ref="A54:A89" si="49">IF($E54=0,$M54,IF($E54=$I54,IF($M54-$G54&lt;0,0,IF($D54="set",$M54-$G54,FALSE)),($I54-$E54)*$J54))</f>
         <v>300000</v>
       </c>
       <c r="B54" s="76" t="s">
@@ -19368,7 +19372,7 @@
         <v>21</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D58" s="52" t="s">
         <v>335</v>
@@ -19500,7 +19504,7 @@
         <v>21</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D61" s="52" t="s">
         <v>335</v>
@@ -20048,50 +20052,18 @@
       </c>
     </row>
     <row r="74" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="84">
-        <f t="shared" si="49"/>
-        <v>153000</v>
-      </c>
-      <c r="B74" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="53" t="s">
-        <v>379</v>
-      </c>
-      <c r="D74" s="53" t="s">
-        <v>335</v>
-      </c>
-      <c r="E74" s="74">
-        <v>0</v>
-      </c>
-      <c r="F74" s="74">
-        <v>220000</v>
-      </c>
-      <c r="G74" s="53">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="44" t="str">
-        <f t="shared" ref="H74" si="101">IF(E74=I74,"Out of Stock",I74-E74&amp;" qty Left")</f>
-        <v>1 qty Left</v>
-      </c>
-      <c r="I74" s="52">
-        <v>1</v>
-      </c>
-      <c r="J74" s="52">
-        <v>153000</v>
-      </c>
-      <c r="K74" s="52">
-        <v>0</v>
-      </c>
-      <c r="L74" s="52">
-        <f t="shared" ref="L74" si="102">(K74/I74)+J74</f>
-        <v>153000</v>
-      </c>
-      <c r="M74" s="52">
-        <f t="shared" ref="M74" si="103">(J74*I74)+K74</f>
-        <v>153000</v>
-      </c>
+      <c r="B74" s="72"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="53"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="74"/>
+      <c r="G74" s="53"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
     </row>
     <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="84">
@@ -20102,7 +20074,7 @@
         <v>23</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D75" s="53" t="s">
         <v>335</v>
@@ -20118,7 +20090,7 @@
         <v>0</v>
       </c>
       <c r="H75" s="44" t="str">
-        <f t="shared" ref="H75:H76" si="104">IF(E75=I75,"Out of Stock",I75-E75&amp;" qty Left")</f>
+        <f t="shared" ref="H75:H76" si="101">IF(E75=I75,"Out of Stock",I75-E75&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I75" s="52">
@@ -20131,11 +20103,11 @@
         <v>0</v>
       </c>
       <c r="L75" s="52">
-        <f t="shared" ref="L75:L76" si="105">(K75/I75)+J75</f>
+        <f t="shared" ref="L75:L76" si="102">(K75/I75)+J75</f>
         <v>195500</v>
       </c>
       <c r="M75" s="52">
-        <f t="shared" ref="M75:M76" si="106">(J75*I75)+K75</f>
+        <f t="shared" ref="M75:M76" si="103">(J75*I75)+K75</f>
         <v>195500</v>
       </c>
     </row>
@@ -20148,7 +20120,7 @@
         <v>23</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D76" s="53" t="s">
         <v>335</v>
@@ -20164,7 +20136,7 @@
         <v>0</v>
       </c>
       <c r="H76" s="44" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="101"/>
         <v>1 qty Left</v>
       </c>
       <c r="I76" s="52">
@@ -20177,11 +20149,11 @@
         <v>0</v>
       </c>
       <c r="L76" s="52">
-        <f t="shared" si="105"/>
+        <f t="shared" si="102"/>
         <v>86500</v>
       </c>
       <c r="M76" s="52">
-        <f t="shared" si="106"/>
+        <f t="shared" si="103"/>
         <v>86500</v>
       </c>
     </row>
@@ -20194,7 +20166,7 @@
         <v>23</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D77" s="53" t="s">
         <v>323</v>
@@ -20210,7 +20182,7 @@
         <v>0</v>
       </c>
       <c r="H77" s="44" t="str">
-        <f t="shared" ref="H77" si="107">IF(E77=I77,"Out of Stock",I77-E77&amp;" qty Left")</f>
+        <f t="shared" ref="H77" si="104">IF(E77=I77,"Out of Stock",I77-E77&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I77" s="52">
@@ -20223,11 +20195,11 @@
         <v>0</v>
       </c>
       <c r="L77" s="52">
-        <f t="shared" ref="L77" si="108">(K77/I77)+J77</f>
+        <f t="shared" ref="L77" si="105">(K77/I77)+J77</f>
         <v>95000</v>
       </c>
       <c r="M77" s="52">
-        <f t="shared" ref="M77" si="109">(J77*I77)+K77</f>
+        <f t="shared" ref="M77" si="106">(J77*I77)+K77</f>
         <v>95000</v>
       </c>
     </row>
@@ -20240,7 +20212,7 @@
         <v>221</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D78" s="53" t="s">
         <v>324</v>
@@ -20252,11 +20224,11 @@
         <v>20000</v>
       </c>
       <c r="G78" s="53">
-        <f t="shared" ref="G78" si="110">F78*E78</f>
+        <f t="shared" ref="G78" si="107">F78*E78</f>
         <v>60000</v>
       </c>
       <c r="H78" s="44" t="str">
-        <f t="shared" ref="H78" si="111">IF(E78=I78,"Out of Stock",I78-E78&amp;" qty Left")</f>
+        <f t="shared" ref="H78" si="108">IF(E78=I78,"Out of Stock",I78-E78&amp;" qty Left")</f>
         <v>6 qty Left</v>
       </c>
       <c r="I78" s="52">
@@ -20269,11 +20241,11 @@
         <v>0</v>
       </c>
       <c r="L78" s="52">
-        <f t="shared" ref="L78" si="112">(K78/I78)+J78</f>
+        <f t="shared" ref="L78" si="109">(K78/I78)+J78</f>
         <v>15000</v>
       </c>
       <c r="M78" s="52">
-        <f t="shared" ref="M78" si="113">(J78*I78)+K78</f>
+        <f t="shared" ref="M78" si="110">(J78*I78)+K78</f>
         <v>135000</v>
       </c>
     </row>
@@ -20283,10 +20255,10 @@
         <v>126000</v>
       </c>
       <c r="B79" s="72" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D79" s="53" t="s">
         <v>324</v>
@@ -20298,11 +20270,11 @@
         <v>220000</v>
       </c>
       <c r="G79" s="53">
-        <f t="shared" ref="G79" si="114">F79*E79</f>
+        <f t="shared" ref="G79" si="111">F79*E79</f>
         <v>1100000</v>
       </c>
       <c r="H79" s="44" t="str">
-        <f t="shared" ref="H79" si="115">IF(E79=I79,"Out of Stock",I79-E79&amp;" qty Left")</f>
+        <f t="shared" ref="H79" si="112">IF(E79=I79,"Out of Stock",I79-E79&amp;" qty Left")</f>
         <v>3 qty Left</v>
       </c>
       <c r="I79" s="52">
@@ -20315,11 +20287,11 @@
         <v>0</v>
       </c>
       <c r="L79" s="52">
-        <f t="shared" ref="L79" si="116">(K79/I79)+J79</f>
+        <f t="shared" ref="L79" si="113">(K79/I79)+J79</f>
         <v>42000</v>
       </c>
       <c r="M79" s="52">
-        <f t="shared" ref="M79" si="117">(J79*I79)+K79</f>
+        <f t="shared" ref="M79" si="114">(J79*I79)+K79</f>
         <v>336000</v>
       </c>
     </row>
@@ -20329,10 +20301,10 @@
         <v>1000000</v>
       </c>
       <c r="B80" s="72" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="53" t="s">
         <v>388</v>
-      </c>
-      <c r="C80" s="53" t="s">
-        <v>389</v>
       </c>
       <c r="D80" s="53" t="s">
         <v>324</v>
@@ -20344,11 +20316,11 @@
         <v>220000</v>
       </c>
       <c r="G80" s="53">
-        <f t="shared" ref="G80" si="118">F80*E80</f>
+        <f t="shared" ref="G80" si="115">F80*E80</f>
         <v>0</v>
       </c>
       <c r="H80" s="44" t="str">
-        <f t="shared" ref="H80" si="119">IF(E80=I80,"Out of Stock",I80-E80&amp;" qty Left")</f>
+        <f t="shared" ref="H80" si="116">IF(E80=I80,"Out of Stock",I80-E80&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I80" s="52">
@@ -20361,11 +20333,11 @@
         <v>0</v>
       </c>
       <c r="L80" s="52">
-        <f t="shared" ref="L80" si="120">(K80/I80)+J80</f>
+        <f t="shared" ref="L80" si="117">(K80/I80)+J80</f>
         <v>1000000</v>
       </c>
       <c r="M80" s="52">
-        <f t="shared" ref="M80" si="121">(J80*I80)+K80</f>
+        <f t="shared" ref="M80" si="118">(J80*I80)+K80</f>
         <v>1000000</v>
       </c>
     </row>
@@ -20378,7 +20350,7 @@
         <v>23</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D81" s="53" t="s">
         <v>334</v>
@@ -20390,11 +20362,11 @@
         <v>220000</v>
       </c>
       <c r="G81" s="53">
-        <f t="shared" ref="G81:G82" si="122">F81*E81</f>
+        <f t="shared" ref="G81:G82" si="119">F81*E81</f>
         <v>0</v>
       </c>
       <c r="H81" s="44" t="str">
-        <f t="shared" ref="H81:H82" si="123">IF(E81=I81,"Out of Stock",I81-E81&amp;" qty Left")</f>
+        <f t="shared" ref="H81:H82" si="120">IF(E81=I81,"Out of Stock",I81-E81&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I81" s="52">
@@ -20407,11 +20379,11 @@
         <v>0</v>
       </c>
       <c r="L81" s="52">
-        <f t="shared" ref="L81:L82" si="124">(K81/I81)+J81</f>
+        <f t="shared" ref="L81:L82" si="121">(K81/I81)+J81</f>
         <v>300000</v>
       </c>
       <c r="M81" s="52">
-        <f t="shared" ref="M81:M82" si="125">(J81*I81)+K81</f>
+        <f t="shared" ref="M81:M82" si="122">(J81*I81)+K81</f>
         <v>300000</v>
       </c>
     </row>
@@ -20424,10 +20396,10 @@
         <v>223</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E82" s="74">
         <v>0</v>
@@ -20436,11 +20408,11 @@
         <v>220000</v>
       </c>
       <c r="G82" s="53">
-        <f t="shared" si="122"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="H82" s="44" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="120"/>
         <v>1 qty Left</v>
       </c>
       <c r="I82" s="52">
@@ -20453,11 +20425,11 @@
         <v>0</v>
       </c>
       <c r="L82" s="52">
-        <f t="shared" si="124"/>
+        <f t="shared" si="121"/>
         <v>558000</v>
       </c>
       <c r="M82" s="52">
-        <f t="shared" si="125"/>
+        <f t="shared" si="122"/>
         <v>558000</v>
       </c>
     </row>
@@ -20470,7 +20442,7 @@
         <v>19</v>
       </c>
       <c r="C83" s="53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D83" s="53" t="s">
         <v>324</v>
@@ -20482,11 +20454,11 @@
         <v>220000</v>
       </c>
       <c r="G83" s="53">
-        <f t="shared" ref="G82:G83" si="126">F83*E83</f>
+        <f t="shared" ref="G83" si="123">F83*E83</f>
         <v>0</v>
       </c>
       <c r="H83" s="44" t="str">
-        <f t="shared" ref="H82:H83" si="127">IF(E83=I83,"Out of Stock",I83-E83&amp;" qty Left")</f>
+        <f t="shared" ref="H83" si="124">IF(E83=I83,"Out of Stock",I83-E83&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I83" s="52">
@@ -20499,11 +20471,11 @@
         <v>0</v>
       </c>
       <c r="L83" s="52">
-        <f t="shared" ref="L82:L83" si="128">(K83/I83)+J83</f>
+        <f t="shared" ref="L83" si="125">(K83/I83)+J83</f>
         <v>70000</v>
       </c>
       <c r="M83" s="52">
-        <f t="shared" ref="M82:M83" si="129">(J83*I83)+K83</f>
+        <f t="shared" ref="M83" si="126">(J83*I83)+K83</f>
         <v>140000</v>
       </c>
     </row>
@@ -20516,10 +20488,10 @@
         <v>223</v>
       </c>
       <c r="C84" s="52" t="s">
+        <v>409</v>
+      </c>
+      <c r="D84" s="51" t="s">
         <v>410</v>
-      </c>
-      <c r="D84" s="51" t="s">
-        <v>411</v>
       </c>
       <c r="E84" s="74">
         <v>0</v>
@@ -20528,11 +20500,11 @@
         <v>220000</v>
       </c>
       <c r="G84" s="53">
-        <f t="shared" ref="G84:G85" si="130">F84*E84</f>
+        <f t="shared" ref="G84:G85" si="127">F84*E84</f>
         <v>0</v>
       </c>
       <c r="H84" s="44" t="str">
-        <f t="shared" ref="H84:H85" si="131">IF(E84=I84,"Out of Stock",I84-E84&amp;" qty Left")</f>
+        <f t="shared" ref="H84:H85" si="128">IF(E84=I84,"Out of Stock",I84-E84&amp;" qty Left")</f>
         <v>3 qty Left</v>
       </c>
       <c r="I84" s="52">
@@ -20545,11 +20517,11 @@
         <v>0</v>
       </c>
       <c r="L84" s="52">
-        <f t="shared" ref="L84:L85" si="132">(K84/I84)+J84</f>
+        <f t="shared" ref="L84:L85" si="129">(K84/I84)+J84</f>
         <v>110000</v>
       </c>
       <c r="M84" s="52">
-        <f t="shared" ref="M84:M85" si="133">(J84*I84)+K84</f>
+        <f t="shared" ref="M84:M85" si="130">(J84*I84)+K84</f>
         <v>330000</v>
       </c>
     </row>
@@ -20562,7 +20534,7 @@
         <v>23</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D85" s="53" t="s">
         <v>335</v>
@@ -20574,11 +20546,11 @@
         <v>220000</v>
       </c>
       <c r="G85" s="53">
-        <f t="shared" si="130"/>
+        <f t="shared" si="127"/>
         <v>0</v>
       </c>
       <c r="H85" s="44" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="128"/>
         <v>1 qty Left</v>
       </c>
       <c r="I85" s="52">
@@ -20591,11 +20563,11 @@
         <v>0</v>
       </c>
       <c r="L85" s="52">
-        <f t="shared" si="132"/>
+        <f t="shared" si="129"/>
         <v>127500</v>
       </c>
       <c r="M85" s="52">
-        <f t="shared" si="133"/>
+        <f t="shared" si="130"/>
         <v>127500</v>
       </c>
     </row>
@@ -20608,7 +20580,7 @@
         <v>23</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D86" s="53" t="s">
         <v>322</v>
@@ -20620,11 +20592,11 @@
         <v>220000</v>
       </c>
       <c r="G86" s="53">
-        <f t="shared" ref="G86:G87" si="134">F86*E86</f>
+        <f t="shared" ref="G86:G87" si="131">F86*E86</f>
         <v>0</v>
       </c>
       <c r="H86" s="44" t="str">
-        <f t="shared" ref="H86:H87" si="135">IF(E86=I86,"Out of Stock",I86-E86&amp;" qty Left")</f>
+        <f t="shared" ref="H86:H87" si="132">IF(E86=I86,"Out of Stock",I86-E86&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I86" s="52">
@@ -20637,11 +20609,11 @@
         <v>0</v>
       </c>
       <c r="L86" s="52">
-        <f t="shared" ref="L86:L87" si="136">(K86/I86)+J86</f>
+        <f t="shared" ref="L86:L87" si="133">(K86/I86)+J86</f>
         <v>205550</v>
       </c>
       <c r="M86" s="52">
-        <f t="shared" ref="M86:M87" si="137">(J86*I86)+K86</f>
+        <f t="shared" ref="M86:M87" si="134">(J86*I86)+K86</f>
         <v>205550</v>
       </c>
     </row>
@@ -20654,7 +20626,7 @@
         <v>23</v>
       </c>
       <c r="C87" s="53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D87" s="53" t="s">
         <v>322</v>
@@ -20666,11 +20638,11 @@
         <v>220000</v>
       </c>
       <c r="G87" s="53">
-        <f t="shared" si="134"/>
+        <f t="shared" si="131"/>
         <v>0</v>
       </c>
       <c r="H87" s="44" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="132"/>
         <v>1 qty Left</v>
       </c>
       <c r="I87" s="52">
@@ -20683,13 +20655,119 @@
         <v>0</v>
       </c>
       <c r="L87" s="52">
+        <f t="shared" si="133"/>
+        <v>145350</v>
+      </c>
+      <c r="M87" s="52">
+        <f t="shared" si="134"/>
+        <v>145350</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="84">
+        <f t="shared" si="49"/>
+        <v>260500</v>
+      </c>
+      <c r="B88" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="D88" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="E88" s="74">
+        <v>0</v>
+      </c>
+      <c r="F88" s="74">
+        <v>220000</v>
+      </c>
+      <c r="G88" s="53">
+        <f t="shared" ref="G88:G90" si="135">F88*E88</f>
+        <v>0</v>
+      </c>
+      <c r="H88" s="44" t="str">
+        <f t="shared" ref="H88:H90" si="136">IF(E88=I88,"Out of Stock",I88-E88&amp;" qty Left")</f>
+        <v>2 qty Left</v>
+      </c>
+      <c r="I88" s="52">
+        <v>2</v>
+      </c>
+      <c r="J88" s="52">
+        <v>130250</v>
+      </c>
+      <c r="K88" s="52">
+        <v>0</v>
+      </c>
+      <c r="L88" s="52">
+        <f t="shared" ref="L88:L90" si="137">(K88/I88)+J88</f>
+        <v>130250</v>
+      </c>
+      <c r="M88" s="52">
+        <f t="shared" ref="M88:M90" si="138">(J88*I88)+K88</f>
+        <v>260500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="84">
+        <f t="shared" si="49"/>
+        <v>173750</v>
+      </c>
+      <c r="B89" s="72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="D89" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="E89" s="74">
+        <v>0</v>
+      </c>
+      <c r="F89" s="74">
+        <v>220000</v>
+      </c>
+      <c r="G89" s="53">
+        <f t="shared" si="135"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="44" t="str">
         <f t="shared" si="136"/>
-        <v>145350</v>
-      </c>
-      <c r="M87" s="52">
+        <v>1 qty Left</v>
+      </c>
+      <c r="I89" s="52">
+        <v>1</v>
+      </c>
+      <c r="J89" s="52">
+        <v>173750</v>
+      </c>
+      <c r="K89" s="52">
+        <v>0</v>
+      </c>
+      <c r="L89" s="52">
         <f t="shared" si="137"/>
-        <v>145350</v>
-      </c>
+        <v>173750</v>
+      </c>
+      <c r="M89" s="52">
+        <f t="shared" si="138"/>
+        <v>173750</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="72"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="74"/>
+      <c r="G90" s="53"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
     </row>
     <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="76"/>
@@ -20891,910 +20969,940 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="195" priority="719" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="725" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="194" priority="681" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="687" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="193" priority="686" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="692" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="192" priority="695" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="701" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="191" priority="700" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="706" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="190" priority="666" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="672" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="189" priority="655" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="661" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="188" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="658" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="187" priority="645" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="651" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="186" priority="641" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="647" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="185" priority="646" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="652" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="184" priority="642" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="648" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="183" priority="596" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="602" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="182" priority="595" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="601" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="181" priority="576" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="582" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="180" priority="575" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="581" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="179" priority="502" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="508" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="178" priority="501" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="507" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="177" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="422" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="176" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="421" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="175" priority="349" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="355" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="174" priority="350" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="356" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="173" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="357" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="172" priority="348" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="354" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="171" priority="346" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="352" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="170" priority="352" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="358" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="169" priority="347" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="353" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="168" priority="345" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="351" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="167" priority="336" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="342" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="166" priority="335" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="341" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="165" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="301" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="164" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="300" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="163" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="162" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="302" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="161" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="299" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="160" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="159" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="295" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="158" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="294" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="157" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="255" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="156" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="155" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="291" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="154" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="153" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="289" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="152" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="288" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="151" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="150" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="149" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="257" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="148" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="147" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="253" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="146" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="252" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="145" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="237" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="144" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="236" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="143" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="235" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="142" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="234" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="141" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="215" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="140" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="214" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="139" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="213" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="138" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="212" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="137" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="136" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="135" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="205" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="134" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="204" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="133" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="195" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="132" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="194" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="131" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="191" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="130" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="190" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="129" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="197" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="128" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="196" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="127" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="179" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="126" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="178" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="129" priority="169" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="128" priority="168" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="127" priority="165" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="126" priority="164" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="cellIs" dxfId="125" priority="163" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
+  <conditionalFormatting sqref="H14">
     <cfRule type="cellIs" dxfId="124" priority="162" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="123" priority="159" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="122" priority="158" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="121" priority="157" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="119" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="167" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="118" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="166" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="117" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="159" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="116" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="158" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="115" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="155" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="114" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="154" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="113" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="145" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="112" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="144" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="111" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="143" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="110" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="109" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="125" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="108" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="124" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="107" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="106" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="105" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="121" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="104" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="120" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="103" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="119" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="102" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="101" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="116" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="100" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="115" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="99" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="102" priority="111" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="duplicateValues" dxfId="101" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="duplicateValues" dxfId="100" priority="109"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="duplicateValues" dxfId="99" priority="108"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="98" priority="105" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="97" priority="104"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="duplicateValues" dxfId="96" priority="103"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="duplicateValues" dxfId="95" priority="102"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="94" priority="99" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="93" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="104" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="92" priority="93"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="99"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="91" priority="92"/>
+    <cfRule type="duplicateValues" dxfId="95" priority="98"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="90" priority="91"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="97"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="88" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="87" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="77" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="86" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="84" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="83" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="82" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="81" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="80" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="79" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="78" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="77" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="76" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="75" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="74" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="73" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="72" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="71" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="70" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="69" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="68" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="67" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="66" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="65" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="64" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="63" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="60" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="62" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="59" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="61" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="60" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="57" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="59" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="56" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="58" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="57" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="54" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="56" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="55" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="54" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="51" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="53" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="52" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="51" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="50" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="47" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="49" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="48" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="46" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="44" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="41" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="41" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="40" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="39" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="36" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="38" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="37" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="36" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="35" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="34" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="32" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="30" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H85">
+    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
     <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H86">
     <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H87">
     <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H87">
     <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21823,21 +21931,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="90" t="s">
+        <v>390</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>391</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2" s="91" t="s">
+        <v>404</v>
+      </c>
+      <c r="C2" s="91" t="s">
         <v>405</v>
-      </c>
-      <c r="C2" s="91" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -21845,52 +21953,52 @@
         <v>58</v>
       </c>
       <c r="B3" s="91" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" s="91" t="s">
         <v>400</v>
-      </c>
-      <c r="C3" s="91" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B4" s="91" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="91" t="s">
         <v>394</v>
-      </c>
-      <c r="C4" s="91" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" s="91" t="s">
         <v>397</v>
       </c>
-      <c r="B5" s="91" t="s">
+      <c r="C5" s="91" t="s">
         <v>398</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B7" s="91"/>
       <c r="C7" s="91" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/aks sell 2 Rows.xlsx
+++ b/aks sell 2 Rows.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="857" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="417">
   <si>
     <t>SSD 128</t>
   </si>
@@ -1165,9 +1165,6 @@
     <t>Apacer ram LT</t>
   </si>
   <si>
-    <t>nvme 128gb used</t>
-  </si>
-  <si>
     <t>ruidun 256</t>
   </si>
   <si>
@@ -1540,9 +1537,6 @@
     <t>akm</t>
   </si>
   <si>
-    <t>aerocool</t>
-  </si>
-  <si>
     <t>asus 960 2gb</t>
   </si>
   <si>
@@ -1658,6 +1652,12 @@
   </si>
   <si>
     <t>Asus Strix 1050ti</t>
+  </si>
+  <si>
+    <t>Tforce 2666</t>
+  </si>
+  <si>
+    <t>aerocool new</t>
   </si>
 </sst>
 </file>
@@ -2030,7 +2030,21 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="408">
+  <dxfs count="410">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5156,15 +5170,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
   <autoFilter ref="B1:G128"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="5"/>
-    <tableColumn id="2" name="Description" dataDxfId="4"/>
-    <tableColumn id="3" name="Remark" dataDxfId="3"/>
-    <tableColumn id="4" name="Qty" dataDxfId="2"/>
-    <tableColumn id="5" name="Price" dataDxfId="1"/>
-    <tableColumn id="6" name="Amount" dataDxfId="0"/>
+    <tableColumn id="1" name="Category" dataDxfId="7"/>
+    <tableColumn id="2" name="Description" dataDxfId="6"/>
+    <tableColumn id="3" name="Remark" dataDxfId="5"/>
+    <tableColumn id="4" name="Qty" dataDxfId="4"/>
+    <tableColumn id="5" name="Price" dataDxfId="3"/>
+    <tableColumn id="6" name="Amount" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13115,1042 +13129,1042 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I74 I136:I1048576 I1:I32">
-    <cfRule type="cellIs" dxfId="407" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="295" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="406" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="293" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="405" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="292" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="404" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="291" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="403" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="402" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="289" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="401" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="288" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="400" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="287" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="399" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="286" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="398" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="285" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="cellIs" dxfId="397" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="284" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="396" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="283" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="395" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="282" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="394" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="281" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="393" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="280" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="392" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="279" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="391" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="278" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="390" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="276" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="389" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="274" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="388" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="273" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="387" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="272" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="386" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="271" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="385" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="270" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="384" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="269" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="383" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="267" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="382" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="265" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="381" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="264" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="380" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="379" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="378" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="377" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="376" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="259" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="cellIs" dxfId="375" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="258" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="374" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="257" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="cellIs" dxfId="373" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="372" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="371" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="253" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="370" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="252" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="369" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="251" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="368" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="250" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="cellIs" dxfId="367" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="249" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="366" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="247" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="365" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="246" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="364" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="245" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="363" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="240" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="362" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="239" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="361" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="238" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="360" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="237" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="359" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="236" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="358" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="235" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="357" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="234" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="356" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="233" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="355" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="232" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="354" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="231" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="353" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="230" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="352" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="229" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="351" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="228" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="350" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="227" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="349" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="224" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="348" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="223" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="347" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="222" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="346" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="221" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="345" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="212" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="344" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="211" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="343" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="210" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="342" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="209" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="341" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="208" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="340" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="339" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="338" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="205" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="337" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="204" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="336" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="203" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="335" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="202" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="334" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="201" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="333" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="200" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="332" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="331" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="330" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="197" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="329" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="192" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="328" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="191" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="327" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="190" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="326" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="189" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="325" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="188" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="324" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="187" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="323" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="186" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="322" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="185" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="321" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="184" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="320" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="183" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="319" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="180" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="318" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="179" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="317" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="178" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="316" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="177" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="315" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="176" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="314" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="175" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="313" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="174" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="312" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="173" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="311" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="168" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="310" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="167" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="309" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="162" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="308" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="161" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="307" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="160" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="306" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="159" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="305" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="158" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="304" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="303" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="302" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="155" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="301" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="154" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="300" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="299" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="146" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="298" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="145" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="297" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="144" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="296" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="143" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="295" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="142" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="294" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="141" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="293" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="140" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="292" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="139" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="291" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="138" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="290" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="137" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="289" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="136" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="288" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="135" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="287" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="126" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="286" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="125" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="285" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="124" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="284" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="123" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="283" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="122" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="282" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="121" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="281" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="120" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="280" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="119" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="279" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="118" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="278" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="117" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="277" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="276" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="111" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="275" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="274" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="273" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="272" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="271" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="104" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="270" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="103" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="269" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="268" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="267" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="100" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="266" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="99" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="265" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="96" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="264" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="95" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="263" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="94" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="262" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="93" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="261" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="92" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="260" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="91" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="259" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="90" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="258" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="89" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="257" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="88" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="256" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="87" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="255" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="254" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="253" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="252" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="251" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="250" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="249" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="248" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="77" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="247" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="246" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="245" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="244" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="243" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="242" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="241" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="240" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="239" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="238" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="237" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="236" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="235" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="234" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="233" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="232" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="231" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="230" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="229" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="228" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="227" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="226" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="225" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="224" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="223" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="24" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="222" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="23" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="221" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="22" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="220" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="21" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="219" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="20" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="218" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="19" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="217" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="18" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="216" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="17" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="215" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="214" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="213" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="212" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="13" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="211" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="210" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="209" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="208" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="207" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="206" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="205" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="204" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="203" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="202" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="201" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="200" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15354,7 +15368,7 @@
         <v>44932</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -15375,7 +15389,7 @@
         <v>44933</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -15391,7 +15405,7 @@
         <v>13000</v>
       </c>
       <c r="H27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -15399,7 +15413,7 @@
         <v>44933</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -15420,7 +15434,7 @@
         <v>44933</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -15457,7 +15471,7 @@
         <v>85000</v>
       </c>
       <c r="H30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -15465,7 +15479,7 @@
         <v>44934</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
@@ -15486,7 +15500,7 @@
         <v>44935</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -15507,7 +15521,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -15528,7 +15542,7 @@
         <v>44935</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -15591,7 +15605,7 @@
         <v>44937</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -15612,7 +15626,7 @@
         <v>44937</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -15654,7 +15668,7 @@
         <v>44942</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -15691,7 +15705,7 @@
         <v>7000</v>
       </c>
       <c r="H41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -15699,7 +15713,7 @@
         <v>44942</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -15741,7 +15755,7 @@
         <v>44942</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -15762,7 +15776,7 @@
         <v>44942</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
@@ -15804,7 +15818,7 @@
         <v>44942</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -15825,7 +15839,7 @@
         <v>44942</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -15867,7 +15881,7 @@
         <v>44943</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D50" s="1">
         <v>5</v>
@@ -15888,7 +15902,7 @@
         <v>44943</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -15909,7 +15923,7 @@
         <v>44943</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -15930,7 +15944,7 @@
         <v>44943</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -15951,7 +15965,7 @@
         <v>44943</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -15972,7 +15986,7 @@
         <v>44943</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -15993,7 +16007,7 @@
         <v>44943</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -16014,7 +16028,7 @@
         <v>44945</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D57" s="1">
         <v>12</v>
@@ -16035,7 +16049,7 @@
         <v>44945</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D58" s="1">
         <v>5</v>
@@ -16077,7 +16091,7 @@
         <v>44945</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -16098,7 +16112,7 @@
         <v>44945</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -16119,7 +16133,7 @@
         <v>44946</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -16140,7 +16154,7 @@
         <v>44946</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -16161,7 +16175,7 @@
         <v>44947</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -16182,7 +16196,7 @@
         <v>44947</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -16203,7 +16217,7 @@
         <v>44947</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -16224,7 +16238,7 @@
         <v>44947</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -16245,7 +16259,7 @@
         <v>44947</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
@@ -16266,7 +16280,7 @@
         <v>44949</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -16282,7 +16296,7 @@
         <v>5000</v>
       </c>
       <c r="H69" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
@@ -16311,7 +16325,7 @@
         <v>44950</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D71" s="1">
         <v>2</v>
@@ -16332,7 +16346,7 @@
         <v>44950</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -16353,7 +16367,7 @@
         <v>44950</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -16374,7 +16388,7 @@
         <v>44950</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -16395,7 +16409,7 @@
         <v>44950</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -16416,7 +16430,7 @@
         <v>44950</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -16437,7 +16451,7 @@
         <v>44951</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -16479,7 +16493,7 @@
         <v>44951</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -16500,7 +16514,7 @@
         <v>44952</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D80" s="1">
         <v>4</v>
@@ -16521,7 +16535,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -16542,7 +16556,7 @@
         <v>44954</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -16563,7 +16577,7 @@
         <v>44954</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -16584,7 +16598,7 @@
         <v>44955</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -16611,8 +16625,8 @@
   <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D79" sqref="D79"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16684,11 +16698,11 @@
       </c>
       <c r="Q1" s="20">
         <f>SUM(A2:A124)</f>
-        <v>16456260</v>
+        <v>15387600</v>
       </c>
       <c r="R1" s="77">
         <f>Q20</f>
-        <v>-617679.21999999881</v>
+        <v>-1276919.2199999988</v>
       </c>
       <c r="S1" s="77"/>
     </row>
@@ -16740,7 +16754,7 @@
         <v>58</v>
       </c>
       <c r="Q2" s="1">
-        <v>4300000</v>
+        <v>4580000</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -16789,7 +16803,7 @@
         <v>290000</v>
       </c>
       <c r="P3" s="52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q3" s="1">
         <v>0</v>
@@ -16838,7 +16852,7 @@
       </c>
       <c r="N4" s="55"/>
       <c r="P4" s="52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="1">
         <v>1150000</v>
@@ -16853,7 +16867,7 @@
         <v>220</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="53">
@@ -16892,7 +16906,7 @@
         <v>60</v>
       </c>
       <c r="Q5" s="1">
-        <v>772400</v>
+        <v>1307000</v>
       </c>
       <c r="R5" s="85">
         <v>86.6</v>
@@ -17072,7 +17086,7 @@
         <v>201</v>
       </c>
       <c r="Q8" s="1">
-        <v>460000</v>
+        <v>1373300</v>
       </c>
       <c r="S8" s="57" t="s">
         <v>127</v>
@@ -17196,7 +17210,7 @@
         <v>210</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D11" s="54"/>
       <c r="E11" s="53">
@@ -17251,7 +17265,7 @@
         <v>210</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52">
@@ -17284,7 +17298,7 @@
       </c>
       <c r="N12" s="81"/>
       <c r="P12" s="61" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q12" s="67">
         <v>50000</v>
@@ -17303,48 +17317,18 @@
       </c>
     </row>
     <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
-        <f t="shared" si="10"/>
-        <v>20000</v>
-      </c>
-      <c r="B13" s="76" t="s">
-        <v>220</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>252</v>
-      </c>
+      <c r="B13" s="76"/>
+      <c r="C13" s="52"/>
       <c r="D13" s="52"/>
-      <c r="E13" s="52">
-        <v>0</v>
-      </c>
-      <c r="F13" s="52">
-        <v>25000</v>
-      </c>
-      <c r="G13" s="53">
-        <f t="shared" ref="G13:G20" si="16">F13*E13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="44" t="str">
-        <f>IF(E13=I13,"Out of Stock",I13-E13&amp;" qty Left")</f>
-        <v>1 qty Left</v>
-      </c>
-      <c r="I13" s="52">
-        <v>1</v>
-      </c>
-      <c r="J13" s="52">
-        <v>20000</v>
-      </c>
-      <c r="K13" s="52">
-        <v>0</v>
-      </c>
-      <c r="L13" s="52">
-        <f>(K13/I13)+J13</f>
-        <v>20000</v>
-      </c>
-      <c r="M13" s="52">
-        <f>(J13*I13)+K13</f>
-        <v>20000</v>
-      </c>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
       <c r="P13" s="62"/>
       <c r="Q13" s="62"/>
       <c r="S13" s="51">
@@ -17364,7 +17348,7 @@
         <v>21</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="53">
@@ -17374,7 +17358,7 @@
         <v>60000</v>
       </c>
       <c r="G14" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="G13:G20" si="16">F14*E14</f>
         <v>0</v>
       </c>
       <c r="H14" s="44" t="str">
@@ -17426,7 +17410,7 @@
         <v>23</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D15" s="53"/>
       <c r="E15" s="52">
@@ -17477,7 +17461,7 @@
         <v>221</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D16" s="53"/>
       <c r="E16" s="74">
@@ -17517,7 +17501,7 @@
       </c>
       <c r="Q16" s="17">
         <f>Q1+SUM(Q2:Q14)+Q15</f>
-        <v>23817679.219999999</v>
+        <v>24476919.219999999</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17529,7 +17513,7 @@
         <v>221</v>
       </c>
       <c r="C17" s="53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D17" s="53"/>
       <c r="E17" s="74">
@@ -17586,7 +17570,7 @@
         <v>221</v>
       </c>
       <c r="C18" s="53" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D18" s="53"/>
       <c r="E18" s="74">
@@ -17647,7 +17631,7 @@
         <v>221</v>
       </c>
       <c r="C19" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D19" s="53"/>
       <c r="E19" s="74">
@@ -17734,52 +17718,22 @@
       </c>
       <c r="Q20" s="17">
         <f>Q18-Q16</f>
-        <v>-617679.21999999881</v>
+        <v>-1276919.2199999988</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="84">
-        <f t="shared" si="23"/>
-        <v>130000</v>
-      </c>
-      <c r="B21" s="76" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="52" t="s">
-        <v>333</v>
-      </c>
+      <c r="B21" s="76"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="52"/>
-      <c r="E21" s="74">
-        <v>3</v>
-      </c>
-      <c r="F21" s="74">
-        <v>220000</v>
-      </c>
-      <c r="G21" s="53">
-        <f t="shared" ref="G21" si="33">F21*E21</f>
-        <v>660000</v>
-      </c>
-      <c r="H21" s="44" t="str">
-        <f t="shared" si="30"/>
-        <v>2 qty Left</v>
-      </c>
-      <c r="I21" s="53">
-        <v>5</v>
-      </c>
-      <c r="J21" s="52">
-        <v>65000</v>
-      </c>
-      <c r="K21" s="52">
-        <v>0</v>
-      </c>
-      <c r="L21" s="52">
-        <f t="shared" si="31"/>
-        <v>65000</v>
-      </c>
-      <c r="M21" s="52">
-        <f t="shared" si="32"/>
-        <v>325000</v>
-      </c>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
       <c r="N21" s="55"/>
       <c r="O21" s="51" t="s">
         <v>128</v>
@@ -17800,7 +17754,7 @@
         <v>221</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="74">
@@ -17810,7 +17764,7 @@
         <v>45000</v>
       </c>
       <c r="G22" s="53">
-        <f t="shared" ref="G22" si="34">F22*E22</f>
+        <f t="shared" ref="G22" si="33">F22*E22</f>
         <v>180000</v>
       </c>
       <c r="H22" s="44" t="str">
@@ -17849,7 +17803,7 @@
         <v>217</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E23" s="74">
         <v>3</v>
@@ -17884,10 +17838,10 @@
       </c>
       <c r="N23" s="66"/>
       <c r="P23" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q23" s="51" t="s">
         <v>304</v>
-      </c>
-      <c r="Q23" s="51" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17902,7 +17856,7 @@
         <v>209</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E24" s="74">
         <v>1</v>
@@ -17911,7 +17865,7 @@
         <v>67000</v>
       </c>
       <c r="G24" s="53">
-        <f t="shared" ref="G24" si="35">F24*E24</f>
+        <f t="shared" ref="G24" si="34">F24*E24</f>
         <v>67000</v>
       </c>
       <c r="H24" s="44" t="str">
@@ -17938,10 +17892,10 @@
       <c r="N24" s="66"/>
       <c r="O24" s="66"/>
       <c r="P24" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q24" s="78" t="s">
         <v>306</v>
-      </c>
-      <c r="Q24" s="78" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -17953,10 +17907,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>326</v>
-      </c>
-      <c r="D25" s="52" t="s">
-        <v>327</v>
       </c>
       <c r="E25" s="74">
         <v>4</v>
@@ -17965,7 +17919,7 @@
         <v>75000</v>
       </c>
       <c r="G25" s="53">
-        <f t="shared" ref="G25:G45" si="36">F25*E25</f>
+        <f t="shared" ref="G25:G45" si="35">F25*E25</f>
         <v>300000</v>
       </c>
       <c r="H25" s="44" t="str">
@@ -18001,10 +17955,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D26" s="61" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E26" s="74">
         <v>0</v>
@@ -18013,7 +17967,7 @@
         <v>80000</v>
       </c>
       <c r="G26" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H26" s="44" t="str">
@@ -18047,10 +18001,10 @@
         <v>19</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E27" s="74">
         <v>10</v>
@@ -18059,7 +18013,7 @@
         <v>55000</v>
       </c>
       <c r="G27" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>550000</v>
       </c>
       <c r="H27" s="44" t="str">
@@ -18096,10 +18050,10 @@
         <v>19</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E28" s="74">
         <v>4</v>
@@ -18108,7 +18062,7 @@
         <v>65000</v>
       </c>
       <c r="G28" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>260000</v>
       </c>
       <c r="H28" s="44" t="str">
@@ -18139,43 +18093,43 @@
     <row r="29" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="84">
         <f t="shared" si="23"/>
-        <v>463000</v>
+        <v>377500</v>
       </c>
       <c r="B29" s="76" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="D29" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="D29" s="52" t="s">
-        <v>331</v>
-      </c>
       <c r="E29" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" s="74">
         <v>80000</v>
       </c>
       <c r="G29" s="53">
-        <f t="shared" si="36"/>
-        <v>0</v>
+        <f t="shared" si="35"/>
+        <v>80000</v>
       </c>
       <c r="H29" s="44" t="str">
         <f t="shared" si="30"/>
-        <v>3 qty Left</v>
+        <v>5 qty Left</v>
       </c>
       <c r="I29" s="52">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29" s="53">
-        <v>151000</v>
+        <v>75500</v>
       </c>
       <c r="K29" s="52">
         <v>10000</v>
       </c>
       <c r="L29" s="52">
         <f t="shared" si="31"/>
-        <v>154333.33333333334</v>
+        <v>77166.666666666672</v>
       </c>
       <c r="M29" s="52">
         <f t="shared" si="32"/>
@@ -18193,10 +18147,10 @@
         <v>221</v>
       </c>
       <c r="C30" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="D30" s="52" t="s">
         <v>336</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>337</v>
       </c>
       <c r="E30" s="74">
         <v>4</v>
@@ -18205,7 +18159,7 @@
         <v>7000</v>
       </c>
       <c r="G30" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>28000</v>
       </c>
       <c r="H30" s="44" t="str">
@@ -18243,10 +18197,10 @@
         <v>23</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E31" s="74">
         <v>0</v>
@@ -18255,7 +18209,7 @@
         <v>220000</v>
       </c>
       <c r="G31" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H31" s="44" t="str">
@@ -18311,10 +18265,10 @@
         <v>221</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E33" s="74">
         <v>0</v>
@@ -18323,7 +18277,7 @@
         <v>6000</v>
       </c>
       <c r="G33" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H33" s="44" t="str">
@@ -18361,10 +18315,10 @@
         <v>221</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E34" s="74">
         <v>0</v>
@@ -18373,7 +18327,7 @@
         <v>6000</v>
       </c>
       <c r="G34" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H34" s="44" t="str">
@@ -18410,10 +18364,10 @@
         <v>221</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E35" s="74">
         <v>0</v>
@@ -18422,7 +18376,7 @@
         <v>6000</v>
       </c>
       <c r="G35" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H35" s="44" t="str">
@@ -18460,10 +18414,10 @@
         <v>223</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E36" s="74">
         <v>0</v>
@@ -18472,7 +18426,7 @@
         <v>220000</v>
       </c>
       <c r="G36" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H36" s="44" t="str">
@@ -18507,10 +18461,10 @@
         <v>220</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E37" s="74">
         <v>6</v>
@@ -18519,7 +18473,7 @@
         <v>50000</v>
       </c>
       <c r="G37" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>300000</v>
       </c>
       <c r="H37" s="44" t="str">
@@ -18555,10 +18509,10 @@
         <v>221</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E38" s="74">
         <v>0</v>
@@ -18567,7 +18521,7 @@
         <v>220000</v>
       </c>
       <c r="G38" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H38" s="44" t="str">
@@ -18616,13 +18570,13 @@
         <v>231000</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C40" s="52" t="s">
         <v>234</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E40" s="74">
         <v>9</v>
@@ -18631,7 +18585,7 @@
         <v>220000</v>
       </c>
       <c r="G40" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1980000</v>
       </c>
       <c r="H40" s="44" t="str">
@@ -18666,10 +18620,10 @@
         <v>220</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E41" s="74">
         <v>0</v>
@@ -18678,7 +18632,7 @@
         <v>220000</v>
       </c>
       <c r="G41" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H41" s="44" t="str">
@@ -18712,10 +18666,10 @@
         <v>221</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E42" s="74">
         <v>0</v>
@@ -18724,7 +18678,7 @@
         <v>220000</v>
       </c>
       <c r="G42" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H42" s="44" t="str">
@@ -18757,10 +18711,10 @@
         <v>220</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E43" s="74">
         <v>0</v>
@@ -18769,7 +18723,7 @@
         <v>220000</v>
       </c>
       <c r="G43" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H43" s="44" t="str">
@@ -18802,10 +18756,10 @@
         <v>23</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E44" s="74">
         <v>0</v>
@@ -18814,7 +18768,7 @@
         <v>220000</v>
       </c>
       <c r="G44" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H44" s="44" t="str">
@@ -18847,10 +18801,10 @@
         <v>23</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E45" s="74">
         <v>0</v>
@@ -18859,7 +18813,7 @@
         <v>220000</v>
       </c>
       <c r="G45" s="53">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H45" s="44" t="str">
@@ -18892,10 +18846,10 @@
         <v>23</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E46" s="74">
         <v>0</v>
@@ -18904,11 +18858,11 @@
         <v>220000</v>
       </c>
       <c r="G46" s="53">
-        <f t="shared" ref="G46:G47" si="37">F46*E46</f>
+        <f t="shared" ref="G46:G47" si="36">F46*E46</f>
         <v>0</v>
       </c>
       <c r="H46" s="44" t="str">
-        <f t="shared" ref="H46:H47" si="38">IF(E46=I46,"Out of Stock",I46-E46&amp;" qty Left")</f>
+        <f t="shared" ref="H46:H47" si="37">IF(E46=I46,"Out of Stock",I46-E46&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I46" s="52">
@@ -18919,11 +18873,11 @@
       </c>
       <c r="K46" s="52"/>
       <c r="L46" s="52">
-        <f t="shared" ref="L46:L47" si="39">(K46/I46)+J46</f>
+        <f t="shared" ref="L46:L47" si="38">(K46/I46)+J46</f>
         <v>140600</v>
       </c>
       <c r="M46" s="52">
-        <f t="shared" ref="M46:M47" si="40">(J46*I46)+K46</f>
+        <f t="shared" ref="M46:M47" si="39">(J46*I46)+K46</f>
         <v>140600</v>
       </c>
       <c r="Q46" s="80"/>
@@ -18937,10 +18891,10 @@
         <v>23</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E47" s="74">
         <v>0</v>
@@ -18949,11 +18903,11 @@
         <v>220000</v>
       </c>
       <c r="G47" s="53">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="44" t="str">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="44" t="str">
-        <f t="shared" si="38"/>
         <v>2 qty Left</v>
       </c>
       <c r="I47" s="52">
@@ -18964,11 +18918,11 @@
       </c>
       <c r="K47" s="52"/>
       <c r="L47" s="52">
+        <f t="shared" si="38"/>
+        <v>169320</v>
+      </c>
+      <c r="M47" s="52">
         <f t="shared" si="39"/>
-        <v>169320</v>
-      </c>
-      <c r="M47" s="52">
-        <f t="shared" si="40"/>
         <v>338640</v>
       </c>
       <c r="Q47" s="80"/>
@@ -18982,10 +18936,10 @@
         <v>221</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E48" s="74">
         <v>0</v>
@@ -18994,11 +18948,11 @@
         <v>220000</v>
       </c>
       <c r="G48" s="53">
-        <f t="shared" ref="G48:G51" si="41">F48*E48</f>
+        <f t="shared" ref="G48:G50" si="40">F48*E48</f>
         <v>0</v>
       </c>
       <c r="H48" s="44" t="str">
-        <f t="shared" ref="H48:H51" si="42">IF(E48=I48,"Out of Stock",I48-E48&amp;" qty Left")</f>
+        <f t="shared" ref="H48:H50" si="41">IF(E48=I48,"Out of Stock",I48-E48&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I48" s="52">
@@ -19009,11 +18963,11 @@
       </c>
       <c r="K48" s="52"/>
       <c r="L48" s="52">
-        <f t="shared" ref="L48:L51" si="43">(K48/I48)+J48</f>
+        <f t="shared" ref="L48:L50" si="42">(K48/I48)+J48</f>
         <v>72000</v>
       </c>
       <c r="M48" s="52">
-        <f t="shared" ref="M48:M51" si="44">(J48*I48)+K48</f>
+        <f t="shared" ref="M48:M50" si="43">(J48*I48)+K48</f>
         <v>144000</v>
       </c>
       <c r="Q48" s="80"/>
@@ -19027,10 +18981,10 @@
         <v>221</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E49" s="74">
         <v>0</v>
@@ -19039,11 +18993,11 @@
         <v>220000</v>
       </c>
       <c r="G49" s="53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="44" t="str">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="44" t="str">
-        <f t="shared" si="42"/>
         <v>1 qty Left</v>
       </c>
       <c r="I49" s="52">
@@ -19054,11 +19008,11 @@
       </c>
       <c r="K49" s="52"/>
       <c r="L49" s="52">
+        <f t="shared" si="42"/>
+        <v>83000</v>
+      </c>
+      <c r="M49" s="52">
         <f t="shared" si="43"/>
-        <v>83000</v>
-      </c>
-      <c r="M49" s="52">
-        <f t="shared" si="44"/>
         <v>83000</v>
       </c>
       <c r="Q49" s="80"/>
@@ -19072,10 +19026,10 @@
         <v>221</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E50" s="74">
         <v>0</v>
@@ -19084,11 +19038,11 @@
         <v>220000</v>
       </c>
       <c r="G50" s="53">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="44" t="str">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="44" t="str">
-        <f t="shared" si="42"/>
         <v>2 qty Left</v>
       </c>
       <c r="I50" s="52">
@@ -19099,11 +19053,11 @@
       </c>
       <c r="K50" s="52"/>
       <c r="L50" s="52">
+        <f t="shared" si="42"/>
+        <v>79000</v>
+      </c>
+      <c r="M50" s="52">
         <f t="shared" si="43"/>
-        <v>79000</v>
-      </c>
-      <c r="M50" s="52">
-        <f t="shared" si="44"/>
         <v>158000</v>
       </c>
       <c r="Q50" s="80"/>
@@ -19132,10 +19086,10 @@
         <v>223</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E52" s="74">
         <v>0</v>
@@ -19144,11 +19098,11 @@
         <v>220000</v>
       </c>
       <c r="G52" s="53">
-        <f t="shared" ref="G52" si="45">F52*E52</f>
+        <f t="shared" ref="G52" si="44">F52*E52</f>
         <v>0</v>
       </c>
       <c r="H52" s="44" t="str">
-        <f t="shared" ref="H52" si="46">IF(E52=I52,"Out of Stock",I52-E52&amp;" qty Left")</f>
+        <f t="shared" ref="H52" si="45">IF(E52=I52,"Out of Stock",I52-E52&amp;" qty Left")</f>
         <v>3 qty Left</v>
       </c>
       <c r="I52" s="52">
@@ -19159,11 +19113,11 @@
       </c>
       <c r="K52" s="52"/>
       <c r="L52" s="52">
-        <f t="shared" ref="L52" si="47">(K52/I52)+J52</f>
+        <f t="shared" ref="L52" si="46">(K52/I52)+J52</f>
         <v>129400</v>
       </c>
       <c r="M52" s="52">
-        <f t="shared" ref="M52" si="48">(J52*I52)+K52</f>
+        <f t="shared" ref="M52" si="47">(J52*I52)+K52</f>
         <v>388200</v>
       </c>
       <c r="Q52" s="80"/>
@@ -19185,31 +19139,31 @@
     </row>
     <row r="54" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="84">
-        <f t="shared" ref="A54:A89" si="49">IF($E54=0,$M54,IF($E54=$I54,IF($M54-$G54&lt;0,0,IF($D54="set",$M54-$G54,FALSE)),($I54-$E54)*$J54))</f>
-        <v>300000</v>
+        <f t="shared" ref="A54:A90" si="48">IF($E54=0,$M54,IF($E54=$I54,IF($M54-$G54&lt;0,0,IF($D54="set",$M54-$G54,FALSE)),($I54-$E54)*$J54))</f>
+        <v>240000</v>
       </c>
       <c r="B54" s="76" t="s">
         <v>222</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E54" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="74">
         <v>220000</v>
       </c>
       <c r="G54" s="53">
-        <f t="shared" ref="G54" si="50">F54*E54</f>
-        <v>0</v>
+        <f t="shared" ref="G54" si="49">F54*E54</f>
+        <v>220000</v>
       </c>
       <c r="H54" s="44" t="str">
-        <f t="shared" ref="H54" si="51">IF(E54=I54,"Out of Stock",I54-E54&amp;" qty Left")</f>
-        <v>5 qty Left</v>
+        <f t="shared" ref="H54" si="50">IF(E54=I54,"Out of Stock",I54-E54&amp;" qty Left")</f>
+        <v>4 qty Left</v>
       </c>
       <c r="I54" s="52">
         <v>5</v>
@@ -19219,18 +19173,18 @@
       </c>
       <c r="K54" s="52"/>
       <c r="L54" s="52">
-        <f t="shared" ref="L54" si="52">(K54/I54)+J54</f>
+        <f t="shared" ref="L54" si="51">(K54/I54)+J54</f>
         <v>60000</v>
       </c>
       <c r="M54" s="52">
-        <f t="shared" ref="M54" si="53">(J54*I54)+K54</f>
+        <f t="shared" ref="M54" si="52">(J54*I54)+K54</f>
         <v>300000</v>
       </c>
       <c r="Q54" s="80"/>
     </row>
     <row r="55" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>57600</v>
       </c>
       <c r="B55" s="76" t="s">
@@ -19240,7 +19194,7 @@
         <v>31</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E55" s="74">
         <v>0</v>
@@ -19249,11 +19203,11 @@
         <v>220000</v>
       </c>
       <c r="G55" s="53">
-        <f t="shared" ref="G55:G57" si="54">F55*E55</f>
+        <f t="shared" ref="G55:G57" si="53">F55*E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="44" t="str">
-        <f t="shared" ref="H55:H57" si="55">IF(E55=I55,"Out of Stock",I55-E55&amp;" qty Left")</f>
+        <f t="shared" ref="H55:H57" si="54">IF(E55=I55,"Out of Stock",I55-E55&amp;" qty Left")</f>
         <v>12 qty Left</v>
       </c>
       <c r="I55" s="52">
@@ -19264,19 +19218,19 @@
       </c>
       <c r="K55" s="52"/>
       <c r="L55" s="52">
-        <f t="shared" ref="L55:L57" si="56">(K55/I55)+J55</f>
+        <f t="shared" ref="L55:L57" si="55">(K55/I55)+J55</f>
         <v>4800</v>
       </c>
       <c r="M55" s="52">
-        <f t="shared" ref="M55:M57" si="57">(J55*I55)+K55</f>
+        <f t="shared" ref="M55:M57" si="56">(J55*I55)+K55</f>
         <v>57600</v>
       </c>
       <c r="Q55" s="80"/>
     </row>
     <row r="56" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="84">
-        <f t="shared" si="49"/>
-        <v>66000</v>
+        <f t="shared" si="48"/>
+        <v>44000</v>
       </c>
       <c r="B56" s="76" t="s">
         <v>221</v>
@@ -19285,21 +19239,21 @@
         <v>31</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E56" s="74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F56" s="74">
         <v>220000</v>
       </c>
       <c r="G56" s="53">
+        <f t="shared" si="53"/>
+        <v>880000</v>
+      </c>
+      <c r="H56" s="44" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="H56" s="44" t="str">
-        <f t="shared" si="55"/>
-        <v>12 qty Left</v>
+        <v>8 qty Left</v>
       </c>
       <c r="I56" s="52">
         <v>12</v>
@@ -19309,28 +19263,28 @@
       </c>
       <c r="K56" s="52"/>
       <c r="L56" s="52">
+        <f t="shared" si="55"/>
+        <v>5500</v>
+      </c>
+      <c r="M56" s="52">
         <f t="shared" si="56"/>
-        <v>5500</v>
-      </c>
-      <c r="M56" s="52">
-        <f t="shared" si="57"/>
         <v>66000</v>
       </c>
       <c r="Q56" s="80"/>
     </row>
     <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>312600</v>
       </c>
       <c r="B57" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E57" s="74">
         <v>0</v>
@@ -19339,11 +19293,11 @@
         <v>220000</v>
       </c>
       <c r="G57" s="53">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="44" t="str">
         <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="44" t="str">
-        <f t="shared" si="55"/>
         <v>2 qty Left</v>
       </c>
       <c r="I57" s="52">
@@ -19354,28 +19308,28 @@
       </c>
       <c r="K57" s="52"/>
       <c r="L57" s="52">
+        <f t="shared" si="55"/>
+        <v>156300</v>
+      </c>
+      <c r="M57" s="52">
         <f t="shared" si="56"/>
-        <v>156300</v>
-      </c>
-      <c r="M57" s="52">
-        <f t="shared" si="57"/>
         <v>312600</v>
       </c>
       <c r="Q57" s="80"/>
     </row>
     <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>92000</v>
       </c>
       <c r="B58" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E58" s="74">
         <v>0</v>
@@ -19384,11 +19338,11 @@
         <v>220000</v>
       </c>
       <c r="G58" s="53">
-        <f t="shared" ref="G58:G59" si="58">F58*E58</f>
+        <f t="shared" ref="G58:G59" si="57">F58*E58</f>
         <v>0</v>
       </c>
       <c r="H58" s="44" t="str">
-        <f t="shared" ref="H58:H59" si="59">IF(E58=I58,"Out of Stock",I58-E58&amp;" qty Left")</f>
+        <f t="shared" ref="H58:H59" si="58">IF(E58=I58,"Out of Stock",I58-E58&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I58" s="52">
@@ -19399,17 +19353,17 @@
       </c>
       <c r="K58" s="52"/>
       <c r="L58" s="52">
-        <f t="shared" ref="L58:L59" si="60">(K58/I58)+J58</f>
+        <f t="shared" ref="L58:L59" si="59">(K58/I58)+J58</f>
         <v>46000</v>
       </c>
       <c r="M58" s="52">
-        <f t="shared" ref="M58:M59" si="61">(J58*I58)+K58</f>
+        <f t="shared" ref="M58:M59" si="60">(J58*I58)+K58</f>
         <v>92000</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>127750</v>
       </c>
       <c r="B59" s="76" t="s">
@@ -19419,7 +19373,7 @@
         <v>241</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E59" s="74">
         <v>0</v>
@@ -19428,11 +19382,11 @@
         <v>220000</v>
       </c>
       <c r="G59" s="53">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="44" t="str">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="44" t="str">
-        <f t="shared" si="59"/>
         <v>1 qty Left</v>
       </c>
       <c r="I59" s="52">
@@ -19443,27 +19397,27 @@
       </c>
       <c r="K59" s="52"/>
       <c r="L59" s="52">
+        <f t="shared" si="59"/>
+        <v>127750</v>
+      </c>
+      <c r="M59" s="52">
         <f t="shared" si="60"/>
         <v>127750</v>
       </c>
-      <c r="M59" s="52">
-        <f t="shared" si="61"/>
-        <v>127750</v>
-      </c>
     </row>
     <row r="60" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>31700</v>
       </c>
       <c r="B60" s="76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E60" s="74">
         <v>0</v>
@@ -19472,11 +19426,11 @@
         <v>220000</v>
       </c>
       <c r="G60" s="53">
-        <f t="shared" ref="G60" si="62">F60*E60</f>
+        <f t="shared" ref="G60" si="61">F60*E60</f>
         <v>0</v>
       </c>
       <c r="H60" s="44" t="str">
-        <f t="shared" ref="H60" si="63">IF(E60=I60,"Out of Stock",I60-E60&amp;" qty Left")</f>
+        <f t="shared" ref="H60" si="62">IF(E60=I60,"Out of Stock",I60-E60&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I60" s="52">
@@ -19487,27 +19441,27 @@
       </c>
       <c r="K60" s="52"/>
       <c r="L60" s="52">
-        <f t="shared" ref="L60" si="64">(K60/I60)+J60</f>
+        <f t="shared" ref="L60" si="63">(K60/I60)+J60</f>
         <v>31700</v>
       </c>
       <c r="M60" s="52">
-        <f t="shared" ref="M60" si="65">(J60*I60)+K60</f>
+        <f t="shared" ref="M60" si="64">(J60*I60)+K60</f>
         <v>31700</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>66600</v>
       </c>
       <c r="B61" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E61" s="74">
         <v>0</v>
@@ -19516,11 +19470,11 @@
         <v>220000</v>
       </c>
       <c r="G61" s="53">
-        <f t="shared" ref="G61" si="66">F61*E61</f>
+        <f t="shared" ref="G61" si="65">F61*E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="44" t="str">
-        <f t="shared" ref="H61" si="67">IF(E61=I61,"Out of Stock",I61-E61&amp;" qty Left")</f>
+        <f t="shared" ref="H61" si="66">IF(E61=I61,"Out of Stock",I61-E61&amp;" qty Left")</f>
         <v>3 qty Left</v>
       </c>
       <c r="I61" s="52">
@@ -19531,28 +19485,28 @@
       </c>
       <c r="K61" s="52"/>
       <c r="L61" s="52">
-        <f t="shared" ref="L61:L62" si="68">(K61/I61)+J61</f>
+        <f t="shared" ref="L61:L62" si="67">(K61/I61)+J61</f>
         <v>22200</v>
       </c>
       <c r="M61" s="52">
-        <f t="shared" ref="M61:M62" si="69">(J61*I61)+K61</f>
+        <f t="shared" ref="M61:M62" si="68">(J61*I61)+K61</f>
         <v>66600</v>
       </c>
       <c r="O61" s="55"/>
     </row>
     <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>229260</v>
       </c>
       <c r="B62" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E62" s="74">
         <v>0</v>
@@ -19561,11 +19515,11 @@
         <v>220000</v>
       </c>
       <c r="G62" s="53">
-        <f t="shared" ref="G62" si="70">F62*E62</f>
+        <f t="shared" ref="G62" si="69">F62*E62</f>
         <v>0</v>
       </c>
       <c r="H62" s="44" t="str">
-        <f t="shared" ref="H62" si="71">IF(E62=I62,"Out of Stock",I62-E62&amp;" qty Left")</f>
+        <f t="shared" ref="H62" si="70">IF(E62=I62,"Out of Stock",I62-E62&amp;" qty Left")</f>
         <v>6 qty Left</v>
       </c>
       <c r="I62" s="52">
@@ -19576,41 +19530,41 @@
       </c>
       <c r="K62" s="52"/>
       <c r="L62" s="52">
+        <f t="shared" si="67"/>
+        <v>38210</v>
+      </c>
+      <c r="M62" s="52">
         <f t="shared" si="68"/>
-        <v>38210</v>
-      </c>
-      <c r="M62" s="52">
-        <f t="shared" si="69"/>
         <v>229260</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="84">
-        <f t="shared" si="49"/>
-        <v>1398600</v>
+        <f t="shared" si="48"/>
+        <v>557440</v>
       </c>
       <c r="B63" s="86" t="s">
         <v>223</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E63" s="74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F63" s="74">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="G63" s="53">
-        <f t="shared" ref="G63" si="72">F63*E63</f>
-        <v>0</v>
+        <f t="shared" ref="G63" si="71">F63*E63</f>
+        <v>1260000</v>
       </c>
       <c r="H63" s="44" t="str">
-        <f t="shared" ref="H63" si="73">IF(E63=I63,"Out of Stock",I63-E63&amp;" qty Left")</f>
-        <v>10 qty Left</v>
+        <f t="shared" ref="H63" si="72">IF(E63=I63,"Out of Stock",I63-E63&amp;" qty Left")</f>
+        <v>4 qty Left</v>
       </c>
       <c r="I63" s="52">
         <v>10</v>
@@ -19622,27 +19576,27 @@
         <v>5000</v>
       </c>
       <c r="L63" s="52">
-        <f t="shared" ref="L63" si="74">(K63/I63)+J63</f>
+        <f t="shared" ref="L63" si="73">(K63/I63)+J63</f>
         <v>139860</v>
       </c>
       <c r="M63" s="52">
-        <f t="shared" ref="M63" si="75">(J63*I63)+K63</f>
+        <f t="shared" ref="M63" si="74">(J63*I63)+K63</f>
         <v>1398600</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>75000</v>
       </c>
       <c r="B64" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E64" s="74">
         <v>0</v>
@@ -19651,11 +19605,11 @@
         <v>80000</v>
       </c>
       <c r="G64" s="53">
-        <f t="shared" ref="G64" si="76">F64*E64</f>
+        <f t="shared" ref="G64" si="75">F64*E64</f>
         <v>0</v>
       </c>
       <c r="H64" s="44" t="str">
-        <f t="shared" ref="H64" si="77">IF(E64=I64,"Out of Stock",I64-E64&amp;" qty Left")</f>
+        <f t="shared" ref="H64" si="76">IF(E64=I64,"Out of Stock",I64-E64&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I64" s="52">
@@ -19666,27 +19620,27 @@
       </c>
       <c r="K64" s="52"/>
       <c r="L64" s="52">
-        <f t="shared" ref="L64" si="78">(K64/I64)+J64</f>
+        <f t="shared" ref="L64" si="77">(K64/I64)+J64</f>
         <v>75000</v>
       </c>
       <c r="M64" s="52">
-        <f t="shared" ref="M64" si="79">(J64*I64)+K64</f>
+        <f t="shared" ref="M64" si="78">(J64*I64)+K64</f>
         <v>75000</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>85000</v>
       </c>
       <c r="B65" s="76" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E65" s="74">
         <v>0</v>
@@ -19695,11 +19649,11 @@
         <v>80000</v>
       </c>
       <c r="G65" s="53">
-        <f t="shared" ref="G65:G67" si="80">F65*E65</f>
+        <f t="shared" ref="G65:G67" si="79">F65*E65</f>
         <v>0</v>
       </c>
       <c r="H65" s="44" t="str">
-        <f t="shared" ref="H65:H67" si="81">IF(E65=I65,"Out of Stock",I65-E65&amp;" qty Left")</f>
+        <f t="shared" ref="H65:H67" si="80">IF(E65=I65,"Out of Stock",I65-E65&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I65" s="52">
@@ -19710,11 +19664,11 @@
       </c>
       <c r="K65" s="52"/>
       <c r="L65" s="52">
-        <f t="shared" ref="L65:L67" si="82">(K65/I65)+J65</f>
+        <f t="shared" ref="L65:L67" si="81">(K65/I65)+J65</f>
         <v>85000</v>
       </c>
       <c r="M65" s="52">
-        <f t="shared" ref="M65:M67" si="83">(J65*I65)+K65</f>
+        <f t="shared" ref="M65:M67" si="82">(J65*I65)+K65</f>
         <v>85000</v>
       </c>
     </row>
@@ -19734,17 +19688,17 @@
     </row>
     <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>36000</v>
       </c>
       <c r="B67" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E67" s="74">
         <v>0</v>
@@ -19753,11 +19707,11 @@
         <v>20000</v>
       </c>
       <c r="G67" s="53">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="44" t="str">
         <f t="shared" si="80"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="44" t="str">
-        <f t="shared" si="81"/>
         <v>2 qty Left</v>
       </c>
       <c r="I67" s="52">
@@ -19768,27 +19722,27 @@
       </c>
       <c r="K67" s="52"/>
       <c r="L67" s="52">
+        <f t="shared" si="81"/>
+        <v>18000</v>
+      </c>
+      <c r="M67" s="52">
         <f t="shared" si="82"/>
-        <v>18000</v>
-      </c>
-      <c r="M67" s="52">
-        <f t="shared" si="83"/>
         <v>36000</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>540000</v>
       </c>
       <c r="B68" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C68" s="52" t="s">
+        <v>374</v>
+      </c>
+      <c r="D68" s="52" t="s">
         <v>375</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>376</v>
       </c>
       <c r="E68" s="74">
         <v>0</v>
@@ -19797,11 +19751,11 @@
         <v>20000</v>
       </c>
       <c r="G68" s="53">
-        <f t="shared" ref="G68" si="84">F68*E68</f>
+        <f t="shared" ref="G68" si="83">F68*E68</f>
         <v>0</v>
       </c>
       <c r="H68" s="44" t="str">
-        <f t="shared" ref="H68:H69" si="85">IF(E68=I68,"Out of Stock",I68-E68&amp;" qty Left")</f>
+        <f t="shared" ref="H68:H69" si="84">IF(E68=I68,"Out of Stock",I68-E68&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I68" s="52">
@@ -19813,27 +19767,27 @@
       </c>
       <c r="K68" s="52"/>
       <c r="L68" s="52">
-        <f t="shared" ref="L68:L69" si="86">(K68/I68)+J68</f>
+        <f t="shared" ref="L68:L69" si="85">(K68/I68)+J68</f>
         <v>540000</v>
       </c>
       <c r="M68" s="52">
-        <f t="shared" ref="M68:M69" si="87">(J68*I68)+K68</f>
+        <f t="shared" ref="M68:M69" si="86">(J68*I68)+K68</f>
         <v>540000</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>550000</v>
       </c>
       <c r="B69" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E69" s="74">
         <v>0</v>
@@ -19842,11 +19796,11 @@
         <v>220000</v>
       </c>
       <c r="G69" s="53">
-        <f t="shared" ref="G69:G77" si="88">F69*E69</f>
+        <f t="shared" ref="G69:G77" si="87">F69*E69</f>
         <v>0</v>
       </c>
       <c r="H69" s="44" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="84"/>
         <v>1 qty Left</v>
       </c>
       <c r="I69" s="52">
@@ -19859,27 +19813,27 @@
         <v>0</v>
       </c>
       <c r="L69" s="52">
+        <f t="shared" si="85"/>
+        <v>550000</v>
+      </c>
+      <c r="M69" s="52">
         <f t="shared" si="86"/>
         <v>550000</v>
       </c>
-      <c r="M69" s="52">
-        <f t="shared" si="87"/>
-        <v>550000</v>
-      </c>
     </row>
     <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>42500</v>
       </c>
       <c r="B70" s="72" t="s">
         <v>21</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E70" s="74">
         <v>0</v>
@@ -19888,11 +19842,11 @@
         <v>220000</v>
       </c>
       <c r="G70" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H70" s="44" t="str">
-        <f t="shared" ref="H70" si="89">IF(E70=I70,"Out of Stock",I70-E70&amp;" qty Left")</f>
+        <f t="shared" ref="H70" si="88">IF(E70=I70,"Out of Stock",I70-E70&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I70" s="52">
@@ -19905,27 +19859,27 @@
         <v>0</v>
       </c>
       <c r="L70" s="52">
-        <f t="shared" ref="L70" si="90">(K70/I70)+J70</f>
+        <f t="shared" ref="L70" si="89">(K70/I70)+J70</f>
         <v>42500</v>
       </c>
       <c r="M70" s="52">
-        <f t="shared" ref="M70" si="91">(J70*I70)+K70</f>
+        <f t="shared" ref="M70" si="90">(J70*I70)+K70</f>
         <v>42500</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>40800</v>
       </c>
       <c r="B71" s="72" t="s">
         <v>21</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E71" s="74">
         <v>0</v>
@@ -19934,11 +19888,11 @@
         <v>220000</v>
       </c>
       <c r="G71" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H71" s="44" t="str">
-        <f t="shared" ref="H71" si="92">IF(E71=I71,"Out of Stock",I71-E71&amp;" qty Left")</f>
+        <f t="shared" ref="H71" si="91">IF(E71=I71,"Out of Stock",I71-E71&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I71" s="52">
@@ -19951,27 +19905,27 @@
         <v>0</v>
       </c>
       <c r="L71" s="52">
-        <f t="shared" ref="L71" si="93">(K71/I71)+J71</f>
+        <f t="shared" ref="L71" si="92">(K71/I71)+J71</f>
         <v>40800</v>
       </c>
       <c r="M71" s="52">
-        <f t="shared" ref="M71" si="94">(J71*I71)+K71</f>
+        <f t="shared" ref="M71" si="93">(J71*I71)+K71</f>
         <v>40800</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>136000</v>
       </c>
       <c r="B72" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E72" s="74">
         <v>0</v>
@@ -19980,11 +19934,11 @@
         <v>220000</v>
       </c>
       <c r="G72" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H72" s="44" t="str">
-        <f t="shared" ref="H72" si="95">IF(E72=I72,"Out of Stock",I72-E72&amp;" qty Left")</f>
+        <f t="shared" ref="H72" si="94">IF(E72=I72,"Out of Stock",I72-E72&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I72" s="52">
@@ -19997,27 +19951,27 @@
         <v>0</v>
       </c>
       <c r="L72" s="52">
-        <f t="shared" ref="L72" si="96">(K72/I72)+J72</f>
+        <f t="shared" ref="L72" si="95">(K72/I72)+J72</f>
         <v>136000</v>
       </c>
       <c r="M72" s="52">
-        <f t="shared" ref="M72" si="97">(J72*I72)+K72</f>
+        <f t="shared" ref="M72" si="96">(J72*I72)+K72</f>
         <v>136000</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>119000</v>
       </c>
       <c r="B73" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E73" s="74">
         <v>0</v>
@@ -20026,11 +19980,11 @@
         <v>220000</v>
       </c>
       <c r="G73" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H73" s="44" t="str">
-        <f t="shared" ref="H73" si="98">IF(E73=I73,"Out of Stock",I73-E73&amp;" qty Left")</f>
+        <f t="shared" ref="H73" si="97">IF(E73=I73,"Out of Stock",I73-E73&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I73" s="52">
@@ -20043,11 +19997,11 @@
         <v>0</v>
       </c>
       <c r="L73" s="52">
-        <f t="shared" ref="L73" si="99">(K73/I73)+J73</f>
+        <f t="shared" ref="L73" si="98">(K73/I73)+J73</f>
         <v>119000</v>
       </c>
       <c r="M73" s="52">
-        <f t="shared" ref="M73" si="100">(J73*I73)+K73</f>
+        <f t="shared" ref="M73" si="99">(J73*I73)+K73</f>
         <v>119000</v>
       </c>
     </row>
@@ -20067,17 +20021,17 @@
     </row>
     <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>195500</v>
       </c>
       <c r="B75" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E75" s="74">
         <v>0</v>
@@ -20086,11 +20040,11 @@
         <v>220000</v>
       </c>
       <c r="G75" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H75" s="44" t="str">
-        <f t="shared" ref="H75:H76" si="101">IF(E75=I75,"Out of Stock",I75-E75&amp;" qty Left")</f>
+        <f t="shared" ref="H75:H76" si="100">IF(E75=I75,"Out of Stock",I75-E75&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I75" s="52">
@@ -20103,27 +20057,27 @@
         <v>0</v>
       </c>
       <c r="L75" s="52">
-        <f t="shared" ref="L75:L76" si="102">(K75/I75)+J75</f>
+        <f t="shared" ref="L75:L76" si="101">(K75/I75)+J75</f>
         <v>195500</v>
       </c>
       <c r="M75" s="52">
-        <f t="shared" ref="M75:M76" si="103">(J75*I75)+K75</f>
+        <f t="shared" ref="M75:M76" si="102">(J75*I75)+K75</f>
         <v>195500</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>86500</v>
       </c>
       <c r="B76" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D76" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E76" s="74">
         <v>0</v>
@@ -20132,11 +20086,11 @@
         <v>220000</v>
       </c>
       <c r="G76" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H76" s="44" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="100"/>
         <v>1 qty Left</v>
       </c>
       <c r="I76" s="52">
@@ -20149,27 +20103,27 @@
         <v>0</v>
       </c>
       <c r="L76" s="52">
+        <f t="shared" si="101"/>
+        <v>86500</v>
+      </c>
+      <c r="M76" s="52">
         <f t="shared" si="102"/>
         <v>86500</v>
       </c>
-      <c r="M76" s="52">
-        <f t="shared" si="103"/>
-        <v>86500</v>
-      </c>
     </row>
     <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>95000</v>
       </c>
       <c r="B77" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D77" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E77" s="74">
         <v>0</v>
@@ -20178,11 +20132,11 @@
         <v>220000</v>
       </c>
       <c r="G77" s="53">
-        <f t="shared" si="88"/>
+        <f t="shared" si="87"/>
         <v>0</v>
       </c>
       <c r="H77" s="44" t="str">
-        <f t="shared" ref="H77" si="104">IF(E77=I77,"Out of Stock",I77-E77&amp;" qty Left")</f>
+        <f t="shared" ref="H77" si="103">IF(E77=I77,"Out of Stock",I77-E77&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I77" s="52">
@@ -20195,27 +20149,27 @@
         <v>0</v>
       </c>
       <c r="L77" s="52">
-        <f t="shared" ref="L77" si="105">(K77/I77)+J77</f>
+        <f t="shared" ref="L77" si="104">(K77/I77)+J77</f>
         <v>95000</v>
       </c>
       <c r="M77" s="52">
-        <f t="shared" ref="M77" si="106">(J77*I77)+K77</f>
+        <f t="shared" ref="M77" si="105">(J77*I77)+K77</f>
         <v>95000</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>90000</v>
       </c>
       <c r="B78" s="72" t="s">
         <v>221</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D78" s="53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E78" s="74">
         <v>3</v>
@@ -20224,11 +20178,11 @@
         <v>20000</v>
       </c>
       <c r="G78" s="53">
-        <f t="shared" ref="G78" si="107">F78*E78</f>
+        <f t="shared" ref="G78" si="106">F78*E78</f>
         <v>60000</v>
       </c>
       <c r="H78" s="44" t="str">
-        <f t="shared" ref="H78" si="108">IF(E78=I78,"Out of Stock",I78-E78&amp;" qty Left")</f>
+        <f t="shared" ref="H78" si="107">IF(E78=I78,"Out of Stock",I78-E78&amp;" qty Left")</f>
         <v>6 qty Left</v>
       </c>
       <c r="I78" s="52">
@@ -20241,27 +20195,27 @@
         <v>0</v>
       </c>
       <c r="L78" s="52">
-        <f t="shared" ref="L78" si="109">(K78/I78)+J78</f>
+        <f t="shared" ref="L78" si="108">(K78/I78)+J78</f>
         <v>15000</v>
       </c>
       <c r="M78" s="52">
-        <f t="shared" ref="M78" si="110">(J78*I78)+K78</f>
+        <f t="shared" ref="M78" si="109">(J78*I78)+K78</f>
         <v>135000</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>126000</v>
       </c>
       <c r="B79" s="72" t="s">
+        <v>382</v>
+      </c>
+      <c r="C79" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="C79" s="53" t="s">
-        <v>386</v>
-      </c>
       <c r="D79" s="53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E79" s="74">
         <v>5</v>
@@ -20270,11 +20224,11 @@
         <v>220000</v>
       </c>
       <c r="G79" s="53">
-        <f t="shared" ref="G79" si="111">F79*E79</f>
+        <f t="shared" ref="G79" si="110">F79*E79</f>
         <v>1100000</v>
       </c>
       <c r="H79" s="44" t="str">
-        <f t="shared" ref="H79" si="112">IF(E79=I79,"Out of Stock",I79-E79&amp;" qty Left")</f>
+        <f t="shared" ref="H79" si="111">IF(E79=I79,"Out of Stock",I79-E79&amp;" qty Left")</f>
         <v>3 qty Left</v>
       </c>
       <c r="I79" s="52">
@@ -20287,27 +20241,27 @@
         <v>0</v>
       </c>
       <c r="L79" s="52">
-        <f t="shared" ref="L79" si="113">(K79/I79)+J79</f>
+        <f t="shared" ref="L79" si="112">(K79/I79)+J79</f>
         <v>42000</v>
       </c>
       <c r="M79" s="52">
-        <f t="shared" ref="M79" si="114">(J79*I79)+K79</f>
+        <f t="shared" ref="M79" si="113">(J79*I79)+K79</f>
         <v>336000</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>1000000</v>
       </c>
       <c r="B80" s="72" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D80" s="53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E80" s="74">
         <v>0</v>
@@ -20316,11 +20270,11 @@
         <v>220000</v>
       </c>
       <c r="G80" s="53">
-        <f t="shared" ref="G80" si="115">F80*E80</f>
+        <f t="shared" ref="G80" si="114">F80*E80</f>
         <v>0</v>
       </c>
       <c r="H80" s="44" t="str">
-        <f t="shared" ref="H80" si="116">IF(E80=I80,"Out of Stock",I80-E80&amp;" qty Left")</f>
+        <f t="shared" ref="H80" si="115">IF(E80=I80,"Out of Stock",I80-E80&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I80" s="52">
@@ -20333,27 +20287,27 @@
         <v>0</v>
       </c>
       <c r="L80" s="52">
-        <f t="shared" ref="L80" si="117">(K80/I80)+J80</f>
+        <f t="shared" ref="L80" si="116">(K80/I80)+J80</f>
         <v>1000000</v>
       </c>
       <c r="M80" s="52">
-        <f t="shared" ref="M80" si="118">(J80*I80)+K80</f>
+        <f t="shared" ref="M80" si="117">(J80*I80)+K80</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>300000</v>
       </c>
       <c r="B81" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E81" s="74">
         <v>0</v>
@@ -20362,11 +20316,11 @@
         <v>220000</v>
       </c>
       <c r="G81" s="53">
-        <f t="shared" ref="G81:G82" si="119">F81*E81</f>
+        <f t="shared" ref="G81:G82" si="118">F81*E81</f>
         <v>0</v>
       </c>
       <c r="H81" s="44" t="str">
-        <f t="shared" ref="H81:H82" si="120">IF(E81=I81,"Out of Stock",I81-E81&amp;" qty Left")</f>
+        <f t="shared" ref="H81:H82" si="119">IF(E81=I81,"Out of Stock",I81-E81&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I81" s="52">
@@ -20379,27 +20333,27 @@
         <v>0</v>
       </c>
       <c r="L81" s="52">
-        <f t="shared" ref="L81:L82" si="121">(K81/I81)+J81</f>
+        <f t="shared" ref="L81:L82" si="120">(K81/I81)+J81</f>
         <v>300000</v>
       </c>
       <c r="M81" s="52">
-        <f t="shared" ref="M81:M82" si="122">(J81*I81)+K81</f>
+        <f t="shared" ref="M81:M82" si="121">(J81*I81)+K81</f>
         <v>300000</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>558000</v>
       </c>
       <c r="B82" s="72" t="s">
         <v>223</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E82" s="74">
         <v>0</v>
@@ -20408,11 +20362,11 @@
         <v>220000</v>
       </c>
       <c r="G82" s="53">
+        <f t="shared" si="118"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="44" t="str">
         <f t="shared" si="119"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="44" t="str">
-        <f t="shared" si="120"/>
         <v>1 qty Left</v>
       </c>
       <c r="I82" s="52">
@@ -20425,27 +20379,27 @@
         <v>0</v>
       </c>
       <c r="L82" s="52">
+        <f t="shared" si="120"/>
+        <v>558000</v>
+      </c>
+      <c r="M82" s="52">
         <f t="shared" si="121"/>
         <v>558000</v>
       </c>
-      <c r="M82" s="52">
-        <f t="shared" si="122"/>
-        <v>558000</v>
-      </c>
     </row>
     <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>140000</v>
       </c>
       <c r="B83" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C83" s="53" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D83" s="53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E83" s="74">
         <v>0</v>
@@ -20454,11 +20408,11 @@
         <v>220000</v>
       </c>
       <c r="G83" s="53">
-        <f t="shared" ref="G83" si="123">F83*E83</f>
+        <f t="shared" ref="G83" si="122">F83*E83</f>
         <v>0</v>
       </c>
       <c r="H83" s="44" t="str">
-        <f t="shared" ref="H83" si="124">IF(E83=I83,"Out of Stock",I83-E83&amp;" qty Left")</f>
+        <f t="shared" ref="H83" si="123">IF(E83=I83,"Out of Stock",I83-E83&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I83" s="52">
@@ -20471,27 +20425,27 @@
         <v>0</v>
       </c>
       <c r="L83" s="52">
-        <f t="shared" ref="L83" si="125">(K83/I83)+J83</f>
+        <f t="shared" ref="L83" si="124">(K83/I83)+J83</f>
         <v>70000</v>
       </c>
       <c r="M83" s="52">
-        <f t="shared" ref="M83" si="126">(J83*I83)+K83</f>
+        <f t="shared" ref="M83" si="125">(J83*I83)+K83</f>
         <v>140000</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>330000</v>
       </c>
       <c r="B84" s="72" t="s">
         <v>223</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E84" s="74">
         <v>0</v>
@@ -20500,11 +20454,11 @@
         <v>220000</v>
       </c>
       <c r="G84" s="53">
-        <f t="shared" ref="G84:G85" si="127">F84*E84</f>
+        <f t="shared" ref="G84:G85" si="126">F84*E84</f>
         <v>0</v>
       </c>
       <c r="H84" s="44" t="str">
-        <f t="shared" ref="H84:H85" si="128">IF(E84=I84,"Out of Stock",I84-E84&amp;" qty Left")</f>
+        <f t="shared" ref="H84:H85" si="127">IF(E84=I84,"Out of Stock",I84-E84&amp;" qty Left")</f>
         <v>3 qty Left</v>
       </c>
       <c r="I84" s="52">
@@ -20517,27 +20471,27 @@
         <v>0</v>
       </c>
       <c r="L84" s="52">
-        <f t="shared" ref="L84:L85" si="129">(K84/I84)+J84</f>
+        <f t="shared" ref="L84:L85" si="128">(K84/I84)+J84</f>
         <v>110000</v>
       </c>
       <c r="M84" s="52">
-        <f t="shared" ref="M84:M85" si="130">(J84*I84)+K84</f>
+        <f t="shared" ref="M84:M85" si="129">(J84*I84)+K84</f>
         <v>330000</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>127500</v>
       </c>
       <c r="B85" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E85" s="74">
         <v>0</v>
@@ -20546,11 +20500,11 @@
         <v>220000</v>
       </c>
       <c r="G85" s="53">
+        <f t="shared" si="126"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="44" t="str">
         <f t="shared" si="127"/>
-        <v>0</v>
-      </c>
-      <c r="H85" s="44" t="str">
-        <f t="shared" si="128"/>
         <v>1 qty Left</v>
       </c>
       <c r="I85" s="52">
@@ -20563,27 +20517,27 @@
         <v>0</v>
       </c>
       <c r="L85" s="52">
+        <f t="shared" si="128"/>
+        <v>127500</v>
+      </c>
+      <c r="M85" s="52">
         <f t="shared" si="129"/>
         <v>127500</v>
       </c>
-      <c r="M85" s="52">
-        <f t="shared" si="130"/>
-        <v>127500</v>
-      </c>
     </row>
     <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>205550</v>
       </c>
       <c r="B86" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D86" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E86" s="74">
         <v>0</v>
@@ -20592,11 +20546,11 @@
         <v>220000</v>
       </c>
       <c r="G86" s="53">
-        <f t="shared" ref="G86:G87" si="131">F86*E86</f>
+        <f t="shared" ref="G86:G87" si="130">F86*E86</f>
         <v>0</v>
       </c>
       <c r="H86" s="44" t="str">
-        <f t="shared" ref="H86:H87" si="132">IF(E86=I86,"Out of Stock",I86-E86&amp;" qty Left")</f>
+        <f t="shared" ref="H86:H87" si="131">IF(E86=I86,"Out of Stock",I86-E86&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I86" s="52">
@@ -20609,27 +20563,27 @@
         <v>0</v>
       </c>
       <c r="L86" s="52">
-        <f t="shared" ref="L86:L87" si="133">(K86/I86)+J86</f>
+        <f t="shared" ref="L86:L87" si="132">(K86/I86)+J86</f>
         <v>205550</v>
       </c>
       <c r="M86" s="52">
-        <f t="shared" ref="M86:M87" si="134">(J86*I86)+K86</f>
+        <f t="shared" ref="M86:M87" si="133">(J86*I86)+K86</f>
         <v>205550</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>145350</v>
       </c>
       <c r="B87" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="53" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D87" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E87" s="74">
         <v>0</v>
@@ -20638,11 +20592,11 @@
         <v>220000</v>
       </c>
       <c r="G87" s="53">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="44" t="str">
         <f t="shared" si="131"/>
-        <v>0</v>
-      </c>
-      <c r="H87" s="44" t="str">
-        <f t="shared" si="132"/>
         <v>1 qty Left</v>
       </c>
       <c r="I87" s="52">
@@ -20655,27 +20609,27 @@
         <v>0</v>
       </c>
       <c r="L87" s="52">
+        <f t="shared" si="132"/>
+        <v>145350</v>
+      </c>
+      <c r="M87" s="52">
         <f t="shared" si="133"/>
         <v>145350</v>
       </c>
-      <c r="M87" s="52">
-        <f t="shared" si="134"/>
-        <v>145350</v>
-      </c>
     </row>
     <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>260500</v>
       </c>
       <c r="B88" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E88" s="74">
         <v>0</v>
@@ -20684,11 +20638,11 @@
         <v>220000</v>
       </c>
       <c r="G88" s="53">
-        <f t="shared" ref="G88:G90" si="135">F88*E88</f>
+        <f t="shared" ref="G88:G89" si="134">F88*E88</f>
         <v>0</v>
       </c>
       <c r="H88" s="44" t="str">
-        <f t="shared" ref="H88:H90" si="136">IF(E88=I88,"Out of Stock",I88-E88&amp;" qty Left")</f>
+        <f t="shared" ref="H88:H89" si="135">IF(E88=I88,"Out of Stock",I88-E88&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I88" s="52">
@@ -20701,27 +20655,27 @@
         <v>0</v>
       </c>
       <c r="L88" s="52">
-        <f t="shared" ref="L88:L90" si="137">(K88/I88)+J88</f>
+        <f t="shared" ref="L88:L89" si="136">(K88/I88)+J88</f>
         <v>130250</v>
       </c>
       <c r="M88" s="52">
-        <f t="shared" ref="M88:M90" si="138">(J88*I88)+K88</f>
+        <f t="shared" ref="M88:M89" si="137">(J88*I88)+K88</f>
         <v>260500</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="84">
-        <f t="shared" si="49"/>
+        <f t="shared" si="48"/>
         <v>173750</v>
       </c>
       <c r="B89" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C89" s="53" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E89" s="74">
         <v>0</v>
@@ -20730,11 +20684,11 @@
         <v>220000</v>
       </c>
       <c r="G89" s="53">
+        <f t="shared" si="134"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="44" t="str">
         <f t="shared" si="135"/>
-        <v>0</v>
-      </c>
-      <c r="H89" s="44" t="str">
-        <f t="shared" si="136"/>
         <v>1 qty Left</v>
       </c>
       <c r="I89" s="52">
@@ -20747,27 +20701,59 @@
         <v>0</v>
       </c>
       <c r="L89" s="52">
+        <f t="shared" si="136"/>
+        <v>173750</v>
+      </c>
+      <c r="M89" s="52">
         <f t="shared" si="137"/>
         <v>173750</v>
       </c>
-      <c r="M89" s="52">
-        <f t="shared" si="138"/>
-        <v>173750</v>
-      </c>
     </row>
     <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="72"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="53"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="74"/>
-      <c r="G90" s="53"/>
-      <c r="H90" s="44"/>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
-      <c r="K90" s="52"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="52"/>
+      <c r="A90" s="84">
+        <f t="shared" si="48"/>
+        <v>90000</v>
+      </c>
+      <c r="B90" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="D90" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="E90" s="74">
+        <v>0</v>
+      </c>
+      <c r="F90" s="74">
+        <v>220000</v>
+      </c>
+      <c r="G90" s="53">
+        <f t="shared" ref="G90" si="138">F90*E90</f>
+        <v>0</v>
+      </c>
+      <c r="H90" s="44" t="str">
+        <f t="shared" ref="H90" si="139">IF(E90=I90,"Out of Stock",I90-E90&amp;" qty Left")</f>
+        <v>2 qty Left</v>
+      </c>
+      <c r="I90" s="52">
+        <v>2</v>
+      </c>
+      <c r="J90" s="52">
+        <v>45000</v>
+      </c>
+      <c r="K90" s="52">
+        <v>0</v>
+      </c>
+      <c r="L90" s="52">
+        <f t="shared" ref="L90" si="140">(K90/I90)+J90</f>
+        <v>45000</v>
+      </c>
+      <c r="M90" s="52">
+        <f t="shared" ref="M90" si="141">(J90*I90)+K90</f>
+        <v>90000</v>
+      </c>
     </row>
     <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="76"/>
@@ -20969,940 +20955,940 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="199" priority="725" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="727" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="198" priority="687" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="689" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="197" priority="692" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="694" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="196" priority="701" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="703" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="195" priority="706" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="708" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="194" priority="672" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="674" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="193" priority="661" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="663" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="192" priority="658" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="660" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="191" priority="651" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="653" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="190" priority="647" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="649" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="189" priority="652" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="654" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="188" priority="648" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="650" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="187" priority="602" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="604" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="186" priority="601" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="603" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="185" priority="582" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="584" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="184" priority="581" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="583" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="183" priority="508" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="510" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="182" priority="507" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="509" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="181" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="424" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="180" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="423" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="179" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="357" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="180" priority="358" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="179" priority="359" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
     <cfRule type="cellIs" dxfId="178" priority="356" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="177" priority="354" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="177" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="360" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="176" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="355" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="175" priority="352" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="174" priority="358" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="173" priority="353" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="172" priority="351" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="353" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="171" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="344" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="170" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="343" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="169" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="303" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="168" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="302" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="167" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="264" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="166" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="304" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="165" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="301" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="164" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="265" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="163" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="297" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="162" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="296" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="161" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="257" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="160" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="161" priority="293" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="160" priority="292" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" dxfId="159" priority="291" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="H5">
     <cfRule type="cellIs" dxfId="158" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="157" priority="289" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="156" priority="288" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="155" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="154" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="153" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="259" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="152" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="258" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="151" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="255" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="150" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
+    <cfRule type="cellIs" dxfId="151" priority="239" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="cellIs" dxfId="150" priority="238" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="149" priority="237" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="H31">
     <cfRule type="cellIs" dxfId="148" priority="236" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="147" priority="235" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="146" priority="234" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="147" priority="217" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="146" priority="216" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="145" priority="215" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
+  <conditionalFormatting sqref="H12">
     <cfRule type="cellIs" dxfId="144" priority="214" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="143" priority="213" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="142" priority="212" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="141" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="201" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="140" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="200" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="139" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="138" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="137" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="197" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="136" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="196" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="135" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="193" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="134" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="192" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="133" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="132" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="131" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="181" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="130" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="180" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="129" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="171" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="128" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="170" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="129" priority="167" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="128" priority="166" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
     <cfRule type="cellIs" dxfId="127" priority="165" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
+  <conditionalFormatting sqref="H14">
     <cfRule type="cellIs" dxfId="126" priority="164" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="125" priority="163" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="124" priority="162" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="123" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="169" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="122" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="168" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="121" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="161" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="120" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="160" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="119" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="118" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="119" priority="147" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
     <cfRule type="cellIs" dxfId="117" priority="145" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H44">
     <cfRule type="cellIs" dxfId="116" priority="144" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="115" priority="143" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="114" priority="142" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="113" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="127" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="112" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="111" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="110" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="111" priority="123" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="109" priority="121" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
+  <conditionalFormatting sqref="H47">
     <cfRule type="cellIs" dxfId="108" priority="120" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="107" priority="119" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="106" priority="118" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H48">
+    <cfRule type="cellIs" dxfId="107" priority="118" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="cellIs" dxfId="106" priority="117" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
     <cfRule type="cellIs" dxfId="105" priority="116" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="104" priority="115" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="103" priority="114" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="102" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
+    <cfRule type="duplicateValues" dxfId="103" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49">
+    <cfRule type="duplicateValues" dxfId="102" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
     <cfRule type="duplicateValues" dxfId="101" priority="110"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C49">
-    <cfRule type="duplicateValues" dxfId="100" priority="109"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="duplicateValues" dxfId="99" priority="108"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="98" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="97" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="106" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
+    <cfRule type="duplicateValues" dxfId="98" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49">
+    <cfRule type="duplicateValues" dxfId="97" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50">
     <cfRule type="duplicateValues" dxfId="96" priority="99"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="95" priority="98"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="94" priority="97"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="93" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="92" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="91" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="90" priority="84" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="89" priority="83" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="88" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
+  <conditionalFormatting sqref="H55">
     <cfRule type="cellIs" dxfId="87" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
+  <conditionalFormatting sqref="H56">
     <cfRule type="cellIs" dxfId="86" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="85" priority="79" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="84" priority="78" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="85" priority="78" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="84" priority="77" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
     <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
+  <conditionalFormatting sqref="H58">
     <cfRule type="cellIs" dxfId="82" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="81" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
+  <conditionalFormatting sqref="H59">
     <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H61">
     <cfRule type="cellIs" dxfId="79" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
+  <conditionalFormatting sqref="H61">
     <cfRule type="cellIs" dxfId="78" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
+  <conditionalFormatting sqref="H60">
     <cfRule type="cellIs" dxfId="77" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
+  <conditionalFormatting sqref="H60">
     <cfRule type="cellIs" dxfId="76" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="H62">
     <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
+  <conditionalFormatting sqref="H62">
     <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="73" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
+  <conditionalFormatting sqref="H63">
     <cfRule type="cellIs" dxfId="72" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H96">
     <cfRule type="cellIs" dxfId="71" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
+  <conditionalFormatting sqref="H96">
     <cfRule type="cellIs" dxfId="70" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H97">
     <cfRule type="cellIs" dxfId="69" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H96">
+  <conditionalFormatting sqref="H97">
     <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H98">
     <cfRule type="cellIs" dxfId="67" priority="60" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H97">
+  <conditionalFormatting sqref="H98">
     <cfRule type="cellIs" dxfId="66" priority="59" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
+  <conditionalFormatting sqref="H64">
     <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H98">
+  <conditionalFormatting sqref="H64">
     <cfRule type="cellIs" dxfId="64" priority="57" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
+  <conditionalFormatting sqref="H65">
     <cfRule type="cellIs" dxfId="63" priority="56" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
+  <conditionalFormatting sqref="H65">
     <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="H66">
     <cfRule type="cellIs" dxfId="61" priority="54" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
+  <conditionalFormatting sqref="H66">
     <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
+  <conditionalFormatting sqref="H67">
     <cfRule type="cellIs" dxfId="58" priority="51" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
+  <conditionalFormatting sqref="H68">
     <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H69">
     <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
+  <conditionalFormatting sqref="H69">
     <cfRule type="cellIs" dxfId="54" priority="47" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H70">
     <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
+  <conditionalFormatting sqref="H70">
     <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="H71">
     <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
+  <conditionalFormatting sqref="H71">
     <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H72">
     <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
+  <conditionalFormatting sqref="H72">
     <cfRule type="cellIs" dxfId="48" priority="41" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H73">
     <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H74">
     <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H74">
     <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="43" priority="36" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H75">
     <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H76">
     <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H77">
     <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
+  <conditionalFormatting sqref="H77">
     <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H78">
     <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
+  <conditionalFormatting sqref="H78">
     <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
+  <conditionalFormatting sqref="H79">
     <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
+  <conditionalFormatting sqref="H80">
     <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
+  <conditionalFormatting sqref="H80">
     <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H81">
     <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H81">
     <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H83">
+    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H85">
     <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
+  <conditionalFormatting sqref="H85">
     <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="H86">
     <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
+  <conditionalFormatting sqref="H86">
     <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
+  <conditionalFormatting sqref="H87">
     <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
+  <conditionalFormatting sqref="H87">
     <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="H88">
     <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
+  <conditionalFormatting sqref="H88">
     <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="H89">
     <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
+  <conditionalFormatting sqref="H89">
     <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21919,7 +21905,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21931,21 +21917,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="90" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -21953,52 +21939,52 @@
         <v>58</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>395</v>
+      </c>
+      <c r="C5" s="91" t="s">
         <v>396</v>
-      </c>
-      <c r="B5" s="91" t="s">
-        <v>397</v>
-      </c>
-      <c r="C5" s="91" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B7" s="91"/>
       <c r="C7" s="91" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -22117,7 +22103,7 @@
         <v>44959</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -22139,7 +22125,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -22160,7 +22146,7 @@
         <v>44959</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -22202,7 +22188,7 @@
         <v>44959</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -22223,7 +22209,7 @@
         <v>44959</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -22244,7 +22230,7 @@
         <v>44959</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -22265,7 +22251,7 @@
         <v>44960</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -22286,7 +22272,7 @@
         <v>44960</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -22307,7 +22293,7 @@
         <v>44960</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -22328,7 +22314,7 @@
         <v>44960</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -22349,7 +22335,7 @@
         <v>44960</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -22370,7 +22356,7 @@
         <v>44960</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -22391,7 +22377,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -22412,7 +22398,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -22433,7 +22419,7 @@
         <v>44961</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -22454,7 +22440,7 @@
         <v>44962</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -22468,7 +22454,7 @@
         <v>44963</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -22480,7 +22466,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>

--- a/aks sell 2 Rows.xlsx
+++ b/aks sell 2 Rows.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="415">
   <si>
     <t>SSD 128</t>
   </si>
@@ -1381,9 +1381,6 @@
     <t>hkz</t>
   </si>
   <si>
-    <t>Nvme 512gb</t>
-  </si>
-  <si>
     <t>Gamdias 750W</t>
   </si>
   <si>
@@ -1519,12 +1516,6 @@
     <t>1250va</t>
   </si>
   <si>
-    <t>trade</t>
-  </si>
-  <si>
-    <t>i3 9100F</t>
-  </si>
-  <si>
     <t>power supply</t>
   </si>
   <si>
@@ -1658,6 +1649,9 @@
   </si>
   <si>
     <t>aerocool new</t>
+  </si>
+  <si>
+    <t>i5 9400</t>
   </si>
 </sst>
 </file>
@@ -2030,21 +2024,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="410">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="412">
     <dxf>
       <font>
         <b val="0"/>
@@ -2302,6 +2282,34 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -5170,15 +5178,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="B1:G128" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
   <autoFilter ref="B1:G128"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="7"/>
-    <tableColumn id="2" name="Description" dataDxfId="6"/>
-    <tableColumn id="3" name="Remark" dataDxfId="5"/>
-    <tableColumn id="4" name="Qty" dataDxfId="4"/>
-    <tableColumn id="5" name="Price" dataDxfId="3"/>
-    <tableColumn id="6" name="Amount" dataDxfId="2"/>
+    <tableColumn id="1" name="Category" dataDxfId="5"/>
+    <tableColumn id="2" name="Description" dataDxfId="4"/>
+    <tableColumn id="3" name="Remark" dataDxfId="3"/>
+    <tableColumn id="4" name="Qty" dataDxfId="2"/>
+    <tableColumn id="5" name="Price" dataDxfId="1"/>
+    <tableColumn id="6" name="Amount" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13129,1042 +13137,1042 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I74 I136:I1048576 I1:I32">
-    <cfRule type="cellIs" dxfId="409" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="295" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="408" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="293" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="407" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="292" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="406" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="291" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="405" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="404" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="289" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="403" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="288" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="402" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="287" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="401" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="286" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="400" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="285" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="cellIs" dxfId="399" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="284" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="398" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="283" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="397" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="282" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="396" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="281" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="395" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="280" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="394" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="279" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="393" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="278" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="392" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="276" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="391" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="274" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="390" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="273" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="389" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="272" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="388" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="271" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="387" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="270" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="386" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="269" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="385" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="267" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="384" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="265" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="383" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="264" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="382" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="381" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="380" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="379" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="378" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="259" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="cellIs" dxfId="377" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="258" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="376" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="257" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="cellIs" dxfId="375" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="374" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="373" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="253" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="372" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="252" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="371" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="251" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="370" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="250" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="cellIs" dxfId="369" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="249" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="368" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="247" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="367" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="246" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="366" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="245" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="365" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="240" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="364" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="239" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="363" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="238" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="362" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="237" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="361" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="236" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="360" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="235" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="359" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="234" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="358" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="233" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="357" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="232" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="356" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="231" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="355" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="230" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="354" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="229" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="353" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="228" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="352" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="227" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="351" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="224" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="350" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="223" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="349" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="222" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="348" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="221" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="347" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="212" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="346" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="211" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="345" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="210" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="344" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="209" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="343" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="208" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="342" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="341" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="340" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="205" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="339" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="204" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="338" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="203" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="337" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="202" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="336" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="201" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="335" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="200" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="334" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="333" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="332" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="197" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="331" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="192" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="330" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="191" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="329" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="190" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="328" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="189" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="327" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="188" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="326" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="187" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="325" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="186" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="324" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="185" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="323" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="184" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="322" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="183" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="321" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="180" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="320" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="179" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="319" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="178" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="318" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="177" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="317" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="176" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="316" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="175" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="315" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="174" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="314" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="173" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="313" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="168" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="312" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="167" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="311" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="162" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="310" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="161" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="309" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="160" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="308" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="159" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="307" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="158" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="306" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="305" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="304" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="155" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="303" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="154" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="302" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="301" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="146" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="300" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="145" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="299" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="144" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="298" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="143" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="297" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="142" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="296" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="141" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="295" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="140" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="294" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="139" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="293" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="138" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="292" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="137" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="291" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="136" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="290" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="135" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="289" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="126" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="288" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="125" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="287" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="124" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="286" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="123" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="285" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="122" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="284" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="121" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="283" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="120" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="282" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="119" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="281" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="118" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="280" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="117" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="279" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="278" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="111" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="277" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="276" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="275" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="274" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="273" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="104" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="272" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="103" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="271" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="270" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="269" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="100" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="268" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="99" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="267" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="96" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="266" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="95" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="265" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="94" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="264" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="93" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="263" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="92" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="262" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="91" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="261" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="90" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="260" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="89" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="259" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="88" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="258" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="87" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="257" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="256" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="255" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="254" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="253" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="252" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="251" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="250" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="77" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="249" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="248" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="247" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="246" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="245" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="244" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="243" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="242" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="241" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="240" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="239" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="238" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="237" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="236" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="235" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="234" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="233" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="232" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="231" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="230" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="229" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="228" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="227" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="226" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="225" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="24" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="224" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="23" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="223" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="22" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="222" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="21" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="221" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="20" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="220" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="19" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="219" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="18" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="218" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="17" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="217" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="216" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="215" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="214" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="13" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="213" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="212" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="211" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="210" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="209" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="208" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="207" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="206" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="205" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="204" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="203" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="202" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16625,8 +16633,8 @@
   <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q72" sqref="Q72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16698,11 +16706,11 @@
       </c>
       <c r="Q1" s="20">
         <f>SUM(A2:A124)</f>
-        <v>15387600</v>
+        <v>16149440</v>
       </c>
       <c r="R1" s="77">
         <f>Q20</f>
-        <v>-1276919.2199999988</v>
+        <v>-1142759.2199999988</v>
       </c>
       <c r="S1" s="77"/>
     </row>
@@ -16855,58 +16863,28 @@
         <v>299</v>
       </c>
       <c r="Q4" s="1">
-        <v>1150000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84">
-        <f t="shared" si="5"/>
-        <v>80000</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="53" t="s">
-        <v>324</v>
-      </c>
+      <c r="B5" s="72"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="54"/>
-      <c r="E5" s="53">
-        <v>1</v>
-      </c>
-      <c r="F5" s="53">
-        <v>90000</v>
-      </c>
-      <c r="G5" s="53">
-        <f t="shared" ref="G5" si="9">F5*E5</f>
-        <v>90000</v>
-      </c>
-      <c r="H5" s="44" t="str">
-        <f t="shared" si="6"/>
-        <v>1 qty Left</v>
-      </c>
-      <c r="I5" s="52">
-        <v>2</v>
-      </c>
-      <c r="J5" s="52">
-        <v>80000</v>
-      </c>
-      <c r="K5" s="52">
-        <v>0</v>
-      </c>
-      <c r="L5" s="52">
-        <f t="shared" si="7"/>
-        <v>80000</v>
-      </c>
-      <c r="M5" s="52">
-        <f t="shared" si="8"/>
-        <v>160000</v>
-      </c>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
       <c r="N5" s="55"/>
       <c r="P5" s="52" t="s">
         <v>60</v>
       </c>
       <c r="Q5" s="1">
-        <v>1307000</v>
+        <v>811000</v>
       </c>
       <c r="R5" s="85">
         <v>86.6</v>
@@ -17040,7 +17018,7 @@
     </row>
     <row r="8" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="84">
-        <f t="shared" ref="A8:A16" si="10">IF($E8=0,$M8,IF($E8=$I8,IF($M8-$G8&lt;0,0,IF($D8="set",$M8-$G8,FALSE)),($I8-$E8)*$J8))</f>
+        <f t="shared" ref="A8:A16" si="9">IF($E8=0,$M8,IF($E8=$I8,IF($M8-$G8&lt;0,0,IF($D8="set",$M8-$G8,FALSE)),($I8-$E8)*$J8))</f>
         <v>59150</v>
       </c>
       <c r="B8" s="72" t="s">
@@ -17097,7 +17075,7 @@
     </row>
     <row r="9" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>16500</v>
       </c>
       <c r="B9" s="72" t="s">
@@ -17149,7 +17127,7 @@
     </row>
     <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>13000</v>
       </c>
       <c r="B10" s="72" t="s">
@@ -17168,11 +17146,11 @@
         <v>14500</v>
       </c>
       <c r="G10" s="53">
-        <f t="shared" ref="G10" si="11">F10*E10</f>
+        <f t="shared" ref="G10" si="10">F10*E10</f>
         <v>58000</v>
       </c>
       <c r="H10" s="44" t="str">
-        <f t="shared" ref="H10" si="12">IF(E10=I10,"Out of Stock",I10-E10&amp;" qty Left")</f>
+        <f t="shared" ref="H10" si="11">IF(E10=I10,"Out of Stock",I10-E10&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I10" s="53">
@@ -17203,7 +17181,7 @@
     </row>
     <row r="11" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>110000</v>
       </c>
       <c r="B11" s="72" t="s">
@@ -17220,7 +17198,7 @@
         <v>105000</v>
       </c>
       <c r="G11" s="53">
-        <f t="shared" ref="G11" si="13">F11*E11</f>
+        <f t="shared" ref="G11" si="12">F11*E11</f>
         <v>0</v>
       </c>
       <c r="H11" s="44" t="str">
@@ -17237,11 +17215,11 @@
         <v>30000</v>
       </c>
       <c r="L11" s="52">
-        <f t="shared" ref="L11" si="14">(K11/I11)+J11</f>
+        <f t="shared" ref="L11" si="13">(K11/I11)+J11</f>
         <v>110000</v>
       </c>
       <c r="M11" s="52">
-        <f t="shared" ref="M11" si="15">(J11*I11)+K11</f>
+        <f t="shared" ref="M11" si="14">(J11*I11)+K11</f>
         <v>110000</v>
       </c>
       <c r="N11" s="55"/>
@@ -17257,19 +17235,19 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84">
-        <f t="shared" si="10"/>
-        <v>131000</v>
+      <c r="A12" s="84" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="B12" s="76" t="s">
         <v>210</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D12" s="52"/>
       <c r="E12" s="52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="52">
         <v>150000</v>
@@ -17277,7 +17255,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="44" t="str">
         <f>IF(E12=I12,"Out of Stock",I12-E12&amp;" qty Left")</f>
-        <v>1 qty Left</v>
+        <v>Out of Stock</v>
       </c>
       <c r="I12" s="52">
         <v>1</v>
@@ -17298,7 +17276,7 @@
       </c>
       <c r="N12" s="81"/>
       <c r="P12" s="61" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q12" s="67">
         <v>50000</v>
@@ -17329,7 +17307,9 @@
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
-      <c r="P13" s="62"/>
+      <c r="P13" s="62" t="s">
+        <v>323</v>
+      </c>
       <c r="Q13" s="62"/>
       <c r="S13" s="51">
         <f>S14/1779</f>
@@ -17341,14 +17321,14 @@
     </row>
     <row r="14" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>50000</v>
       </c>
       <c r="B14" s="72" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D14" s="54"/>
       <c r="E14" s="53">
@@ -17358,11 +17338,11 @@
         <v>60000</v>
       </c>
       <c r="G14" s="53">
-        <f t="shared" ref="G13:G20" si="16">F14*E14</f>
+        <f t="shared" ref="G14:G20" si="15">F14*E14</f>
         <v>0</v>
       </c>
       <c r="H14" s="44" t="str">
-        <f t="shared" ref="H14" si="17">IF(E14=I14,"Out of Stock",I14-E14&amp;" qty Left")</f>
+        <f t="shared" ref="H14" si="16">IF(E14=I14,"Out of Stock",I14-E14&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I14" s="53">
@@ -17375,11 +17355,11 @@
         <v>0</v>
       </c>
       <c r="L14" s="52">
-        <f t="shared" ref="L14" si="18">(K14/I14)+J14</f>
+        <f t="shared" ref="L14" si="17">(K14/I14)+J14</f>
         <v>50000</v>
       </c>
       <c r="M14" s="52">
-        <f t="shared" ref="M14" si="19">(J14*I14)+K14</f>
+        <f t="shared" ref="M14" si="18">(J14*I14)+K14</f>
         <v>50000</v>
       </c>
       <c r="N14" s="55"/>
@@ -17403,7 +17383,7 @@
     </row>
     <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>325000</v>
       </c>
       <c r="B15" s="76" t="s">
@@ -17420,7 +17400,7 @@
         <v>55000</v>
       </c>
       <c r="G15" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H15" s="44" t="str">
@@ -17454,7 +17434,7 @@
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>79000</v>
       </c>
       <c r="B16" s="72" t="s">
@@ -17471,11 +17451,11 @@
         <v>85000</v>
       </c>
       <c r="G16" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>85000</v>
       </c>
       <c r="H16" s="44" t="str">
-        <f t="shared" ref="H16:H17" si="20">IF(E16=I16,"Out of Stock",I16-E16&amp;" qty Left")</f>
+        <f t="shared" ref="H16:H17" si="19">IF(E16=I16,"Out of Stock",I16-E16&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I16" s="53">
@@ -17488,11 +17468,11 @@
         <v>6000</v>
       </c>
       <c r="L16" s="52">
-        <f t="shared" ref="L16:L17" si="21">(K16/I16)+J16</f>
+        <f t="shared" ref="L16:L17" si="20">(K16/I16)+J16</f>
         <v>82000</v>
       </c>
       <c r="M16" s="52">
-        <f t="shared" ref="M16:M17" si="22">(J16*I16)+K16</f>
+        <f t="shared" ref="M16:M17" si="21">(J16*I16)+K16</f>
         <v>164000</v>
       </c>
       <c r="N16" s="55"/>
@@ -17501,12 +17481,12 @@
       </c>
       <c r="Q16" s="17">
         <f>Q1+SUM(Q2:Q14)+Q15</f>
-        <v>24476919.219999999</v>
+        <v>24342759.219999999</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="84">
-        <f t="shared" ref="A17:A52" si="23">IF($E17=0,$M17,IF($E17=$I17,IF($M17-$G17&lt;0,0,IF($D17="set",$M17-$G17,FALSE)),($I17-$E17)*$J17))</f>
+        <f t="shared" ref="A17:A52" si="22">IF($E17=0,$M17,IF($E17=$I17,IF($M17-$G17&lt;0,0,IF($D17="set",$M17-$G17,FALSE)),($I17-$E17)*$J17))</f>
         <v>83000</v>
       </c>
       <c r="B17" s="72" t="s">
@@ -17523,11 +17503,11 @@
         <v>90000</v>
       </c>
       <c r="G17" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H17" s="44" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>1 qty Left</v>
       </c>
       <c r="I17" s="53">
@@ -17540,11 +17520,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="52">
+        <f t="shared" si="20"/>
+        <v>83000</v>
+      </c>
+      <c r="M17" s="52">
         <f t="shared" si="21"/>
-        <v>83000</v>
-      </c>
-      <c r="M17" s="52">
-        <f t="shared" si="22"/>
         <v>83000</v>
       </c>
       <c r="N17" s="55"/>
@@ -17563,7 +17543,7 @@
     </row>
     <row r="18" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>109000</v>
       </c>
       <c r="B18" s="72" t="s">
@@ -17580,11 +17560,11 @@
         <v>75000</v>
       </c>
       <c r="G18" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H18" s="44" t="str">
-        <f t="shared" ref="H18" si="24">IF(E18=I18,"Out of Stock",I18-E18&amp;" qty Left")</f>
+        <f t="shared" ref="H18" si="23">IF(E18=I18,"Out of Stock",I18-E18&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I18" s="53">
@@ -17597,11 +17577,11 @@
         <v>0</v>
       </c>
       <c r="L18" s="52">
-        <f t="shared" ref="L18" si="25">(K18/I18)+J18</f>
+        <f t="shared" ref="L18" si="24">(K18/I18)+J18</f>
         <v>109000</v>
       </c>
       <c r="M18" s="52">
-        <f t="shared" ref="M18" si="26">(J18*I18)+K18</f>
+        <f t="shared" ref="M18" si="25">(J18*I18)+K18</f>
         <v>109000</v>
       </c>
       <c r="N18" s="55"/>
@@ -17624,7 +17604,7 @@
     </row>
     <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>123000</v>
       </c>
       <c r="B19" s="72" t="s">
@@ -17641,11 +17621,11 @@
         <v>130000</v>
       </c>
       <c r="G19" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="H19" s="44" t="str">
-        <f t="shared" ref="H19" si="27">IF(E19=I19,"Out of Stock",I19-E19&amp;" qty Left")</f>
+        <f t="shared" ref="H19" si="26">IF(E19=I19,"Out of Stock",I19-E19&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I19" s="53">
@@ -17658,18 +17638,18 @@
         <v>0</v>
       </c>
       <c r="L19" s="52">
-        <f t="shared" ref="L19" si="28">(K19/I19)+J19</f>
+        <f t="shared" ref="L19" si="27">(K19/I19)+J19</f>
         <v>123000</v>
       </c>
       <c r="M19" s="52">
-        <f t="shared" ref="M19" si="29">(J19*I19)+K19</f>
+        <f t="shared" ref="M19" si="28">(J19*I19)+K19</f>
         <v>123000</v>
       </c>
       <c r="N19" s="55"/>
     </row>
     <row r="20" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>105600</v>
       </c>
       <c r="B20" s="76" t="s">
@@ -17688,11 +17668,11 @@
         <v>75000</v>
       </c>
       <c r="G20" s="53">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>525000</v>
       </c>
       <c r="H20" s="44" t="str">
-        <f t="shared" ref="H20:H45" si="30">IF(E20=I20,"Out of Stock",I20-E20&amp;" qty Left")</f>
+        <f t="shared" ref="H20:H45" si="29">IF(E20=I20,"Out of Stock",I20-E20&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I20" s="53">
@@ -17705,11 +17685,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="52">
-        <f t="shared" ref="L20:L45" si="31">(K20/I20)+J20</f>
+        <f t="shared" ref="L20:L45" si="30">(K20/I20)+J20</f>
         <v>52800</v>
       </c>
       <c r="M20" s="52">
-        <f t="shared" ref="M20:M45" si="32">(J20*I20)+K20</f>
+        <f t="shared" ref="M20:M45" si="31">(J20*I20)+K20</f>
         <v>475200</v>
       </c>
       <c r="N20" s="55"/>
@@ -17718,7 +17698,7 @@
       </c>
       <c r="Q20" s="17">
         <f>Q18-Q16</f>
-        <v>-1276919.2199999988</v>
+        <v>-1142759.2199999988</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17747,29 +17727,29 @@
     </row>
     <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="84">
-        <f t="shared" si="23"/>
-        <v>40000</v>
+        <f t="shared" si="22"/>
+        <v>0</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D22" s="52"/>
       <c r="E22" s="74">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="74">
         <v>45000</v>
       </c>
       <c r="G22" s="53">
-        <f t="shared" ref="G22" si="33">F22*E22</f>
-        <v>180000</v>
+        <f t="shared" ref="G22" si="32">F22*E22</f>
+        <v>225000</v>
       </c>
       <c r="H22" s="44" t="str">
-        <f t="shared" si="30"/>
-        <v>1 qty Left</v>
+        <f t="shared" si="29"/>
+        <v>Out of Stock</v>
       </c>
       <c r="I22" s="53">
         <v>5</v>
@@ -17781,11 +17761,11 @@
         <v>6000</v>
       </c>
       <c r="L22" s="52">
+        <f t="shared" si="30"/>
+        <v>41200</v>
+      </c>
+      <c r="M22" s="52">
         <f t="shared" si="31"/>
-        <v>41200</v>
-      </c>
-      <c r="M22" s="52">
-        <f t="shared" si="32"/>
         <v>206000</v>
       </c>
       <c r="N22" s="55"/>
@@ -17793,7 +17773,7 @@
     </row>
     <row r="23" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>172260</v>
       </c>
       <c r="B23" s="76" t="s">
@@ -17816,7 +17796,7 @@
         <v>105000</v>
       </c>
       <c r="H23" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>6 qty Left</v>
       </c>
       <c r="I23" s="53">
@@ -17829,11 +17809,11 @@
         <v>0</v>
       </c>
       <c r="L23" s="52">
+        <f t="shared" si="30"/>
+        <v>28710</v>
+      </c>
+      <c r="M23" s="52">
         <f t="shared" si="31"/>
-        <v>28710</v>
-      </c>
-      <c r="M23" s="52">
-        <f t="shared" si="32"/>
         <v>258390</v>
       </c>
       <c r="N23" s="66"/>
@@ -17846,7 +17826,7 @@
     </row>
     <row r="24" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>186750</v>
       </c>
       <c r="B24" s="76" t="s">
@@ -17865,11 +17845,11 @@
         <v>67000</v>
       </c>
       <c r="G24" s="53">
-        <f t="shared" ref="G24" si="34">F24*E24</f>
+        <f t="shared" ref="G24" si="33">F24*E24</f>
         <v>67000</v>
       </c>
       <c r="H24" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3 qty Left</v>
       </c>
       <c r="I24" s="53">
@@ -17882,11 +17862,11 @@
         <v>6000</v>
       </c>
       <c r="L24" s="52">
+        <f t="shared" si="30"/>
+        <v>63750</v>
+      </c>
+      <c r="M24" s="52">
         <f t="shared" si="31"/>
-        <v>63750</v>
-      </c>
-      <c r="M24" s="52">
-        <f t="shared" si="32"/>
         <v>255000</v>
       </c>
       <c r="N24" s="66"/>
@@ -17900,34 +17880,34 @@
     </row>
     <row r="25" spans="1:22" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>130000</v>
       </c>
       <c r="B25" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>325</v>
       </c>
-      <c r="D25" s="52" t="s">
-        <v>326</v>
-      </c>
       <c r="E25" s="74">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F25" s="74">
         <v>75000</v>
       </c>
       <c r="G25" s="53">
-        <f t="shared" ref="G25:G45" si="35">F25*E25</f>
-        <v>300000</v>
+        <f t="shared" ref="G25:G45" si="34">F25*E25</f>
+        <v>0</v>
       </c>
       <c r="H25" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2 qty Left</v>
       </c>
       <c r="I25" s="52">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J25" s="52">
         <v>65000</v>
@@ -17936,26 +17916,26 @@
         <v>0</v>
       </c>
       <c r="L25" s="52">
+        <f t="shared" si="30"/>
+        <v>65000</v>
+      </c>
+      <c r="M25" s="52">
         <f t="shared" si="31"/>
-        <v>65000</v>
-      </c>
-      <c r="M25" s="52">
-        <f t="shared" si="32"/>
-        <v>390000</v>
+        <v>130000</v>
       </c>
       <c r="O25" s="66"/>
       <c r="Q25" s="78"/>
     </row>
     <row r="26" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>511500</v>
       </c>
       <c r="B26" s="83" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D26" s="61" t="s">
         <v>322</v>
@@ -17967,11 +17947,11 @@
         <v>80000</v>
       </c>
       <c r="G26" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H26" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>3 qty Left</v>
       </c>
       <c r="I26" s="61">
@@ -17984,27 +17964,27 @@
         <v>0</v>
       </c>
       <c r="L26" s="52">
+        <f t="shared" si="30"/>
+        <v>170500</v>
+      </c>
+      <c r="M26" s="52">
         <f t="shared" si="31"/>
-        <v>170500</v>
-      </c>
-      <c r="M26" s="52">
-        <f t="shared" si="32"/>
         <v>511500</v>
       </c>
     </row>
     <row r="27" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="B27" s="76" t="s">
         <v>19</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E27" s="74">
         <v>10</v>
@@ -18013,11 +17993,11 @@
         <v>55000</v>
       </c>
       <c r="G27" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>550000</v>
       </c>
       <c r="H27" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>Out of Stock</v>
       </c>
       <c r="I27" s="52">
@@ -18030,11 +18010,11 @@
         <v>5000</v>
       </c>
       <c r="L27" s="52">
+        <f t="shared" si="30"/>
+        <v>50700</v>
+      </c>
+      <c r="M27" s="52">
         <f t="shared" si="31"/>
-        <v>50700</v>
-      </c>
-      <c r="M27" s="52">
-        <f t="shared" si="32"/>
         <v>507000</v>
       </c>
       <c r="O27" s="66"/>
@@ -18043,17 +18023,17 @@
     </row>
     <row r="28" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>301200</v>
       </c>
       <c r="B28" s="76" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E28" s="74">
         <v>4</v>
@@ -18062,11 +18042,11 @@
         <v>65000</v>
       </c>
       <c r="G28" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>260000</v>
       </c>
       <c r="H28" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>6 qty Left</v>
       </c>
       <c r="I28" s="52">
@@ -18079,11 +18059,11 @@
         <v>5000</v>
       </c>
       <c r="L28" s="52">
+        <f t="shared" si="30"/>
+        <v>50700</v>
+      </c>
+      <c r="M28" s="52">
         <f t="shared" si="31"/>
-        <v>50700</v>
-      </c>
-      <c r="M28" s="52">
-        <f t="shared" si="32"/>
         <v>507000</v>
       </c>
       <c r="O28" s="66"/>
@@ -18092,17 +18072,17 @@
     </row>
     <row r="29" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>377500</v>
       </c>
       <c r="B29" s="76" t="s">
         <v>19</v>
       </c>
       <c r="C29" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="D29" s="52" t="s">
         <v>329</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>330</v>
       </c>
       <c r="E29" s="74">
         <v>1</v>
@@ -18111,11 +18091,11 @@
         <v>80000</v>
       </c>
       <c r="G29" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>80000</v>
       </c>
       <c r="H29" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>5 qty Left</v>
       </c>
       <c r="I29" s="52">
@@ -18128,11 +18108,11 @@
         <v>10000</v>
       </c>
       <c r="L29" s="52">
+        <f t="shared" si="30"/>
+        <v>77166.666666666672</v>
+      </c>
+      <c r="M29" s="52">
         <f t="shared" si="31"/>
-        <v>77166.666666666672</v>
-      </c>
-      <c r="M29" s="52">
-        <f t="shared" si="32"/>
         <v>463000</v>
       </c>
       <c r="O29" s="66"/>
@@ -18140,17 +18120,17 @@
     </row>
     <row r="30" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>39000</v>
       </c>
       <c r="B30" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C30" s="52" t="s">
+        <v>334</v>
+      </c>
+      <c r="D30" s="52" t="s">
         <v>335</v>
-      </c>
-      <c r="D30" s="52" t="s">
-        <v>336</v>
       </c>
       <c r="E30" s="74">
         <v>4</v>
@@ -18159,11 +18139,11 @@
         <v>7000</v>
       </c>
       <c r="G30" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>28000</v>
       </c>
       <c r="H30" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>6 qty Left</v>
       </c>
       <c r="I30" s="52">
@@ -18176,11 +18156,11 @@
         <v>0</v>
       </c>
       <c r="L30" s="52">
+        <f t="shared" si="30"/>
+        <v>6500</v>
+      </c>
+      <c r="M30" s="52">
         <f t="shared" si="31"/>
-        <v>6500</v>
-      </c>
-      <c r="M30" s="52">
-        <f t="shared" si="32"/>
         <v>65000</v>
       </c>
       <c r="O30" s="66"/>
@@ -18190,17 +18170,17 @@
     </row>
     <row r="31" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>650000</v>
       </c>
       <c r="B31" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E31" s="74">
         <v>0</v>
@@ -18209,11 +18189,11 @@
         <v>220000</v>
       </c>
       <c r="G31" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H31" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1 qty Left</v>
       </c>
       <c r="I31" s="52">
@@ -18226,11 +18206,11 @@
         <v>0</v>
       </c>
       <c r="L31" s="52">
+        <f t="shared" si="30"/>
+        <v>650000</v>
+      </c>
+      <c r="M31" s="52">
         <f t="shared" si="31"/>
-        <v>650000</v>
-      </c>
-      <c r="M31" s="52">
-        <f t="shared" si="32"/>
         <v>650000</v>
       </c>
       <c r="N31" s="81"/>
@@ -18258,17 +18238,17 @@
     </row>
     <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>284800</v>
       </c>
       <c r="B33" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E33" s="74">
         <v>0</v>
@@ -18277,11 +18257,11 @@
         <v>6000</v>
       </c>
       <c r="G33" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H33" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>60 qty Left</v>
       </c>
       <c r="I33" s="52">
@@ -18294,11 +18274,11 @@
         <v>40000</v>
       </c>
       <c r="L33" s="52">
+        <f t="shared" si="30"/>
+        <v>4746.666666666667</v>
+      </c>
+      <c r="M33" s="52">
         <f t="shared" si="31"/>
-        <v>4746.666666666667</v>
-      </c>
-      <c r="M33" s="52">
-        <f t="shared" si="32"/>
         <v>284800</v>
       </c>
       <c r="O33" s="66"/>
@@ -18308,17 +18288,17 @@
     </row>
     <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>416300</v>
       </c>
       <c r="B34" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E34" s="74">
         <v>0</v>
@@ -18327,11 +18307,11 @@
         <v>6000</v>
       </c>
       <c r="G34" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H34" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>60 qty Left</v>
       </c>
       <c r="I34" s="52">
@@ -18344,11 +18324,11 @@
         <v>35000</v>
       </c>
       <c r="L34" s="52">
+        <f t="shared" si="30"/>
+        <v>6938.333333333333</v>
+      </c>
+      <c r="M34" s="52">
         <f t="shared" si="31"/>
-        <v>6938.333333333333</v>
-      </c>
-      <c r="M34" s="52">
-        <f t="shared" si="32"/>
         <v>416300</v>
       </c>
       <c r="O34" s="66"/>
@@ -18357,17 +18337,17 @@
     </row>
     <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>82450</v>
       </c>
       <c r="B35" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E35" s="74">
         <v>0</v>
@@ -18376,11 +18356,11 @@
         <v>6000</v>
       </c>
       <c r="G35" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H35" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>10 qty Left</v>
       </c>
       <c r="I35" s="52">
@@ -18393,11 +18373,11 @@
         <v>5000</v>
       </c>
       <c r="L35" s="52">
+        <f t="shared" si="30"/>
+        <v>8245</v>
+      </c>
+      <c r="M35" s="52">
         <f t="shared" si="31"/>
-        <v>8245</v>
-      </c>
-      <c r="M35" s="52">
-        <f t="shared" si="32"/>
         <v>82450</v>
       </c>
       <c r="O35" s="66"/>
@@ -18407,17 +18387,17 @@
     </row>
     <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="84">
-        <f t="shared" si="23"/>
-        <v>120000</v>
+        <f t="shared" si="22"/>
+        <v>180000</v>
       </c>
       <c r="B36" s="76" t="s">
         <v>223</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>371</v>
+        <v>414</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>370</v>
+        <v>323</v>
       </c>
       <c r="E36" s="74">
         <v>0</v>
@@ -18426,27 +18406,27 @@
         <v>220000</v>
       </c>
       <c r="G36" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H36" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1 qty Left</v>
       </c>
       <c r="I36" s="52">
         <v>1</v>
       </c>
       <c r="J36" s="52">
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="K36" s="52"/>
       <c r="L36" s="52">
+        <f t="shared" si="30"/>
+        <v>180000</v>
+      </c>
+      <c r="M36" s="52">
         <f t="shared" si="31"/>
-        <v>120000</v>
-      </c>
-      <c r="M36" s="52">
-        <f t="shared" si="32"/>
-        <v>120000</v>
+        <v>180000</v>
       </c>
       <c r="O36" s="66"/>
       <c r="P36" s="44"/>
@@ -18454,17 +18434,17 @@
     </row>
     <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>37500</v>
       </c>
       <c r="B37" s="76" t="s">
         <v>220</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E37" s="74">
         <v>6</v>
@@ -18473,11 +18453,11 @@
         <v>50000</v>
       </c>
       <c r="G37" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>300000</v>
       </c>
       <c r="H37" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1 qty Left</v>
       </c>
       <c r="I37" s="52">
@@ -18488,11 +18468,11 @@
       </c>
       <c r="K37" s="52"/>
       <c r="L37" s="52">
+        <f t="shared" si="30"/>
+        <v>37500</v>
+      </c>
+      <c r="M37" s="52">
         <f t="shared" si="31"/>
-        <v>37500</v>
-      </c>
-      <c r="M37" s="52">
-        <f t="shared" si="32"/>
         <v>262500</v>
       </c>
       <c r="N37" s="81"/>
@@ -18502,14 +18482,14 @@
     </row>
     <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>127000</v>
       </c>
       <c r="B38" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D38" s="52" t="s">
         <v>321</v>
@@ -18521,11 +18501,11 @@
         <v>220000</v>
       </c>
       <c r="G38" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H38" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1 qty Left</v>
       </c>
       <c r="I38" s="52">
@@ -18536,11 +18516,11 @@
       </c>
       <c r="K38" s="52"/>
       <c r="L38" s="52">
+        <f t="shared" si="30"/>
+        <v>127000</v>
+      </c>
+      <c r="M38" s="52">
         <f t="shared" si="31"/>
-        <v>127000</v>
-      </c>
-      <c r="M38" s="52">
-        <f t="shared" si="32"/>
         <v>127000</v>
       </c>
       <c r="O38" s="66"/>
@@ -18566,17 +18546,17 @@
     </row>
     <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>231000</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C40" s="52" t="s">
         <v>234</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E40" s="74">
         <v>9</v>
@@ -18585,11 +18565,11 @@
         <v>220000</v>
       </c>
       <c r="G40" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>1980000</v>
       </c>
       <c r="H40" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>11 qty Left</v>
       </c>
       <c r="I40" s="52">
@@ -18600,11 +18580,11 @@
       </c>
       <c r="K40" s="52"/>
       <c r="L40" s="52">
+        <f t="shared" si="30"/>
+        <v>21000</v>
+      </c>
+      <c r="M40" s="52">
         <f t="shared" si="31"/>
-        <v>21000</v>
-      </c>
-      <c r="M40" s="52">
-        <f t="shared" si="32"/>
         <v>420000</v>
       </c>
       <c r="O40" s="66"/>
@@ -18613,17 +18593,17 @@
     </row>
     <row r="41" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>336000</v>
       </c>
       <c r="B41" s="76" t="s">
         <v>220</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E41" s="74">
         <v>0</v>
@@ -18632,11 +18612,11 @@
         <v>220000</v>
       </c>
       <c r="G41" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H41" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>5 qty Left</v>
       </c>
       <c r="I41" s="52">
@@ -18647,11 +18627,11 @@
       </c>
       <c r="K41" s="52"/>
       <c r="L41" s="52">
+        <f t="shared" si="30"/>
+        <v>67200</v>
+      </c>
+      <c r="M41" s="52">
         <f t="shared" si="31"/>
-        <v>67200</v>
-      </c>
-      <c r="M41" s="52">
-        <f t="shared" si="32"/>
         <v>336000</v>
       </c>
       <c r="P41" s="44"/>
@@ -18659,17 +18639,17 @@
     </row>
     <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>60000</v>
       </c>
       <c r="B42" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E42" s="74">
         <v>0</v>
@@ -18678,11 +18658,11 @@
         <v>220000</v>
       </c>
       <c r="G42" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H42" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1 qty Left</v>
       </c>
       <c r="I42" s="52">
@@ -18693,28 +18673,28 @@
       </c>
       <c r="K42" s="52"/>
       <c r="L42" s="52">
+        <f t="shared" si="30"/>
+        <v>60000</v>
+      </c>
+      <c r="M42" s="52">
         <f t="shared" si="31"/>
         <v>60000</v>
       </c>
-      <c r="M42" s="52">
-        <f t="shared" si="32"/>
-        <v>60000</v>
-      </c>
       <c r="Q42" s="80"/>
     </row>
     <row r="43" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>415000</v>
       </c>
       <c r="B43" s="76" t="s">
         <v>220</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E43" s="74">
         <v>0</v>
@@ -18723,11 +18703,11 @@
         <v>220000</v>
       </c>
       <c r="G43" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H43" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>10 qty Left</v>
       </c>
       <c r="I43" s="52">
@@ -18738,28 +18718,28 @@
       </c>
       <c r="K43" s="52"/>
       <c r="L43" s="52">
+        <f t="shared" si="30"/>
+        <v>41500</v>
+      </c>
+      <c r="M43" s="52">
         <f t="shared" si="31"/>
-        <v>41500</v>
-      </c>
-      <c r="M43" s="52">
-        <f t="shared" si="32"/>
         <v>415000</v>
       </c>
       <c r="Q43" s="80"/>
     </row>
     <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>219750</v>
       </c>
       <c r="B44" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E44" s="74">
         <v>0</v>
@@ -18768,11 +18748,11 @@
         <v>220000</v>
       </c>
       <c r="G44" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H44" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>1 qty Left</v>
       </c>
       <c r="I44" s="52">
@@ -18783,28 +18763,28 @@
       </c>
       <c r="K44" s="52"/>
       <c r="L44" s="52">
+        <f t="shared" si="30"/>
+        <v>219750</v>
+      </c>
+      <c r="M44" s="52">
         <f t="shared" si="31"/>
         <v>219750</v>
       </c>
-      <c r="M44" s="52">
-        <f t="shared" si="32"/>
-        <v>219750</v>
-      </c>
       <c r="Q44" s="80"/>
     </row>
     <row r="45" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>225000</v>
       </c>
       <c r="B45" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D45" s="52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E45" s="74">
         <v>0</v>
@@ -18813,11 +18793,11 @@
         <v>220000</v>
       </c>
       <c r="G45" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="H45" s="44" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>2 qty Left</v>
       </c>
       <c r="I45" s="52">
@@ -18828,28 +18808,28 @@
       </c>
       <c r="K45" s="52"/>
       <c r="L45" s="52">
+        <f t="shared" si="30"/>
+        <v>112500</v>
+      </c>
+      <c r="M45" s="52">
         <f t="shared" si="31"/>
-        <v>112500</v>
-      </c>
-      <c r="M45" s="52">
-        <f t="shared" si="32"/>
         <v>225000</v>
       </c>
       <c r="Q45" s="80"/>
     </row>
     <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>140600</v>
       </c>
       <c r="B46" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E46" s="74">
         <v>0</v>
@@ -18858,11 +18838,11 @@
         <v>220000</v>
       </c>
       <c r="G46" s="53">
-        <f t="shared" ref="G46:G47" si="36">F46*E46</f>
+        <f t="shared" ref="G46:G47" si="35">F46*E46</f>
         <v>0</v>
       </c>
       <c r="H46" s="44" t="str">
-        <f t="shared" ref="H46:H47" si="37">IF(E46=I46,"Out of Stock",I46-E46&amp;" qty Left")</f>
+        <f t="shared" ref="H46:H47" si="36">IF(E46=I46,"Out of Stock",I46-E46&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I46" s="52">
@@ -18873,28 +18853,28 @@
       </c>
       <c r="K46" s="52"/>
       <c r="L46" s="52">
-        <f t="shared" ref="L46:L47" si="38">(K46/I46)+J46</f>
+        <f t="shared" ref="L46:L47" si="37">(K46/I46)+J46</f>
         <v>140600</v>
       </c>
       <c r="M46" s="52">
-        <f t="shared" ref="M46:M47" si="39">(J46*I46)+K46</f>
+        <f t="shared" ref="M46:M47" si="38">(J46*I46)+K46</f>
         <v>140600</v>
       </c>
       <c r="Q46" s="80"/>
     </row>
     <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>338640</v>
       </c>
       <c r="B47" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E47" s="74">
         <v>0</v>
@@ -18903,11 +18883,11 @@
         <v>220000</v>
       </c>
       <c r="G47" s="53">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="44" t="str">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="44" t="str">
-        <f t="shared" si="37"/>
         <v>2 qty Left</v>
       </c>
       <c r="I47" s="52">
@@ -18918,28 +18898,28 @@
       </c>
       <c r="K47" s="52"/>
       <c r="L47" s="52">
+        <f t="shared" si="37"/>
+        <v>169320</v>
+      </c>
+      <c r="M47" s="52">
         <f t="shared" si="38"/>
-        <v>169320</v>
-      </c>
-      <c r="M47" s="52">
-        <f t="shared" si="39"/>
         <v>338640</v>
       </c>
       <c r="Q47" s="80"/>
     </row>
     <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>144000</v>
       </c>
       <c r="B48" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E48" s="74">
         <v>0</v>
@@ -18948,11 +18928,11 @@
         <v>220000</v>
       </c>
       <c r="G48" s="53">
-        <f t="shared" ref="G48:G50" si="40">F48*E48</f>
+        <f t="shared" ref="G48:G50" si="39">F48*E48</f>
         <v>0</v>
       </c>
       <c r="H48" s="44" t="str">
-        <f t="shared" ref="H48:H50" si="41">IF(E48=I48,"Out of Stock",I48-E48&amp;" qty Left")</f>
+        <f t="shared" ref="H48:H50" si="40">IF(E48=I48,"Out of Stock",I48-E48&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I48" s="52">
@@ -18963,28 +18943,28 @@
       </c>
       <c r="K48" s="52"/>
       <c r="L48" s="52">
-        <f t="shared" ref="L48:L50" si="42">(K48/I48)+J48</f>
+        <f t="shared" ref="L48:L50" si="41">(K48/I48)+J48</f>
         <v>72000</v>
       </c>
       <c r="M48" s="52">
-        <f t="shared" ref="M48:M50" si="43">(J48*I48)+K48</f>
+        <f t="shared" ref="M48:M50" si="42">(J48*I48)+K48</f>
         <v>144000</v>
       </c>
       <c r="Q48" s="80"/>
     </row>
     <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>83000</v>
       </c>
       <c r="B49" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E49" s="74">
         <v>0</v>
@@ -18993,11 +18973,11 @@
         <v>220000</v>
       </c>
       <c r="G49" s="53">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="44" t="str">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H49" s="44" t="str">
-        <f t="shared" si="41"/>
         <v>1 qty Left</v>
       </c>
       <c r="I49" s="52">
@@ -19008,28 +18988,28 @@
       </c>
       <c r="K49" s="52"/>
       <c r="L49" s="52">
+        <f t="shared" si="41"/>
+        <v>83000</v>
+      </c>
+      <c r="M49" s="52">
         <f t="shared" si="42"/>
         <v>83000</v>
       </c>
-      <c r="M49" s="52">
-        <f t="shared" si="43"/>
-        <v>83000</v>
-      </c>
       <c r="Q49" s="80"/>
     </row>
     <row r="50" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>158000</v>
       </c>
       <c r="B50" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E50" s="74">
         <v>0</v>
@@ -19038,11 +19018,11 @@
         <v>220000</v>
       </c>
       <c r="G50" s="53">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="44" t="str">
         <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-      <c r="H50" s="44" t="str">
-        <f t="shared" si="41"/>
         <v>2 qty Left</v>
       </c>
       <c r="I50" s="52">
@@ -19053,11 +19033,11 @@
       </c>
       <c r="K50" s="52"/>
       <c r="L50" s="52">
+        <f t="shared" si="41"/>
+        <v>79000</v>
+      </c>
+      <c r="M50" s="52">
         <f t="shared" si="42"/>
-        <v>79000</v>
-      </c>
-      <c r="M50" s="52">
-        <f t="shared" si="43"/>
         <v>158000</v>
       </c>
       <c r="Q50" s="80"/>
@@ -19079,17 +19059,17 @@
     </row>
     <row r="52" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="84">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>388200</v>
       </c>
       <c r="B52" s="76" t="s">
         <v>223</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E52" s="74">
         <v>0</v>
@@ -19098,11 +19078,11 @@
         <v>220000</v>
       </c>
       <c r="G52" s="53">
-        <f t="shared" ref="G52" si="44">F52*E52</f>
+        <f t="shared" ref="G52" si="43">F52*E52</f>
         <v>0</v>
       </c>
       <c r="H52" s="44" t="str">
-        <f t="shared" ref="H52" si="45">IF(E52=I52,"Out of Stock",I52-E52&amp;" qty Left")</f>
+        <f t="shared" ref="H52" si="44">IF(E52=I52,"Out of Stock",I52-E52&amp;" qty Left")</f>
         <v>3 qty Left</v>
       </c>
       <c r="I52" s="52">
@@ -19113,11 +19093,11 @@
       </c>
       <c r="K52" s="52"/>
       <c r="L52" s="52">
-        <f t="shared" ref="L52" si="46">(K52/I52)+J52</f>
+        <f t="shared" ref="L52" si="45">(K52/I52)+J52</f>
         <v>129400</v>
       </c>
       <c r="M52" s="52">
-        <f t="shared" ref="M52" si="47">(J52*I52)+K52</f>
+        <f t="shared" ref="M52" si="46">(J52*I52)+K52</f>
         <v>388200</v>
       </c>
       <c r="Q52" s="80"/>
@@ -19139,31 +19119,31 @@
     </row>
     <row r="54" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="84">
-        <f t="shared" ref="A54:A90" si="48">IF($E54=0,$M54,IF($E54=$I54,IF($M54-$G54&lt;0,0,IF($D54="set",$M54-$G54,FALSE)),($I54-$E54)*$J54))</f>
-        <v>240000</v>
+        <f t="shared" ref="A54:A90" si="47">IF($E54=0,$M54,IF($E54=$I54,IF($M54-$G54&lt;0,0,IF($D54="set",$M54-$G54,FALSE)),($I54-$E54)*$J54))</f>
+        <v>180000</v>
       </c>
       <c r="B54" s="76" t="s">
         <v>222</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E54" s="74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" s="74">
         <v>220000</v>
       </c>
       <c r="G54" s="53">
-        <f t="shared" ref="G54" si="49">F54*E54</f>
-        <v>220000</v>
+        <f t="shared" ref="G54" si="48">F54*E54</f>
+        <v>440000</v>
       </c>
       <c r="H54" s="44" t="str">
-        <f t="shared" ref="H54" si="50">IF(E54=I54,"Out of Stock",I54-E54&amp;" qty Left")</f>
-        <v>4 qty Left</v>
+        <f t="shared" ref="H54" si="49">IF(E54=I54,"Out of Stock",I54-E54&amp;" qty Left")</f>
+        <v>3 qty Left</v>
       </c>
       <c r="I54" s="52">
         <v>5</v>
@@ -19173,18 +19153,18 @@
       </c>
       <c r="K54" s="52"/>
       <c r="L54" s="52">
-        <f t="shared" ref="L54" si="51">(K54/I54)+J54</f>
+        <f t="shared" ref="L54" si="50">(K54/I54)+J54</f>
         <v>60000</v>
       </c>
       <c r="M54" s="52">
-        <f t="shared" ref="M54" si="52">(J54*I54)+K54</f>
+        <f t="shared" ref="M54" si="51">(J54*I54)+K54</f>
         <v>300000</v>
       </c>
       <c r="Q54" s="80"/>
     </row>
     <row r="55" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>57600</v>
       </c>
       <c r="B55" s="76" t="s">
@@ -19194,7 +19174,7 @@
         <v>31</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E55" s="74">
         <v>0</v>
@@ -19203,11 +19183,11 @@
         <v>220000</v>
       </c>
       <c r="G55" s="53">
-        <f t="shared" ref="G55:G57" si="53">F55*E55</f>
+        <f t="shared" ref="G55:G57" si="52">F55*E55</f>
         <v>0</v>
       </c>
       <c r="H55" s="44" t="str">
-        <f t="shared" ref="H55:H57" si="54">IF(E55=I55,"Out of Stock",I55-E55&amp;" qty Left")</f>
+        <f t="shared" ref="H55:H57" si="53">IF(E55=I55,"Out of Stock",I55-E55&amp;" qty Left")</f>
         <v>12 qty Left</v>
       </c>
       <c r="I55" s="52">
@@ -19218,18 +19198,18 @@
       </c>
       <c r="K55" s="52"/>
       <c r="L55" s="52">
-        <f t="shared" ref="L55:L57" si="55">(K55/I55)+J55</f>
+        <f t="shared" ref="L55:L57" si="54">(K55/I55)+J55</f>
         <v>4800</v>
       </c>
       <c r="M55" s="52">
-        <f t="shared" ref="M55:M57" si="56">(J55*I55)+K55</f>
+        <f t="shared" ref="M55:M57" si="55">(J55*I55)+K55</f>
         <v>57600</v>
       </c>
       <c r="Q55" s="80"/>
     </row>
     <row r="56" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>44000</v>
       </c>
       <c r="B56" s="76" t="s">
@@ -19239,7 +19219,7 @@
         <v>31</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E56" s="74">
         <v>4</v>
@@ -19248,11 +19228,11 @@
         <v>220000</v>
       </c>
       <c r="G56" s="53">
+        <f t="shared" si="52"/>
+        <v>880000</v>
+      </c>
+      <c r="H56" s="44" t="str">
         <f t="shared" si="53"/>
-        <v>880000</v>
-      </c>
-      <c r="H56" s="44" t="str">
-        <f t="shared" si="54"/>
         <v>8 qty Left</v>
       </c>
       <c r="I56" s="52">
@@ -19263,28 +19243,28 @@
       </c>
       <c r="K56" s="52"/>
       <c r="L56" s="52">
+        <f t="shared" si="54"/>
+        <v>5500</v>
+      </c>
+      <c r="M56" s="52">
         <f t="shared" si="55"/>
-        <v>5500</v>
-      </c>
-      <c r="M56" s="52">
-        <f t="shared" si="56"/>
         <v>66000</v>
       </c>
       <c r="Q56" s="80"/>
     </row>
     <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>312600</v>
       </c>
       <c r="B57" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E57" s="74">
         <v>0</v>
@@ -19293,11 +19273,11 @@
         <v>220000</v>
       </c>
       <c r="G57" s="53">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="44" t="str">
         <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="H57" s="44" t="str">
-        <f t="shared" si="54"/>
         <v>2 qty Left</v>
       </c>
       <c r="I57" s="52">
@@ -19308,28 +19288,28 @@
       </c>
       <c r="K57" s="52"/>
       <c r="L57" s="52">
+        <f t="shared" si="54"/>
+        <v>156300</v>
+      </c>
+      <c r="M57" s="52">
         <f t="shared" si="55"/>
-        <v>156300</v>
-      </c>
-      <c r="M57" s="52">
-        <f t="shared" si="56"/>
         <v>312600</v>
       </c>
       <c r="Q57" s="80"/>
     </row>
     <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>92000</v>
       </c>
       <c r="B58" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E58" s="74">
         <v>0</v>
@@ -19338,11 +19318,11 @@
         <v>220000</v>
       </c>
       <c r="G58" s="53">
-        <f t="shared" ref="G58:G59" si="57">F58*E58</f>
+        <f t="shared" ref="G58:G59" si="56">F58*E58</f>
         <v>0</v>
       </c>
       <c r="H58" s="44" t="str">
-        <f t="shared" ref="H58:H59" si="58">IF(E58=I58,"Out of Stock",I58-E58&amp;" qty Left")</f>
+        <f t="shared" ref="H58:H59" si="57">IF(E58=I58,"Out of Stock",I58-E58&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I58" s="52">
@@ -19353,17 +19333,17 @@
       </c>
       <c r="K58" s="52"/>
       <c r="L58" s="52">
-        <f t="shared" ref="L58:L59" si="59">(K58/I58)+J58</f>
+        <f t="shared" ref="L58:L59" si="58">(K58/I58)+J58</f>
         <v>46000</v>
       </c>
       <c r="M58" s="52">
-        <f t="shared" ref="M58:M59" si="60">(J58*I58)+K58</f>
+        <f t="shared" ref="M58:M59" si="59">(J58*I58)+K58</f>
         <v>92000</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>127750</v>
       </c>
       <c r="B59" s="76" t="s">
@@ -19373,7 +19353,7 @@
         <v>241</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E59" s="74">
         <v>0</v>
@@ -19382,11 +19362,11 @@
         <v>220000</v>
       </c>
       <c r="G59" s="53">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="44" t="str">
         <f t="shared" si="57"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="44" t="str">
-        <f t="shared" si="58"/>
         <v>1 qty Left</v>
       </c>
       <c r="I59" s="52">
@@ -19397,27 +19377,27 @@
       </c>
       <c r="K59" s="52"/>
       <c r="L59" s="52">
+        <f t="shared" si="58"/>
+        <v>127750</v>
+      </c>
+      <c r="M59" s="52">
         <f t="shared" si="59"/>
         <v>127750</v>
       </c>
-      <c r="M59" s="52">
-        <f t="shared" si="60"/>
-        <v>127750</v>
-      </c>
     </row>
     <row r="60" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>31700</v>
       </c>
       <c r="B60" s="76" t="s">
         <v>279</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E60" s="74">
         <v>0</v>
@@ -19426,11 +19406,11 @@
         <v>220000</v>
       </c>
       <c r="G60" s="53">
-        <f t="shared" ref="G60" si="61">F60*E60</f>
+        <f t="shared" ref="G60" si="60">F60*E60</f>
         <v>0</v>
       </c>
       <c r="H60" s="44" t="str">
-        <f t="shared" ref="H60" si="62">IF(E60=I60,"Out of Stock",I60-E60&amp;" qty Left")</f>
+        <f t="shared" ref="H60" si="61">IF(E60=I60,"Out of Stock",I60-E60&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I60" s="52">
@@ -19441,27 +19421,27 @@
       </c>
       <c r="K60" s="52"/>
       <c r="L60" s="52">
-        <f t="shared" ref="L60" si="63">(K60/I60)+J60</f>
+        <f t="shared" ref="L60" si="62">(K60/I60)+J60</f>
         <v>31700</v>
       </c>
       <c r="M60" s="52">
-        <f t="shared" ref="M60" si="64">(J60*I60)+K60</f>
+        <f t="shared" ref="M60" si="63">(J60*I60)+K60</f>
         <v>31700</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>66600</v>
       </c>
       <c r="B61" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E61" s="74">
         <v>0</v>
@@ -19470,11 +19450,11 @@
         <v>220000</v>
       </c>
       <c r="G61" s="53">
-        <f t="shared" ref="G61" si="65">F61*E61</f>
+        <f t="shared" ref="G61" si="64">F61*E61</f>
         <v>0</v>
       </c>
       <c r="H61" s="44" t="str">
-        <f t="shared" ref="H61" si="66">IF(E61=I61,"Out of Stock",I61-E61&amp;" qty Left")</f>
+        <f t="shared" ref="H61" si="65">IF(E61=I61,"Out of Stock",I61-E61&amp;" qty Left")</f>
         <v>3 qty Left</v>
       </c>
       <c r="I61" s="52">
@@ -19485,28 +19465,28 @@
       </c>
       <c r="K61" s="52"/>
       <c r="L61" s="52">
-        <f t="shared" ref="L61:L62" si="67">(K61/I61)+J61</f>
+        <f t="shared" ref="L61:L62" si="66">(K61/I61)+J61</f>
         <v>22200</v>
       </c>
       <c r="M61" s="52">
-        <f t="shared" ref="M61:M62" si="68">(J61*I61)+K61</f>
+        <f t="shared" ref="M61:M62" si="67">(J61*I61)+K61</f>
         <v>66600</v>
       </c>
       <c r="O61" s="55"/>
     </row>
     <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>229260</v>
       </c>
       <c r="B62" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E62" s="74">
         <v>0</v>
@@ -19515,11 +19495,11 @@
         <v>220000</v>
       </c>
       <c r="G62" s="53">
-        <f t="shared" ref="G62" si="69">F62*E62</f>
+        <f t="shared" ref="G62" si="68">F62*E62</f>
         <v>0</v>
       </c>
       <c r="H62" s="44" t="str">
-        <f t="shared" ref="H62" si="70">IF(E62=I62,"Out of Stock",I62-E62&amp;" qty Left")</f>
+        <f t="shared" ref="H62" si="69">IF(E62=I62,"Out of Stock",I62-E62&amp;" qty Left")</f>
         <v>6 qty Left</v>
       </c>
       <c r="I62" s="52">
@@ -19530,41 +19510,41 @@
       </c>
       <c r="K62" s="52"/>
       <c r="L62" s="52">
+        <f t="shared" si="66"/>
+        <v>38210</v>
+      </c>
+      <c r="M62" s="52">
         <f t="shared" si="67"/>
-        <v>38210</v>
-      </c>
-      <c r="M62" s="52">
-        <f t="shared" si="68"/>
         <v>229260</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="84">
-        <f t="shared" si="48"/>
-        <v>557440</v>
+        <f t="shared" si="47"/>
+        <v>418080</v>
       </c>
       <c r="B63" s="86" t="s">
         <v>223</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D63" s="53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E63" s="74">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F63" s="74">
         <v>210000</v>
       </c>
       <c r="G63" s="53">
-        <f t="shared" ref="G63" si="71">F63*E63</f>
-        <v>1260000</v>
+        <f t="shared" ref="G63" si="70">F63*E63</f>
+        <v>1470000</v>
       </c>
       <c r="H63" s="44" t="str">
-        <f t="shared" ref="H63" si="72">IF(E63=I63,"Out of Stock",I63-E63&amp;" qty Left")</f>
-        <v>4 qty Left</v>
+        <f t="shared" ref="H63" si="71">IF(E63=I63,"Out of Stock",I63-E63&amp;" qty Left")</f>
+        <v>3 qty Left</v>
       </c>
       <c r="I63" s="52">
         <v>10</v>
@@ -19576,68 +19556,68 @@
         <v>5000</v>
       </c>
       <c r="L63" s="52">
-        <f t="shared" ref="L63" si="73">(K63/I63)+J63</f>
+        <f t="shared" ref="L63" si="72">(K63/I63)+J63</f>
         <v>139860</v>
       </c>
       <c r="M63" s="52">
-        <f t="shared" ref="M63" si="74">(J63*I63)+K63</f>
+        <f t="shared" ref="M63" si="73">(J63*I63)+K63</f>
         <v>1398600</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="84">
-        <f t="shared" si="48"/>
-        <v>75000</v>
-      </c>
-      <c r="B64" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="53" t="s">
-        <v>368</v>
+        <f t="shared" si="47"/>
+        <v>1347700</v>
+      </c>
+      <c r="B64" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="C64" s="87" t="s">
+        <v>365</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="E64" s="74">
         <v>0</v>
       </c>
       <c r="F64" s="74">
-        <v>80000</v>
+        <v>210000</v>
       </c>
       <c r="G64" s="53">
-        <f t="shared" ref="G64" si="75">F64*E64</f>
+        <f t="shared" ref="G64" si="74">F64*E64</f>
         <v>0</v>
       </c>
       <c r="H64" s="44" t="str">
-        <f t="shared" ref="H64" si="76">IF(E64=I64,"Out of Stock",I64-E64&amp;" qty Left")</f>
-        <v>1 qty Left</v>
+        <f t="shared" ref="H64" si="75">IF(E64=I64,"Out of Stock",I64-E64&amp;" qty Left")</f>
+        <v>10 qty Left</v>
       </c>
       <c r="I64" s="52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J64" s="52">
-        <v>75000</v>
+        <v>134770</v>
       </c>
       <c r="K64" s="52"/>
       <c r="L64" s="52">
-        <f t="shared" ref="L64" si="77">(K64/I64)+J64</f>
-        <v>75000</v>
+        <f t="shared" ref="L64" si="76">(K64/I64)+J64</f>
+        <v>134770</v>
       </c>
       <c r="M64" s="52">
-        <f t="shared" ref="M64" si="78">(J64*I64)+K64</f>
-        <v>75000</v>
+        <f t="shared" ref="M64" si="77">(J64*I64)+K64</f>
+        <v>1347700</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="84">
-        <f t="shared" si="48"/>
-        <v>85000</v>
+        <f t="shared" si="47"/>
+        <v>75000</v>
       </c>
       <c r="B65" s="76" t="s">
-        <v>345</v>
+        <v>21</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D65" s="53" t="s">
         <v>323</v>
@@ -19649,56 +19629,86 @@
         <v>80000</v>
       </c>
       <c r="G65" s="53">
-        <f t="shared" ref="G65:G67" si="79">F65*E65</f>
+        <f t="shared" ref="G65:G66" si="78">F65*E65</f>
         <v>0</v>
       </c>
       <c r="H65" s="44" t="str">
-        <f t="shared" ref="H65:H67" si="80">IF(E65=I65,"Out of Stock",I65-E65&amp;" qty Left")</f>
+        <f t="shared" ref="H65:H66" si="79">IF(E65=I65,"Out of Stock",I65-E65&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I65" s="52">
         <v>1</v>
       </c>
       <c r="J65" s="52">
-        <v>85000</v>
+        <v>75000</v>
       </c>
       <c r="K65" s="52"/>
       <c r="L65" s="52">
-        <f t="shared" ref="L65:L67" si="81">(K65/I65)+J65</f>
+        <f t="shared" ref="L65:L66" si="80">(K65/I65)+J65</f>
+        <v>75000</v>
+      </c>
+      <c r="M65" s="52">
+        <f t="shared" ref="M65:M66" si="81">(J65*I65)+K65</f>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="84">
+        <f t="shared" si="47"/>
         <v>85000</v>
       </c>
-      <c r="M65" s="52">
-        <f t="shared" ref="M65:M67" si="82">(J65*I65)+K65</f>
+      <c r="B66" s="76" t="s">
+        <v>344</v>
+      </c>
+      <c r="C66" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="E66" s="74">
+        <v>0</v>
+      </c>
+      <c r="F66" s="74">
+        <v>80000</v>
+      </c>
+      <c r="G66" s="53">
+        <f t="shared" si="78"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="44" t="str">
+        <f t="shared" si="79"/>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I66" s="52">
+        <v>1</v>
+      </c>
+      <c r="J66" s="52">
         <v>85000</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="76"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="44"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
       <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
+      <c r="L66" s="52">
+        <f t="shared" si="80"/>
+        <v>85000</v>
+      </c>
+      <c r="M66" s="52">
+        <f t="shared" si="81"/>
+        <v>85000</v>
+      </c>
     </row>
     <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>36000</v>
       </c>
       <c r="B67" s="76" t="s">
         <v>21</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E67" s="74">
         <v>0</v>
@@ -19707,11 +19717,11 @@
         <v>20000</v>
       </c>
       <c r="G67" s="53">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="G67" si="82">F67*E67</f>
         <v>0</v>
       </c>
       <c r="H67" s="44" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="H67" si="83">IF(E67=I67,"Out of Stock",I67-E67&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I67" s="52">
@@ -19722,27 +19732,27 @@
       </c>
       <c r="K67" s="52"/>
       <c r="L67" s="52">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="L67" si="84">(K67/I67)+J67</f>
         <v>18000</v>
       </c>
       <c r="M67" s="52">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="M67" si="85">(J67*I67)+K67</f>
         <v>36000</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>540000</v>
       </c>
       <c r="B68" s="76" t="s">
         <v>221</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="E68" s="74">
         <v>0</v>
@@ -19751,11 +19761,11 @@
         <v>20000</v>
       </c>
       <c r="G68" s="53">
-        <f t="shared" ref="G68" si="83">F68*E68</f>
+        <f t="shared" ref="G68" si="86">F68*E68</f>
         <v>0</v>
       </c>
       <c r="H68" s="44" t="str">
-        <f t="shared" ref="H68:H69" si="84">IF(E68=I68,"Out of Stock",I68-E68&amp;" qty Left")</f>
+        <f t="shared" ref="H68:H69" si="87">IF(E68=I68,"Out of Stock",I68-E68&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I68" s="52">
@@ -19767,27 +19777,27 @@
       </c>
       <c r="K68" s="52"/>
       <c r="L68" s="52">
-        <f t="shared" ref="L68:L69" si="85">(K68/I68)+J68</f>
+        <f t="shared" ref="L68:L69" si="88">(K68/I68)+J68</f>
         <v>540000</v>
       </c>
       <c r="M68" s="52">
-        <f t="shared" ref="M68:M69" si="86">(J68*I68)+K68</f>
+        <f t="shared" ref="M68:M69" si="89">(J68*I68)+K68</f>
         <v>540000</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>550000</v>
       </c>
       <c r="B69" s="76" t="s">
         <v>23</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E69" s="74">
         <v>0</v>
@@ -19796,11 +19806,11 @@
         <v>220000</v>
       </c>
       <c r="G69" s="53">
-        <f t="shared" ref="G69:G77" si="87">F69*E69</f>
+        <f t="shared" ref="G69:G77" si="90">F69*E69</f>
         <v>0</v>
       </c>
       <c r="H69" s="44" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" si="87"/>
         <v>1 qty Left</v>
       </c>
       <c r="I69" s="52">
@@ -19813,27 +19823,27 @@
         <v>0</v>
       </c>
       <c r="L69" s="52">
-        <f t="shared" si="85"/>
+        <f t="shared" si="88"/>
         <v>550000</v>
       </c>
       <c r="M69" s="52">
-        <f t="shared" si="86"/>
+        <f t="shared" si="89"/>
         <v>550000</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>42500</v>
       </c>
       <c r="B70" s="72" t="s">
         <v>21</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E70" s="74">
         <v>0</v>
@@ -19842,11 +19852,11 @@
         <v>220000</v>
       </c>
       <c r="G70" s="53">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="H70" s="44" t="str">
-        <f t="shared" ref="H70" si="88">IF(E70=I70,"Out of Stock",I70-E70&amp;" qty Left")</f>
+        <f t="shared" ref="H70" si="91">IF(E70=I70,"Out of Stock",I70-E70&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I70" s="52">
@@ -19859,27 +19869,27 @@
         <v>0</v>
       </c>
       <c r="L70" s="52">
-        <f t="shared" ref="L70" si="89">(K70/I70)+J70</f>
+        <f t="shared" ref="L70" si="92">(K70/I70)+J70</f>
         <v>42500</v>
       </c>
       <c r="M70" s="52">
-        <f t="shared" ref="M70" si="90">(J70*I70)+K70</f>
+        <f t="shared" ref="M70" si="93">(J70*I70)+K70</f>
         <v>42500</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>40800</v>
       </c>
       <c r="B71" s="72" t="s">
         <v>21</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E71" s="74">
         <v>0</v>
@@ -19888,11 +19898,11 @@
         <v>220000</v>
       </c>
       <c r="G71" s="53">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="H71" s="44" t="str">
-        <f t="shared" ref="H71" si="91">IF(E71=I71,"Out of Stock",I71-E71&amp;" qty Left")</f>
+        <f t="shared" ref="H71" si="94">IF(E71=I71,"Out of Stock",I71-E71&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I71" s="52">
@@ -19905,27 +19915,27 @@
         <v>0</v>
       </c>
       <c r="L71" s="52">
-        <f t="shared" ref="L71" si="92">(K71/I71)+J71</f>
+        <f t="shared" ref="L71" si="95">(K71/I71)+J71</f>
         <v>40800</v>
       </c>
       <c r="M71" s="52">
-        <f t="shared" ref="M71" si="93">(J71*I71)+K71</f>
+        <f t="shared" ref="M71" si="96">(J71*I71)+K71</f>
         <v>40800</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>136000</v>
       </c>
       <c r="B72" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E72" s="74">
         <v>0</v>
@@ -19934,11 +19944,11 @@
         <v>220000</v>
       </c>
       <c r="G72" s="53">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="H72" s="44" t="str">
-        <f t="shared" ref="H72" si="94">IF(E72=I72,"Out of Stock",I72-E72&amp;" qty Left")</f>
+        <f t="shared" ref="H72" si="97">IF(E72=I72,"Out of Stock",I72-E72&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I72" s="52">
@@ -19951,27 +19961,27 @@
         <v>0</v>
       </c>
       <c r="L72" s="52">
-        <f t="shared" ref="L72" si="95">(K72/I72)+J72</f>
+        <f t="shared" ref="L72" si="98">(K72/I72)+J72</f>
         <v>136000</v>
       </c>
       <c r="M72" s="52">
-        <f t="shared" ref="M72" si="96">(J72*I72)+K72</f>
+        <f t="shared" ref="M72" si="99">(J72*I72)+K72</f>
         <v>136000</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>119000</v>
       </c>
       <c r="B73" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E73" s="74">
         <v>0</v>
@@ -19980,11 +19990,11 @@
         <v>220000</v>
       </c>
       <c r="G73" s="53">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="H73" s="44" t="str">
-        <f t="shared" ref="H73" si="97">IF(E73=I73,"Out of Stock",I73-E73&amp;" qty Left")</f>
+        <f t="shared" ref="H73" si="100">IF(E73=I73,"Out of Stock",I73-E73&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I73" s="52">
@@ -19997,11 +20007,11 @@
         <v>0</v>
       </c>
       <c r="L73" s="52">
-        <f t="shared" ref="L73" si="98">(K73/I73)+J73</f>
+        <f t="shared" ref="L73" si="101">(K73/I73)+J73</f>
         <v>119000</v>
       </c>
       <c r="M73" s="52">
-        <f t="shared" ref="M73" si="99">(J73*I73)+K73</f>
+        <f t="shared" ref="M73" si="102">(J73*I73)+K73</f>
         <v>119000</v>
       </c>
     </row>
@@ -20021,31 +20031,31 @@
     </row>
     <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="84">
-        <f t="shared" si="48"/>
-        <v>195500</v>
+        <f t="shared" si="47"/>
+        <v>0</v>
       </c>
       <c r="B75" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E75" s="74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" s="74">
         <v>220000</v>
       </c>
       <c r="G75" s="53">
-        <f t="shared" si="87"/>
-        <v>0</v>
+        <f t="shared" si="90"/>
+        <v>220000</v>
       </c>
       <c r="H75" s="44" t="str">
-        <f t="shared" ref="H75:H76" si="100">IF(E75=I75,"Out of Stock",I75-E75&amp;" qty Left")</f>
-        <v>1 qty Left</v>
+        <f t="shared" ref="H75:H76" si="103">IF(E75=I75,"Out of Stock",I75-E75&amp;" qty Left")</f>
+        <v>Out of Stock</v>
       </c>
       <c r="I75" s="52">
         <v>1</v>
@@ -20057,27 +20067,27 @@
         <v>0</v>
       </c>
       <c r="L75" s="52">
-        <f t="shared" ref="L75:L76" si="101">(K75/I75)+J75</f>
+        <f t="shared" ref="L75:L76" si="104">(K75/I75)+J75</f>
         <v>195500</v>
       </c>
       <c r="M75" s="52">
-        <f t="shared" ref="M75:M76" si="102">(J75*I75)+K75</f>
+        <f t="shared" ref="M75:M76" si="105">(J75*I75)+K75</f>
         <v>195500</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>86500</v>
       </c>
       <c r="B76" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D76" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E76" s="74">
         <v>0</v>
@@ -20086,11 +20096,11 @@
         <v>220000</v>
       </c>
       <c r="G76" s="53">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="H76" s="44" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="103"/>
         <v>1 qty Left</v>
       </c>
       <c r="I76" s="52">
@@ -20103,24 +20113,24 @@
         <v>0</v>
       </c>
       <c r="L76" s="52">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>86500</v>
       </c>
       <c r="M76" s="52">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>86500</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>95000</v>
       </c>
       <c r="B77" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D77" s="53" t="s">
         <v>322</v>
@@ -20132,11 +20142,11 @@
         <v>220000</v>
       </c>
       <c r="G77" s="53">
-        <f t="shared" si="87"/>
+        <f t="shared" si="90"/>
         <v>0</v>
       </c>
       <c r="H77" s="44" t="str">
-        <f t="shared" ref="H77" si="103">IF(E77=I77,"Out of Stock",I77-E77&amp;" qty Left")</f>
+        <f t="shared" ref="H77" si="106">IF(E77=I77,"Out of Stock",I77-E77&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I77" s="52">
@@ -20149,24 +20159,24 @@
         <v>0</v>
       </c>
       <c r="L77" s="52">
-        <f t="shared" ref="L77" si="104">(K77/I77)+J77</f>
+        <f t="shared" ref="L77" si="107">(K77/I77)+J77</f>
         <v>95000</v>
       </c>
       <c r="M77" s="52">
-        <f t="shared" ref="M77" si="105">(J77*I77)+K77</f>
+        <f t="shared" ref="M77" si="108">(J77*I77)+K77</f>
         <v>95000</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>90000</v>
       </c>
       <c r="B78" s="72" t="s">
         <v>221</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D78" s="53" t="s">
         <v>323</v>
@@ -20178,11 +20188,11 @@
         <v>20000</v>
       </c>
       <c r="G78" s="53">
-        <f t="shared" ref="G78" si="106">F78*E78</f>
+        <f t="shared" ref="G78" si="109">F78*E78</f>
         <v>60000</v>
       </c>
       <c r="H78" s="44" t="str">
-        <f t="shared" ref="H78" si="107">IF(E78=I78,"Out of Stock",I78-E78&amp;" qty Left")</f>
+        <f t="shared" ref="H78" si="110">IF(E78=I78,"Out of Stock",I78-E78&amp;" qty Left")</f>
         <v>6 qty Left</v>
       </c>
       <c r="I78" s="52">
@@ -20195,24 +20205,24 @@
         <v>0</v>
       </c>
       <c r="L78" s="52">
-        <f t="shared" ref="L78" si="108">(K78/I78)+J78</f>
+        <f t="shared" ref="L78" si="111">(K78/I78)+J78</f>
         <v>15000</v>
       </c>
       <c r="M78" s="52">
-        <f t="shared" ref="M78" si="109">(J78*I78)+K78</f>
+        <f t="shared" ref="M78" si="112">(J78*I78)+K78</f>
         <v>135000</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>126000</v>
       </c>
       <c r="B79" s="72" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D79" s="53" t="s">
         <v>323</v>
@@ -20224,11 +20234,11 @@
         <v>220000</v>
       </c>
       <c r="G79" s="53">
-        <f t="shared" ref="G79" si="110">F79*E79</f>
+        <f t="shared" ref="G79" si="113">F79*E79</f>
         <v>1100000</v>
       </c>
       <c r="H79" s="44" t="str">
-        <f t="shared" ref="H79" si="111">IF(E79=I79,"Out of Stock",I79-E79&amp;" qty Left")</f>
+        <f t="shared" ref="H79" si="114">IF(E79=I79,"Out of Stock",I79-E79&amp;" qty Left")</f>
         <v>3 qty Left</v>
       </c>
       <c r="I79" s="52">
@@ -20241,24 +20251,24 @@
         <v>0</v>
       </c>
       <c r="L79" s="52">
-        <f t="shared" ref="L79" si="112">(K79/I79)+J79</f>
+        <f t="shared" ref="L79" si="115">(K79/I79)+J79</f>
         <v>42000</v>
       </c>
       <c r="M79" s="52">
-        <f t="shared" ref="M79" si="113">(J79*I79)+K79</f>
+        <f t="shared" ref="M79" si="116">(J79*I79)+K79</f>
         <v>336000</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>1000000</v>
       </c>
       <c r="B80" s="72" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C80" s="53" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D80" s="53" t="s">
         <v>323</v>
@@ -20270,11 +20280,11 @@
         <v>220000</v>
       </c>
       <c r="G80" s="53">
-        <f t="shared" ref="G80" si="114">F80*E80</f>
+        <f t="shared" ref="G80" si="117">F80*E80</f>
         <v>0</v>
       </c>
       <c r="H80" s="44" t="str">
-        <f t="shared" ref="H80" si="115">IF(E80=I80,"Out of Stock",I80-E80&amp;" qty Left")</f>
+        <f t="shared" ref="H80" si="118">IF(E80=I80,"Out of Stock",I80-E80&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I80" s="52">
@@ -20287,27 +20297,27 @@
         <v>0</v>
       </c>
       <c r="L80" s="52">
-        <f t="shared" ref="L80" si="116">(K80/I80)+J80</f>
+        <f t="shared" ref="L80" si="119">(K80/I80)+J80</f>
         <v>1000000</v>
       </c>
       <c r="M80" s="52">
-        <f t="shared" ref="M80" si="117">(J80*I80)+K80</f>
+        <f t="shared" ref="M80" si="120">(J80*I80)+K80</f>
         <v>1000000</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>300000</v>
       </c>
       <c r="B81" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="53" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D81" s="53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E81" s="74">
         <v>0</v>
@@ -20316,11 +20326,11 @@
         <v>220000</v>
       </c>
       <c r="G81" s="53">
-        <f t="shared" ref="G81:G82" si="118">F81*E81</f>
+        <f t="shared" ref="G81:G82" si="121">F81*E81</f>
         <v>0</v>
       </c>
       <c r="H81" s="44" t="str">
-        <f t="shared" ref="H81:H82" si="119">IF(E81=I81,"Out of Stock",I81-E81&amp;" qty Left")</f>
+        <f t="shared" ref="H81:H82" si="122">IF(E81=I81,"Out of Stock",I81-E81&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I81" s="52">
@@ -20333,27 +20343,27 @@
         <v>0</v>
       </c>
       <c r="L81" s="52">
-        <f t="shared" ref="L81:L82" si="120">(K81/I81)+J81</f>
+        <f t="shared" ref="L81:L82" si="123">(K81/I81)+J81</f>
         <v>300000</v>
       </c>
       <c r="M81" s="52">
-        <f t="shared" ref="M81:M82" si="121">(J81*I81)+K81</f>
+        <f t="shared" ref="M81:M82" si="124">(J81*I81)+K81</f>
         <v>300000</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>558000</v>
       </c>
       <c r="B82" s="72" t="s">
         <v>223</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D82" s="51" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E82" s="74">
         <v>0</v>
@@ -20362,11 +20372,11 @@
         <v>220000</v>
       </c>
       <c r="G82" s="53">
-        <f t="shared" si="118"/>
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="H82" s="44" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="122"/>
         <v>1 qty Left</v>
       </c>
       <c r="I82" s="52">
@@ -20379,24 +20389,24 @@
         <v>0</v>
       </c>
       <c r="L82" s="52">
-        <f t="shared" si="120"/>
+        <f t="shared" si="123"/>
         <v>558000</v>
       </c>
       <c r="M82" s="52">
-        <f t="shared" si="121"/>
+        <f t="shared" si="124"/>
         <v>558000</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>140000</v>
       </c>
       <c r="B83" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C83" s="53" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D83" s="53" t="s">
         <v>323</v>
@@ -20408,11 +20418,11 @@
         <v>220000</v>
       </c>
       <c r="G83" s="53">
-        <f t="shared" ref="G83" si="122">F83*E83</f>
+        <f t="shared" ref="G83" si="125">F83*E83</f>
         <v>0</v>
       </c>
       <c r="H83" s="44" t="str">
-        <f t="shared" ref="H83" si="123">IF(E83=I83,"Out of Stock",I83-E83&amp;" qty Left")</f>
+        <f t="shared" ref="H83" si="126">IF(E83=I83,"Out of Stock",I83-E83&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I83" s="52">
@@ -20425,27 +20435,27 @@
         <v>0</v>
       </c>
       <c r="L83" s="52">
-        <f t="shared" ref="L83" si="124">(K83/I83)+J83</f>
+        <f t="shared" ref="L83" si="127">(K83/I83)+J83</f>
         <v>70000</v>
       </c>
       <c r="M83" s="52">
-        <f t="shared" ref="M83" si="125">(J83*I83)+K83</f>
+        <f t="shared" ref="M83" si="128">(J83*I83)+K83</f>
         <v>140000</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>330000</v>
       </c>
       <c r="B84" s="72" t="s">
         <v>223</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D84" s="51" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E84" s="74">
         <v>0</v>
@@ -20454,11 +20464,11 @@
         <v>220000</v>
       </c>
       <c r="G84" s="53">
-        <f t="shared" ref="G84:G85" si="126">F84*E84</f>
+        <f t="shared" ref="G84:G85" si="129">F84*E84</f>
         <v>0</v>
       </c>
       <c r="H84" s="44" t="str">
-        <f t="shared" ref="H84:H85" si="127">IF(E84=I84,"Out of Stock",I84-E84&amp;" qty Left")</f>
+        <f t="shared" ref="H84:H85" si="130">IF(E84=I84,"Out of Stock",I84-E84&amp;" qty Left")</f>
         <v>3 qty Left</v>
       </c>
       <c r="I84" s="52">
@@ -20471,27 +20481,27 @@
         <v>0</v>
       </c>
       <c r="L84" s="52">
-        <f t="shared" ref="L84:L85" si="128">(K84/I84)+J84</f>
+        <f t="shared" ref="L84:L85" si="131">(K84/I84)+J84</f>
         <v>110000</v>
       </c>
       <c r="M84" s="52">
-        <f t="shared" ref="M84:M85" si="129">(J84*I84)+K84</f>
+        <f t="shared" ref="M84:M85" si="132">(J84*I84)+K84</f>
         <v>330000</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>127500</v>
       </c>
       <c r="B85" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C85" s="53" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D85" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E85" s="74">
         <v>0</v>
@@ -20500,11 +20510,11 @@
         <v>220000</v>
       </c>
       <c r="G85" s="53">
-        <f t="shared" si="126"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="H85" s="44" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" si="130"/>
         <v>1 qty Left</v>
       </c>
       <c r="I85" s="52">
@@ -20517,24 +20527,24 @@
         <v>0</v>
       </c>
       <c r="L85" s="52">
-        <f t="shared" si="128"/>
+        <f t="shared" si="131"/>
         <v>127500</v>
       </c>
       <c r="M85" s="52">
-        <f t="shared" si="129"/>
+        <f t="shared" si="132"/>
         <v>127500</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>205550</v>
       </c>
       <c r="B86" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C86" s="53" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D86" s="53" t="s">
         <v>321</v>
@@ -20546,11 +20556,11 @@
         <v>220000</v>
       </c>
       <c r="G86" s="53">
-        <f t="shared" ref="G86:G87" si="130">F86*E86</f>
+        <f t="shared" ref="G86:G87" si="133">F86*E86</f>
         <v>0</v>
       </c>
       <c r="H86" s="44" t="str">
-        <f t="shared" ref="H86:H87" si="131">IF(E86=I86,"Out of Stock",I86-E86&amp;" qty Left")</f>
+        <f t="shared" ref="H86:H87" si="134">IF(E86=I86,"Out of Stock",I86-E86&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I86" s="52">
@@ -20563,24 +20573,24 @@
         <v>0</v>
       </c>
       <c r="L86" s="52">
-        <f t="shared" ref="L86:L87" si="132">(K86/I86)+J86</f>
+        <f t="shared" ref="L86:L87" si="135">(K86/I86)+J86</f>
         <v>205550</v>
       </c>
       <c r="M86" s="52">
-        <f t="shared" ref="M86:M87" si="133">(J86*I86)+K86</f>
+        <f t="shared" ref="M86:M87" si="136">(J86*I86)+K86</f>
         <v>205550</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>145350</v>
       </c>
       <c r="B87" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="53" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D87" s="53" t="s">
         <v>321</v>
@@ -20592,11 +20602,11 @@
         <v>220000</v>
       </c>
       <c r="G87" s="53">
-        <f t="shared" si="130"/>
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="H87" s="44" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" si="134"/>
         <v>1 qty Left</v>
       </c>
       <c r="I87" s="52">
@@ -20609,27 +20619,27 @@
         <v>0</v>
       </c>
       <c r="L87" s="52">
-        <f t="shared" si="132"/>
+        <f t="shared" si="135"/>
         <v>145350</v>
       </c>
       <c r="M87" s="52">
-        <f t="shared" si="133"/>
+        <f t="shared" si="136"/>
         <v>145350</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>260500</v>
       </c>
       <c r="B88" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="53" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D88" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E88" s="74">
         <v>0</v>
@@ -20638,11 +20648,11 @@
         <v>220000</v>
       </c>
       <c r="G88" s="53">
-        <f t="shared" ref="G88:G89" si="134">F88*E88</f>
+        <f t="shared" ref="G88:G89" si="137">F88*E88</f>
         <v>0</v>
       </c>
       <c r="H88" s="44" t="str">
-        <f t="shared" ref="H88:H89" si="135">IF(E88=I88,"Out of Stock",I88-E88&amp;" qty Left")</f>
+        <f t="shared" ref="H88:H89" si="138">IF(E88=I88,"Out of Stock",I88-E88&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I88" s="52">
@@ -20655,27 +20665,27 @@
         <v>0</v>
       </c>
       <c r="L88" s="52">
-        <f t="shared" ref="L88:L89" si="136">(K88/I88)+J88</f>
+        <f t="shared" ref="L88:L89" si="139">(K88/I88)+J88</f>
         <v>130250</v>
       </c>
       <c r="M88" s="52">
-        <f t="shared" ref="M88:M89" si="137">(J88*I88)+K88</f>
+        <f t="shared" ref="M88:M89" si="140">(J88*I88)+K88</f>
         <v>260500</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>173750</v>
       </c>
       <c r="B89" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C89" s="53" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="D89" s="53" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E89" s="74">
         <v>0</v>
@@ -20684,11 +20694,11 @@
         <v>220000</v>
       </c>
       <c r="G89" s="53">
-        <f t="shared" si="134"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="H89" s="44" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" si="138"/>
         <v>1 qty Left</v>
       </c>
       <c r="I89" s="52">
@@ -20701,27 +20711,27 @@
         <v>0</v>
       </c>
       <c r="L89" s="52">
-        <f t="shared" si="136"/>
+        <f t="shared" si="139"/>
         <v>173750</v>
       </c>
       <c r="M89" s="52">
-        <f t="shared" si="137"/>
+        <f t="shared" si="140"/>
         <v>173750</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="84">
-        <f t="shared" si="48"/>
+        <f t="shared" si="47"/>
         <v>90000</v>
       </c>
       <c r="B90" s="72" t="s">
         <v>19</v>
       </c>
       <c r="C90" s="53" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D90" s="53" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E90" s="74">
         <v>0</v>
@@ -20730,11 +20740,11 @@
         <v>220000</v>
       </c>
       <c r="G90" s="53">
-        <f t="shared" ref="G90" si="138">F90*E90</f>
+        <f t="shared" ref="G90" si="141">F90*E90</f>
         <v>0</v>
       </c>
       <c r="H90" s="44" t="str">
-        <f t="shared" ref="H90" si="139">IF(E90=I90,"Out of Stock",I90-E90&amp;" qty Left")</f>
+        <f t="shared" ref="H90" si="142">IF(E90=I90,"Out of Stock",I90-E90&amp;" qty Left")</f>
         <v>2 qty Left</v>
       </c>
       <c r="I90" s="52">
@@ -20747,13 +20757,78 @@
         <v>0</v>
       </c>
       <c r="L90" s="52">
-        <f t="shared" ref="L90" si="140">(K90/I90)+J90</f>
+        <f t="shared" ref="L90" si="143">(K90/I90)+J90</f>
         <v>45000</v>
       </c>
       <c r="M90" s="52">
-        <f t="shared" ref="M90" si="141">(J90*I90)+K90</f>
+        <f t="shared" ref="M90" si="144">(J90*I90)+K90</f>
         <v>90000</v>
       </c>
+    </row>
+    <row r="91" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="76"/>
+      <c r="C91" s="52"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="52"/>
+      <c r="F91" s="52"/>
+      <c r="G91" s="52"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="52"/>
+    </row>
+    <row r="92" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="76"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="52"/>
+    </row>
+    <row r="93" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="76"/>
+      <c r="C93" s="52"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="52"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
+      <c r="I93" s="52"/>
+      <c r="J93" s="52"/>
+      <c r="K93" s="52"/>
+      <c r="L93" s="52"/>
+      <c r="M93" s="52"/>
+    </row>
+    <row r="94" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B94" s="76"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="52"/>
+    </row>
+    <row r="95" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="76"/>
+      <c r="C95" s="52"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="52"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="52"/>
+      <c r="I95" s="52"/>
+      <c r="J95" s="52"/>
+      <c r="K95" s="52"/>
+      <c r="L95" s="52"/>
+      <c r="M95" s="52"/>
     </row>
     <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="76"/>
@@ -20784,8 +20859,8 @@
       <c r="M97" s="52"/>
     </row>
     <row r="98" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="86"/>
-      <c r="C98" s="87"/>
+      <c r="B98" s="72"/>
+      <c r="C98" s="53"/>
       <c r="D98" s="53"/>
       <c r="E98" s="74"/>
       <c r="F98" s="74"/>
@@ -20796,6 +20871,240 @@
       <c r="K98" s="52"/>
       <c r="L98" s="52"/>
       <c r="M98" s="52"/>
+    </row>
+    <row r="99" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="76"/>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="I99" s="52"/>
+      <c r="J99" s="52"/>
+      <c r="K99" s="52"/>
+      <c r="L99" s="52"/>
+      <c r="M99" s="52"/>
+    </row>
+    <row r="100" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="76"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="52"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="52"/>
+    </row>
+    <row r="101" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="76"/>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="52"/>
+      <c r="K101" s="52"/>
+      <c r="L101" s="52"/>
+      <c r="M101" s="52"/>
+    </row>
+    <row r="102" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="76"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="52"/>
+      <c r="K102" s="52"/>
+      <c r="L102" s="52"/>
+      <c r="M102" s="52"/>
+    </row>
+    <row r="103" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="76"/>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="52"/>
+    </row>
+    <row r="104" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="76"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="I104" s="52"/>
+      <c r="J104" s="52"/>
+      <c r="K104" s="52"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="52"/>
+    </row>
+    <row r="105" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="76"/>
+      <c r="C105" s="52"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="52"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
+      <c r="I105" s="52"/>
+      <c r="J105" s="52"/>
+      <c r="K105" s="52"/>
+      <c r="L105" s="52"/>
+      <c r="M105" s="52"/>
+    </row>
+    <row r="106" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="76"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="I106" s="52"/>
+      <c r="J106" s="52"/>
+      <c r="K106" s="52"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="52"/>
+    </row>
+    <row r="107" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="76"/>
+      <c r="C107" s="52"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="52"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
+      <c r="I107" s="52"/>
+      <c r="J107" s="52"/>
+      <c r="K107" s="52"/>
+      <c r="L107" s="52"/>
+      <c r="M107" s="52"/>
+    </row>
+    <row r="108" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="76"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="52"/>
+      <c r="K108" s="52"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="52"/>
+    </row>
+    <row r="109" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="76"/>
+      <c r="C109" s="52"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="52"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
+      <c r="I109" s="52"/>
+      <c r="J109" s="52"/>
+      <c r="K109" s="52"/>
+      <c r="L109" s="52"/>
+      <c r="M109" s="52"/>
+    </row>
+    <row r="110" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B110" s="76"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="I110" s="52"/>
+      <c r="J110" s="52"/>
+      <c r="K110" s="52"/>
+      <c r="L110" s="52"/>
+      <c r="M110" s="52"/>
+    </row>
+    <row r="111" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B111" s="76"/>
+      <c r="C111" s="52"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="I111" s="52"/>
+      <c r="J111" s="52"/>
+      <c r="K111" s="52"/>
+      <c r="L111" s="52"/>
+      <c r="M111" s="52"/>
+    </row>
+    <row r="112" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B112" s="76"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="52"/>
+      <c r="I112" s="52"/>
+      <c r="J112" s="52"/>
+      <c r="K112" s="52"/>
+      <c r="L112" s="52"/>
+      <c r="M112" s="52"/>
+    </row>
+    <row r="113" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B113" s="76"/>
+      <c r="C113" s="52"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
+      <c r="I113" s="52"/>
+      <c r="J113" s="52"/>
+      <c r="K113" s="52"/>
+      <c r="L113" s="52"/>
+      <c r="M113" s="52"/>
+    </row>
+    <row r="114" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B114" s="76"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="I114" s="52"/>
+      <c r="J114" s="52"/>
+      <c r="K114" s="52"/>
+      <c r="L114" s="52"/>
+      <c r="M114" s="52"/>
+    </row>
+    <row r="115" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B115" s="76"/>
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="I115" s="52"/>
+      <c r="J115" s="52"/>
+      <c r="K115" s="52"/>
+      <c r="L115" s="52"/>
+      <c r="M115" s="52"/>
+    </row>
+    <row r="116" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B116" s="76"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="52"/>
+      <c r="I116" s="52"/>
+      <c r="J116" s="52"/>
+      <c r="K116" s="52"/>
+      <c r="L116" s="52"/>
+      <c r="M116" s="52"/>
     </row>
     <row r="117" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="72"/>
@@ -20955,940 +21264,960 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="201" priority="727" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="733" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="200" priority="689" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="695" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="199" priority="694" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="700" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="198" priority="703" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="709" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="197" priority="708" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="714" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="196" priority="674" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="680" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="195" priority="663" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="669" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="194" priority="660" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="666" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="193" priority="653" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="659" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="192" priority="649" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="655" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="191" priority="654" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="660" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="190" priority="650" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="656" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="189" priority="604" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="610" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="188" priority="603" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="609" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="187" priority="584" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="590" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="186" priority="583" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="589" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="185" priority="510" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="516" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="184" priority="509" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="515" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="183" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="430" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="182" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="429" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="181" priority="357" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="363" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="180" priority="358" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="364" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="179" priority="359" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="365" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="178" priority="356" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="362" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="177" priority="354" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="360" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="176" priority="360" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="366" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="175" priority="355" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="361" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="174" priority="353" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="359" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="173" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="350" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="172" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="349" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="171" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="309" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="170" priority="302" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="308" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="169" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="270" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="168" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="310" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="167" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="307" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="166" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="271" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="165" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="303" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="164" priority="296" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="302" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="163" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="162" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="161" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="299" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="160" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="298" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="159" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="297" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="158" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="296" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="157" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="269" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="156" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="268" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="155" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="265" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="154" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="264" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="153" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="152" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="151" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="245" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="150" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="244" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="149" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="243" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="148" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="242" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="147" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="223" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="146" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="222" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="145" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="221" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="144" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="220" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="143" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="142" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="141" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="213" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="140" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="212" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="139" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="203" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="138" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="202" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="137" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="136" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="135" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="205" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="134" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="204" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="133" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="187" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="132" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="186" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="131" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="177" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="130" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="176" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="129" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="173" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="128" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="172" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="127" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="171" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="126" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="170" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="125" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="175" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="124" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="174" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="123" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="167" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="122" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="166" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="121" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="163" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="120" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="162" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="119" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="118" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="152" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="117" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="151" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="116" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="150" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="115" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="133" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="114" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="132" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="121" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="112" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="120" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="111" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="129" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="110" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="128" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="109" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="127" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="108" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="126" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="107" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="124" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="106" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="123" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="105" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="122" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="104" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="119" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="duplicateValues" dxfId="103" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="105" priority="118"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49">
-    <cfRule type="duplicateValues" dxfId="102" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="117"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50">
-    <cfRule type="duplicateValues" dxfId="101" priority="110"/>
+    <cfRule type="duplicateValues" dxfId="103" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="100" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="99" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48">
-    <cfRule type="duplicateValues" dxfId="98" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="107"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49">
-    <cfRule type="duplicateValues" dxfId="97" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="106"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="duplicateValues" dxfId="96" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="105"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="95" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="93" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="85" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="98" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="97" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="90" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="90" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="89" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="89" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="88" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="88" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="87" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="87" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="86" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="86" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="85" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="84" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="83" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="82" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="81" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="80" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="79" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="78" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="77" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="77" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="76" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="75" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="74" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="73" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="72" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="71" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="cellIs" dxfId="70" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="69" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="cellIs" dxfId="68" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="67" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="cellIs" dxfId="66" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="65" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="67" priority="62" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="66" priority="61" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="65" priority="60" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="64" priority="59" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="63" priority="58" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="62" priority="57" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="61" priority="56" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="60" priority="55" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="cellIs" dxfId="59" priority="54" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="cellIs" dxfId="58" priority="53" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="cellIs" dxfId="57" priority="52" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="55" priority="50" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="54" priority="49" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="51" priority="46" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="50" priority="45" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="49" priority="44" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="47" priority="42" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="46" priority="41" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="42" priority="37" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="38" priority="33" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H83">
+    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H84">
+    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="cellIs" dxfId="29" priority="22" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H85">
+    <cfRule type="cellIs" dxfId="28" priority="21" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="cellIs" dxfId="27" priority="20" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H86">
+    <cfRule type="cellIs" dxfId="26" priority="19" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H87">
+    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="cellIs" dxfId="23" priority="16" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="cellIs" dxfId="22" priority="15" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" dxfId="21" priority="14" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H88">
+    <cfRule type="cellIs" dxfId="20" priority="13" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="cellIs" dxfId="19" priority="12" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H89">
+    <cfRule type="cellIs" dxfId="18" priority="11" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H90">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="65" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="64" priority="57" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="63" priority="56" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="62" priority="55" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="61" priority="54" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="60" priority="53" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="59" priority="52" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="58" priority="51" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="57" priority="50" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="56" priority="49" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="55" priority="48" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="54" priority="47" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="53" priority="46" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="52" priority="45" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="51" priority="44" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="50" priority="43" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="49" priority="42" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="48" priority="41" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="47" priority="40" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="46" priority="39" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="45" priority="38" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="44" priority="37" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="43" priority="36" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="42" priority="35" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="41" priority="34" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="40" priority="33" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="39" priority="32" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="38" priority="31" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="35" priority="28" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="34" priority="27" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="33" priority="26" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="29" priority="20" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="27" priority="18" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H84">
-    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H85">
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="23" priority="14" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H86">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="21" priority="12" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H87">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" dxfId="17" priority="8" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H88">
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="15" priority="6" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H89">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21917,21 +22246,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="90" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B2" s="91" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -21939,52 +22268,52 @@
         <v>58</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C3" s="91" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B4" s="91" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C4" s="91" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B5" s="91" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C5" s="91" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B6" s="91" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C6" s="91" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B7" s="91"/>
       <c r="C7" s="91" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">

--- a/aks sell 2 Rows.xlsx
+++ b/aks sell 2 Rows.xlsx
@@ -407,7 +407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="417">
   <si>
     <t>SSD 128</t>
   </si>
@@ -1033,9 +1033,6 @@
     <t>SSD 128gb</t>
   </si>
   <si>
-    <t>i3-10105f</t>
-  </si>
-  <si>
     <t>HIK Vision 256gb</t>
   </si>
   <si>
@@ -1564,9 +1561,6 @@
     <t>Hp 24</t>
   </si>
   <si>
-    <t>CPU+Mobo</t>
-  </si>
-  <si>
     <t>ROG Strix 1060</t>
   </si>
   <si>
@@ -1594,9 +1588,6 @@
     <t>Asus Strix 980</t>
   </si>
   <si>
-    <t>ryzen 2600 + A320</t>
-  </si>
-  <si>
     <t>Tforce RAM</t>
   </si>
   <si>
@@ -1643,6 +1634,30 @@
   </si>
   <si>
     <t>Z370</t>
+  </si>
+  <si>
+    <t>solar</t>
+  </si>
+  <si>
+    <t>Ryzen 2700X</t>
+  </si>
+  <si>
+    <t>2600 Setup</t>
+  </si>
+  <si>
+    <t>i5-9400T</t>
+  </si>
+  <si>
+    <t>i5 4 gen</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>ryzen 2600</t>
+  </si>
+  <si>
+    <t>i3-10105F</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2024,175 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="454">
+  <dxfs count="450">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2263,202 +2446,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5457,15 +5444,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="B1:G113" totalsRowShown="0" headerRowDxfId="453" dataDxfId="451" headerRowBorderDxfId="452" tableBorderDxfId="450">
-  <autoFilter ref="B1:G113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="B1:G110" totalsRowShown="0" headerRowDxfId="449" dataDxfId="447" headerRowBorderDxfId="448" tableBorderDxfId="446">
+  <autoFilter ref="B1:G110"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="449"/>
-    <tableColumn id="2" name="Description" dataDxfId="448"/>
-    <tableColumn id="3" name="Remark" dataDxfId="447"/>
-    <tableColumn id="4" name="Qty" dataDxfId="446"/>
-    <tableColumn id="5" name="Price" dataDxfId="445"/>
-    <tableColumn id="6" name="Amount" dataDxfId="444"/>
+    <tableColumn id="1" name="Category" dataDxfId="445"/>
+    <tableColumn id="2" name="Description" dataDxfId="444"/>
+    <tableColumn id="3" name="Remark" dataDxfId="443"/>
+    <tableColumn id="4" name="Qty" dataDxfId="442"/>
+    <tableColumn id="5" name="Price" dataDxfId="441"/>
+    <tableColumn id="6" name="Amount" dataDxfId="440"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13416,1042 +13403,1042 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I74 I136:I1048576 I1:I32">
-    <cfRule type="cellIs" dxfId="443" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="295" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="442" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="293" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="441" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="292" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="440" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="291" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="439" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="438" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="289" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="437" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="288" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="436" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="287" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="435" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="286" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="434" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="285" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="cellIs" dxfId="433" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="284" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="432" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="283" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="431" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="282" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="430" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="281" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="429" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="280" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="428" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="279" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="427" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="278" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="426" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="276" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="425" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="274" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="424" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="273" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="423" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="272" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="422" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="271" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="421" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="270" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="420" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="269" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="419" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="267" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="418" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="265" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="417" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="264" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="416" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="415" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="414" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="413" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="412" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="259" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="cellIs" dxfId="411" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="258" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="410" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="257" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="cellIs" dxfId="409" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="408" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="407" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="253" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="406" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="252" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="405" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="251" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="404" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="250" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="cellIs" dxfId="403" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="249" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="402" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="247" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="401" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="246" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="400" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="245" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="399" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="240" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="398" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="239" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="397" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="238" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="396" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="237" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="395" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="236" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="394" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="235" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="393" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="234" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="392" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="233" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="391" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="232" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="390" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="231" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="389" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="230" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="388" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="229" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="387" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="228" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="386" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="227" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="385" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="224" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="384" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="223" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="383" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="222" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="382" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="221" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="381" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="212" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="380" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="211" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="379" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="210" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="378" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="209" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="377" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="208" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="376" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="375" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="374" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="205" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="373" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="204" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="372" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="203" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="371" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="202" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="370" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="201" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="369" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="200" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="368" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="367" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="366" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="197" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="365" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="192" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="364" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="191" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="363" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="190" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="362" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="189" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="361" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="188" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="360" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="187" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="359" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="186" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="358" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="185" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="357" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="184" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="356" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="183" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="355" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="180" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="354" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="179" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="353" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="178" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="352" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="177" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="351" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="176" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="350" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="175" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="349" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="174" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="348" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="173" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="347" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="168" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="346" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="167" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="345" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="162" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="344" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="161" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="343" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="160" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="342" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="159" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="341" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="158" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="340" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="339" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="338" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="155" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="337" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="154" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="336" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="335" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="146" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="334" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="145" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="333" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="144" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="332" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="143" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="331" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="142" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="330" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="141" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="329" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="140" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="328" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="139" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="327" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="138" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="326" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="137" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="325" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="136" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="324" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="135" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="323" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="126" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="322" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="125" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="321" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="124" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="320" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="123" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="319" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="122" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="318" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="121" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="317" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="120" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="316" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="119" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="315" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="118" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="314" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="117" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="313" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="312" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="111" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="311" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="310" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="309" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="308" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="307" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="104" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="306" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="103" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="305" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="304" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="303" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="100" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="302" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="99" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="301" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="96" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="300" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="95" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="299" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="94" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="298" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="93" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="297" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="92" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="296" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="91" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="295" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="90" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="294" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="89" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="293" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="88" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="292" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="87" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="291" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="290" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="289" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="288" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="287" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="286" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="285" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="284" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="77" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="283" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="282" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="281" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="280" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="279" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="278" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="277" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="276" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="275" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="274" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="273" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="272" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="271" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="270" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="269" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="268" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="267" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="266" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="265" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="264" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="263" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="262" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="261" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="260" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="259" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="24" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="258" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="23" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="257" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="22" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="256" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="21" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="255" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="20" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="254" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="19" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="253" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="18" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="252" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="17" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="251" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="250" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="249" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="248" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="13" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="247" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="246" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="245" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="244" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="243" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="242" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="241" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="240" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="239" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="238" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="237" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="236" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15122,7 +15109,7 @@
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -15131,14 +15118,14 @@
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J1" s="1">
         <f>SUM($G2:$G84)</f>
@@ -15150,7 +15137,7 @@
         <v>44927</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -15172,7 +15159,7 @@
         <v>44927</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -15193,7 +15180,7 @@
         <v>44928</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -15214,7 +15201,7 @@
         <v>44928</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -15235,7 +15222,7 @@
         <v>44929</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -15256,7 +15243,7 @@
         <v>44929</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D7" s="1">
         <v>1</v>
@@ -15277,7 +15264,7 @@
         <v>44929</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -15298,7 +15285,7 @@
         <v>44929</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -15319,7 +15306,7 @@
         <v>44929</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -15340,7 +15327,7 @@
         <v>44929</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -15361,7 +15348,7 @@
         <v>44929</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -15382,7 +15369,7 @@
         <v>44929</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -15403,7 +15390,7 @@
         <v>44929</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -15424,7 +15411,7 @@
         <v>44929</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -15445,7 +15432,7 @@
         <v>44929</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -15466,7 +15453,7 @@
         <v>44930</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -15487,7 +15474,7 @@
         <v>44930</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -15508,7 +15495,7 @@
         <v>44931</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
@@ -15529,7 +15516,7 @@
         <v>44931</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D20" s="1">
         <v>3</v>
@@ -15550,7 +15537,7 @@
         <v>44931</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
@@ -15571,7 +15558,7 @@
         <v>44931</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -15592,7 +15579,7 @@
         <v>44931</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -15613,7 +15600,7 @@
         <v>44932</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -15634,7 +15621,7 @@
         <v>44932</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
@@ -15655,7 +15642,7 @@
         <v>44932</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D26" s="1">
         <v>1</v>
@@ -15676,7 +15663,7 @@
         <v>44933</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D27" s="1">
         <v>2</v>
@@ -15692,7 +15679,7 @@
         <v>13000</v>
       </c>
       <c r="H27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -15700,7 +15687,7 @@
         <v>44933</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
@@ -15721,7 +15708,7 @@
         <v>44933</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -15742,7 +15729,7 @@
         <v>44934</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -15758,7 +15745,7 @@
         <v>85000</v>
       </c>
       <c r="H30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
@@ -15766,7 +15753,7 @@
         <v>44934</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D31" s="1">
         <v>4</v>
@@ -15787,7 +15774,7 @@
         <v>44935</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
@@ -15808,7 +15795,7 @@
         <v>44935</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
@@ -15829,7 +15816,7 @@
         <v>44935</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
@@ -15850,7 +15837,7 @@
         <v>44935</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
@@ -15871,7 +15858,7 @@
         <v>44936</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D36" s="1">
         <v>1</v>
@@ -15892,7 +15879,7 @@
         <v>44937</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D37" s="1">
         <v>1</v>
@@ -15913,7 +15900,7 @@
         <v>44937</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
@@ -15955,7 +15942,7 @@
         <v>44942</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D40" s="1">
         <v>2</v>
@@ -15976,7 +15963,7 @@
         <v>44942</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
@@ -15992,7 +15979,7 @@
         <v>7000</v>
       </c>
       <c r="H41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -16000,7 +15987,7 @@
         <v>44942</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
@@ -16021,7 +16008,7 @@
         <v>44942</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
@@ -16042,7 +16029,7 @@
         <v>44942</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D44" s="1">
         <v>1</v>
@@ -16063,7 +16050,7 @@
         <v>44942</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D45" s="1">
         <v>2</v>
@@ -16105,7 +16092,7 @@
         <v>44942</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
@@ -16126,7 +16113,7 @@
         <v>44942</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
@@ -16168,7 +16155,7 @@
         <v>44943</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D50" s="1">
         <v>5</v>
@@ -16189,7 +16176,7 @@
         <v>44943</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D51" s="1">
         <v>2</v>
@@ -16210,7 +16197,7 @@
         <v>44943</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D52" s="1">
         <v>2</v>
@@ -16231,7 +16218,7 @@
         <v>44943</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D53" s="1">
         <v>1</v>
@@ -16252,7 +16239,7 @@
         <v>44943</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -16273,7 +16260,7 @@
         <v>44943</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
@@ -16294,7 +16281,7 @@
         <v>44943</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
@@ -16315,7 +16302,7 @@
         <v>44945</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D57" s="1">
         <v>12</v>
@@ -16336,7 +16323,7 @@
         <v>44945</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D58" s="1">
         <v>5</v>
@@ -16357,7 +16344,7 @@
         <v>44945</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D59" s="1">
         <v>2</v>
@@ -16378,7 +16365,7 @@
         <v>44945</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
@@ -16399,7 +16386,7 @@
         <v>44945</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
@@ -16420,7 +16407,7 @@
         <v>44946</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
@@ -16441,7 +16428,7 @@
         <v>44946</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D63" s="1">
         <v>1</v>
@@ -16462,7 +16449,7 @@
         <v>44947</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
@@ -16483,7 +16470,7 @@
         <v>44947</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
@@ -16504,7 +16491,7 @@
         <v>44947</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
@@ -16525,7 +16512,7 @@
         <v>44947</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D67" s="1">
         <v>3</v>
@@ -16546,7 +16533,7 @@
         <v>44947</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D68" s="1">
         <v>2</v>
@@ -16567,7 +16554,7 @@
         <v>44949</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
@@ -16583,7 +16570,7 @@
         <v>5000</v>
       </c>
       <c r="H69" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
@@ -16591,7 +16578,7 @@
         <v>44949</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
@@ -16612,7 +16599,7 @@
         <v>44950</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D71" s="1">
         <v>2</v>
@@ -16633,7 +16620,7 @@
         <v>44950</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
@@ -16654,7 +16641,7 @@
         <v>44950</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
@@ -16675,7 +16662,7 @@
         <v>44950</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D74" s="1">
         <v>1</v>
@@ -16696,7 +16683,7 @@
         <v>44950</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
@@ -16717,7 +16704,7 @@
         <v>44950</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D76" s="1">
         <v>1</v>
@@ -16738,7 +16725,7 @@
         <v>44951</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D77" s="1">
         <v>1</v>
@@ -16780,7 +16767,7 @@
         <v>44951</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D79" s="1">
         <v>1</v>
@@ -16801,7 +16788,7 @@
         <v>44952</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D80" s="1">
         <v>4</v>
@@ -16822,7 +16809,7 @@
         <v>44953</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D81" s="1">
         <v>2</v>
@@ -16843,7 +16830,7 @@
         <v>44954</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -16864,7 +16851,7 @@
         <v>44954</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -16885,7 +16872,7 @@
         <v>44955</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -16909,11 +16896,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N22" sqref="N22"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16941,7 +16928,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C1" s="69" t="s">
         <v>2</v>
@@ -16984,22 +16971,22 @@
         <v>48</v>
       </c>
       <c r="Q1" s="20">
-        <f>SUM(A2:A109)</f>
-        <v>13673995</v>
+        <f>SUM(A2:A106)</f>
+        <v>15621915</v>
       </c>
       <c r="R1" s="76">
         <f>Q20</f>
-        <v>-439860.83999999985</v>
+        <v>-1205780.8399999999</v>
       </c>
       <c r="S1" s="76"/>
     </row>
     <row r="2" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83">
-        <f t="shared" ref="A2:A55" si="0">IF($E2=0,$M2,IF($E2=$I2,IF($M2-$G2&lt;0,0,IF($D2="set",$M2-$G2,FALSE)),($I2-$E2)*$J2))</f>
+        <f t="shared" ref="A2:A52" si="0">IF($E2=0,$M2,IF($E2=$I2,IF($M2-$G2&lt;0,0,IF($D2="set",$M2-$G2,FALSE)),($I2-$E2)*$J2))</f>
         <v>216000</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>207</v>
@@ -17041,7 +17028,7 @@
         <v>58</v>
       </c>
       <c r="Q2" s="1">
-        <v>5000000</v>
+        <v>4700000</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17050,10 +17037,10 @@
         <v>170000</v>
       </c>
       <c r="B3" s="72" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>208</v>
+        <v>416</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="53">
@@ -17090,11 +17077,9 @@
         <v>290000</v>
       </c>
       <c r="P3" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>0</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="83">
@@ -17102,10 +17087,10 @@
         <v>120000</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D4" s="54"/>
       <c r="E4" s="53">
@@ -17139,11 +17124,9 @@
       </c>
       <c r="N4" s="55"/>
       <c r="P4" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>200000</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="Q4" s="1"/>
     </row>
     <row r="5" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="83">
@@ -17151,10 +17134,10 @@
         <v>46000</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="53">
@@ -17193,7 +17176,7 @@
         <v>60</v>
       </c>
       <c r="Q5" s="1">
-        <v>1719000</v>
+        <v>47000</v>
       </c>
       <c r="R5" s="84">
         <v>86.6</v>
@@ -17212,10 +17195,10 @@
         <v>29000</v>
       </c>
       <c r="B6" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="53">
@@ -17279,7 +17262,7 @@
         <v>21</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D7" s="54"/>
       <c r="E7" s="53">
@@ -17331,10 +17314,10 @@
         <v>16500</v>
       </c>
       <c r="B8" s="72" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D8" s="54"/>
       <c r="E8" s="53">
@@ -17371,7 +17354,7 @@
         <v>201</v>
       </c>
       <c r="Q8" s="1">
-        <v>974846.62</v>
+        <v>674846.62</v>
       </c>
       <c r="S8" s="57" t="s">
         <v>127</v>
@@ -17386,10 +17369,10 @@
         <v>110000</v>
       </c>
       <c r="B9" s="72" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C9" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D9" s="54"/>
       <c r="E9" s="53">
@@ -17443,7 +17426,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="53">
@@ -17495,7 +17478,7 @@
         <v>23</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" s="53"/>
       <c r="E11" s="52">
@@ -17538,37 +17521,39 @@
       </c>
       <c r="S11" s="51">
         <f>S12/20</f>
-        <v>7750</v>
+        <v>22250</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="83">
         <f t="shared" si="0"/>
-        <v>79000</v>
+        <v>85000</v>
       </c>
       <c r="B12" s="72" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="D12" s="53"/>
+        <v>311</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>335</v>
+      </c>
       <c r="E12" s="94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="94">
         <v>85000</v>
       </c>
       <c r="G12" s="53">
         <f t="shared" si="1"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="H12" s="44" t="str">
-        <f t="shared" ref="H12:H42" si="8">IF(E12=I12,"Out of Stock",I12-E12&amp;" qty Left")</f>
+        <f t="shared" ref="H12:H39" si="8">IF(E12=I12,"Out of Stock",I12-E12&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I12" s="53">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" s="52">
         <v>79000</v>
@@ -17577,31 +17562,32 @@
         <v>6000</v>
       </c>
       <c r="L12" s="52">
-        <f t="shared" ref="L12:L42" si="9">(K12/I12)+J12</f>
-        <v>82000</v>
+        <f t="shared" ref="L12:L39" si="9">(K12/I12)+J12</f>
+        <v>85000</v>
       </c>
       <c r="M12" s="52">
-        <f t="shared" ref="M12:M42" si="10">(J12*I12)+K12</f>
-        <v>164000</v>
+        <f t="shared" ref="M12:M39" si="10">(J12*I12)+K12</f>
+        <v>85000</v>
       </c>
       <c r="N12" s="80"/>
       <c r="P12" s="61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q12" s="67">
-        <v>155000</v>
+        <f>100000+55000+55000+55000+90000+90000</f>
+        <v>445000</v>
       </c>
       <c r="R12" s="56"/>
       <c r="S12" s="56">
         <f>(Q12-R12)</f>
-        <v>155000</v>
+        <v>445000</v>
       </c>
       <c r="T12" s="51">
         <v>157.33000000000001</v>
       </c>
       <c r="U12" s="51">
         <f>S12/T12</f>
-        <v>985.19036420263137</v>
+        <v>2828.4497552914254</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17610,12 +17596,14 @@
         <v>83000</v>
       </c>
       <c r="B13" s="72" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C13" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="D13" s="53"/>
+        <v>312</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>335</v>
+      </c>
       <c r="E13" s="94">
         <v>0</v>
       </c>
@@ -17648,15 +17636,15 @@
         <v>83000</v>
       </c>
       <c r="P13" s="62" t="s">
-        <v>321</v>
+        <v>409</v>
       </c>
       <c r="Q13" s="62">
-        <f>1088000</f>
-        <v>1088000</v>
+        <f>1500000</f>
+        <v>1500000</v>
       </c>
       <c r="S13" s="51">
         <f>S14/1779</f>
-        <v>0</v>
+        <v>330.52276559865095</v>
       </c>
       <c r="T13" s="51">
         <v>432.15</v>
@@ -17668,12 +17656,14 @@
         <v>109000</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="D14" s="53"/>
+        <v>313</v>
+      </c>
+      <c r="D14" s="53" t="s">
+        <v>335</v>
+      </c>
       <c r="E14" s="94">
         <v>0</v>
       </c>
@@ -17707,21 +17697,26 @@
       </c>
       <c r="N14" s="55"/>
       <c r="O14" s="55"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="56"/>
+      <c r="P14" s="62" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q14" s="62">
+        <f>588000</f>
+        <v>588000</v>
+      </c>
       <c r="R14" s="56">
         <v>0</v>
       </c>
       <c r="S14" s="56">
         <f>(Q14-R14)</f>
-        <v>0</v>
+        <v>588000</v>
       </c>
       <c r="T14" s="51">
         <v>157.33000000000001</v>
       </c>
       <c r="U14" s="51">
         <f>S14/T14</f>
-        <v>0</v>
+        <v>3737.3673171041755</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17730,12 +17725,14 @@
         <v>123000</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C15" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="D15" s="53"/>
+        <v>314</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>335</v>
+      </c>
       <c r="E15" s="94">
         <v>0</v>
       </c>
@@ -17772,7 +17769,7 @@
       <c r="Q15" s="17"/>
       <c r="S15" s="51">
         <f>S14/3</f>
-        <v>0</v>
+        <v>196000</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17781,13 +17778,13 @@
         <v>52800</v>
       </c>
       <c r="B16" s="75" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C16" s="52" t="s">
         <v>28</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E16" s="94">
         <v>8</v>
@@ -17826,7 +17823,7 @@
       </c>
       <c r="Q16" s="17">
         <f>Q1+SUM(Q2:Q14)+Q15</f>
-        <v>23439860.84</v>
+        <v>24205780.84</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17835,13 +17832,13 @@
         <v>143550</v>
       </c>
       <c r="B17" s="75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" s="94">
         <v>4</v>
@@ -17876,15 +17873,15 @@
       </c>
       <c r="N17" s="55"/>
       <c r="T17" s="51">
-        <f>(SUM(T19:T29))*85</f>
+        <f>(SUM(T19:T28))*85</f>
         <v>0</v>
       </c>
       <c r="U17" s="51">
-        <f>(SUM(U19:U45))*85.75</f>
+        <f>(SUM(U19:U42))*85.75</f>
         <v>0</v>
       </c>
       <c r="V17" s="51">
-        <f>(SUM(V19:V29))*84</f>
+        <f>(SUM(V19:V28))*84</f>
         <v>0</v>
       </c>
     </row>
@@ -17894,13 +17891,13 @@
         <v>186750</v>
       </c>
       <c r="B18" s="75" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E18" s="94">
         <v>1</v>
@@ -17975,10 +17972,10 @@
         <v>19</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D20" s="61" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E20" s="94">
         <v>0</v>
@@ -17987,7 +17984,7 @@
         <v>80000</v>
       </c>
       <c r="G20" s="53">
-        <f t="shared" ref="G20:G42" si="12">F20*E20</f>
+        <f t="shared" ref="G20:G39" si="12">F20*E20</f>
         <v>0</v>
       </c>
       <c r="H20" s="44" t="str">
@@ -18017,37 +18014,61 @@
       </c>
       <c r="Q20" s="17">
         <f>Q18-Q16</f>
-        <v>-439860.83999999985</v>
+        <v>-1205780.8399999999</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="75"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="94"/>
-      <c r="F21" s="94"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
+      <c r="A21" s="83">
+        <f t="shared" si="0"/>
+        <v>301200</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="D21" s="52" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="94">
+        <v>4</v>
+      </c>
+      <c r="F21" s="94">
+        <v>65000</v>
+      </c>
+      <c r="G21" s="53">
+        <f t="shared" si="12"/>
+        <v>260000</v>
+      </c>
+      <c r="H21" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>6 qty Left</v>
+      </c>
+      <c r="I21" s="52">
+        <v>10</v>
+      </c>
+      <c r="J21" s="53">
+        <v>50200</v>
+      </c>
+      <c r="K21" s="52">
+        <v>5000</v>
+      </c>
+      <c r="L21" s="52">
+        <f t="shared" si="9"/>
+        <v>50700</v>
+      </c>
+      <c r="M21" s="52">
+        <f t="shared" si="10"/>
+        <v>507000</v>
+      </c>
       <c r="N21" s="55"/>
-      <c r="O21" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="P21" s="51">
-        <v>440</v>
-      </c>
-      <c r="Q21" s="64">
-        <v>44891</v>
-      </c>
+      <c r="Q21" s="64"/>
     </row>
     <row r="22" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="83">
         <f t="shared" si="0"/>
-        <v>301200</v>
+        <v>377500</v>
       </c>
       <c r="B22" s="75" t="s">
         <v>19</v>
@@ -18056,612 +18077,640 @@
         <v>323</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E22" s="94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="94">
-        <v>65000</v>
+        <v>80000</v>
       </c>
       <c r="G22" s="53">
         <f t="shared" si="12"/>
-        <v>260000</v>
+        <v>80000</v>
       </c>
       <c r="H22" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>6 qty Left</v>
+        <v>5 qty Left</v>
       </c>
       <c r="I22" s="52">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J22" s="53">
-        <v>50200</v>
+        <v>75500</v>
       </c>
       <c r="K22" s="52">
-        <v>5000</v>
+        <v>10000</v>
       </c>
       <c r="L22" s="52">
         <f t="shared" si="9"/>
-        <v>50700</v>
+        <v>77166.666666666672</v>
       </c>
       <c r="M22" s="52">
         <f t="shared" si="10"/>
-        <v>507000</v>
-      </c>
-      <c r="N22" s="55"/>
-      <c r="Q22" s="64"/>
+        <v>463000</v>
+      </c>
+      <c r="N22" s="66"/>
+      <c r="P22" s="51" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q22" s="51" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="23" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="83">
         <f t="shared" si="0"/>
-        <v>377500</v>
+        <v>13000</v>
       </c>
       <c r="B23" s="75" t="s">
-        <v>19</v>
+        <v>218</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E23" s="94">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F23" s="94">
-        <v>80000</v>
+        <v>7000</v>
       </c>
       <c r="G23" s="53">
         <f t="shared" si="12"/>
-        <v>80000</v>
+        <v>56000</v>
       </c>
       <c r="H23" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>5 qty Left</v>
+        <v>2 qty Left</v>
       </c>
       <c r="I23" s="52">
-        <v>6</v>
-      </c>
-      <c r="J23" s="53">
-        <v>75500</v>
+        <v>10</v>
+      </c>
+      <c r="J23" s="52">
+        <v>6500</v>
       </c>
       <c r="K23" s="52">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L23" s="52">
         <f t="shared" si="9"/>
-        <v>77166.666666666672</v>
+        <v>6500</v>
       </c>
       <c r="M23" s="52">
         <f t="shared" si="10"/>
-        <v>463000</v>
+        <v>65000</v>
       </c>
       <c r="N23" s="66"/>
-      <c r="P23" s="51" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q23" s="51" t="s">
+      <c r="O23" s="66"/>
+      <c r="P23" s="44" t="s">
         <v>302</v>
+      </c>
+      <c r="Q23" s="77" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="83">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>284800</v>
       </c>
       <c r="B24" s="75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E24" s="94">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F24" s="94">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="G24" s="53">
         <f t="shared" si="12"/>
-        <v>56000</v>
+        <v>0</v>
       </c>
       <c r="H24" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>2 qty Left</v>
+        <v>60 qty Left</v>
       </c>
       <c r="I24" s="52">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J24" s="52">
-        <v>6500</v>
+        <v>4080</v>
       </c>
       <c r="K24" s="52">
-        <v>0</v>
+        <v>40000</v>
       </c>
       <c r="L24" s="52">
         <f t="shared" si="9"/>
-        <v>6500</v>
+        <v>4746.666666666667</v>
       </c>
       <c r="M24" s="52">
         <f t="shared" si="10"/>
-        <v>65000</v>
-      </c>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q24" s="77" t="s">
-        <v>304</v>
+        <v>284800</v>
       </c>
     </row>
     <row r="25" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="83">
         <f t="shared" si="0"/>
-        <v>284800</v>
+        <v>343170</v>
       </c>
       <c r="B25" s="75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>329</v>
+        <v>396</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E25" s="94">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25" s="94">
         <v>6000</v>
       </c>
       <c r="G25" s="53">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>36000</v>
       </c>
       <c r="H25" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>60 qty Left</v>
+        <v>54 qty Left</v>
       </c>
       <c r="I25" s="52">
         <v>60</v>
       </c>
       <c r="J25" s="52">
-        <v>4080</v>
+        <v>6355</v>
       </c>
       <c r="K25" s="52">
-        <v>40000</v>
+        <v>35000</v>
       </c>
       <c r="L25" s="52">
         <f t="shared" si="9"/>
-        <v>4746.666666666667</v>
+        <v>6938.333333333333</v>
       </c>
       <c r="M25" s="52">
         <f t="shared" si="10"/>
-        <v>284800</v>
-      </c>
+        <v>416300</v>
+      </c>
+      <c r="O25" s="66"/>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="81"/>
     </row>
     <row r="26" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="83">
         <f t="shared" si="0"/>
-        <v>343170</v>
+        <v>69705</v>
       </c>
       <c r="B26" s="75" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E26" s="94">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F26" s="94">
         <v>6000</v>
       </c>
       <c r="G26" s="53">
         <f t="shared" si="12"/>
-        <v>36000</v>
+        <v>6000</v>
       </c>
       <c r="H26" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>54 qty Left</v>
+        <v>9 qty Left</v>
       </c>
       <c r="I26" s="52">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="J26" s="52">
-        <v>6355</v>
+        <v>7745</v>
       </c>
       <c r="K26" s="52">
-        <v>35000</v>
+        <v>5000</v>
       </c>
       <c r="L26" s="52">
         <f t="shared" si="9"/>
-        <v>6938.333333333333</v>
+        <v>8245</v>
       </c>
       <c r="M26" s="52">
         <f t="shared" si="10"/>
-        <v>416300</v>
+        <v>82450</v>
       </c>
       <c r="O26" s="66"/>
       <c r="P26" s="44"/>
-      <c r="Q26" s="81"/>
+      <c r="Q26" s="77"/>
     </row>
     <row r="27" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="83">
         <f t="shared" si="0"/>
-        <v>69705</v>
+        <v>37500</v>
       </c>
       <c r="B27" s="75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E27" s="94">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F27" s="94">
-        <v>6000</v>
+        <v>50000</v>
       </c>
       <c r="G27" s="53">
         <f t="shared" si="12"/>
-        <v>6000</v>
+        <v>300000</v>
       </c>
       <c r="H27" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>9 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I27" s="52">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J27" s="52">
-        <v>7745</v>
-      </c>
-      <c r="K27" s="52">
-        <v>5000</v>
-      </c>
+        <v>37500</v>
+      </c>
+      <c r="K27" s="52"/>
       <c r="L27" s="52">
         <f t="shared" si="9"/>
-        <v>8245</v>
+        <v>37500</v>
       </c>
       <c r="M27" s="52">
         <f t="shared" si="10"/>
-        <v>82450</v>
+        <v>262500</v>
       </c>
       <c r="O27" s="66"/>
       <c r="P27" s="44"/>
       <c r="Q27" s="77"/>
+      <c r="R27" s="44"/>
     </row>
     <row r="28" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="83">
         <f t="shared" si="0"/>
-        <v>37500</v>
+        <v>127000</v>
       </c>
       <c r="B28" s="75" t="s">
         <v>218</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E28" s="94">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F28" s="94">
-        <v>50000</v>
+        <v>220000</v>
       </c>
       <c r="G28" s="53">
         <f t="shared" si="12"/>
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="H28" s="44" t="str">
         <f t="shared" si="8"/>
         <v>1 qty Left</v>
       </c>
       <c r="I28" s="52">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J28" s="52">
-        <v>37500</v>
+        <v>127000</v>
       </c>
       <c r="K28" s="52"/>
       <c r="L28" s="52">
         <f t="shared" si="9"/>
-        <v>37500</v>
+        <v>127000</v>
       </c>
       <c r="M28" s="52">
         <f t="shared" si="10"/>
-        <v>262500</v>
-      </c>
+        <v>127000</v>
+      </c>
+      <c r="N28" s="80"/>
       <c r="O28" s="66"/>
       <c r="P28" s="44"/>
       <c r="Q28" s="77"/>
-      <c r="R28" s="44"/>
     </row>
     <row r="29" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="83">
         <f t="shared" si="0"/>
-        <v>127000</v>
+        <v>210000</v>
       </c>
       <c r="B29" s="75" t="s">
-        <v>219</v>
+        <v>333</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>402</v>
+        <v>231</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>319</v>
+        <v>400</v>
       </c>
       <c r="E29" s="94">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F29" s="94">
         <v>220000</v>
       </c>
       <c r="G29" s="53">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>2200000</v>
       </c>
       <c r="H29" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>1 qty Left</v>
+        <v>10 qty Left</v>
       </c>
       <c r="I29" s="52">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J29" s="52">
-        <v>127000</v>
+        <v>21000</v>
       </c>
       <c r="K29" s="52"/>
       <c r="L29" s="52">
         <f t="shared" si="9"/>
-        <v>127000</v>
+        <v>21000</v>
       </c>
       <c r="M29" s="52">
         <f t="shared" si="10"/>
-        <v>127000</v>
-      </c>
-      <c r="N29" s="80"/>
+        <v>420000</v>
+      </c>
       <c r="O29" s="66"/>
       <c r="P29" s="44"/>
       <c r="Q29" s="77"/>
+      <c r="R29" s="63"/>
     </row>
     <row r="30" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="83">
         <f t="shared" si="0"/>
-        <v>210000</v>
+        <v>268800</v>
       </c>
       <c r="B30" s="75" t="s">
-        <v>334</v>
+        <v>217</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>232</v>
+        <v>401</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>403</v>
+        <v>327</v>
       </c>
       <c r="E30" s="94">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F30" s="94">
-        <v>220000</v>
+        <v>85000</v>
       </c>
       <c r="G30" s="53">
         <f t="shared" si="12"/>
-        <v>2200000</v>
+        <v>85000</v>
       </c>
       <c r="H30" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>10 qty Left</v>
+        <v>4 qty Left</v>
       </c>
       <c r="I30" s="52">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J30" s="52">
-        <v>21000</v>
-      </c>
-      <c r="K30" s="52"/>
+        <v>67200</v>
+      </c>
+      <c r="K30" s="52">
+        <v>5000</v>
+      </c>
       <c r="L30" s="52">
         <f t="shared" si="9"/>
-        <v>21000</v>
+        <v>68200</v>
       </c>
       <c r="M30" s="52">
         <f t="shared" si="10"/>
-        <v>420000</v>
+        <v>341000</v>
       </c>
       <c r="O30" s="66"/>
       <c r="P30" s="44"/>
       <c r="Q30" s="77"/>
-      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
     </row>
     <row r="31" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="83">
         <f t="shared" si="0"/>
-        <v>268800</v>
+        <v>60000</v>
       </c>
       <c r="B31" s="75" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E31" s="94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="94">
-        <v>85000</v>
+        <v>220000</v>
       </c>
       <c r="G31" s="53">
         <f t="shared" si="12"/>
-        <v>85000</v>
+        <v>0</v>
       </c>
       <c r="H31" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>4 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I31" s="52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J31" s="52">
-        <v>67200</v>
-      </c>
-      <c r="K31" s="52">
-        <v>5000</v>
-      </c>
+        <v>60000</v>
+      </c>
+      <c r="K31" s="52"/>
       <c r="L31" s="52">
         <f t="shared" si="9"/>
-        <v>68200</v>
+        <v>60000</v>
       </c>
       <c r="M31" s="52">
         <f t="shared" si="10"/>
-        <v>341000</v>
+        <v>60000</v>
       </c>
       <c r="O31" s="66"/>
       <c r="P31" s="44"/>
-      <c r="Q31" s="77"/>
-      <c r="S31" s="63"/>
+      <c r="Q31" s="78"/>
     </row>
     <row r="32" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="83">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>249000</v>
       </c>
       <c r="B32" s="75" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E32" s="94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F32" s="94">
         <v>220000</v>
       </c>
       <c r="G32" s="53">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>880000</v>
       </c>
       <c r="H32" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>1 qty Left</v>
+        <v>6 qty Left</v>
       </c>
       <c r="I32" s="52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J32" s="52">
-        <v>60000</v>
+        <v>41500</v>
       </c>
       <c r="K32" s="52"/>
       <c r="L32" s="52">
         <f t="shared" si="9"/>
-        <v>60000</v>
+        <v>41500</v>
       </c>
       <c r="M32" s="52">
         <f t="shared" si="10"/>
-        <v>60000</v>
+        <v>415000</v>
       </c>
       <c r="O32" s="66"/>
       <c r="P32" s="44"/>
       <c r="Q32" s="78"/>
-    </row>
-    <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S32" s="63"/>
+    </row>
+    <row r="33" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="83">
         <f t="shared" si="0"/>
-        <v>332000</v>
+        <v>144000</v>
       </c>
       <c r="B33" s="75" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>406</v>
+        <v>336</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="E33" s="94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33" s="94">
         <v>220000</v>
       </c>
       <c r="G33" s="53">
         <f t="shared" si="12"/>
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="H33" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>8 qty Left</v>
+        <v>2 qty Left</v>
       </c>
       <c r="I33" s="52">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J33" s="52">
-        <v>41500</v>
+        <v>72000</v>
       </c>
       <c r="K33" s="52"/>
       <c r="L33" s="52">
         <f t="shared" si="9"/>
-        <v>41500</v>
+        <v>72000</v>
       </c>
       <c r="M33" s="52">
         <f t="shared" si="10"/>
-        <v>415000</v>
+        <v>144000</v>
       </c>
       <c r="O33" s="66"/>
       <c r="P33" s="44"/>
-      <c r="Q33" s="78"/>
-      <c r="S33" s="63"/>
-    </row>
-    <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="75"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="94"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
+      <c r="Q33" s="77"/>
+    </row>
+    <row r="34" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="83">
+        <f t="shared" si="0"/>
+        <v>83000</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="C34" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>335</v>
+      </c>
+      <c r="E34" s="94">
+        <v>0</v>
+      </c>
+      <c r="F34" s="94">
+        <v>220000</v>
+      </c>
+      <c r="G34" s="53">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="44" t="str">
+        <f t="shared" si="8"/>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I34" s="52">
+        <v>1</v>
+      </c>
+      <c r="J34" s="52">
+        <v>83000</v>
+      </c>
       <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="O34" s="66"/>
+      <c r="L34" s="52">
+        <f t="shared" si="9"/>
+        <v>83000</v>
+      </c>
+      <c r="M34" s="52">
+        <f t="shared" si="10"/>
+        <v>83000</v>
+      </c>
       <c r="P34" s="44"/>
-      <c r="Q34" s="77"/>
-    </row>
-    <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q34" s="79"/>
+    </row>
+    <row r="35" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="83">
         <f t="shared" si="0"/>
-        <v>144000</v>
+        <v>79000</v>
       </c>
       <c r="B35" s="75" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D35" s="52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E35" s="94">
         <v>0</v>
@@ -18675,221 +18724,218 @@
       </c>
       <c r="H35" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>2 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I35" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="52">
-        <v>72000</v>
+        <v>79000</v>
       </c>
       <c r="K35" s="52"/>
       <c r="L35" s="52">
         <f t="shared" si="9"/>
-        <v>72000</v>
+        <v>79000</v>
       </c>
       <c r="M35" s="52">
         <f t="shared" si="10"/>
-        <v>144000</v>
-      </c>
-      <c r="O35" s="66"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="77"/>
-    </row>
-    <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79000</v>
+      </c>
+      <c r="Q35" s="79"/>
+    </row>
+    <row r="36" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="83">
         <f t="shared" si="0"/>
-        <v>83000</v>
+        <v>258800</v>
       </c>
       <c r="B36" s="75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E36" s="94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" s="94">
         <v>220000</v>
       </c>
       <c r="G36" s="53">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="H36" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>1 qty Left</v>
+        <v>2 qty Left</v>
       </c>
       <c r="I36" s="52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J36" s="52">
-        <v>83000</v>
+        <v>129400</v>
       </c>
       <c r="K36" s="52"/>
       <c r="L36" s="52">
         <f t="shared" si="9"/>
-        <v>83000</v>
+        <v>129400</v>
       </c>
       <c r="M36" s="52">
         <f t="shared" si="10"/>
-        <v>83000</v>
-      </c>
-      <c r="P36" s="44"/>
+        <v>388200</v>
+      </c>
       <c r="Q36" s="79"/>
     </row>
-    <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="83">
         <f t="shared" si="0"/>
-        <v>79000</v>
+        <v>120000</v>
       </c>
       <c r="B37" s="75" t="s">
         <v>219</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E37" s="94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" s="94">
         <v>220000</v>
       </c>
       <c r="G37" s="53">
         <f t="shared" si="12"/>
-        <v>220000</v>
+        <v>660000</v>
       </c>
       <c r="H37" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>1 qty Left</v>
+        <v>2 qty Left</v>
       </c>
       <c r="I37" s="52">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J37" s="52">
-        <v>79000</v>
+        <v>60000</v>
       </c>
       <c r="K37" s="52"/>
       <c r="L37" s="52">
         <f t="shared" si="9"/>
-        <v>79000</v>
+        <v>60000</v>
       </c>
       <c r="M37" s="52">
         <f t="shared" si="10"/>
-        <v>158000</v>
+        <v>300000</v>
       </c>
       <c r="Q37" s="79"/>
     </row>
-    <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="83">
         <f t="shared" si="0"/>
-        <v>258800</v>
+        <v>57600</v>
       </c>
       <c r="B38" s="75" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>340</v>
+        <v>31</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E38" s="94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="94">
         <v>220000</v>
       </c>
       <c r="G38" s="53">
         <f t="shared" si="12"/>
-        <v>220000</v>
+        <v>0</v>
       </c>
       <c r="H38" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>2 qty Left</v>
+        <v>12 qty Left</v>
       </c>
       <c r="I38" s="52">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J38" s="52">
-        <v>129400</v>
+        <v>4800</v>
       </c>
       <c r="K38" s="52"/>
       <c r="L38" s="52">
         <f t="shared" si="9"/>
-        <v>129400</v>
+        <v>4800</v>
       </c>
       <c r="M38" s="52">
         <f t="shared" si="10"/>
-        <v>388200</v>
+        <v>57600</v>
       </c>
       <c r="Q38" s="79"/>
     </row>
-    <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="83">
         <f t="shared" si="0"/>
-        <v>300000</v>
+        <v>156300</v>
       </c>
       <c r="B39" s="75" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E39" s="94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="94">
         <v>220000</v>
       </c>
       <c r="G39" s="53">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="H39" s="44" t="str">
         <f t="shared" si="8"/>
-        <v>5 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I39" s="52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J39" s="52">
-        <v>60000</v>
+        <v>156300</v>
       </c>
       <c r="K39" s="52"/>
       <c r="L39" s="52">
         <f t="shared" si="9"/>
-        <v>60000</v>
+        <v>156300</v>
       </c>
       <c r="M39" s="52">
         <f t="shared" si="10"/>
-        <v>300000</v>
+        <v>312600</v>
       </c>
       <c r="Q39" s="79"/>
     </row>
-    <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="83">
         <f t="shared" si="0"/>
-        <v>57600</v>
+        <v>127750</v>
       </c>
       <c r="B40" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>238</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E40" s="94">
         <v>0</v>
@@ -18898,133 +18944,133 @@
         <v>220000</v>
       </c>
       <c r="G40" s="53">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G40:G51" si="13">F40*E40</f>
         <v>0</v>
       </c>
       <c r="H40" s="44" t="str">
-        <f t="shared" si="8"/>
-        <v>12 qty Left</v>
+        <f t="shared" ref="H40:H59" si="14">IF(E40=I40,"Out of Stock",I40-E40&amp;" qty Left")</f>
+        <v>1 qty Left</v>
       </c>
       <c r="I40" s="52">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J40" s="52">
-        <v>4800</v>
+        <v>127750</v>
       </c>
       <c r="K40" s="52"/>
       <c r="L40" s="52">
-        <f t="shared" si="9"/>
-        <v>4800</v>
+        <f t="shared" ref="L40:L59" si="15">(K40/I40)+J40</f>
+        <v>127750</v>
       </c>
       <c r="M40" s="52">
-        <f t="shared" si="10"/>
-        <v>57600</v>
+        <f t="shared" ref="M40:M59" si="16">(J40*I40)+K40</f>
+        <v>127750</v>
       </c>
       <c r="Q40" s="79"/>
     </row>
-    <row r="41" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="83">
         <f t="shared" si="0"/>
-        <v>44000</v>
+        <v>31700</v>
       </c>
       <c r="B41" s="75" t="s">
-        <v>219</v>
+        <v>276</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>31</v>
+        <v>342</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E41" s="94">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41" s="94">
         <v>220000</v>
       </c>
       <c r="G41" s="53">
-        <f t="shared" si="12"/>
-        <v>880000</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="H41" s="44" t="str">
-        <f t="shared" si="8"/>
-        <v>8 qty Left</v>
+        <f t="shared" si="14"/>
+        <v>1 qty Left</v>
       </c>
       <c r="I41" s="52">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J41" s="52">
-        <v>5500</v>
+        <v>31700</v>
       </c>
       <c r="K41" s="52"/>
       <c r="L41" s="52">
-        <f t="shared" si="9"/>
-        <v>5500</v>
+        <f t="shared" si="15"/>
+        <v>31700</v>
       </c>
       <c r="M41" s="52">
-        <f t="shared" si="10"/>
-        <v>66000</v>
+        <f t="shared" si="16"/>
+        <v>31700</v>
       </c>
       <c r="Q41" s="79"/>
     </row>
-    <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="83">
         <f t="shared" si="0"/>
-        <v>156300</v>
+        <v>66600</v>
       </c>
       <c r="B42" s="75" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E42" s="94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" s="94">
         <v>220000</v>
       </c>
       <c r="G42" s="53">
-        <f t="shared" si="12"/>
-        <v>220000</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="H42" s="44" t="str">
-        <f t="shared" si="8"/>
-        <v>1 qty Left</v>
+        <f t="shared" si="14"/>
+        <v>3 qty Left</v>
       </c>
       <c r="I42" s="52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" s="52">
-        <v>156300</v>
+        <v>22200</v>
       </c>
       <c r="K42" s="52"/>
       <c r="L42" s="52">
-        <f t="shared" si="9"/>
-        <v>156300</v>
+        <f t="shared" si="15"/>
+        <v>22200</v>
       </c>
       <c r="M42" s="52">
-        <f t="shared" si="10"/>
-        <v>312600</v>
+        <f t="shared" si="16"/>
+        <v>66600</v>
       </c>
       <c r="Q42" s="79"/>
     </row>
-    <row r="43" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="83">
         <f t="shared" si="0"/>
-        <v>127750</v>
+        <v>265260</v>
       </c>
       <c r="B43" s="75" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="93" t="s">
-        <v>239</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>328</v>
+        <v>21</v>
+      </c>
+      <c r="C43" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>343</v>
       </c>
       <c r="E43" s="94">
         <v>0</v>
@@ -19033,94 +19079,96 @@
         <v>220000</v>
       </c>
       <c r="G43" s="53">
-        <f t="shared" ref="G43:G54" si="13">F43*E43</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H43" s="44" t="str">
-        <f t="shared" ref="H43:H62" si="14">IF(E43=I43,"Out of Stock",I43-E43&amp;" qty Left")</f>
-        <v>1 qty Left</v>
+        <f t="shared" si="14"/>
+        <v>6 qty Left</v>
       </c>
       <c r="I43" s="52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J43" s="52">
-        <v>127750</v>
-      </c>
-      <c r="K43" s="52"/>
+        <v>38210</v>
+      </c>
+      <c r="K43" s="52">
+        <v>36000</v>
+      </c>
       <c r="L43" s="52">
-        <f t="shared" ref="L43:L62" si="15">(K43/I43)+J43</f>
-        <v>127750</v>
+        <f t="shared" si="15"/>
+        <v>44210</v>
       </c>
       <c r="M43" s="52">
-        <f t="shared" ref="M43:M62" si="16">(J43*I43)+K43</f>
-        <v>127750</v>
+        <f t="shared" si="16"/>
+        <v>265260</v>
       </c>
       <c r="Q43" s="79"/>
     </row>
-    <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="83">
         <f t="shared" si="0"/>
-        <v>31700</v>
-      </c>
-      <c r="B44" s="75" t="s">
-        <v>277</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>343</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>328</v>
+        <v>808620</v>
+      </c>
+      <c r="B44" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="C44" s="86" t="s">
+        <v>345</v>
+      </c>
+      <c r="D44" s="53" t="s">
+        <v>332</v>
       </c>
       <c r="E44" s="94">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="94">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="G44" s="53">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>840000</v>
       </c>
       <c r="H44" s="44" t="str">
         <f t="shared" si="14"/>
-        <v>1 qty Left</v>
+        <v>6 qty Left</v>
       </c>
       <c r="I44" s="52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J44" s="52">
-        <v>31700</v>
+        <v>134770</v>
       </c>
       <c r="K44" s="52"/>
       <c r="L44" s="52">
         <f t="shared" si="15"/>
-        <v>31700</v>
+        <v>134770</v>
       </c>
       <c r="M44" s="52">
         <f t="shared" si="16"/>
-        <v>31700</v>
+        <v>1347700</v>
       </c>
       <c r="Q44" s="79"/>
     </row>
-    <row r="45" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="83">
         <f t="shared" si="0"/>
-        <v>66600</v>
+        <v>85000</v>
       </c>
       <c r="B45" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>353</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>328</v>
+        <v>333</v>
+      </c>
+      <c r="C45" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="D45" s="53" t="s">
+        <v>320</v>
       </c>
       <c r="E45" s="94">
         <v>0</v>
       </c>
       <c r="F45" s="94">
-        <v>220000</v>
+        <v>80000</v>
       </c>
       <c r="G45" s="53">
         <f t="shared" si="13"/>
@@ -19128,44 +19176,44 @@
       </c>
       <c r="H45" s="44" t="str">
         <f t="shared" si="14"/>
-        <v>3 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I45" s="52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J45" s="52">
-        <v>22200</v>
+        <v>85000</v>
       </c>
       <c r="K45" s="52"/>
       <c r="L45" s="52">
         <f t="shared" si="15"/>
-        <v>22200</v>
+        <v>85000</v>
       </c>
       <c r="M45" s="52">
         <f t="shared" si="16"/>
-        <v>66600</v>
+        <v>85000</v>
       </c>
       <c r="Q45" s="79"/>
     </row>
-    <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="83">
         <f t="shared" si="0"/>
-        <v>265260</v>
+        <v>18000</v>
       </c>
       <c r="B46" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C46" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="D46" s="53" t="s">
-        <v>344</v>
+      <c r="C46" s="52" t="s">
+        <v>348</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>340</v>
       </c>
       <c r="E46" s="94">
         <v>0</v>
       </c>
       <c r="F46" s="94">
-        <v>220000</v>
+        <v>20000</v>
       </c>
       <c r="G46" s="53">
         <f t="shared" si="13"/>
@@ -19173,46 +19221,44 @@
       </c>
       <c r="H46" s="44" t="str">
         <f t="shared" si="14"/>
-        <v>6 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I46" s="52">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J46" s="52">
-        <v>38210</v>
-      </c>
-      <c r="K46" s="52">
-        <v>36000</v>
-      </c>
+        <v>18000</v>
+      </c>
+      <c r="K46" s="52"/>
       <c r="L46" s="52">
         <f t="shared" si="15"/>
-        <v>44210</v>
+        <v>18000</v>
       </c>
       <c r="M46" s="52">
         <f t="shared" si="16"/>
-        <v>265260</v>
+        <v>18000</v>
       </c>
       <c r="Q46" s="79"/>
     </row>
-    <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="83">
         <f t="shared" si="0"/>
-        <v>1347700</v>
-      </c>
-      <c r="B47" s="85" t="s">
-        <v>221</v>
-      </c>
-      <c r="C47" s="86" t="s">
-        <v>346</v>
-      </c>
-      <c r="D47" s="53" t="s">
-        <v>333</v>
+        <v>505000</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>349</v>
+      </c>
+      <c r="C47" s="52" t="s">
+        <v>349</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>350</v>
       </c>
       <c r="E47" s="94">
         <v>0</v>
       </c>
       <c r="F47" s="94">
-        <v>210000</v>
+        <v>20000</v>
       </c>
       <c r="G47" s="53">
         <f t="shared" si="13"/>
@@ -19220,44 +19266,44 @@
       </c>
       <c r="H47" s="44" t="str">
         <f t="shared" si="14"/>
-        <v>10 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I47" s="52">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J47" s="52">
-        <v>134770</v>
+        <f>2300000-600000-350000-80000-480000-100000-110000-40000-35000</f>
+        <v>505000</v>
       </c>
       <c r="K47" s="52"/>
       <c r="L47" s="52">
         <f t="shared" si="15"/>
-        <v>134770</v>
+        <v>505000</v>
       </c>
       <c r="M47" s="52">
         <f t="shared" si="16"/>
-        <v>1347700</v>
-      </c>
-      <c r="Q47" s="79"/>
-    </row>
-    <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>505000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="83">
         <f t="shared" si="0"/>
-        <v>85000</v>
+        <v>550000</v>
       </c>
       <c r="B48" s="75" t="s">
-        <v>334</v>
-      </c>
-      <c r="C48" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="D48" s="53" t="s">
-        <v>321</v>
+        <v>23</v>
+      </c>
+      <c r="C48" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>326</v>
       </c>
       <c r="E48" s="94">
         <v>0</v>
       </c>
       <c r="F48" s="94">
-        <v>80000</v>
+        <v>220000</v>
       </c>
       <c r="G48" s="53">
         <f t="shared" si="13"/>
@@ -19271,38 +19317,39 @@
         <v>1</v>
       </c>
       <c r="J48" s="52">
-        <v>85000</v>
-      </c>
-      <c r="K48" s="52"/>
+        <v>550000</v>
+      </c>
+      <c r="K48" s="52">
+        <v>0</v>
+      </c>
       <c r="L48" s="52">
         <f t="shared" si="15"/>
-        <v>85000</v>
+        <v>550000</v>
       </c>
       <c r="M48" s="52">
         <f t="shared" si="16"/>
-        <v>85000</v>
-      </c>
-      <c r="Q48" s="79"/>
-    </row>
-    <row r="49" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83">
         <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="B49" s="75" t="s">
+        <v>42500</v>
+      </c>
+      <c r="B49" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="52" t="s">
-        <v>349</v>
-      </c>
-      <c r="D49" s="52" t="s">
-        <v>341</v>
+      <c r="C49" s="53" t="s">
+        <v>382</v>
+      </c>
+      <c r="D49" s="53" t="s">
+        <v>327</v>
       </c>
       <c r="E49" s="94">
         <v>0</v>
       </c>
       <c r="F49" s="94">
-        <v>20000</v>
+        <v>220000</v>
       </c>
       <c r="G49" s="53">
         <f t="shared" si="13"/>
@@ -19316,38 +19363,39 @@
         <v>1</v>
       </c>
       <c r="J49" s="52">
-        <v>18000</v>
-      </c>
-      <c r="K49" s="52"/>
+        <v>42500</v>
+      </c>
+      <c r="K49" s="52">
+        <v>0</v>
+      </c>
       <c r="L49" s="52">
         <f t="shared" si="15"/>
-        <v>18000</v>
+        <v>42500</v>
       </c>
       <c r="M49" s="52">
         <f t="shared" si="16"/>
-        <v>18000</v>
-      </c>
-      <c r="Q49" s="79"/>
-    </row>
-    <row r="50" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83">
         <f t="shared" si="0"/>
-        <v>505000</v>
-      </c>
-      <c r="B50" s="75" t="s">
-        <v>219</v>
+        <v>40800</v>
+      </c>
+      <c r="B50" s="72" t="s">
+        <v>21</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>350</v>
-      </c>
-      <c r="D50" s="52" t="s">
-        <v>351</v>
+        <v>386</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>387</v>
       </c>
       <c r="E50" s="94">
         <v>0</v>
       </c>
       <c r="F50" s="94">
-        <v>20000</v>
+        <v>220000</v>
       </c>
       <c r="G50" s="53">
         <f t="shared" si="13"/>
@@ -19361,31 +19409,33 @@
         <v>1</v>
       </c>
       <c r="J50" s="52">
-        <f>2300000-600000-350000-80000-480000-100000-110000-40000-35000</f>
-        <v>505000</v>
-      </c>
-      <c r="K50" s="52"/>
+        <v>40800</v>
+      </c>
+      <c r="K50" s="52">
+        <v>0</v>
+      </c>
       <c r="L50" s="52">
         <f t="shared" si="15"/>
-        <v>505000</v>
+        <v>40800</v>
       </c>
       <c r="M50" s="52">
         <f t="shared" si="16"/>
-        <v>505000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>40800</v>
+      </c>
+      <c r="O50" s="55"/>
+    </row>
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83">
         <f t="shared" si="0"/>
-        <v>550000</v>
-      </c>
-      <c r="B51" s="75" t="s">
+        <v>136000</v>
+      </c>
+      <c r="B51" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C51" s="52" t="s">
-        <v>331</v>
-      </c>
-      <c r="D51" s="52" t="s">
+      <c r="C51" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="D51" s="53" t="s">
         <v>327</v>
       </c>
       <c r="E51" s="94">
@@ -19406,42 +19456,42 @@
         <v>1</v>
       </c>
       <c r="J51" s="52">
-        <v>550000</v>
+        <v>136000</v>
       </c>
       <c r="K51" s="52">
         <v>0</v>
       </c>
       <c r="L51" s="52">
         <f t="shared" si="15"/>
-        <v>550000</v>
+        <v>136000</v>
       </c>
       <c r="M51" s="52">
         <f t="shared" si="16"/>
-        <v>550000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83">
         <f t="shared" si="0"/>
-        <v>42500</v>
+        <v>89500</v>
       </c>
       <c r="B52" s="72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C52" s="53" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="D52" s="53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E52" s="94">
         <v>0</v>
       </c>
       <c r="F52" s="94">
-        <v>220000</v>
+        <v>100000</v>
       </c>
       <c r="G52" s="53">
-        <f t="shared" si="13"/>
+        <f>F52*E52</f>
         <v>0</v>
       </c>
       <c r="H52" s="44" t="str">
@@ -19452,274 +19502,273 @@
         <v>1</v>
       </c>
       <c r="J52" s="52">
-        <v>42500</v>
+        <v>86500</v>
       </c>
       <c r="K52" s="52">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="L52" s="52">
         <f t="shared" si="15"/>
-        <v>42500</v>
+        <v>89500</v>
       </c>
       <c r="M52" s="52">
         <f t="shared" si="16"/>
-        <v>42500</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>89500</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83">
-        <f t="shared" si="0"/>
-        <v>40800</v>
+        <f t="shared" ref="A53:A59" si="17">IF($E53=0,$M53,IF($E53=$I53,IF($M53-$G53&lt;0,0,IF($D53="set",$M53-$G53,FALSE)),($I53-$E53)*$J53))</f>
+        <v>0</v>
       </c>
       <c r="B53" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>388</v>
+        <v>218</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>354</v>
       </c>
       <c r="D53" s="53" t="s">
-        <v>389</v>
+        <v>320</v>
       </c>
       <c r="E53" s="94">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F53" s="94">
-        <v>220000</v>
+        <v>20000</v>
       </c>
       <c r="G53" s="53">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" ref="G53:G59" si="18">F53*E53</f>
+        <v>180000</v>
       </c>
       <c r="H53" s="44" t="str">
         <f t="shared" si="14"/>
-        <v>1 qty Left</v>
+        <v>Out of Stock</v>
       </c>
       <c r="I53" s="52">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J53" s="52">
-        <v>40800</v>
+        <v>15000</v>
       </c>
       <c r="K53" s="52">
         <v>0</v>
       </c>
       <c r="L53" s="52">
         <f t="shared" si="15"/>
-        <v>40800</v>
+        <v>15000</v>
       </c>
       <c r="M53" s="52">
         <f t="shared" si="16"/>
-        <v>40800</v>
-      </c>
-      <c r="O53" s="55"/>
-    </row>
-    <row r="54" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="83">
-        <f t="shared" si="0"/>
-        <v>136000</v>
+        <f t="shared" si="17"/>
+        <v>126000</v>
       </c>
       <c r="B54" s="72" t="s">
-        <v>23</v>
+        <v>353</v>
       </c>
       <c r="C54" s="53" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="D54" s="53" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E54" s="94">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F54" s="94">
         <v>220000</v>
       </c>
       <c r="G54" s="53">
-        <f t="shared" si="13"/>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>1100000</v>
       </c>
       <c r="H54" s="44" t="str">
         <f t="shared" si="14"/>
-        <v>1 qty Left</v>
+        <v>3 qty Left</v>
       </c>
       <c r="I54" s="52">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J54" s="52">
-        <v>136000</v>
+        <v>42000</v>
       </c>
       <c r="K54" s="52">
         <v>0</v>
       </c>
       <c r="L54" s="52">
         <f t="shared" si="15"/>
-        <v>136000</v>
+        <v>42000</v>
       </c>
       <c r="M54" s="52">
         <f t="shared" si="16"/>
-        <v>136000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>336000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="83">
-        <f t="shared" si="0"/>
-        <v>89500</v>
+        <f t="shared" si="17"/>
+        <v>666000</v>
       </c>
       <c r="B55" s="72" t="s">
-        <v>23</v>
+        <v>356</v>
       </c>
       <c r="C55" s="53" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="D55" s="53" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E55" s="94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" s="94">
-        <v>100000</v>
+        <v>290000</v>
       </c>
       <c r="G55" s="53">
-        <f>F55*E55</f>
-        <v>0</v>
+        <f t="shared" si="18"/>
+        <v>290000</v>
       </c>
       <c r="H55" s="44" t="str">
         <f t="shared" si="14"/>
-        <v>1 qty Left</v>
+        <v>2 qty Left</v>
       </c>
       <c r="I55" s="52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J55" s="52">
-        <v>86500</v>
+        <v>333000</v>
       </c>
       <c r="K55" s="52">
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="L55" s="52">
         <f t="shared" si="15"/>
-        <v>89500</v>
+        <v>333000</v>
       </c>
       <c r="M55" s="52">
         <f t="shared" si="16"/>
-        <v>89500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>999000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="83">
-        <f t="shared" ref="A56:A62" si="17">IF($E56=0,$M56,IF($E56=$I56,IF($M56-$G56&lt;0,0,IF($D56="set",$M56-$G56,FALSE)),($I56-$E56)*$J56))</f>
-        <v>45000</v>
+        <f t="shared" si="17"/>
+        <v>300000</v>
       </c>
       <c r="B56" s="72" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="C56" s="53" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D56" s="53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="E56" s="94">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F56" s="94">
-        <v>20000</v>
+        <v>220000</v>
       </c>
       <c r="G56" s="53">
-        <f t="shared" ref="G56:G62" si="18">F56*E56</f>
-        <v>120000</v>
+        <f t="shared" si="18"/>
+        <v>0</v>
       </c>
       <c r="H56" s="44" t="str">
         <f t="shared" si="14"/>
-        <v>3 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I56" s="52">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J56" s="52">
-        <v>15000</v>
+        <v>300000</v>
       </c>
       <c r="K56" s="52">
         <v>0</v>
       </c>
       <c r="L56" s="52">
         <f t="shared" si="15"/>
-        <v>15000</v>
+        <v>300000</v>
       </c>
       <c r="M56" s="52">
         <f t="shared" si="16"/>
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="83">
         <f t="shared" si="17"/>
-        <v>126000</v>
+        <v>558000</v>
       </c>
       <c r="B57" s="72" t="s">
-        <v>354</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>356</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>321</v>
+        <v>23</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>377</v>
       </c>
       <c r="E57" s="94">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F57" s="94">
         <v>220000</v>
       </c>
       <c r="G57" s="53">
         <f t="shared" si="18"/>
-        <v>1100000</v>
+        <v>0</v>
       </c>
       <c r="H57" s="44" t="str">
         <f t="shared" si="14"/>
-        <v>3 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I57" s="52">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J57" s="52">
-        <v>42000</v>
+        <v>558000</v>
       </c>
       <c r="K57" s="52">
         <v>0</v>
       </c>
       <c r="L57" s="52">
         <f t="shared" si="15"/>
-        <v>42000</v>
+        <v>558000</v>
       </c>
       <c r="M57" s="52">
         <f t="shared" si="16"/>
-        <v>336000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>558000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="83">
         <f t="shared" si="17"/>
-        <v>666000</v>
+        <v>220000</v>
       </c>
       <c r="B58" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="C58" s="53" t="s">
-        <v>358</v>
-      </c>
-      <c r="D58" s="53" t="s">
-        <v>321</v>
+        <v>220</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>377</v>
       </c>
       <c r="E58" s="94">
         <v>1</v>
       </c>
       <c r="F58" s="94">
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="G58" s="53">
         <f t="shared" si="18"/>
-        <v>290000</v>
+        <v>220000</v>
       </c>
       <c r="H58" s="44" t="str">
         <f t="shared" si="14"/>
@@ -19729,30 +19778,30 @@
         <v>3</v>
       </c>
       <c r="J58" s="52">
-        <v>333000</v>
+        <v>110000</v>
       </c>
       <c r="K58" s="52">
         <v>0</v>
       </c>
       <c r="L58" s="52">
         <f t="shared" si="15"/>
-        <v>333000</v>
+        <v>110000</v>
       </c>
       <c r="M58" s="52">
         <f t="shared" si="16"/>
-        <v>999000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="83">
         <f t="shared" si="17"/>
-        <v>300000</v>
+        <v>127500</v>
       </c>
       <c r="B59" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="53" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="D59" s="53" t="s">
         <v>327</v>
@@ -19775,33 +19824,33 @@
         <v>1</v>
       </c>
       <c r="J59" s="52">
-        <v>300000</v>
+        <v>127500</v>
       </c>
       <c r="K59" s="52">
         <v>0</v>
       </c>
       <c r="L59" s="52">
         <f t="shared" si="15"/>
-        <v>300000</v>
+        <v>127500</v>
       </c>
       <c r="M59" s="52">
         <f t="shared" si="16"/>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>127500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="83">
-        <f t="shared" si="17"/>
-        <v>558000</v>
+        <f t="shared" ref="A60:A84" si="19">IF($E60=0,$M60,IF($E60=$I60,IF($M60-$G60&lt;0,0,IF($D60="set",$M60-$G60,FALSE)),($I60-$E60)*$J60))</f>
+        <v>260500</v>
       </c>
       <c r="B60" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="53" t="s">
         <v>380</v>
       </c>
-      <c r="D60" s="52" t="s">
-        <v>378</v>
+      <c r="D60" s="53" t="s">
+        <v>327</v>
       </c>
       <c r="E60" s="94">
         <v>0</v>
@@ -19810,179 +19859,179 @@
         <v>220000</v>
       </c>
       <c r="G60" s="53">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="G60:G74" si="20">F60*E60</f>
         <v>0</v>
       </c>
       <c r="H60" s="44" t="str">
-        <f t="shared" si="14"/>
-        <v>1 qty Left</v>
+        <f t="shared" ref="H60:H74" si="21">IF(E60=I60,"Out of Stock",I60-E60&amp;" qty Left")</f>
+        <v>2 qty Left</v>
       </c>
       <c r="I60" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J60" s="52">
-        <v>558000</v>
+        <v>130250</v>
       </c>
       <c r="K60" s="52">
         <v>0</v>
       </c>
       <c r="L60" s="52">
-        <f t="shared" si="15"/>
-        <v>558000</v>
+        <f t="shared" ref="L60:L74" si="22">(K60/I60)+J60</f>
+        <v>130250</v>
       </c>
       <c r="M60" s="52">
-        <f t="shared" si="16"/>
-        <v>558000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="M60:M74" si="23">(J60*I60)+K60</f>
+        <v>260500</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="83">
-        <f t="shared" si="17"/>
-        <v>220000</v>
+        <f t="shared" si="19"/>
+        <v>90000</v>
       </c>
       <c r="B61" s="72" t="s">
-        <v>221</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>377</v>
-      </c>
-      <c r="D61" s="51" t="s">
-        <v>378</v>
+        <v>19</v>
+      </c>
+      <c r="C61" s="53" t="s">
+        <v>381</v>
+      </c>
+      <c r="D61" s="53" t="s">
+        <v>326</v>
       </c>
       <c r="E61" s="94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" s="94">
         <v>220000</v>
       </c>
       <c r="G61" s="53">
-        <f t="shared" si="18"/>
-        <v>220000</v>
+        <f t="shared" si="20"/>
+        <v>0</v>
       </c>
       <c r="H61" s="44" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="21"/>
         <v>2 qty Left</v>
       </c>
       <c r="I61" s="52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J61" s="52">
-        <v>110000</v>
+        <v>45000</v>
       </c>
       <c r="K61" s="52">
         <v>0</v>
       </c>
       <c r="L61" s="52">
-        <f t="shared" si="15"/>
-        <v>110000</v>
+        <f t="shared" si="22"/>
+        <v>45000</v>
       </c>
       <c r="M61" s="52">
-        <f t="shared" si="16"/>
-        <v>330000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="83">
-        <f t="shared" si="17"/>
-        <v>127500</v>
+        <f t="shared" si="19"/>
+        <v>200000</v>
       </c>
       <c r="B62" s="72" t="s">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="C62" s="53" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D62" s="53" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E62" s="94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F62" s="94">
         <v>220000</v>
       </c>
       <c r="G62" s="53">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>440000</v>
       </c>
       <c r="H62" s="44" t="str">
-        <f t="shared" si="14"/>
-        <v>1 qty Left</v>
+        <f t="shared" si="21"/>
+        <v>2 qty Left</v>
       </c>
       <c r="I62" s="52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J62" s="52">
-        <v>127500</v>
+        <v>100000</v>
       </c>
       <c r="K62" s="52">
-        <v>0</v>
+        <v>66000</v>
       </c>
       <c r="L62" s="52">
-        <f t="shared" si="15"/>
-        <v>127500</v>
+        <f t="shared" si="22"/>
+        <v>116500</v>
       </c>
       <c r="M62" s="52">
-        <f t="shared" si="16"/>
-        <v>127500</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>466000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="83">
-        <f t="shared" ref="A63:A80" si="19">IF($E63=0,$M63,IF($E63=$I63,IF($M63-$G63&lt;0,0,IF($D63="set",$M63-$G63,FALSE)),($I63-$E63)*$J63))</f>
-        <v>260500</v>
+        <f t="shared" si="19"/>
+        <v>0</v>
       </c>
       <c r="B63" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="53" t="s">
-        <v>381</v>
-      </c>
-      <c r="D63" s="53" t="s">
-        <v>328</v>
+        <v>219</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>408</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>377</v>
       </c>
       <c r="E63" s="94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" s="94">
-        <v>220000</v>
+        <v>130000</v>
       </c>
       <c r="G63" s="53">
-        <f t="shared" ref="G63:G77" si="20">F63*E63</f>
-        <v>0</v>
+        <f t="shared" si="20"/>
+        <v>130000</v>
       </c>
       <c r="H63" s="44" t="str">
-        <f t="shared" ref="H63:H77" si="21">IF(E63=I63,"Out of Stock",I63-E63&amp;" qty Left")</f>
-        <v>2 qty Left</v>
+        <f t="shared" si="21"/>
+        <v>Out of Stock</v>
       </c>
       <c r="I63" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" s="52">
-        <v>130250</v>
+        <v>120000</v>
       </c>
       <c r="K63" s="52">
         <v>0</v>
       </c>
       <c r="L63" s="52">
-        <f t="shared" ref="L63:L77" si="22">(K63/I63)+J63</f>
-        <v>130250</v>
+        <f t="shared" si="22"/>
+        <v>120000</v>
       </c>
       <c r="M63" s="52">
-        <f t="shared" ref="M63:M77" si="23">(J63*I63)+K63</f>
-        <v>260500</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="23"/>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="83">
         <f t="shared" si="19"/>
-        <v>90000</v>
+        <v>196000</v>
       </c>
       <c r="B64" s="72" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D64" s="53" t="s">
         <v>327</v>
@@ -19999,85 +20048,85 @@
       </c>
       <c r="H64" s="44" t="str">
         <f t="shared" si="21"/>
-        <v>2 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I64" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" s="52">
-        <v>45000</v>
+        <v>196000</v>
       </c>
       <c r="K64" s="52">
         <v>0</v>
       </c>
       <c r="L64" s="52">
         <f t="shared" si="22"/>
-        <v>45000</v>
+        <v>196000</v>
       </c>
       <c r="M64" s="52">
         <f t="shared" si="23"/>
-        <v>90000</v>
+        <v>196000</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="83">
         <f t="shared" si="19"/>
-        <v>200000</v>
+        <v>82200</v>
       </c>
       <c r="B65" s="72" t="s">
-        <v>210</v>
+        <v>21</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D65" s="53" t="s">
         <v>327</v>
       </c>
       <c r="E65" s="94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" s="94">
         <v>220000</v>
       </c>
       <c r="G65" s="53">
         <f t="shared" si="20"/>
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="H65" s="44" t="str">
         <f t="shared" si="21"/>
         <v>2 qty Left</v>
       </c>
       <c r="I65" s="52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J65" s="52">
-        <v>100000</v>
+        <v>41100</v>
       </c>
       <c r="K65" s="52">
-        <v>66000</v>
+        <v>0</v>
       </c>
       <c r="L65" s="52">
         <f t="shared" si="22"/>
-        <v>116500</v>
+        <v>41100</v>
       </c>
       <c r="M65" s="52">
         <f t="shared" si="23"/>
-        <v>466000</v>
+        <v>82200</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="83">
         <f t="shared" si="19"/>
-        <v>120000</v>
+        <v>105000</v>
       </c>
       <c r="B66" s="72" t="s">
         <v>220</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E66" s="94">
         <v>0</v>
@@ -20097,79 +20146,79 @@
         <v>1</v>
       </c>
       <c r="J66" s="52">
-        <v>120000</v>
+        <v>105000</v>
       </c>
       <c r="K66" s="52">
         <v>0</v>
       </c>
       <c r="L66" s="52">
         <f t="shared" si="22"/>
-        <v>120000</v>
+        <v>105000</v>
       </c>
       <c r="M66" s="52">
         <f t="shared" si="23"/>
-        <v>120000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="83">
         <f t="shared" si="19"/>
-        <v>196000</v>
+        <v>0</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="53" t="s">
-        <v>386</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>328</v>
+        <v>219</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>390</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>387</v>
       </c>
       <c r="E67" s="94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" s="94">
         <v>220000</v>
       </c>
       <c r="G67" s="53">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>220000</v>
       </c>
       <c r="H67" s="44" t="str">
         <f t="shared" si="21"/>
-        <v>1 qty Left</v>
+        <v>Out of Stock</v>
       </c>
       <c r="I67" s="52">
         <v>1</v>
       </c>
       <c r="J67" s="52">
-        <v>196000</v>
+        <v>65000</v>
       </c>
       <c r="K67" s="52">
         <v>0</v>
       </c>
       <c r="L67" s="52">
         <f t="shared" si="22"/>
-        <v>196000</v>
+        <v>65000</v>
       </c>
       <c r="M67" s="52">
         <f t="shared" si="23"/>
-        <v>196000</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="83">
         <f t="shared" si="19"/>
-        <v>82200</v>
+        <v>98900</v>
       </c>
       <c r="B68" s="72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E68" s="94">
         <v>0</v>
@@ -20183,39 +20232,39 @@
       </c>
       <c r="H68" s="44" t="str">
         <f t="shared" si="21"/>
-        <v>2 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I68" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J68" s="52">
-        <v>41100</v>
+        <v>98900</v>
       </c>
       <c r="K68" s="52">
         <v>0</v>
       </c>
       <c r="L68" s="52">
         <f t="shared" si="22"/>
-        <v>41100</v>
+        <v>98900</v>
       </c>
       <c r="M68" s="52">
         <f t="shared" si="23"/>
-        <v>82200</v>
+        <v>98900</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="83">
         <f t="shared" si="19"/>
-        <v>105000</v>
+        <v>142000</v>
       </c>
       <c r="B69" s="72" t="s">
-        <v>221</v>
-      </c>
-      <c r="C69" s="52" t="s">
-        <v>391</v>
-      </c>
-      <c r="D69" s="52" t="s">
-        <v>389</v>
+        <v>23</v>
+      </c>
+      <c r="C69" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69" s="53" t="s">
+        <v>327</v>
       </c>
       <c r="E69" s="94">
         <v>0</v>
@@ -20235,33 +20284,33 @@
         <v>1</v>
       </c>
       <c r="J69" s="52">
-        <v>105000</v>
+        <v>142000</v>
       </c>
       <c r="K69" s="52">
         <v>0</v>
       </c>
       <c r="L69" s="52">
         <f t="shared" si="22"/>
-        <v>105000</v>
+        <v>142000</v>
       </c>
       <c r="M69" s="52">
         <f t="shared" si="23"/>
-        <v>105000</v>
+        <v>142000</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="83">
         <f t="shared" si="19"/>
-        <v>65000</v>
+        <v>140000</v>
       </c>
       <c r="B70" s="72" t="s">
         <v>220</v>
       </c>
       <c r="C70" s="52" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>389</v>
+        <v>326</v>
       </c>
       <c r="E70" s="94">
         <v>0</v>
@@ -20281,33 +20330,33 @@
         <v>1</v>
       </c>
       <c r="J70" s="52">
-        <v>65000</v>
+        <v>140000</v>
       </c>
       <c r="K70" s="52">
         <v>0</v>
       </c>
       <c r="L70" s="52">
         <f t="shared" si="22"/>
-        <v>65000</v>
+        <v>140000</v>
       </c>
       <c r="M70" s="52">
         <f t="shared" si="23"/>
-        <v>65000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="83">
         <f t="shared" si="19"/>
-        <v>98900</v>
+        <v>65000</v>
       </c>
       <c r="B71" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="52" t="s">
         <v>393</v>
       </c>
-      <c r="D71" s="53" t="s">
-        <v>328</v>
+      <c r="D71" s="52" t="s">
+        <v>326</v>
       </c>
       <c r="E71" s="94">
         <v>0</v>
@@ -20327,33 +20376,33 @@
         <v>1</v>
       </c>
       <c r="J71" s="52">
-        <v>98900</v>
+        <v>65000</v>
       </c>
       <c r="K71" s="52">
         <v>0</v>
       </c>
       <c r="L71" s="52">
         <f t="shared" si="22"/>
-        <v>98900</v>
+        <v>65000</v>
       </c>
       <c r="M71" s="52">
         <f t="shared" si="23"/>
-        <v>98900</v>
+        <v>65000</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="83">
         <f t="shared" si="19"/>
-        <v>142000</v>
+        <v>100000</v>
       </c>
       <c r="B72" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="53" t="s">
+      <c r="C72" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="D72" s="53" t="s">
-        <v>328</v>
+      <c r="D72" s="52" t="s">
+        <v>326</v>
       </c>
       <c r="E72" s="94">
         <v>0</v>
@@ -20373,33 +20422,33 @@
         <v>1</v>
       </c>
       <c r="J72" s="52">
-        <v>142000</v>
+        <v>100000</v>
       </c>
       <c r="K72" s="52">
         <v>0</v>
       </c>
       <c r="L72" s="52">
         <f t="shared" si="22"/>
-        <v>142000</v>
+        <v>100000</v>
       </c>
       <c r="M72" s="52">
         <f t="shared" si="23"/>
-        <v>142000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="83">
         <f t="shared" si="19"/>
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="B73" s="72" t="s">
-        <v>385</v>
+        <v>218</v>
       </c>
       <c r="C73" s="52" t="s">
         <v>395</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E73" s="94">
         <v>0</v>
@@ -20419,30 +20468,30 @@
         <v>1</v>
       </c>
       <c r="J73" s="52">
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="K73" s="52">
         <v>0</v>
       </c>
       <c r="L73" s="52">
         <f t="shared" si="22"/>
-        <v>200000</v>
+        <v>50000</v>
       </c>
       <c r="M73" s="52">
         <f t="shared" si="23"/>
-        <v>200000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="83">
         <f t="shared" si="19"/>
-        <v>65000</v>
+        <v>159100</v>
       </c>
       <c r="B74" s="72" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D74" s="52" t="s">
         <v>327</v>
@@ -20465,30 +20514,30 @@
         <v>1</v>
       </c>
       <c r="J74" s="52">
-        <v>65000</v>
+        <v>159100</v>
       </c>
       <c r="K74" s="52">
         <v>0</v>
       </c>
       <c r="L74" s="52">
         <f t="shared" si="22"/>
-        <v>65000</v>
+        <v>159100</v>
       </c>
       <c r="M74" s="52">
         <f t="shared" si="23"/>
-        <v>65000</v>
+        <v>159100</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="83">
         <f t="shared" si="19"/>
-        <v>100000</v>
+        <v>123410</v>
       </c>
       <c r="B75" s="72" t="s">
         <v>23</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D75" s="52" t="s">
         <v>327</v>
@@ -20500,44 +20549,44 @@
         <v>220000</v>
       </c>
       <c r="G75" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="G75" si="24">F75*E75</f>
         <v>0</v>
       </c>
       <c r="H75" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="H75" si="25">IF(E75=I75,"Out of Stock",I75-E75&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I75" s="52">
         <v>1</v>
       </c>
       <c r="J75" s="52">
-        <v>100000</v>
+        <v>123410</v>
       </c>
       <c r="K75" s="52">
         <v>0</v>
       </c>
       <c r="L75" s="52">
-        <f t="shared" si="22"/>
-        <v>100000</v>
+        <f t="shared" ref="L75" si="26">(K75/I75)+J75</f>
+        <v>123410</v>
       </c>
       <c r="M75" s="52">
-        <f t="shared" si="23"/>
-        <v>100000</v>
+        <f t="shared" ref="M75" si="27">(J75*I75)+K75</f>
+        <v>123410</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="83">
         <f t="shared" si="19"/>
-        <v>50000</v>
+        <v>164650</v>
       </c>
       <c r="B76" s="72" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E76" s="94">
         <v>0</v>
@@ -20546,44 +20595,44 @@
         <v>220000</v>
       </c>
       <c r="G76" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="G76:G80" si="28">F76*E76</f>
         <v>0</v>
       </c>
       <c r="H76" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="H76:H80" si="29">IF(E76=I76,"Out of Stock",I76-E76&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I76" s="52">
         <v>1</v>
       </c>
       <c r="J76" s="52">
-        <v>50000</v>
+        <v>164650</v>
       </c>
       <c r="K76" s="52">
         <v>0</v>
       </c>
       <c r="L76" s="52">
-        <f t="shared" si="22"/>
-        <v>50000</v>
+        <f t="shared" ref="L76:L80" si="30">(K76/I76)+J76</f>
+        <v>164650</v>
       </c>
       <c r="M76" s="52">
-        <f t="shared" si="23"/>
-        <v>50000</v>
+        <f t="shared" ref="M76:M80" si="31">(J76*I76)+K76</f>
+        <v>164650</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="83">
         <f t="shared" si="19"/>
-        <v>159100</v>
+        <v>126300</v>
       </c>
       <c r="B77" s="72" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="C77" s="52" t="s">
         <v>407</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E77" s="94">
         <v>0</v>
@@ -20592,133 +20641,133 @@
         <v>220000</v>
       </c>
       <c r="G77" s="53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H77" s="44" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>1 qty Left</v>
       </c>
       <c r="I77" s="52">
         <v>1</v>
       </c>
       <c r="J77" s="52">
-        <v>159100</v>
+        <v>126300</v>
       </c>
       <c r="K77" s="52">
         <v>0</v>
       </c>
       <c r="L77" s="52">
-        <f t="shared" si="22"/>
-        <v>159100</v>
+        <f t="shared" si="30"/>
+        <v>126300</v>
       </c>
       <c r="M77" s="52">
-        <f t="shared" si="23"/>
-        <v>159100</v>
+        <f t="shared" si="31"/>
+        <v>126300</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="83">
         <f t="shared" si="19"/>
-        <v>123410</v>
+        <v>240000</v>
       </c>
       <c r="B78" s="72" t="s">
-        <v>23</v>
+        <v>220</v>
       </c>
       <c r="C78" s="52" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E78" s="94">
         <v>0</v>
       </c>
       <c r="F78" s="94">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="G78" s="53">
-        <f t="shared" ref="G78" si="24">F78*E78</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H78" s="44" t="str">
-        <f t="shared" ref="H78" si="25">IF(E78=I78,"Out of Stock",I78-E78&amp;" qty Left")</f>
+        <f t="shared" si="29"/>
         <v>1 qty Left</v>
       </c>
       <c r="I78" s="52">
         <v>1</v>
       </c>
       <c r="J78" s="52">
-        <v>123410</v>
+        <v>240000</v>
       </c>
       <c r="K78" s="52">
         <v>0</v>
       </c>
       <c r="L78" s="52">
-        <f t="shared" ref="L78" si="26">(K78/I78)+J78</f>
-        <v>123410</v>
+        <f t="shared" si="30"/>
+        <v>240000</v>
       </c>
       <c r="M78" s="52">
-        <f t="shared" ref="M78" si="27">(J78*I78)+K78</f>
-        <v>123410</v>
+        <f t="shared" si="31"/>
+        <v>240000</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="83">
         <f t="shared" si="19"/>
-        <v>164650</v>
-      </c>
-      <c r="B79" s="72" t="s">
-        <v>23</v>
+        <v>478000</v>
+      </c>
+      <c r="B79" s="75" t="s">
+        <v>219</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>409</v>
+        <v>28</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="E79" s="94">
         <v>0</v>
       </c>
       <c r="F79" s="94">
-        <v>220000</v>
+        <v>75000</v>
       </c>
       <c r="G79" s="53">
-        <f t="shared" ref="G79:G80" si="28">F79*E79</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H79" s="44" t="str">
-        <f t="shared" ref="H79:H80" si="29">IF(E79=I79,"Out of Stock",I79-E79&amp;" qty Left")</f>
-        <v>1 qty Left</v>
-      </c>
-      <c r="I79" s="52">
-        <v>1</v>
+        <f t="shared" si="29"/>
+        <v>10 qty Left</v>
+      </c>
+      <c r="I79" s="53">
+        <v>10</v>
       </c>
       <c r="J79" s="52">
-        <v>164650</v>
+        <v>47800</v>
       </c>
       <c r="K79" s="52">
         <v>0</v>
       </c>
       <c r="L79" s="52">
-        <f t="shared" ref="L79:L80" si="30">(K79/I79)+J79</f>
-        <v>164650</v>
+        <f t="shared" si="30"/>
+        <v>47800</v>
       </c>
       <c r="M79" s="52">
-        <f t="shared" ref="M79:M80" si="31">(J79*I79)+K79</f>
-        <v>164650</v>
+        <f t="shared" si="31"/>
+        <v>478000</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="83">
         <f t="shared" si="19"/>
-        <v>126300</v>
+        <v>335000</v>
       </c>
       <c r="B80" s="72" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D80" s="52" t="s">
         <v>320</v>
@@ -20727,7 +20776,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="94">
-        <v>220000</v>
+        <v>350000</v>
       </c>
       <c r="G80" s="53">
         <f t="shared" si="28"/>
@@ -20741,73 +20790,205 @@
         <v>1</v>
       </c>
       <c r="J80" s="52">
-        <v>126300</v>
+        <v>335000</v>
       </c>
       <c r="K80" s="52">
         <v>0</v>
       </c>
       <c r="L80" s="52">
         <f t="shared" si="30"/>
-        <v>126300</v>
+        <v>335000</v>
       </c>
       <c r="M80" s="52">
         <f t="shared" si="31"/>
-        <v>126300</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="75"/>
-      <c r="C81" s="52"/>
-      <c r="D81" s="52"/>
-      <c r="E81" s="52"/>
-      <c r="F81" s="52"/>
-      <c r="G81" s="52"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
-      <c r="K81" s="52"/>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-    </row>
-    <row r="82" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="75"/>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="52"/>
-      <c r="L82" s="52"/>
-      <c r="M82" s="52"/>
-    </row>
-    <row r="83" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="75"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="52"/>
-      <c r="M83" s="52"/>
-    </row>
-    <row r="84" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="75"/>
-      <c r="C84" s="52"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
-      <c r="K84" s="52"/>
-      <c r="L84" s="52"/>
-      <c r="M84" s="52"/>
-    </row>
-    <row r="85" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>335000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="83">
+        <f t="shared" si="19"/>
+        <v>1615000</v>
+      </c>
+      <c r="B81" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="52" t="s">
+        <v>376</v>
+      </c>
+      <c r="D81" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="E81" s="94">
+        <v>0</v>
+      </c>
+      <c r="F81" s="94">
+        <v>250000</v>
+      </c>
+      <c r="G81" s="53">
+        <f t="shared" ref="G81" si="32">F81*E81</f>
+        <v>0</v>
+      </c>
+      <c r="H81" s="44" t="str">
+        <f t="shared" ref="H81" si="33">IF(E81=I81,"Out of Stock",I81-E81&amp;" qty Left")</f>
+        <v>19 qty Left</v>
+      </c>
+      <c r="I81" s="52">
+        <v>19</v>
+      </c>
+      <c r="J81" s="52">
+        <v>85000</v>
+      </c>
+      <c r="K81" s="52">
+        <v>0</v>
+      </c>
+      <c r="L81" s="52">
+        <f t="shared" ref="L81" si="34">(K81/I81)+J81</f>
+        <v>85000</v>
+      </c>
+      <c r="M81" s="52">
+        <f t="shared" ref="M81" si="35">(J81*I81)+K81</f>
+        <v>1615000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="83">
+        <f t="shared" si="19"/>
+        <v>120000</v>
+      </c>
+      <c r="B82" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" s="52" t="s">
+        <v>412</v>
+      </c>
+      <c r="D82" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="E82" s="94">
+        <v>0</v>
+      </c>
+      <c r="F82" s="94">
+        <v>250000</v>
+      </c>
+      <c r="G82" s="53">
+        <f t="shared" ref="G82:G84" si="36">F82*E82</f>
+        <v>0</v>
+      </c>
+      <c r="H82" s="44" t="str">
+        <f t="shared" ref="H82:H84" si="37">IF(E82=I82,"Out of Stock",I82-E82&amp;" qty Left")</f>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I82" s="52">
+        <v>1</v>
+      </c>
+      <c r="J82" s="52">
+        <v>120000</v>
+      </c>
+      <c r="K82" s="52">
+        <v>0</v>
+      </c>
+      <c r="L82" s="52">
+        <f t="shared" ref="L82:L84" si="38">(K82/I82)+J82</f>
+        <v>120000</v>
+      </c>
+      <c r="M82" s="52">
+        <f t="shared" ref="M82:M84" si="39">(J82*I82)+K82</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="83">
+        <f t="shared" si="19"/>
+        <v>70000</v>
+      </c>
+      <c r="B83" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>413</v>
+      </c>
+      <c r="D83" s="52" t="s">
+        <v>320</v>
+      </c>
+      <c r="E83" s="94">
+        <v>0</v>
+      </c>
+      <c r="F83" s="94">
+        <v>250000</v>
+      </c>
+      <c r="G83" s="53">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="44" t="str">
+        <f t="shared" si="37"/>
+        <v>2 qty Left</v>
+      </c>
+      <c r="I83" s="52">
+        <v>2</v>
+      </c>
+      <c r="J83" s="52">
+        <v>35000</v>
+      </c>
+      <c r="K83" s="52">
+        <v>0</v>
+      </c>
+      <c r="L83" s="52">
+        <f t="shared" si="38"/>
+        <v>35000</v>
+      </c>
+      <c r="M83" s="52">
+        <f t="shared" si="39"/>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="83">
+        <f t="shared" si="19"/>
+        <v>220000</v>
+      </c>
+      <c r="B84" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="C84" s="52" t="s">
+        <v>325</v>
+      </c>
+      <c r="D84" s="52" t="s">
+        <v>414</v>
+      </c>
+      <c r="E84" s="94">
+        <v>0</v>
+      </c>
+      <c r="F84" s="94">
+        <v>75000</v>
+      </c>
+      <c r="G84" s="53">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="44" t="str">
+        <f t="shared" si="37"/>
+        <v>4 qty Left</v>
+      </c>
+      <c r="I84" s="53">
+        <v>4</v>
+      </c>
+      <c r="J84" s="52">
+        <v>55000</v>
+      </c>
+      <c r="K84" s="52">
+        <v>0</v>
+      </c>
+      <c r="L84" s="52">
+        <f t="shared" si="38"/>
+        <v>55000</v>
+      </c>
+      <c r="M84" s="52">
+        <f t="shared" si="39"/>
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="75"/>
       <c r="C85" s="52"/>
       <c r="D85" s="52"/>
@@ -20820,7 +21001,7 @@
       <c r="L85" s="52"/>
       <c r="M85" s="52"/>
     </row>
-    <row r="86" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="75"/>
       <c r="C86" s="52"/>
       <c r="D86" s="52"/>
@@ -20833,7 +21014,7 @@
       <c r="L86" s="52"/>
       <c r="M86" s="52"/>
     </row>
-    <row r="87" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="75"/>
       <c r="C87" s="52"/>
       <c r="D87" s="52"/>
@@ -20846,7 +21027,7 @@
       <c r="L87" s="52"/>
       <c r="M87" s="52"/>
     </row>
-    <row r="88" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="75"/>
       <c r="C88" s="52"/>
       <c r="D88" s="52"/>
@@ -20859,7 +21040,7 @@
       <c r="L88" s="52"/>
       <c r="M88" s="52"/>
     </row>
-    <row r="89" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="75"/>
       <c r="C89" s="52"/>
       <c r="D89" s="52"/>
@@ -20872,7 +21053,7 @@
       <c r="L89" s="52"/>
       <c r="M89" s="52"/>
     </row>
-    <row r="90" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="75"/>
       <c r="C90" s="52"/>
       <c r="D90" s="52"/>
@@ -20885,7 +21066,7 @@
       <c r="L90" s="52"/>
       <c r="M90" s="52"/>
     </row>
-    <row r="91" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B91" s="75"/>
       <c r="C91" s="52"/>
       <c r="D91" s="52"/>
@@ -20898,7 +21079,7 @@
       <c r="L91" s="52"/>
       <c r="M91" s="52"/>
     </row>
-    <row r="92" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B92" s="75"/>
       <c r="C92" s="52"/>
       <c r="D92" s="52"/>
@@ -20911,7 +21092,7 @@
       <c r="L92" s="52"/>
       <c r="M92" s="52"/>
     </row>
-    <row r="93" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B93" s="75"/>
       <c r="C93" s="52"/>
       <c r="D93" s="52"/>
@@ -20924,7 +21105,7 @@
       <c r="L93" s="52"/>
       <c r="M93" s="52"/>
     </row>
-    <row r="94" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="75"/>
       <c r="C94" s="52"/>
       <c r="D94" s="52"/>
@@ -20937,7 +21118,7 @@
       <c r="L94" s="52"/>
       <c r="M94" s="52"/>
     </row>
-    <row r="95" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="75"/>
       <c r="C95" s="52"/>
       <c r="D95" s="52"/>
@@ -20950,7 +21131,7 @@
       <c r="L95" s="52"/>
       <c r="M95" s="52"/>
     </row>
-    <row r="96" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B96" s="75"/>
       <c r="C96" s="52"/>
       <c r="D96" s="52"/>
@@ -20990,12 +21171,12 @@
       <c r="M98" s="52"/>
     </row>
     <row r="99" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="75"/>
-      <c r="C99" s="52"/>
-      <c r="D99" s="52"/>
-      <c r="E99" s="52"/>
-      <c r="F99" s="52"/>
-      <c r="G99" s="52"/>
+      <c r="B99" s="72"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
       <c r="I99" s="52"/>
       <c r="J99" s="52"/>
       <c r="K99" s="52"/>
@@ -21003,12 +21184,12 @@
       <c r="M99" s="52"/>
     </row>
     <row r="100" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="75"/>
-      <c r="C100" s="52"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="52"/>
-      <c r="F100" s="52"/>
-      <c r="G100" s="52"/>
+      <c r="B100" s="72"/>
+      <c r="C100" s="53"/>
+      <c r="D100" s="53"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="53"/>
+      <c r="G100" s="53"/>
       <c r="I100" s="52"/>
       <c r="J100" s="52"/>
       <c r="K100" s="52"/>
@@ -21016,12 +21197,12 @@
       <c r="M100" s="52"/>
     </row>
     <row r="101" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="75"/>
-      <c r="C101" s="52"/>
-      <c r="D101" s="52"/>
-      <c r="E101" s="52"/>
-      <c r="F101" s="52"/>
-      <c r="G101" s="52"/>
+      <c r="B101" s="72"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="53"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="53"/>
+      <c r="G101" s="53"/>
       <c r="I101" s="52"/>
       <c r="J101" s="52"/>
       <c r="K101" s="52"/>
@@ -21145,1130 +21326,1151 @@
       <c r="L110" s="52"/>
       <c r="M110" s="52"/>
     </row>
-    <row r="111" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="72"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="53"/>
-      <c r="E111" s="53"/>
-      <c r="F111" s="53"/>
-      <c r="G111" s="53"/>
-      <c r="I111" s="52"/>
-      <c r="J111" s="52"/>
-      <c r="K111" s="52"/>
-      <c r="L111" s="52"/>
-      <c r="M111" s="52"/>
-    </row>
-    <row r="112" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="72"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="53"/>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
-      <c r="K112" s="52"/>
-      <c r="L112" s="52"/>
-      <c r="M112" s="52"/>
-    </row>
-    <row r="113" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="72"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="53"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="53"/>
-      <c r="I113" s="52"/>
-      <c r="J113" s="52"/>
-      <c r="K113" s="52"/>
-      <c r="L113" s="52"/>
-      <c r="M113" s="52"/>
-    </row>
   </sheetData>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="231" priority="247" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="235" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="246" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="229" priority="253" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="228" priority="252" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="cellIs" dxfId="227" priority="248" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="226" priority="245" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="225" priority="228" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="224" priority="227" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" dxfId="223" priority="216" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" dxfId="222" priority="215" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="cellIs" dxfId="221" priority="214" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H35">
+    <cfRule type="cellIs" dxfId="220" priority="213" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="219" priority="206" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H36">
+    <cfRule type="cellIs" dxfId="218" priority="205" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="217" priority="204" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="216" priority="203" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="215" priority="202" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="214" priority="201" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="213" priority="198" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="212" priority="197" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="211" priority="194" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="210" priority="193" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="cellIs" dxfId="209" priority="192" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="cellIs" dxfId="208" priority="191" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="207" priority="188" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="206" priority="187" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="205" priority="176" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="204" priority="175" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="203" priority="174" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="202" priority="173" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="201" priority="172" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="200" priority="171" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="199" priority="168" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="198" priority="167" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="197" priority="166" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="196" priority="165" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="195" priority="164" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="194" priority="163" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="193" priority="158" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="192" priority="157" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="191" priority="152" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="190" priority="151" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="189" priority="150" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="188" priority="149" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="187" priority="148" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="186" priority="147" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="185" priority="146" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="184" priority="145" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="183" priority="144" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="182" priority="143" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="181" priority="138" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="180" priority="137" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="179" priority="132" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="178" priority="131" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="177" priority="130" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="176" priority="129" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="175" priority="126" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="174" priority="125" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" dxfId="173" priority="124" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" dxfId="172" priority="123" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="171" priority="122" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="170" priority="121" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="169" priority="102" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="168" priority="101" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="167" priority="118" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="166" priority="117" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="165" priority="116" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="164" priority="115" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="163" priority="114" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H59">
+    <cfRule type="cellIs" dxfId="162" priority="113" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="161" priority="108" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H60">
+    <cfRule type="cellIs" dxfId="160" priority="107" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="159" priority="104" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="158" priority="103" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="157" priority="100" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" dxfId="156" priority="99" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="cellIs" dxfId="155" priority="98" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="cellIs" dxfId="154" priority="97" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="153" priority="96" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="152" priority="95" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="151" priority="94" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="150" priority="93" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="149" priority="92" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="148" priority="91" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="147" priority="90" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="146" priority="89" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="145" priority="87" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H67">
+    <cfRule type="cellIs" dxfId="144" priority="88" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H109">
+    <cfRule type="cellIs" dxfId="143" priority="85" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H109">
+    <cfRule type="cellIs" dxfId="142" priority="83" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H108">
+    <cfRule type="cellIs" dxfId="141" priority="86" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H108">
+    <cfRule type="cellIs" dxfId="140" priority="84" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7 H110">
+    <cfRule type="cellIs" dxfId="139" priority="82" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7 H110">
+    <cfRule type="cellIs" dxfId="138" priority="81" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="137" priority="80" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="136" priority="79" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="cellIs" dxfId="135" priority="72" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="cellIs" dxfId="134" priority="71" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="cellIs" dxfId="133" priority="70" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H69">
+    <cfRule type="cellIs" dxfId="132" priority="69" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="cellIs" dxfId="131" priority="60" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="cellIs" dxfId="130" priority="59" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="cellIs" dxfId="129" priority="58" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H70">
+    <cfRule type="cellIs" dxfId="128" priority="57" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="127" priority="52" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="126" priority="51" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="125" priority="50" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H71">
+    <cfRule type="cellIs" dxfId="124" priority="49" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="123" priority="48" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="122" priority="47" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="121" priority="46" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="120" priority="45" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="119" priority="44" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="118" priority="43" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="117" priority="42" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="116" priority="41" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="115" priority="40" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="114" priority="39" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="113" priority="38" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="112" priority="37" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="111" priority="292" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7 H110">
+    <cfRule type="cellIs" dxfId="110" priority="288" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H109">
+    <cfRule type="cellIs" dxfId="109" priority="289" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 H107">
+    <cfRule type="cellIs" dxfId="108" priority="290" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3 H106">
+    <cfRule type="cellIs" dxfId="107" priority="291" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2 H105">
+    <cfRule type="cellIs" dxfId="106" priority="287" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3 H106">
+    <cfRule type="cellIs" dxfId="105" priority="286" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4 H107">
+    <cfRule type="cellIs" dxfId="104" priority="285" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7 H110">
+    <cfRule type="cellIs" dxfId="103" priority="283" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="102" priority="281" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6 H109">
+    <cfRule type="cellIs" dxfId="101" priority="284" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="100" priority="282" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="99" priority="280" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="98" priority="279" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="97" priority="275" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="96" priority="276" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="95" priority="277" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="94" priority="274" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="93" priority="272" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="92" priority="278" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="91" priority="273" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="cellIs" dxfId="90" priority="271" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="89" priority="270" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="88" priority="269" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="87" priority="261" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="86" priority="262" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="85" priority="268" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="84" priority="267" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="83" priority="256" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="cellIs" dxfId="82" priority="255" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="81" priority="266" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="80" priority="265" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H108">
+    <cfRule type="cellIs" dxfId="79" priority="264" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H108">
+    <cfRule type="cellIs" dxfId="78" priority="263" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="77" priority="260" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="76" priority="259" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="75" priority="254" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H23">
+    <cfRule type="cellIs" dxfId="74" priority="251" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="234" priority="222" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="233" priority="229" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="232" priority="228" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="229" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="244" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="228" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="243" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="71" priority="240" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="cellIs" dxfId="70" priority="239" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="69" priority="238" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="68" priority="237" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="cellIs" dxfId="67" priority="236" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="cellIs" dxfId="66" priority="235" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="65" priority="234" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="64" priority="233" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="cellIs" dxfId="63" priority="232" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="cellIs" dxfId="62" priority="231" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="61" priority="230" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="60" priority="229" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="227" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="218" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="226" priority="203" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="225" priority="192" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="224" priority="191" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="223" priority="190" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="222" priority="189" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="221" priority="182" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="220" priority="181" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="219" priority="180" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="218" priority="179" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="217" priority="178" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="216" priority="177" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="217" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="duplicateValues" dxfId="57" priority="212"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="duplicateValues" dxfId="56" priority="211"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="duplicateValues" dxfId="55" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="duplicateValues" dxfId="54" priority="209"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="duplicateValues" dxfId="53" priority="208"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="duplicateValues" dxfId="52" priority="207"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="215" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="190" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="214" priority="175" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="213" priority="174" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="212" priority="173" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="211" priority="170" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="210" priority="169" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="209" priority="168" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="208" priority="167" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="207" priority="164" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="206" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="189" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="cellIs" dxfId="49" priority="170" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="cellIs" dxfId="48" priority="169" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="47" priority="154" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="46" priority="153" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="45" priority="136" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="44" priority="135" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="cellIs" dxfId="43" priority="120" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H64">
+    <cfRule type="cellIs" dxfId="42" priority="119" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="41" priority="78" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="40" priority="77" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="39" priority="76" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="38" priority="75" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="37" priority="74" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="36" priority="73" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="34" priority="35" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="205" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="cellIs" dxfId="204" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="203" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="cellIs" dxfId="202" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="201" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="cellIs" dxfId="200" priority="155" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="199" priority="152" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="198" priority="151" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="197" priority="150" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="196" priority="149" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="195" priority="148" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="194" priority="147" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="193" priority="144" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="192" priority="143" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="191" priority="142" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="190" priority="141" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="189" priority="140" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="188" priority="139" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="187" priority="134" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="186" priority="133" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="185" priority="128" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="184" priority="127" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="183" priority="126" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="182" priority="125" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="181" priority="124" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="180" priority="123" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="179" priority="122" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="178" priority="121" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="177" priority="120" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="176" priority="119" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="175" priority="114" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="174" priority="113" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="171" priority="108" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="170" priority="107" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="169" priority="106" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="168" priority="105" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="167" priority="102" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="166" priority="101" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="165" priority="100" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="164" priority="99" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="163" priority="98" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="162" priority="97" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="161" priority="78" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="160" priority="77" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="159" priority="94" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="158" priority="93" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="157" priority="92" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="156" priority="91" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="155" priority="90" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="154" priority="89" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="153" priority="84" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="152" priority="83" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="149" priority="80" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="148" priority="79" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="147" priority="76" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="146" priority="75" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="145" priority="74" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="144" priority="73" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="143" priority="72" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="142" priority="71" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="141" priority="70" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="140" priority="69" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="139" priority="68" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="138" priority="67" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="137" priority="66" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="136" priority="65" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="135" priority="63" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="134" priority="64" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H112">
-    <cfRule type="cellIs" dxfId="133" priority="61" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H112">
-    <cfRule type="cellIs" dxfId="132" priority="59" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H111">
-    <cfRule type="cellIs" dxfId="131" priority="62" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H111">
-    <cfRule type="cellIs" dxfId="130" priority="60" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H113">
-    <cfRule type="cellIs" dxfId="129" priority="58" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H113">
-    <cfRule type="cellIs" dxfId="128" priority="57" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="127" priority="56" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="126" priority="55" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="125" priority="48" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="124" priority="47" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="123" priority="46" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="122" priority="45" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="113" priority="36" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="112" priority="35" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="111" priority="34" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="110" priority="33" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="109" priority="28" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="108" priority="27" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="107" priority="26" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="106" priority="25" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="105" priority="24" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="104" priority="23" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="103" priority="22" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="102" priority="21" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="101" priority="20" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="100" priority="19" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="99" priority="18" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H76">
-    <cfRule type="cellIs" dxfId="98" priority="17" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="97" priority="16" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="96" priority="15" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="95" priority="14" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H77">
-    <cfRule type="cellIs" dxfId="94" priority="13" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="93" priority="268" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H113">
-    <cfRule type="cellIs" dxfId="92" priority="264" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H112">
-    <cfRule type="cellIs" dxfId="91" priority="265" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H110">
-    <cfRule type="cellIs" dxfId="90" priority="266" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H109">
-    <cfRule type="cellIs" dxfId="89" priority="267" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2 H108">
-    <cfRule type="cellIs" dxfId="88" priority="263" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3 H109">
-    <cfRule type="cellIs" dxfId="87" priority="262" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4 H110">
-    <cfRule type="cellIs" dxfId="86" priority="261" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H113">
-    <cfRule type="cellIs" dxfId="85" priority="259" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="84" priority="257" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6 H112">
-    <cfRule type="cellIs" dxfId="83" priority="260" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="82" priority="258" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="81" priority="256" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="80" priority="255" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="79" priority="251" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="78" priority="252" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="77" priority="253" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="76" priority="250" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="75" priority="248" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="74" priority="254" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="73" priority="249" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="72" priority="247" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="71" priority="246" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="70" priority="245" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="69" priority="237" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="68" priority="238" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="67" priority="244" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="66" priority="243" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="65" priority="232" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="64" priority="231" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="63" priority="242" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="62" priority="241" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H111">
-    <cfRule type="cellIs" dxfId="61" priority="240" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H111">
-    <cfRule type="cellIs" dxfId="60" priority="239" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="59" priority="236" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="58" priority="235" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="57" priority="234" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="56" priority="233" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="55" priority="230" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="54" priority="227" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="53" priority="220" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="52" priority="219" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="49" priority="216" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="48" priority="215" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="47" priority="214" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="46" priority="213" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="45" priority="212" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="44" priority="211" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="43" priority="210" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="42" priority="209" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="41" priority="208" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="40" priority="207" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="39" priority="206" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="38" priority="205" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="37" priority="196" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="36" priority="195" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="35" priority="194" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="34" priority="193" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="duplicateValues" dxfId="33" priority="188"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C36">
-    <cfRule type="duplicateValues" dxfId="32" priority="187"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="duplicateValues" dxfId="31" priority="186"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B35">
-    <cfRule type="duplicateValues" dxfId="30" priority="185"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B36">
-    <cfRule type="duplicateValues" dxfId="29" priority="184"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="duplicateValues" dxfId="28" priority="183"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="27" priority="166" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="26" priority="165" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="25" priority="146" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="24" priority="145" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="23" priority="130" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="22" priority="129" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="21" priority="112" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="20" priority="111" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="19" priority="96" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="18" priority="95" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="17" priority="54" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="16" priority="53" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="15" priority="52" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="14" priority="51" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="13" priority="50" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="12" priority="49" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H79">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H78">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H80">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
@@ -22298,21 +22500,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="89" t="s">
+        <v>359</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B2" s="90" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="90" t="s">
         <v>374</v>
-      </c>
-      <c r="C2" s="90" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -22320,52 +22522,52 @@
         <v>58</v>
       </c>
       <c r="B3" s="90" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="90" t="s">
         <v>369</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B4" s="90" t="s">
+        <v>362</v>
+      </c>
+      <c r="C4" s="90" t="s">
         <v>363</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B5" s="90" t="s">
         <v>366</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="C5" s="90" t="s">
         <v>367</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -22456,7 +22658,7 @@
         <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -22465,14 +22667,14 @@
         <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J1" s="1">
         <f>SUM($G2:$G84)</f>
@@ -22484,7 +22686,7 @@
         <v>44959</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -22506,7 +22708,7 @@
         <v>44959</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -22527,7 +22729,7 @@
         <v>44959</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -22569,7 +22771,7 @@
         <v>44959</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D6" s="1">
         <v>2</v>
@@ -22590,7 +22792,7 @@
         <v>44959</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
@@ -22611,7 +22813,7 @@
         <v>44959</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -22632,7 +22834,7 @@
         <v>44960</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -22653,7 +22855,7 @@
         <v>44960</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -22674,7 +22876,7 @@
         <v>44960</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -22695,7 +22897,7 @@
         <v>44960</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -22716,7 +22918,7 @@
         <v>44960</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -22737,7 +22939,7 @@
         <v>44960</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -22758,7 +22960,7 @@
         <v>44960</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -22779,7 +22981,7 @@
         <v>44960</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -22800,7 +23002,7 @@
         <v>44961</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
@@ -22821,7 +23023,7 @@
         <v>44962</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D18" s="1">
         <v>1</v>
@@ -22835,7 +23037,7 @@
         <v>44963</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -22847,7 +23049,7 @@
         <v>44964</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>

--- a/aks sell 2 Rows.xlsx
+++ b/aks sell 2 Rows.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PC Builder" sheetId="3" r:id="rId1"/>
@@ -408,7 +408,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="392">
   <si>
     <t>SSD 128</t>
   </si>
@@ -1542,9 +1542,6 @@
   </si>
   <si>
     <t>i5 7th gen + B150</t>
-  </si>
-  <si>
-    <t>ko nay lin</t>
   </si>
   <si>
     <t>m sata 256</t>
@@ -2027,9 +2024,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2037,3096 +2031,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="460">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="456">
     <dxf>
       <font>
         <b val="0"/>
@@ -5690,6 +2603,3062 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5754,35 +5723,35 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="B1:G82" totalsRowShown="0" headerRowDxfId="459" dataDxfId="457" headerRowBorderDxfId="458" tableBorderDxfId="456">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="B1:G82" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
   <autoFilter ref="B1:G82"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Category" dataDxfId="455"/>
-    <tableColumn id="2" name="Description" dataDxfId="454"/>
-    <tableColumn id="3" name="Remark" dataDxfId="453"/>
-    <tableColumn id="4" name="Qty" dataDxfId="452"/>
-    <tableColumn id="5" name="Price" dataDxfId="451"/>
-    <tableColumn id="6" name="Amount" dataDxfId="450"/>
+    <tableColumn id="1" name="Category" dataDxfId="17"/>
+    <tableColumn id="2" name="Description" dataDxfId="16"/>
+    <tableColumn id="3" name="Remark" dataDxfId="15"/>
+    <tableColumn id="4" name="Qty" dataDxfId="14"/>
+    <tableColumn id="5" name="Price" dataDxfId="13"/>
+    <tableColumn id="6" name="Amount" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:H35" totalsRowShown="0" headerRowDxfId="449" dataDxfId="447" headerRowBorderDxfId="448" tableBorderDxfId="446" totalsRowBorderDxfId="445">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:H35" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
   <autoFilter ref="B2:H35"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Description" dataDxfId="444"/>
-    <tableColumn id="2" name="Qty" dataDxfId="443"/>
-    <tableColumn id="3" name="Price" dataDxfId="442"/>
-    <tableColumn id="4" name="Deli" dataDxfId="441"/>
-    <tableColumn id="5" name="Net Price/pc" dataDxfId="440">
+    <tableColumn id="1" name="Description" dataDxfId="6"/>
+    <tableColumn id="2" name="Qty" dataDxfId="5"/>
+    <tableColumn id="3" name="Price" dataDxfId="4"/>
+    <tableColumn id="4" name="Deli" dataDxfId="3"/>
+    <tableColumn id="5" name="Net Price/pc" dataDxfId="2">
       <calculatedColumnFormula>(E3/C3)+D3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Amount" dataDxfId="439">
+    <tableColumn id="6" name="Amount" dataDxfId="1">
       <calculatedColumnFormula>(D3*C3)+E3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Sold Out Price" dataDxfId="438"/>
+    <tableColumn id="7" name="Sold Out Price" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium25" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -13733,1042 +13702,1042 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I74 I136:I1048576 I1:I32">
-    <cfRule type="cellIs" dxfId="437" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="295" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="436" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="293" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="435" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="292" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="434" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="291" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="433" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="432" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="289" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="431" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="288" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="430" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="287" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="429" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="286" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="428" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="285" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="cellIs" dxfId="427" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="284" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="426" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="283" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="425" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="282" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="424" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="281" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="423" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="280" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="422" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="279" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="421" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="278" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="420" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="276" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="419" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="274" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="418" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="273" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="417" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="272" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="416" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="271" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="415" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="270" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="414" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="269" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="413" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="267" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="412" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="265" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="411" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="264" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="410" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="409" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="408" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="407" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="406" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="259" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="cellIs" dxfId="405" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="258" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="404" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="257" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="cellIs" dxfId="403" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="402" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="401" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="253" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="400" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="252" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="399" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="251" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="398" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="250" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="cellIs" dxfId="397" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="249" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="396" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="247" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="395" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="246" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="394" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="245" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="393" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="240" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="392" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="239" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="391" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="238" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="390" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="237" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="389" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="236" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="388" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="235" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="387" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="234" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="386" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="233" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="385" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="232" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="384" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="231" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="383" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="230" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="382" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="229" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="381" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="228" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="380" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="227" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="379" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="224" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="378" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="223" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="377" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="222" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="376" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="221" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="375" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="212" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="374" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="211" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="373" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="210" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="372" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="209" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="371" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="208" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="370" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="369" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="368" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="205" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="367" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="204" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="366" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="203" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="365" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="202" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="364" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="201" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="363" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="200" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="362" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="361" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="360" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="197" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="359" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="192" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="358" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="191" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="357" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="190" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="356" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="189" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="355" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="188" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="354" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="187" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="353" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="186" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="352" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="185" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="351" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="184" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="350" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="183" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="349" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="180" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="348" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="179" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="347" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="178" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="346" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="177" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="345" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="176" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="344" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="175" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="343" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="174" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="342" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="173" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="341" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="168" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="340" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="167" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="339" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="162" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="338" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="161" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="337" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="160" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="336" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="159" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="335" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="158" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="334" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="333" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="332" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="155" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="331" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="154" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="330" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="329" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="146" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="328" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="145" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="327" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="144" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="326" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="143" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="325" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="142" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="324" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="141" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="323" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="140" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="322" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="139" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="321" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="138" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="320" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="137" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="319" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="136" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="318" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="135" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="317" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="126" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="316" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="125" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="315" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="124" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="314" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="123" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="313" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="122" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="312" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="121" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="311" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="120" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="310" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="119" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="309" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="118" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="308" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="117" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="307" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="306" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="111" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="305" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="304" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="303" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="302" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="301" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="104" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="300" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="103" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="299" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="298" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="297" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="100" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="296" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="99" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="295" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="96" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="294" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="95" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="293" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="94" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="292" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="93" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="291" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="92" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="290" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="91" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="289" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="90" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="288" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="89" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="287" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="88" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="286" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="87" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="285" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="284" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="283" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="282" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="281" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="280" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="279" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="278" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="77" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="277" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="276" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="275" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="274" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="273" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="272" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="271" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="270" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="269" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="268" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="267" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="266" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="265" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="264" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="263" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="262" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="261" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="260" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="259" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="258" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="276" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="257" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="275" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="256" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="255" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="254" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="272" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="253" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="271" priority="24" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="252" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="270" priority="23" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="251" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="269" priority="22" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="250" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="268" priority="21" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="249" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="267" priority="20" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="248" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="266" priority="19" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="247" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="265" priority="18" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="246" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="17" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="245" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="244" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="243" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="242" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="13" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="241" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="240" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="239" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="238" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="237" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="236" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="235" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="234" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="233" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="232" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="231" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="230" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17228,9 +17197,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V82"/>
   <sheetViews>
-    <sheetView zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q28" sqref="Q28"/>
+      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17302,11 +17271,11 @@
       </c>
       <c r="Q1" s="20">
         <f>SUM(A2:A82)</f>
-        <v>9908640</v>
+        <v>9778390</v>
       </c>
       <c r="R1" s="76">
         <f>Q20</f>
-        <v>-107530.53999999911</v>
+        <v>22719.460000000894</v>
       </c>
       <c r="S1" s="76"/>
     </row>
@@ -17734,9 +17703,7 @@
         <v>83000</v>
       </c>
       <c r="N9" s="55"/>
-      <c r="P9" s="52" t="s">
-        <v>378</v>
-      </c>
+      <c r="P9" s="52"/>
       <c r="Q9" s="23"/>
       <c r="S9" s="58">
         <v>2070</v>
@@ -18151,7 +18118,7 @@
       </c>
       <c r="Q16" s="17">
         <f>Q2+SUM(Q3:Q14)+Q15+Q1</f>
-        <v>13607530.539999999</v>
+        <v>13477280.539999999</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18370,7 +18337,7 @@
       </c>
       <c r="Q20" s="17">
         <f>Q18-Q16</f>
-        <v>-107530.53999999911</v>
+        <v>22719.460000000894</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -19031,7 +18998,7 @@
     <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="83">
         <f t="shared" si="16"/>
-        <v>260500</v>
+        <v>130250</v>
       </c>
       <c r="B35" s="72" t="s">
         <v>23</v>
@@ -19054,10 +19021,10 @@
       </c>
       <c r="H35" s="44" t="str">
         <f t="shared" ref="H35:H37" si="28">IF(E35=I35,"Out of Stock",I35-E35&amp;" qty Left")</f>
-        <v>2 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I35" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" s="52">
         <v>130250</v>
@@ -19071,7 +19038,7 @@
       </c>
       <c r="M35" s="52">
         <f t="shared" ref="M35:M37" si="30">(J35*I35)+K35</f>
-        <v>260500</v>
+        <v>130250</v>
       </c>
       <c r="Q35" s="79"/>
     </row>
@@ -20007,7 +19974,7 @@
         <v>219</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D56" s="52" t="s">
         <v>293</v>
@@ -20513,7 +20480,7 @@
         <v>376</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D67" s="52" t="s">
         <v>298</v>
@@ -20651,7 +20618,7 @@
         <v>242</v>
       </c>
       <c r="C70" s="100" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D70" s="52" t="s">
         <v>293</v>
@@ -20743,7 +20710,7 @@
         <v>219</v>
       </c>
       <c r="C72" s="100" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D72" s="101" t="s">
         <v>293</v>
@@ -20789,7 +20756,7 @@
         <v>23</v>
       </c>
       <c r="C73" s="100" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D73" s="101" t="s">
         <v>293</v>
@@ -20835,7 +20802,7 @@
         <v>23</v>
       </c>
       <c r="C74" s="100" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D74" s="101" t="s">
         <v>299</v>
@@ -20881,7 +20848,7 @@
         <v>23</v>
       </c>
       <c r="C75" s="100" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D75" s="101" t="s">
         <v>299</v>
@@ -21011,1120 +20978,1120 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="229" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="423" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="228" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="422" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="227" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="429" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="226" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="424" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="225" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="421" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="224" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="404" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="223" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="403" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="222" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="392" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="221" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="391" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="220" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="390" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="219" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="389" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="218" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="382" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="217" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="381" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="216" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="378" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="215" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="377" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="214" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="370" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="213" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="369" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="212" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="368" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="211" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="367" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="210" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="364" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="209" priority="363" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="363" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="208" priority="344" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="344" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="207" priority="343" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="343" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="206" priority="342" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="342" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="205" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="341" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="204" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="328" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="203" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="327" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="202" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="314" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="201" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="313" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="200" priority="300" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="300" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="199" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="299" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="198" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="284" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="197" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="283" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="196" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="195" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="259" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="194" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="193" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="192" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="191" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="255" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="190" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="248" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="189" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="247" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="188" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="246" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="187" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="245" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="186" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="236" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="185" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="235" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="184" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="234" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="183" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="233" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="182" priority="468" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="468" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="181" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="465" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="180" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="462" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="179" priority="467" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="467" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="178" priority="463" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="463" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="177" priority="457" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="457" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="176" priority="460" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="460" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="175" priority="458" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="458" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="174" priority="451" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="451" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="173" priority="452" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="452" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="172" priority="453" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="453" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="171" priority="454" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="454" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="170" priority="444" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="444" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="169" priority="443" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="443" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="168" priority="432" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="432" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="167" priority="431" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="431" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="166" priority="442" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="442" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="165" priority="441" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="441" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="164" priority="440" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="440" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="163" priority="439" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="439" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="162" priority="436" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="436" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="161" priority="435" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="435" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="160" priority="430" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="430" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="159" priority="420" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="420" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="158" priority="419" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="419" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="157" priority="416" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="416" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="156" priority="415" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="415" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="155" priority="412" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="412" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="154" priority="411" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="411" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="153" priority="410" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="410" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="152" priority="409" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="409" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="151" priority="408" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="408" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="150" priority="407" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="407" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="149" priority="394" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="394" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="148" priority="393" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="393" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="147" priority="388"/>
+    <cfRule type="duplicateValues" dxfId="165" priority="388"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="146" priority="387"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="387"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="145" priority="386"/>
+    <cfRule type="duplicateValues" dxfId="163" priority="386"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="144" priority="385"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="385"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="143" priority="384"/>
+    <cfRule type="duplicateValues" dxfId="161" priority="384"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="142" priority="383"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="383"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="141" priority="366" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="366" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="140" priority="365" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="365" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="139" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="138" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="253" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="137" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="208" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="136" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="135" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="134" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="205" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="133" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="204" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="132" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="203" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="131" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="202" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="130" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="201" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="129" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="196" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="128" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="195" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="127" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="176" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="126" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="175" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="125" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="174" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="124" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="173" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="123" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="158" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="122" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="121" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="120" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="155" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="119" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="154" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="118" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="117" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="152" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="116" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="151" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="115" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="146" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="114" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="145" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="113" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="144" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="112" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="111" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="138" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="110" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="137" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="109" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="136" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="108" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="135" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="107" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="126" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="106" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="105" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="124" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="104" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="123" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="103" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="102" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="101" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="100" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="111" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="99" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="110" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="98" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="109" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="97" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="96" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="95" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="106" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="94" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="105" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="93" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="104" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="92" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="103" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="91" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="90" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="89" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="98" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="88" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="97" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="87" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="96" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="86" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="95" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="85" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="94" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="84" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="93" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="83" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="92" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="82" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="91" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="81" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="88" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="80" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="87" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="79" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="86" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="78" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="85" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="77" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="76" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="75" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="74" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="73" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="72" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="77" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="71" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="70" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="68" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="67" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="66" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="65" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="64" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="63" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="62" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="61" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="59" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="58" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="57" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="56" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="55" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="59" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="54" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="58" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="52" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="57" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="51" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="55" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="50" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="49" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="54" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="53" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="51" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="46" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="52" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="45" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="50" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="44" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="49" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="42" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="46" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="45" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="44" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="43" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="42" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="41" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="36" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="24" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22140,7 +22107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -22173,7 +22140,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="110" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
@@ -22184,7 +22151,7 @@
       </c>
     </row>
     <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="122" t="s">
+      <c r="B3" s="121" t="s">
         <v>351</v>
       </c>
       <c r="C3" s="52">
@@ -22205,7 +22172,7 @@
       <c r="H3" s="114"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="122" t="s">
+      <c r="B4" s="121" t="s">
         <v>347</v>
       </c>
       <c r="C4" s="52">
@@ -22226,7 +22193,7 @@
       <c r="H4" s="115"/>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="122" t="s">
+      <c r="B5" s="121" t="s">
         <v>352</v>
       </c>
       <c r="C5" s="52">
@@ -22247,7 +22214,7 @@
       <c r="H5" s="115"/>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="122" t="s">
+      <c r="B6" s="121" t="s">
         <v>362</v>
       </c>
       <c r="C6" s="52">
@@ -22270,7 +22237,7 @@
       <c r="H6" s="115"/>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="122" t="s">
+      <c r="B7" s="121" t="s">
         <v>363</v>
       </c>
       <c r="C7" s="52">
@@ -22314,7 +22281,7 @@
         <v>60000</v>
       </c>
       <c r="H8" s="111" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -22339,11 +22306,11 @@
         <v>55000</v>
       </c>
       <c r="H9" s="111" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="122" t="s">
+      <c r="B10" s="121" t="s">
         <v>367</v>
       </c>
       <c r="C10" s="52">
@@ -22366,7 +22333,7 @@
       <c r="H10" s="115"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>366</v>
       </c>
       <c r="C11" s="52">
@@ -22390,7 +22357,7 @@
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="107" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C12" s="108">
         <v>1</v>
@@ -22414,8 +22381,8 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="122" t="s">
-        <v>380</v>
+      <c r="B13" s="121" t="s">
+        <v>379</v>
       </c>
       <c r="C13" s="52">
         <v>1</v>
@@ -22437,7 +22404,7 @@
       <c r="H13" s="115"/>
     </row>
     <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="122" t="s">
+      <c r="B14" s="121" t="s">
         <v>360</v>
       </c>
       <c r="C14" s="52">
@@ -22460,7 +22427,7 @@
       <c r="H14" s="115"/>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="122" t="s">
+      <c r="B15" s="121" t="s">
         <v>123</v>
       </c>
       <c r="C15" s="52">
@@ -22483,23 +22450,23 @@
       <c r="H15" s="115"/>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="126" t="s">
+      <c r="B16" s="125" t="s">
         <v>361</v>
       </c>
-      <c r="C16" s="127">
-        <v>1</v>
-      </c>
-      <c r="D16" s="127">
+      <c r="C16" s="126">
+        <v>1</v>
+      </c>
+      <c r="D16" s="126">
         <v>30000</v>
       </c>
-      <c r="E16" s="127">
-        <v>0</v>
-      </c>
-      <c r="F16" s="127">
+      <c r="E16" s="126">
+        <v>0</v>
+      </c>
+      <c r="F16" s="126">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="G16" s="128">
+      <c r="G16" s="127">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
@@ -22507,7 +22474,7 @@
         <v>45000</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>3</v>
@@ -22517,7 +22484,7 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="123" t="s">
+      <c r="B17" s="122" t="s">
         <v>372</v>
       </c>
       <c r="C17" s="101">
@@ -22574,7 +22541,7 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="123" t="s">
         <v>352</v>
       </c>
       <c r="C19" s="98">
@@ -22605,7 +22572,7 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="124" t="s">
+      <c r="B20" s="123" t="s">
         <v>373</v>
       </c>
       <c r="C20" s="98">
@@ -22636,7 +22603,7 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="124" t="s">
+      <c r="B21" s="123" t="s">
         <v>374</v>
       </c>
       <c r="C21" s="98">
@@ -22657,10 +22624,10 @@
       <c r="H21" s="115">
         <v>20000</v>
       </c>
-      <c r="K21" s="121" t="s">
-        <v>384</v>
-      </c>
-      <c r="L21" s="121"/>
+      <c r="K21" s="128" t="s">
+        <v>383</v>
+      </c>
+      <c r="L21" s="128"/>
       <c r="M21" s="1">
         <f>M20+M19+M18+M17</f>
         <v>135000</v>
@@ -22711,7 +22678,7 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="125" t="s">
+      <c r="B24" s="124" t="s">
         <v>358</v>
       </c>
       <c r="C24" s="98">
@@ -22759,8 +22726,8 @@
       </c>
     </row>
     <row r="26" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="123" t="s">
-        <v>379</v>
+      <c r="B26" s="122" t="s">
+        <v>378</v>
       </c>
       <c r="C26" s="98">
         <v>3</v>
@@ -22783,7 +22750,7 @@
     </row>
     <row r="27" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="97" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C27" s="98">
         <v>1</v>
@@ -22805,23 +22772,23 @@
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="123" t="s">
+      <c r="B28" s="122" t="s">
+        <v>387</v>
+      </c>
+      <c r="C28" s="101" t="s">
         <v>388</v>
       </c>
-      <c r="C28" s="101" t="s">
-        <v>389</v>
-      </c>
       <c r="D28" s="101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E28" s="101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F28" s="101" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G28" s="102" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H28" s="116"/>
     </row>

--- a/aks sell 2 Rows.xlsx
+++ b/aks sell 2 Rows.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="PC Builder" sheetId="3" r:id="rId1"/>
@@ -408,7 +408,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="398">
   <si>
     <t>SSD 128</t>
   </si>
@@ -1337,9 +1337,6 @@
     <t>Ryzen 3 2300X</t>
   </si>
   <si>
-    <t>1TB</t>
-  </si>
-  <si>
     <t>taobao</t>
   </si>
   <si>
@@ -1418,9 +1415,6 @@
     <t>trade</t>
   </si>
   <si>
-    <t>Asus Strix 980</t>
-  </si>
-  <si>
     <t>Coolmoon Fan (white)</t>
   </si>
   <si>
@@ -1505,9 +1499,6 @@
     <t>laptop ram ddr4 8gb</t>
   </si>
   <si>
-    <t>laptop ram ddr4 16gb</t>
-  </si>
-  <si>
     <t>Supply 2pcs</t>
   </si>
   <si>
@@ -1583,7 +1574,34 @@
     <t>gtx 1650s</t>
   </si>
   <si>
-    <t>Reject</t>
+    <t xml:space="preserve">Reject </t>
+  </si>
+  <si>
+    <t>HyperX</t>
+  </si>
+  <si>
+    <t>Sold</t>
+  </si>
+  <si>
+    <t>i5 4th Gen</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M2 Short</t>
+  </si>
+  <si>
+    <t>ddr3 8gb</t>
+  </si>
+  <si>
+    <t>HDD 500gb</t>
+  </si>
+  <si>
+    <t>SSD 240gb</t>
+  </si>
+  <si>
+    <t>solved</t>
   </si>
 </sst>
 </file>
@@ -1595,7 +1613,7 @@
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1633,6 +1651,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1675,12 +1700,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1817,12 +1842,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1999,16 +2039,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2020,17 +2052,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2039,7 +2079,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="456">
+  <dxfs count="502">
     <dxf>
       <font>
         <b val="0"/>
@@ -3571,6 +3611,356 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -3627,34 +4017,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -5723,8 +6085,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="B1:G82" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
-  <autoFilter ref="B1:G82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table62" displayName="Table62" ref="B1:G91" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18">
+  <autoFilter ref="B1:G91"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Category" dataDxfId="17"/>
     <tableColumn id="2" name="Description" dataDxfId="16"/>
@@ -5738,8 +6100,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:H35" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="B2:H35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:H42" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="B2:H42"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Description" dataDxfId="6"/>
     <tableColumn id="2" name="Qty" dataDxfId="5"/>
@@ -13702,1042 +14064,1042 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I74 I136:I1048576 I1:I32">
-    <cfRule type="cellIs" dxfId="455" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="501" priority="295" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I34">
-    <cfRule type="cellIs" dxfId="454" priority="293" operator="equal">
+    <cfRule type="cellIs" dxfId="500" priority="293" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35">
-    <cfRule type="cellIs" dxfId="453" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="499" priority="292" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36">
-    <cfRule type="cellIs" dxfId="452" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="498" priority="291" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="cellIs" dxfId="451" priority="290" operator="equal">
+    <cfRule type="cellIs" dxfId="497" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I39">
-    <cfRule type="cellIs" dxfId="450" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="496" priority="289" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I40">
-    <cfRule type="cellIs" dxfId="449" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="495" priority="288" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41">
-    <cfRule type="cellIs" dxfId="448" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="494" priority="287" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42">
-    <cfRule type="cellIs" dxfId="447" priority="286" operator="equal">
+    <cfRule type="cellIs" dxfId="493" priority="286" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43">
-    <cfRule type="cellIs" dxfId="446" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="492" priority="285" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44">
-    <cfRule type="cellIs" dxfId="445" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="491" priority="284" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I45">
-    <cfRule type="cellIs" dxfId="444" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="490" priority="283" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" dxfId="443" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="489" priority="282" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47">
-    <cfRule type="cellIs" dxfId="442" priority="281" operator="equal">
+    <cfRule type="cellIs" dxfId="488" priority="281" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" dxfId="441" priority="280" operator="equal">
+    <cfRule type="cellIs" dxfId="487" priority="280" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="cellIs" dxfId="440" priority="279" operator="equal">
+    <cfRule type="cellIs" dxfId="486" priority="279" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50">
-    <cfRule type="cellIs" dxfId="439" priority="278" operator="equal">
+    <cfRule type="cellIs" dxfId="485" priority="278" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52">
-    <cfRule type="cellIs" dxfId="438" priority="276" operator="equal">
+    <cfRule type="cellIs" dxfId="484" priority="276" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54">
-    <cfRule type="cellIs" dxfId="437" priority="274" operator="equal">
+    <cfRule type="cellIs" dxfId="483" priority="274" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55">
-    <cfRule type="cellIs" dxfId="436" priority="273" operator="equal">
+    <cfRule type="cellIs" dxfId="482" priority="273" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I38">
-    <cfRule type="cellIs" dxfId="435" priority="272" operator="equal">
+    <cfRule type="cellIs" dxfId="481" priority="272" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" dxfId="434" priority="271" operator="equal">
+    <cfRule type="cellIs" dxfId="480" priority="271" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53">
-    <cfRule type="cellIs" dxfId="433" priority="270" operator="equal">
+    <cfRule type="cellIs" dxfId="479" priority="270" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I56">
-    <cfRule type="cellIs" dxfId="432" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="478" priority="269" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I58">
-    <cfRule type="cellIs" dxfId="431" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="477" priority="267" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I57">
-    <cfRule type="cellIs" dxfId="430" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="476" priority="265" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I59">
-    <cfRule type="cellIs" dxfId="429" priority="264" operator="equal">
+    <cfRule type="cellIs" dxfId="475" priority="264" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60">
-    <cfRule type="cellIs" dxfId="428" priority="263" operator="equal">
+    <cfRule type="cellIs" dxfId="474" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61">
-    <cfRule type="cellIs" dxfId="427" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="473" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I62">
-    <cfRule type="cellIs" dxfId="426" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="472" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I63">
-    <cfRule type="cellIs" dxfId="425" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="471" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I64">
-    <cfRule type="cellIs" dxfId="424" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="470" priority="259" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65">
-    <cfRule type="cellIs" dxfId="423" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="469" priority="258" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I66">
-    <cfRule type="cellIs" dxfId="422" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="468" priority="257" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I67">
-    <cfRule type="cellIs" dxfId="421" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="256" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I33">
-    <cfRule type="cellIs" dxfId="420" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="254" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I69">
-    <cfRule type="cellIs" dxfId="419" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="465" priority="253" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I70">
-    <cfRule type="cellIs" dxfId="418" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="464" priority="252" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I71">
-    <cfRule type="cellIs" dxfId="417" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="251" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="cellIs" dxfId="416" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="250" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I68">
-    <cfRule type="cellIs" dxfId="415" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="461" priority="249" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="414" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="460" priority="247" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="cellIs" dxfId="413" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="246" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="cellIs" dxfId="412" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="245" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="411" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="457" priority="240" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="410" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="456" priority="239" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77">
-    <cfRule type="cellIs" dxfId="409" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="238" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="408" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="237" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="407" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="453" priority="236" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="406" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="452" priority="235" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="405" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="234" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="404" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="233" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="403" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="449" priority="232" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="402" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="448" priority="231" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="401" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="230" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="400" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="229" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="399" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="445" priority="228" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="398" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="444" priority="227" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="397" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="224" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I85">
-    <cfRule type="cellIs" dxfId="396" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="223" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="395" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="441" priority="222" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86">
-    <cfRule type="cellIs" dxfId="394" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="221" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="393" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="212" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="392" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="438" priority="211" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I78">
-    <cfRule type="cellIs" dxfId="391" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="210" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I79">
-    <cfRule type="cellIs" dxfId="390" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="209" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="389" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="435" priority="208" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I80">
-    <cfRule type="cellIs" dxfId="388" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="434" priority="207" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="387" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="206" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82">
-    <cfRule type="cellIs" dxfId="386" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="205" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="385" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="431" priority="204" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I81">
-    <cfRule type="cellIs" dxfId="384" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="430" priority="203" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="383" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="202" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83">
-    <cfRule type="cellIs" dxfId="382" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="201" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="381" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="427" priority="200" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I84">
-    <cfRule type="cellIs" dxfId="380" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="426" priority="199" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="379" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="198" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I87">
-    <cfRule type="cellIs" dxfId="378" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="197" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="377" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="423" priority="192" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I90">
-    <cfRule type="cellIs" dxfId="376" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="422" priority="191" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="375" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="190" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="374" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="189" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="373" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="419" priority="188" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I92">
-    <cfRule type="cellIs" dxfId="372" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="187" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="371" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="186" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="cellIs" dxfId="370" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="416" priority="185" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="369" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="184" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="cellIs" dxfId="368" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="183" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="367" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="413" priority="180" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="cellIs" dxfId="366" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="412" priority="179" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="365" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="178" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="364" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="177" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="363" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="409" priority="176" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="cellIs" dxfId="362" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="408" priority="175" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="361" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="174" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="cellIs" dxfId="360" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="173" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="359" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="405" priority="168" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I99">
-    <cfRule type="cellIs" dxfId="358" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="404" priority="167" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="357" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="162" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I100">
-    <cfRule type="cellIs" dxfId="356" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="161" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="355" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="401" priority="160" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I101">
-    <cfRule type="cellIs" dxfId="354" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="400" priority="159" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="353" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="158" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75">
-    <cfRule type="cellIs" dxfId="352" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="157" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="351" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="397" priority="156" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="cellIs" dxfId="350" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="396" priority="155" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="349" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="154" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76">
-    <cfRule type="cellIs" dxfId="348" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="153" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="347" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="393" priority="146" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="cellIs" dxfId="346" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="392" priority="145" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="345" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="144" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I102">
-    <cfRule type="cellIs" dxfId="344" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="143" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="343" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="142" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I103">
-    <cfRule type="cellIs" dxfId="342" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="388" priority="141" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="341" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="140" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I104">
-    <cfRule type="cellIs" dxfId="340" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="139" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="339" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="138" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I105">
-    <cfRule type="cellIs" dxfId="338" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="384" priority="137" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="337" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="136" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I107">
-    <cfRule type="cellIs" dxfId="336" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="382" priority="135" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="335" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="126" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="cellIs" dxfId="334" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="125" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="333" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="379" priority="124" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I109">
-    <cfRule type="cellIs" dxfId="332" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="123" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="331" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="122" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="cellIs" dxfId="330" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="121" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="329" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="120" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I111">
-    <cfRule type="cellIs" dxfId="328" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="119" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="327" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="118" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I112">
-    <cfRule type="cellIs" dxfId="326" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="117" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="325" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="cellIs" dxfId="324" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="111" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="323" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I114">
-    <cfRule type="cellIs" dxfId="322" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="321" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="cellIs" dxfId="320" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="366" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="319" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="104" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I113">
-    <cfRule type="cellIs" dxfId="318" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="103" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="317" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="363" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="cellIs" dxfId="316" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="362" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="315" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="100" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I118">
-    <cfRule type="cellIs" dxfId="314" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="99" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="313" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="359" priority="96" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I120">
-    <cfRule type="cellIs" dxfId="312" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="358" priority="95" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="311" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="94" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I119">
-    <cfRule type="cellIs" dxfId="310" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="93" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="309" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="355" priority="92" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="308" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="354" priority="91" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I88">
-    <cfRule type="cellIs" dxfId="307" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="90" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I89">
-    <cfRule type="cellIs" dxfId="306" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="89" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="305" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="351" priority="88" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="304" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="87" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="303" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I121">
-    <cfRule type="cellIs" dxfId="302" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="348" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="301" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I122">
-    <cfRule type="cellIs" dxfId="300" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="299" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="345" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="298" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="297" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I123">
-    <cfRule type="cellIs" dxfId="296" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="77" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="295" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="76" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="294" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="75" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="293" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="74" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I124">
-    <cfRule type="cellIs" dxfId="292" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="73" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="291" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="72" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="290" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="336" priority="71" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="289" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="70" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I125">
-    <cfRule type="cellIs" dxfId="288" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="287" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="286" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="285" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I126">
-    <cfRule type="cellIs" dxfId="284" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="283" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="282" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="281" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I127">
-    <cfRule type="cellIs" dxfId="280" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="279" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="32" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="278" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="31" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="277" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="323" priority="30" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I135">
-    <cfRule type="cellIs" dxfId="276" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="322" priority="29" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="275" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="28" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="274" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="27" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="273" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="319" priority="26" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I128">
-    <cfRule type="cellIs" dxfId="272" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="318" priority="25" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="271" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="24" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="270" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="23" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="269" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="315" priority="22" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I129">
-    <cfRule type="cellIs" dxfId="268" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="314" priority="21" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="267" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="20" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="266" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="19" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="265" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="311" priority="18" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I130">
-    <cfRule type="cellIs" dxfId="264" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="310" priority="17" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="263" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="262" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="261" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="307" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I131">
-    <cfRule type="cellIs" dxfId="260" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="306" priority="13" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="259" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="258" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="257" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="303" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I132">
-    <cfRule type="cellIs" dxfId="256" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="302" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="255" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="254" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="253" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="299" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I133">
-    <cfRule type="cellIs" dxfId="252" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="298" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="251" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="297" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="250" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="296" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="249" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="295" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I134">
-    <cfRule type="cellIs" dxfId="248" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="294" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17195,11 +17557,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V82"/>
+  <dimension ref="A1:V91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q23" sqref="Q23"/>
+    <sheetView zoomScale="104" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17270,12 +17632,12 @@
         <v>48</v>
       </c>
       <c r="Q1" s="20">
-        <f>SUM(A2:A82)</f>
-        <v>9778390</v>
+        <f>SUM(A2:A114)</f>
+        <v>9948780</v>
       </c>
       <c r="R1" s="76">
         <f>Q20</f>
-        <v>22719.460000000894</v>
+        <v>-218670.53999999911</v>
       </c>
       <c r="S1" s="76"/>
     </row>
@@ -17327,7 +17689,7 @@
         <v>58</v>
       </c>
       <c r="Q2" s="1">
-        <v>650000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17473,7 +17835,9 @@
       <c r="P5" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1">
+        <v>371000</v>
+      </c>
       <c r="R5" s="84">
         <v>86.6</v>
       </c>
@@ -17715,7 +18079,7 @@
     </row>
     <row r="10" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="83">
-        <f t="shared" ref="A10:A41" si="16">IF($E10=0,$M10,IF($E10=$I10,IF($M10-$G10&lt;0,0,IF($D10="set",$M10-$G10,FALSE)),($I10-$E10)*$J10))</f>
+        <f t="shared" ref="A10:A39" si="16">IF($E10=0,$M10,IF($E10=$I10,IF($M10-$G10&lt;0,0,IF($D10="set",$M10-$G10,FALSE)),($I10-$E10)*$J10))</f>
         <v>86130</v>
       </c>
       <c r="B10" s="75" t="s">
@@ -17822,7 +18186,7 @@
       </c>
       <c r="S11" s="51">
         <f>S12/20</f>
-        <v>47500</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -17875,20 +18239,20 @@
         <v>294</v>
       </c>
       <c r="Q12" s="67">
-        <f>550000+400000</f>
-        <v>950000</v>
+        <f>550000</f>
+        <v>550000</v>
       </c>
       <c r="R12" s="56"/>
       <c r="S12" s="56">
         <f>(Q12-R12)</f>
-        <v>950000</v>
+        <v>550000</v>
       </c>
       <c r="T12" s="51">
         <v>157.33000000000001</v>
       </c>
       <c r="U12" s="51">
         <f>S12/T12</f>
-        <v>6038.2635225322565</v>
+        <v>3495.8367762028852</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18023,7 +18387,7 @@
         <v>217</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>301</v>
@@ -18076,7 +18440,7 @@
         <v>217</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>301</v>
@@ -18118,7 +18482,7 @@
       </c>
       <c r="Q16" s="17">
         <f>Q2+SUM(Q3:Q14)+Q15+Q1</f>
-        <v>13477280.539999999</v>
+        <v>13718670.539999999</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18130,7 +18494,7 @@
         <v>217</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>301</v>
@@ -18172,7 +18536,7 @@
         <v>0</v>
       </c>
       <c r="U17" s="51">
-        <f>(SUM(U19:U35))*85.75</f>
+        <f>(SUM(U19:U34))*85.75</f>
         <v>0</v>
       </c>
       <c r="V17" s="51">
@@ -18189,7 +18553,7 @@
         <v>216</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>299</v>
@@ -18244,7 +18608,7 @@
     <row r="19" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="83">
         <f t="shared" si="16"/>
-        <v>210000</v>
+        <v>168000</v>
       </c>
       <c r="B19" s="75" t="s">
         <v>302</v>
@@ -18253,21 +18617,21 @@
         <v>229</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E19" s="93">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F19" s="93">
         <v>220000</v>
       </c>
       <c r="G19" s="53">
         <f t="shared" si="21"/>
-        <v>2200000</v>
+        <v>2640000</v>
       </c>
       <c r="H19" s="44" t="str">
         <f t="shared" si="17"/>
-        <v>10 qty Left</v>
+        <v>8 qty Left</v>
       </c>
       <c r="I19" s="52">
         <v>20</v>
@@ -18295,7 +18659,7 @@
         <v>216</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>299</v>
@@ -18337,7 +18701,7 @@
       </c>
       <c r="Q20" s="17">
         <f>Q18-Q16</f>
-        <v>22719.460000000894</v>
+        <v>-218670.53999999911</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -18349,7 +18713,7 @@
         <v>216</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>299</v>
@@ -18581,7 +18945,7 @@
         <v>217</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D26" s="52"/>
       <c r="E26" s="93">
@@ -18627,7 +18991,7 @@
         <v>23</v>
       </c>
       <c r="C27" s="53" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D27" s="52" t="s">
         <v>299</v>
@@ -18639,11 +19003,11 @@
         <v>180000</v>
       </c>
       <c r="G27" s="53">
-        <f t="shared" ref="G27:G33" si="22">F27*E27</f>
+        <f t="shared" ref="G27:G32" si="22">F27*E27</f>
         <v>0</v>
       </c>
       <c r="H27" s="44" t="str">
-        <f t="shared" ref="H27:H34" si="23">IF(E27=I27,"Out of Stock",I27-E27&amp;" qty Left")</f>
+        <f t="shared" ref="H27:H33" si="23">IF(E27=I27,"Out of Stock",I27-E27&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I27" s="52">
@@ -18654,11 +19018,11 @@
       </c>
       <c r="K27" s="52"/>
       <c r="L27" s="52">
-        <f t="shared" ref="L27:L34" si="24">(K27/I27)+J27</f>
+        <f t="shared" ref="L27:L33" si="24">(K27/I27)+J27</f>
         <v>127750</v>
       </c>
       <c r="M27" s="52">
-        <f t="shared" ref="M27:M34" si="25">(J27*I27)+K27</f>
+        <f t="shared" ref="M27:M33" si="25">(J27*I27)+K27</f>
         <v>127750</v>
       </c>
       <c r="O27" s="66"/>
@@ -18669,13 +19033,13 @@
     <row r="28" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="83">
         <f t="shared" si="16"/>
-        <v>31700</v>
+        <v>105000</v>
       </c>
       <c r="B28" s="75" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D28" s="52" t="s">
         <v>299</v>
@@ -18692,183 +19056,182 @@
       </c>
       <c r="H28" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>1 qty Left</v>
+        <v>7 qty Left</v>
       </c>
       <c r="I28" s="52">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J28" s="52">
-        <v>31700</v>
+        <v>15000</v>
       </c>
       <c r="K28" s="52"/>
       <c r="L28" s="52">
         <f t="shared" si="24"/>
-        <v>31700</v>
+        <v>15000</v>
       </c>
       <c r="M28" s="52">
         <f t="shared" si="25"/>
-        <v>31700</v>
+        <v>105000</v>
       </c>
       <c r="O28" s="66"/>
       <c r="P28" s="44"/>
-      <c r="Q28" s="77"/>
-      <c r="S28" s="63"/>
+      <c r="Q28" s="78"/>
     </row>
     <row r="29" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="83">
         <f t="shared" si="16"/>
-        <v>120000</v>
+        <v>152840</v>
       </c>
       <c r="B29" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="52" t="s">
-        <v>313</v>
-      </c>
-      <c r="D29" s="52" t="s">
-        <v>299</v>
+      <c r="C29" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>309</v>
       </c>
       <c r="E29" s="93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29" s="93">
         <v>220000</v>
       </c>
       <c r="G29" s="53">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="H29" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>8 qty Left</v>
+        <v>4 qty Left</v>
       </c>
       <c r="I29" s="52">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J29" s="52">
-        <v>15000</v>
-      </c>
-      <c r="K29" s="52"/>
+        <v>38210</v>
+      </c>
+      <c r="K29" s="52">
+        <v>36000</v>
+      </c>
       <c r="L29" s="52">
         <f t="shared" si="24"/>
-        <v>15000</v>
+        <v>44210</v>
       </c>
       <c r="M29" s="52">
         <f t="shared" si="25"/>
-        <v>120000</v>
+        <v>265260</v>
       </c>
       <c r="O29" s="66"/>
       <c r="P29" s="44"/>
-      <c r="Q29" s="78"/>
+      <c r="Q29" s="77"/>
     </row>
     <row r="30" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="83">
         <f t="shared" si="16"/>
-        <v>191050</v>
-      </c>
-      <c r="B30" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="53" t="s">
+        <v>269540</v>
+      </c>
+      <c r="B30" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="86" t="s">
         <v>311</v>
       </c>
       <c r="D30" s="53" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E30" s="93">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F30" s="93">
-        <v>220000</v>
+        <v>210000</v>
       </c>
       <c r="G30" s="53">
         <f t="shared" si="22"/>
-        <v>220000</v>
+        <v>1680000</v>
       </c>
       <c r="H30" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>5 qty Left</v>
+        <v>2 qty Left</v>
       </c>
       <c r="I30" s="52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J30" s="52">
-        <v>38210</v>
-      </c>
-      <c r="K30" s="52">
-        <v>36000</v>
-      </c>
+        <v>134770</v>
+      </c>
+      <c r="K30" s="52"/>
       <c r="L30" s="52">
         <f t="shared" si="24"/>
-        <v>44210</v>
+        <v>134770</v>
       </c>
       <c r="M30" s="52">
         <f t="shared" si="25"/>
-        <v>265260</v>
-      </c>
-      <c r="O30" s="66"/>
+        <v>1347700</v>
+      </c>
       <c r="P30" s="44"/>
-      <c r="Q30" s="77"/>
+      <c r="Q30" s="79"/>
     </row>
     <row r="31" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="83">
         <f t="shared" si="16"/>
-        <v>269540</v>
-      </c>
-      <c r="B31" s="85" t="s">
-        <v>219</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>312</v>
+        <v>42500</v>
+      </c>
+      <c r="B31" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="53" t="s">
+        <v>333</v>
       </c>
       <c r="D31" s="53" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E31" s="93">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F31" s="93">
-        <v>210000</v>
+        <v>220000</v>
       </c>
       <c r="G31" s="53">
         <f t="shared" si="22"/>
-        <v>1680000</v>
+        <v>0</v>
       </c>
       <c r="H31" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>2 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I31" s="52">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J31" s="52">
-        <v>134770</v>
-      </c>
-      <c r="K31" s="52"/>
+        <v>42500</v>
+      </c>
+      <c r="K31" s="52">
+        <v>0</v>
+      </c>
       <c r="L31" s="52">
         <f t="shared" si="24"/>
-        <v>134770</v>
+        <v>42500</v>
       </c>
       <c r="M31" s="52">
         <f t="shared" si="25"/>
-        <v>1347700</v>
-      </c>
-      <c r="P31" s="44"/>
+        <v>42500</v>
+      </c>
       <c r="Q31" s="79"/>
     </row>
     <row r="32" spans="1:22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="83">
         <f t="shared" si="16"/>
-        <v>42500</v>
+        <v>80000</v>
       </c>
       <c r="B32" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="53" t="s">
+      <c r="C32" s="52" t="s">
+        <v>367</v>
+      </c>
+      <c r="D32" s="53" t="s">
         <v>334</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>299</v>
       </c>
       <c r="E32" s="93">
         <v>0</v>
@@ -18882,132 +19245,132 @@
       </c>
       <c r="H32" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>1 qty Left</v>
+        <v>2 qty Left</v>
       </c>
       <c r="I32" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J32" s="52">
-        <v>42500</v>
+        <v>40000</v>
       </c>
       <c r="K32" s="52">
         <v>0</v>
       </c>
       <c r="L32" s="52">
         <f t="shared" si="24"/>
-        <v>42500</v>
+        <v>40000</v>
       </c>
       <c r="M32" s="52">
         <f t="shared" si="25"/>
-        <v>42500</v>
+        <v>80000</v>
       </c>
       <c r="Q32" s="79"/>
     </row>
     <row r="33" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="83">
         <f t="shared" si="16"/>
-        <v>80000</v>
+        <v>42000</v>
       </c>
       <c r="B33" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>370</v>
-      </c>
-      <c r="D33" s="53" t="s">
-        <v>335</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="D33" s="53"/>
       <c r="E33" s="93">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F33" s="93">
         <v>220000</v>
       </c>
       <c r="G33" s="53">
-        <f t="shared" si="22"/>
-        <v>0</v>
+        <f t="shared" ref="G33" si="26">F33*E33</f>
+        <v>1540000</v>
       </c>
       <c r="H33" s="44" t="str">
         <f t="shared" si="23"/>
-        <v>2 qty Left</v>
+        <v>1 qty Left</v>
       </c>
       <c r="I33" s="52">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J33" s="52">
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="K33" s="52">
         <v>0</v>
       </c>
       <c r="L33" s="52">
         <f t="shared" si="24"/>
-        <v>40000</v>
+        <v>42000</v>
       </c>
       <c r="M33" s="52">
         <f t="shared" si="25"/>
-        <v>80000</v>
+        <v>336000</v>
       </c>
       <c r="Q33" s="79"/>
     </row>
     <row r="34" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="83">
         <f t="shared" si="16"/>
-        <v>42000</v>
+        <v>130250</v>
       </c>
       <c r="B34" s="72" t="s">
-        <v>314</v>
+        <v>23</v>
       </c>
       <c r="C34" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="D34" s="53"/>
+        <v>332</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>299</v>
+      </c>
       <c r="E34" s="93">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F34" s="93">
         <v>220000</v>
       </c>
       <c r="G34" s="53">
-        <f t="shared" ref="G34" si="26">F34*E34</f>
-        <v>1540000</v>
+        <f t="shared" ref="G34:G35" si="27">F34*E34</f>
+        <v>0</v>
       </c>
       <c r="H34" s="44" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="H34:H35" si="28">IF(E34=I34,"Out of Stock",I34-E34&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I34" s="52">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J34" s="52">
-        <v>42000</v>
+        <v>130250</v>
       </c>
       <c r="K34" s="52">
         <v>0</v>
       </c>
       <c r="L34" s="52">
-        <f t="shared" si="24"/>
-        <v>42000</v>
+        <f t="shared" ref="L34:L35" si="29">(K34/I34)+J34</f>
+        <v>130250</v>
       </c>
       <c r="M34" s="52">
-        <f t="shared" si="25"/>
-        <v>336000</v>
+        <f t="shared" ref="M34:M35" si="30">(J34*I34)+K34</f>
+        <v>130250</v>
       </c>
       <c r="Q34" s="79"/>
     </row>
     <row r="35" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="83">
         <f t="shared" si="16"/>
-        <v>130250</v>
+        <v>280000</v>
       </c>
       <c r="B35" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>299</v>
+        <v>219</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="D35" s="52" t="s">
+        <v>298</v>
       </c>
       <c r="E35" s="93">
         <v>0</v>
@@ -19016,44 +19379,44 @@
         <v>220000</v>
       </c>
       <c r="G35" s="53">
-        <f t="shared" ref="G35:G37" si="27">F35*E35</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H35" s="44" t="str">
-        <f t="shared" ref="H35:H37" si="28">IF(E35=I35,"Out of Stock",I35-E35&amp;" qty Left")</f>
-        <v>1 qty Left</v>
+        <f t="shared" si="28"/>
+        <v>2 qty Left</v>
       </c>
       <c r="I35" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" s="52">
-        <v>130250</v>
+        <v>140000</v>
       </c>
       <c r="K35" s="52">
         <v>0</v>
       </c>
       <c r="L35" s="52">
-        <f t="shared" ref="L35:L37" si="29">(K35/I35)+J35</f>
-        <v>130250</v>
+        <f t="shared" si="29"/>
+        <v>140000</v>
       </c>
       <c r="M35" s="52">
-        <f t="shared" ref="M35:M37" si="30">(J35*I35)+K35</f>
-        <v>130250</v>
+        <f t="shared" si="30"/>
+        <v>280000</v>
       </c>
       <c r="Q35" s="79"/>
     </row>
     <row r="36" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="83">
         <f t="shared" si="16"/>
-        <v>142000</v>
+        <v>127910</v>
       </c>
       <c r="B36" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="D36" s="53" t="s">
+      <c r="C36" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="D36" s="52" t="s">
         <v>299</v>
       </c>
       <c r="E36" s="93">
@@ -19063,45 +19426,45 @@
         <v>220000</v>
       </c>
       <c r="G36" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="G36" si="31">F36*E36</f>
         <v>0</v>
       </c>
       <c r="H36" s="44" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="H36" si="32">IF(E36=I36,"Out of Stock",I36-E36&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I36" s="52">
         <v>1</v>
       </c>
       <c r="J36" s="52">
-        <v>142000</v>
+        <v>123410</v>
       </c>
       <c r="K36" s="52">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="L36" s="52">
-        <f t="shared" si="29"/>
-        <v>142000</v>
+        <f t="shared" ref="L36" si="33">(K36/I36)+J36</f>
+        <v>127910</v>
       </c>
       <c r="M36" s="52">
-        <f t="shared" si="30"/>
-        <v>142000</v>
+        <f t="shared" ref="M36" si="34">(J36*I36)+K36</f>
+        <v>127910</v>
       </c>
       <c r="Q36" s="79"/>
     </row>
     <row r="37" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="83">
         <f t="shared" si="16"/>
-        <v>280000</v>
+        <v>126300</v>
       </c>
       <c r="B37" s="72" t="s">
-        <v>219</v>
+        <v>23</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D37" s="52" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E37" s="93">
         <v>0</v>
@@ -19110,367 +19473,365 @@
         <v>220000</v>
       </c>
       <c r="G37" s="53">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="G37:G38" si="35">F37*E37</f>
         <v>0</v>
       </c>
       <c r="H37" s="44" t="str">
-        <f t="shared" si="28"/>
-        <v>2 qty Left</v>
+        <f t="shared" ref="H37:H38" si="36">IF(E37=I37,"Out of Stock",I37-E37&amp;" qty Left")</f>
+        <v>1 qty Left</v>
       </c>
       <c r="I37" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J37" s="52">
-        <v>140000</v>
+        <v>126300</v>
       </c>
       <c r="K37" s="52">
         <v>0</v>
       </c>
       <c r="L37" s="52">
-        <f t="shared" si="29"/>
-        <v>140000</v>
+        <f t="shared" ref="L37:L38" si="37">(K37/I37)+J37</f>
+        <v>126300</v>
       </c>
       <c r="M37" s="52">
-        <f t="shared" si="30"/>
-        <v>280000</v>
-      </c>
-      <c r="Q37" s="79"/>
+        <f t="shared" ref="M37:M38" si="38">(J37*I37)+K37</f>
+        <v>126300</v>
+      </c>
     </row>
     <row r="38" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="83">
         <f t="shared" si="16"/>
-        <v>127910</v>
-      </c>
-      <c r="B38" s="72" t="s">
-        <v>23</v>
+        <v>478000</v>
+      </c>
+      <c r="B38" s="75" t="s">
+        <v>218</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>343</v>
+        <v>28</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E38" s="93">
         <v>0</v>
       </c>
       <c r="F38" s="93">
-        <v>220000</v>
+        <v>75000</v>
       </c>
       <c r="G38" s="53">
-        <f t="shared" ref="G38" si="31">F38*E38</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="H38" s="44" t="str">
-        <f t="shared" ref="H38" si="32">IF(E38=I38,"Out of Stock",I38-E38&amp;" qty Left")</f>
-        <v>1 qty Left</v>
-      </c>
-      <c r="I38" s="52">
-        <v>1</v>
+        <f t="shared" si="36"/>
+        <v>10 qty Left</v>
+      </c>
+      <c r="I38" s="53">
+        <v>10</v>
       </c>
       <c r="J38" s="52">
-        <v>123410</v>
+        <v>47800</v>
       </c>
       <c r="K38" s="52">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="L38" s="52">
-        <f t="shared" ref="L38" si="33">(K38/I38)+J38</f>
-        <v>127910</v>
+        <f t="shared" si="37"/>
+        <v>47800</v>
       </c>
       <c r="M38" s="52">
-        <f t="shared" ref="M38" si="34">(J38*I38)+K38</f>
-        <v>127910</v>
-      </c>
-      <c r="Q38" s="79"/>
+        <f t="shared" si="38"/>
+        <v>478000</v>
+      </c>
     </row>
     <row r="39" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="83">
         <f t="shared" si="16"/>
-        <v>126300</v>
+        <v>280000</v>
       </c>
       <c r="B39" s="72" t="s">
-        <v>23</v>
+        <v>219</v>
       </c>
       <c r="C39" s="52" t="s">
         <v>344</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>292</v>
+        <v>347</v>
       </c>
       <c r="E39" s="93">
         <v>0</v>
       </c>
       <c r="F39" s="93">
-        <v>220000</v>
+        <v>140000</v>
       </c>
       <c r="G39" s="53">
-        <f t="shared" ref="G39:G40" si="35">F39*E39</f>
+        <f t="shared" ref="G39:G40" si="39">F39*E39</f>
         <v>0</v>
       </c>
       <c r="H39" s="44" t="str">
-        <f t="shared" ref="H39:H40" si="36">IF(E39=I39,"Out of Stock",I39-E39&amp;" qty Left")</f>
-        <v>1 qty Left</v>
+        <f t="shared" ref="H39:H40" si="40">IF(E39=I39,"Out of Stock",I39-E39&amp;" qty Left")</f>
+        <v>2 qty Left</v>
       </c>
       <c r="I39" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" s="52">
-        <v>126300</v>
+        <v>140000</v>
       </c>
       <c r="K39" s="52">
         <v>0</v>
       </c>
       <c r="L39" s="52">
-        <f t="shared" ref="L39:L40" si="37">(K39/I39)+J39</f>
-        <v>126300</v>
+        <f t="shared" ref="L39:L40" si="41">(K39/I39)+J39</f>
+        <v>140000</v>
       </c>
       <c r="M39" s="52">
-        <f t="shared" ref="M39:M40" si="38">(J39*I39)+K39</f>
-        <v>126300</v>
+        <f t="shared" ref="M39:M40" si="42">(J39*I39)+K39</f>
+        <v>280000</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="83">
-        <f t="shared" si="16"/>
-        <v>478000</v>
-      </c>
-      <c r="B40" s="75" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>28</v>
+        <f t="shared" ref="A40:A85" si="43">IF($E40=0,$M40,IF($E40=$I40,IF($M40-$G40&lt;0,0,IF($D40="set",$M40-$G40,FALSE)),($I40-$E40)*$J40))</f>
+        <v>150000</v>
+      </c>
+      <c r="B40" s="72" t="s">
+        <v>217</v>
+      </c>
+      <c r="C40" s="53" t="s">
+        <v>349</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E40" s="93">
         <v>0</v>
       </c>
       <c r="F40" s="93">
-        <v>75000</v>
+        <v>250000</v>
       </c>
       <c r="G40" s="53">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H40" s="44" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>10 qty Left</v>
       </c>
-      <c r="I40" s="53">
+      <c r="I40" s="52">
         <v>10</v>
       </c>
       <c r="J40" s="52">
-        <v>47800</v>
+        <v>15000</v>
       </c>
       <c r="K40" s="52">
         <v>0</v>
       </c>
       <c r="L40" s="52">
-        <f t="shared" si="37"/>
-        <v>47800</v>
+        <f t="shared" si="41"/>
+        <v>15000</v>
       </c>
       <c r="M40" s="52">
-        <f t="shared" si="38"/>
-        <v>478000</v>
+        <f t="shared" si="42"/>
+        <v>150000</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="83">
-        <f t="shared" si="16"/>
-        <v>280000</v>
+        <f t="shared" si="43"/>
+        <v>25000</v>
       </c>
       <c r="B41" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>346</v>
+        <v>216</v>
+      </c>
+      <c r="C41" s="53" t="s">
+        <v>345</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>349</v>
+        <v>293</v>
       </c>
       <c r="E41" s="93">
         <v>0</v>
       </c>
       <c r="F41" s="93">
-        <v>140000</v>
+        <v>250000</v>
       </c>
       <c r="G41" s="53">
-        <f t="shared" ref="G41:G42" si="39">F41*E41</f>
+        <f t="shared" ref="G41:G42" si="44">F41*E41</f>
         <v>0</v>
       </c>
       <c r="H41" s="44" t="str">
-        <f t="shared" ref="H41:H42" si="40">IF(E41=I41,"Out of Stock",I41-E41&amp;" qty Left")</f>
-        <v>2 qty Left</v>
+        <f t="shared" ref="H41:H42" si="45">IF(E41=I41,"Out of Stock",I41-E41&amp;" qty Left")</f>
+        <v>1 qty Left</v>
       </c>
       <c r="I41" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" s="52">
-        <v>140000</v>
+        <v>25000</v>
       </c>
       <c r="K41" s="52">
         <v>0</v>
       </c>
       <c r="L41" s="52">
-        <f t="shared" ref="L41:L42" si="41">(K41/I41)+J41</f>
-        <v>140000</v>
+        <f t="shared" ref="L41:L42" si="46">(K41/I41)+J41</f>
+        <v>25000</v>
       </c>
       <c r="M41" s="52">
-        <f t="shared" ref="M41:M42" si="42">(J41*I41)+K41</f>
-        <v>280000</v>
+        <f t="shared" ref="M41:M42" si="47">(J41*I41)+K41</f>
+        <v>25000</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="83">
-        <f t="shared" ref="A42:A75" si="43">IF($E42=0,$M42,IF($E42=$I42,IF($M42-$G42&lt;0,0,IF($D42="set",$M42-$G42,FALSE)),($I42-$E42)*$J42))</f>
-        <v>150000</v>
+        <f t="shared" si="43"/>
+        <v>121400</v>
       </c>
       <c r="B42" s="72" t="s">
-        <v>217</v>
-      </c>
-      <c r="C42" s="53" t="s">
-        <v>351</v>
+        <v>23</v>
+      </c>
+      <c r="C42" s="52" t="s">
+        <v>341</v>
       </c>
       <c r="D42" s="52" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E42" s="93">
         <v>0</v>
       </c>
       <c r="F42" s="93">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="G42" s="53">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="H42" s="44" t="str">
-        <f t="shared" si="40"/>
-        <v>10 qty Left</v>
+        <f t="shared" si="45"/>
+        <v>1 qty Left</v>
       </c>
       <c r="I42" s="52">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J42" s="52">
-        <v>15000</v>
+        <v>116900</v>
       </c>
       <c r="K42" s="52">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="L42" s="52">
-        <f t="shared" si="41"/>
-        <v>15000</v>
+        <f t="shared" si="46"/>
+        <v>121400</v>
       </c>
       <c r="M42" s="52">
-        <f t="shared" si="42"/>
-        <v>150000</v>
-      </c>
+        <f t="shared" si="47"/>
+        <v>121400</v>
+      </c>
+      <c r="R42" s="63"/>
+      <c r="S42" s="63"/>
     </row>
     <row r="43" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="83">
         <f t="shared" si="43"/>
-        <v>25000</v>
+        <v>122500</v>
       </c>
       <c r="B43" s="72" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="53" t="s">
-        <v>347</v>
+        <v>23</v>
+      </c>
+      <c r="C43" s="52" t="s">
+        <v>348</v>
       </c>
       <c r="D43" s="52" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E43" s="93">
         <v>0</v>
       </c>
       <c r="F43" s="93">
-        <v>250000</v>
+        <v>220000</v>
       </c>
       <c r="G43" s="53">
-        <f t="shared" ref="G43:G44" si="44">F43*E43</f>
+        <f t="shared" ref="G43" si="48">F43*E43</f>
         <v>0</v>
       </c>
       <c r="H43" s="44" t="str">
-        <f t="shared" ref="H43:H44" si="45">IF(E43=I43,"Out of Stock",I43-E43&amp;" qty Left")</f>
+        <f t="shared" ref="H43" si="49">IF(E43=I43,"Out of Stock",I43-E43&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I43" s="52">
         <v>1</v>
       </c>
       <c r="J43" s="52">
-        <v>25000</v>
+        <v>118000</v>
       </c>
       <c r="K43" s="52">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="L43" s="52">
-        <f t="shared" ref="L43:L44" si="46">(K43/I43)+J43</f>
-        <v>25000</v>
+        <f t="shared" ref="L43" si="50">(K43/I43)+J43</f>
+        <v>122500</v>
       </c>
       <c r="M43" s="52">
-        <f t="shared" ref="M43:M44" si="47">(J43*I43)+K43</f>
-        <v>25000</v>
+        <f t="shared" ref="M43" si="51">(J43*I43)+K43</f>
+        <v>122500</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="83">
         <f t="shared" si="43"/>
-        <v>121400</v>
-      </c>
-      <c r="B44" s="72" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>343</v>
+        <v>70000</v>
+      </c>
+      <c r="B44" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>350</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E44" s="93">
         <v>0</v>
       </c>
       <c r="F44" s="93">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="G44" s="53">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="G44" si="52">F44*E44</f>
         <v>0</v>
       </c>
       <c r="H44" s="44" t="str">
-        <f t="shared" si="45"/>
-        <v>1 qty Left</v>
+        <f t="shared" ref="H44" si="53">IF(E44=I44,"Out of Stock",I44-E44&amp;" qty Left")</f>
+        <v>2 qty Left</v>
       </c>
       <c r="I44" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" s="52">
-        <v>116900</v>
+        <v>35000</v>
       </c>
       <c r="K44" s="52">
-        <v>4500</v>
+        <v>0</v>
       </c>
       <c r="L44" s="52">
-        <f t="shared" si="46"/>
-        <v>121400</v>
+        <f t="shared" ref="L44" si="54">(K44/I44)+J44</f>
+        <v>35000</v>
       </c>
       <c r="M44" s="52">
-        <f t="shared" si="47"/>
-        <v>121400</v>
-      </c>
-      <c r="R44" s="63"/>
-      <c r="S44" s="63"/>
+        <f t="shared" ref="M44" si="55">(J44*I44)+K44</f>
+        <v>70000</v>
+      </c>
     </row>
     <row r="45" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="83">
         <f t="shared" si="43"/>
-        <v>122500</v>
-      </c>
-      <c r="B45" s="72" t="s">
+        <v>130650</v>
+      </c>
+      <c r="B45" s="75" t="s">
         <v>23</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D45" s="52" t="s">
         <v>299</v>
@@ -19479,183 +19840,183 @@
         <v>0</v>
       </c>
       <c r="F45" s="93">
-        <v>220000</v>
+        <v>250000</v>
       </c>
       <c r="G45" s="53">
-        <f t="shared" ref="G45" si="48">F45*E45</f>
+        <f t="shared" ref="G45:G47" si="56">F45*E45</f>
         <v>0</v>
       </c>
       <c r="H45" s="44" t="str">
-        <f t="shared" ref="H45" si="49">IF(E45=I45,"Out of Stock",I45-E45&amp;" qty Left")</f>
+        <f t="shared" ref="H45:H47" si="57">IF(E45=I45,"Out of Stock",I45-E45&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I45" s="52">
         <v>1</v>
       </c>
       <c r="J45" s="52">
-        <v>118000</v>
-      </c>
-      <c r="K45" s="52">
-        <v>4500</v>
-      </c>
+        <v>130650</v>
+      </c>
+      <c r="K45" s="52"/>
       <c r="L45" s="52">
-        <f t="shared" ref="L45" si="50">(K45/I45)+J45</f>
-        <v>122500</v>
+        <f t="shared" ref="L45:L47" si="58">(K45/I45)+J45</f>
+        <v>130650</v>
       </c>
       <c r="M45" s="52">
-        <f t="shared" ref="M45" si="51">(J45*I45)+K45</f>
-        <v>122500</v>
+        <f t="shared" ref="M45:M47" si="59">(J45*I45)+K45</f>
+        <v>130650</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="83">
         <f t="shared" si="43"/>
-        <v>70000</v>
+        <v>44900</v>
       </c>
       <c r="B46" s="75" t="s">
-        <v>219</v>
-      </c>
-      <c r="C46" s="53" t="s">
-        <v>352</v>
+        <v>216</v>
+      </c>
+      <c r="C46" s="52" t="s">
+        <v>351</v>
       </c>
       <c r="D46" s="52" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="E46" s="93">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F46" s="93">
-        <v>250000</v>
+        <v>55000</v>
       </c>
       <c r="G46" s="53">
-        <f t="shared" ref="G46" si="52">F46*E46</f>
-        <v>0</v>
+        <f t="shared" si="56"/>
+        <v>165000</v>
       </c>
       <c r="H46" s="44" t="str">
-        <f t="shared" ref="H46" si="53">IF(E46=I46,"Out of Stock",I46-E46&amp;" qty Left")</f>
-        <v>2 qty Left</v>
+        <f t="shared" si="57"/>
+        <v>1 qty Left</v>
       </c>
       <c r="I46" s="52">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J46" s="52">
-        <v>35000</v>
+        <v>44900</v>
       </c>
       <c r="K46" s="52">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L46" s="52">
-        <f t="shared" ref="L46" si="54">(K46/I46)+J46</f>
-        <v>35000</v>
+        <f t="shared" si="58"/>
+        <v>47400</v>
       </c>
       <c r="M46" s="52">
-        <f t="shared" ref="M46" si="55">(J46*I46)+K46</f>
-        <v>70000</v>
+        <f t="shared" si="59"/>
+        <v>189600</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="83">
         <f t="shared" si="43"/>
-        <v>130650</v>
+        <v>684000</v>
       </c>
       <c r="B47" s="75" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C47" s="52" t="s">
         <v>354</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E47" s="93">
         <v>0</v>
       </c>
       <c r="F47" s="93">
-        <v>250000</v>
+        <v>75000</v>
       </c>
       <c r="G47" s="53">
-        <f t="shared" ref="G47:G49" si="56">F47*E47</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="H47" s="44" t="str">
-        <f t="shared" ref="H47:H49" si="57">IF(E47=I47,"Out of Stock",I47-E47&amp;" qty Left")</f>
-        <v>1 qty Left</v>
-      </c>
-      <c r="I47" s="52">
-        <v>1</v>
+        <f t="shared" si="57"/>
+        <v>20 qty Left</v>
+      </c>
+      <c r="I47" s="53">
+        <v>20</v>
       </c>
       <c r="J47" s="52">
-        <v>130650</v>
-      </c>
-      <c r="K47" s="52"/>
+        <v>34200</v>
+      </c>
+      <c r="K47" s="52">
+        <v>0</v>
+      </c>
       <c r="L47" s="52">
-        <f t="shared" ref="L47:L49" si="58">(K47/I47)+J47</f>
-        <v>130650</v>
+        <f t="shared" si="58"/>
+        <v>34200</v>
       </c>
       <c r="M47" s="52">
-        <f t="shared" ref="M47:M49" si="59">(J47*I47)+K47</f>
-        <v>130650</v>
+        <f t="shared" si="59"/>
+        <v>684000</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="83">
         <f t="shared" si="43"/>
-        <v>189600</v>
-      </c>
-      <c r="B48" s="75" t="s">
-        <v>216</v>
+        <v>40000</v>
+      </c>
+      <c r="B48" s="52" t="s">
+        <v>271</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="E48" s="93">
         <v>0</v>
       </c>
       <c r="F48" s="93">
-        <v>250000</v>
+        <v>75000</v>
       </c>
       <c r="G48" s="53">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="G48:G49" si="60">F48*E48</f>
         <v>0</v>
       </c>
       <c r="H48" s="44" t="str">
-        <f t="shared" si="57"/>
-        <v>4 qty Left</v>
+        <f t="shared" ref="H48:H49" si="61">IF(E48=I48,"Out of Stock",I48-E48&amp;" qty Left")</f>
+        <v>2 qty Left</v>
       </c>
       <c r="I48" s="52">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J48" s="52">
-        <v>44900</v>
+        <v>20000</v>
       </c>
       <c r="K48" s="52">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L48" s="52">
-        <f t="shared" si="58"/>
-        <v>47400</v>
+        <f t="shared" ref="L48:L49" si="62">(K48/I48)+J48</f>
+        <v>20000</v>
       </c>
       <c r="M48" s="52">
-        <f t="shared" si="59"/>
-        <v>189600</v>
+        <f t="shared" ref="M48:M49" si="63">(J48*I48)+K48</f>
+        <v>40000</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="83">
         <f t="shared" si="43"/>
-        <v>684000</v>
-      </c>
-      <c r="B49" s="75" t="s">
-        <v>19</v>
+        <v>30000</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>271</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E49" s="93">
         <v>0</v>
@@ -19664,41 +20025,41 @@
         <v>75000</v>
       </c>
       <c r="G49" s="53">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="H49" s="44" t="str">
-        <f t="shared" si="57"/>
-        <v>20 qty Left</v>
-      </c>
-      <c r="I49" s="53">
-        <v>20</v>
+        <f t="shared" si="61"/>
+        <v>3 qty Left</v>
+      </c>
+      <c r="I49" s="52">
+        <v>3</v>
       </c>
       <c r="J49" s="52">
-        <v>34200</v>
+        <v>10000</v>
       </c>
       <c r="K49" s="52">
         <v>0</v>
       </c>
       <c r="L49" s="52">
-        <f t="shared" si="58"/>
-        <v>34200</v>
+        <f t="shared" si="62"/>
+        <v>10000</v>
       </c>
       <c r="M49" s="52">
-        <f t="shared" si="59"/>
-        <v>684000</v>
+        <f t="shared" si="63"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="83">
         <f t="shared" si="43"/>
-        <v>40000</v>
+        <v>55000</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D50" s="52" t="s">
         <v>293</v>
@@ -19710,38 +20071,38 @@
         <v>75000</v>
       </c>
       <c r="G50" s="53">
-        <f t="shared" ref="G50:G51" si="60">F50*E50</f>
+        <f t="shared" ref="G50" si="64">F50*E50</f>
         <v>0</v>
       </c>
       <c r="H50" s="44" t="str">
-        <f t="shared" ref="H50:H51" si="61">IF(E50=I50,"Out of Stock",I50-E50&amp;" qty Left")</f>
-        <v>2 qty Left</v>
+        <f t="shared" ref="H50" si="65">IF(E50=I50,"Out of Stock",I50-E50&amp;" qty Left")</f>
+        <v>1 qty Left</v>
       </c>
       <c r="I50" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" s="52">
-        <v>20000</v>
+        <v>55000</v>
       </c>
       <c r="K50" s="52">
         <v>0</v>
       </c>
       <c r="L50" s="52">
-        <f t="shared" ref="L50:L51" si="62">(K50/I50)+J50</f>
-        <v>20000</v>
+        <f t="shared" ref="L50" si="66">(K50/I50)+J50</f>
+        <v>55000</v>
       </c>
       <c r="M50" s="52">
-        <f t="shared" ref="M50:M51" si="63">(J50*I50)+K50</f>
-        <v>40000</v>
+        <f t="shared" ref="M50" si="67">(J50*I50)+K50</f>
+        <v>55000</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="83">
         <f t="shared" si="43"/>
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="B51" s="52" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="C51" s="52" t="s">
         <v>363</v>
@@ -19756,15 +20117,15 @@
         <v>75000</v>
       </c>
       <c r="G51" s="53">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="G51" si="68">F51*E51</f>
         <v>0</v>
       </c>
       <c r="H51" s="44" t="str">
-        <f t="shared" si="61"/>
-        <v>3 qty Left</v>
+        <f t="shared" ref="H51" si="69">IF(E51=I51,"Out of Stock",I51-E51&amp;" qty Left")</f>
+        <v>2 qty Left</v>
       </c>
       <c r="I51" s="52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51" s="52">
         <v>10000</v>
@@ -19773,24 +20134,24 @@
         <v>0</v>
       </c>
       <c r="L51" s="52">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="L51" si="70">(K51/I51)+J51</f>
         <v>10000</v>
       </c>
       <c r="M51" s="52">
-        <f t="shared" si="63"/>
-        <v>30000</v>
+        <f t="shared" ref="M51" si="71">(J51*I51)+K51</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="83">
         <f t="shared" si="43"/>
-        <v>60000</v>
+        <v>75000</v>
       </c>
       <c r="B52" s="52" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="D52" s="52" t="s">
         <v>293</v>
@@ -19802,41 +20163,41 @@
         <v>75000</v>
       </c>
       <c r="G52" s="53">
-        <f t="shared" ref="G52:G53" si="64">F52*E52</f>
+        <f t="shared" ref="G52:G56" si="72">F52*E52</f>
         <v>0</v>
       </c>
       <c r="H52" s="44" t="str">
-        <f t="shared" ref="H52:H53" si="65">IF(E52=I52,"Out of Stock",I52-E52&amp;" qty Left")</f>
-        <v>2 qty Left</v>
+        <f t="shared" ref="H52:H56" si="73">IF(E52=I52,"Out of Stock",I52-E52&amp;" qty Left")</f>
+        <v>1 qty Left</v>
       </c>
       <c r="I52" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J52" s="52">
-        <v>30000</v>
+        <v>75000</v>
       </c>
       <c r="K52" s="52">
         <v>0</v>
       </c>
       <c r="L52" s="52">
-        <f t="shared" ref="L52:L53" si="66">(K52/I52)+J52</f>
-        <v>30000</v>
+        <f t="shared" ref="L52:L56" si="74">(K52/I52)+J52</f>
+        <v>75000</v>
       </c>
       <c r="M52" s="52">
-        <f t="shared" ref="M52:M53" si="67">(J52*I52)+K52</f>
-        <v>60000</v>
+        <f t="shared" ref="M52:M56" si="75">(J52*I52)+K52</f>
+        <v>75000</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="83">
         <f t="shared" si="43"/>
-        <v>55000</v>
+        <v>240000</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>19</v>
+        <v>357</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="D53" s="52" t="s">
         <v>293</v>
@@ -19848,41 +20209,41 @@
         <v>75000</v>
       </c>
       <c r="G53" s="53">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="H53" s="44" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1 qty Left</v>
       </c>
       <c r="I53" s="52">
         <v>1</v>
       </c>
       <c r="J53" s="52">
-        <v>55000</v>
+        <v>240000</v>
       </c>
       <c r="K53" s="52">
         <v>0</v>
       </c>
       <c r="L53" s="52">
-        <f t="shared" si="66"/>
-        <v>55000</v>
+        <f t="shared" si="74"/>
+        <v>240000</v>
       </c>
       <c r="M53" s="52">
-        <f t="shared" si="67"/>
-        <v>55000</v>
+        <f t="shared" si="75"/>
+        <v>240000</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="83">
         <f t="shared" si="43"/>
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>367</v>
+        <v>123</v>
       </c>
       <c r="D54" s="52" t="s">
         <v>293</v>
@@ -19894,41 +20255,41 @@
         <v>75000</v>
       </c>
       <c r="G54" s="53">
-        <f t="shared" ref="G54" si="68">F54*E54</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="H54" s="44" t="str">
-        <f t="shared" ref="H54" si="69">IF(E54=I54,"Out of Stock",I54-E54&amp;" qty Left")</f>
+        <f t="shared" si="73"/>
         <v>1 qty Left</v>
       </c>
       <c r="I54" s="52">
         <v>1</v>
       </c>
       <c r="J54" s="52">
-        <v>55000</v>
+        <v>30000</v>
       </c>
       <c r="K54" s="52">
         <v>0</v>
       </c>
       <c r="L54" s="52">
-        <f t="shared" ref="L54" si="70">(K54/I54)+J54</f>
-        <v>55000</v>
+        <f t="shared" si="74"/>
+        <v>30000</v>
       </c>
       <c r="M54" s="52">
-        <f t="shared" ref="M54" si="71">(J54*I54)+K54</f>
-        <v>55000</v>
+        <f t="shared" si="75"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="83">
         <f t="shared" si="43"/>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="D55" s="52" t="s">
         <v>293</v>
@@ -19940,75 +20301,75 @@
         <v>75000</v>
       </c>
       <c r="G55" s="53">
-        <f t="shared" ref="G55" si="72">F55*E55</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="H55" s="44" t="str">
-        <f t="shared" ref="H55" si="73">IF(E55=I55,"Out of Stock",I55-E55&amp;" qty Left")</f>
-        <v>2 qty Left</v>
+        <f t="shared" si="73"/>
+        <v>1 qty Left</v>
       </c>
       <c r="I55" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" s="52">
-        <v>10000</v>
+        <v>30000</v>
       </c>
       <c r="K55" s="52">
         <v>0</v>
       </c>
       <c r="L55" s="52">
-        <f t="shared" ref="L55" si="74">(K55/I55)+J55</f>
-        <v>10000</v>
+        <f t="shared" si="74"/>
+        <v>30000</v>
       </c>
       <c r="M55" s="52">
-        <f t="shared" ref="M55" si="75">(J55*I55)+K55</f>
-        <v>20000</v>
+        <f t="shared" si="75"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="83">
         <f t="shared" si="43"/>
-        <v>75000</v>
-      </c>
-      <c r="B56" s="52" t="s">
-        <v>219</v>
+        <v>110000</v>
+      </c>
+      <c r="B56" s="72" t="s">
+        <v>218</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E56" s="93">
         <v>0</v>
       </c>
       <c r="F56" s="93">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="G56" s="53">
-        <f t="shared" ref="G56:G60" si="76">F56*E56</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="H56" s="44" t="str">
-        <f t="shared" ref="H56:H60" si="77">IF(E56=I56,"Out of Stock",I56-E56&amp;" qty Left")</f>
-        <v>1 qty Left</v>
+        <f t="shared" si="73"/>
+        <v>2 qty Left</v>
       </c>
       <c r="I56" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J56" s="52">
-        <v>75000</v>
+        <v>55000</v>
       </c>
       <c r="K56" s="52">
         <v>0</v>
       </c>
       <c r="L56" s="52">
-        <f t="shared" ref="L56:L60" si="78">(K56/I56)+J56</f>
-        <v>75000</v>
+        <f t="shared" si="74"/>
+        <v>55000</v>
       </c>
       <c r="M56" s="52">
-        <f t="shared" ref="M56:M60" si="79">(J56*I56)+K56</f>
-        <v>75000</v>
+        <f t="shared" si="75"/>
+        <v>110000</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -20017,56 +20378,56 @@
         <v>240000</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D57" s="52" t="s">
         <v>293</v>
       </c>
       <c r="E57" s="93">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F57" s="93">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="G57" s="53">
-        <f t="shared" si="76"/>
-        <v>0</v>
+        <f t="shared" ref="G57" si="76">F57*E57</f>
+        <v>450000</v>
       </c>
       <c r="H57" s="44" t="str">
-        <f t="shared" si="77"/>
-        <v>1 qty Left</v>
+        <f t="shared" ref="H57" si="77">IF(E57=I57,"Out of Stock",I57-E57&amp;" qty Left")</f>
+        <v>16 qty Left</v>
       </c>
       <c r="I57" s="52">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="J57" s="52">
-        <v>240000</v>
+        <v>15000</v>
       </c>
       <c r="K57" s="52">
         <v>0</v>
       </c>
       <c r="L57" s="52">
-        <f t="shared" si="78"/>
-        <v>240000</v>
+        <f t="shared" ref="L57" si="78">(K57/I57)+J57</f>
+        <v>15000</v>
       </c>
       <c r="M57" s="52">
-        <f t="shared" si="79"/>
-        <v>240000</v>
+        <f t="shared" ref="M57" si="79">(J57*I57)+K57</f>
+        <v>510000</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="83">
         <f t="shared" si="43"/>
-        <v>30000</v>
-      </c>
-      <c r="B58" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>123</v>
+        <v>70000</v>
+      </c>
+      <c r="B58" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C58" s="97" t="s">
+        <v>350</v>
       </c>
       <c r="D58" s="52" t="s">
         <v>293</v>
@@ -20075,44 +20436,44 @@
         <v>0</v>
       </c>
       <c r="F58" s="93">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="G58" s="53">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="G58:G64" si="80">F58*E58</f>
         <v>0</v>
       </c>
       <c r="H58" s="44" t="str">
-        <f t="shared" si="77"/>
-        <v>1 qty Left</v>
+        <f t="shared" ref="H58:H64" si="81">IF(E58=I58,"Out of Stock",I58-E58&amp;" qty Left")</f>
+        <v>2 qty Left</v>
       </c>
       <c r="I58" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J58" s="52">
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="K58" s="52">
         <v>0</v>
       </c>
       <c r="L58" s="52">
-        <f t="shared" si="78"/>
-        <v>30000</v>
+        <f t="shared" ref="L58:L64" si="82">(K58/I58)+J58</f>
+        <v>35000</v>
       </c>
       <c r="M58" s="52">
-        <f t="shared" si="79"/>
-        <v>30000</v>
+        <f t="shared" ref="M58:M64" si="83">(J58*I58)+K58</f>
+        <v>70000</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="83">
         <f t="shared" si="43"/>
-        <v>30000</v>
-      </c>
-      <c r="B59" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="52" t="s">
-        <v>361</v>
+        <v>60000</v>
+      </c>
+      <c r="B59" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="97" t="s">
+        <v>370</v>
       </c>
       <c r="D59" s="52" t="s">
         <v>293</v>
@@ -20121,228 +20482,228 @@
         <v>0</v>
       </c>
       <c r="F59" s="93">
-        <v>75000</v>
+        <v>25000</v>
       </c>
       <c r="G59" s="53">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="H59" s="44" t="str">
-        <f t="shared" si="77"/>
-        <v>1 qty Left</v>
+        <f t="shared" si="81"/>
+        <v>4 qty Left</v>
       </c>
       <c r="I59" s="52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J59" s="52">
-        <v>30000</v>
+        <v>15000</v>
       </c>
       <c r="K59" s="52">
         <v>0</v>
       </c>
       <c r="L59" s="52">
-        <f t="shared" si="78"/>
-        <v>30000</v>
+        <f t="shared" si="82"/>
+        <v>15000</v>
       </c>
       <c r="M59" s="52">
-        <f t="shared" si="79"/>
-        <v>30000</v>
+        <f t="shared" si="83"/>
+        <v>60000</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="83">
         <f t="shared" si="43"/>
-        <v>110000</v>
-      </c>
-      <c r="B60" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C60" s="52" t="s">
-        <v>369</v>
+        <v>30000</v>
+      </c>
+      <c r="B60" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="97" t="s">
+        <v>371</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E60" s="93">
         <v>0</v>
       </c>
       <c r="F60" s="93">
-        <v>55000</v>
+        <v>25000</v>
       </c>
       <c r="G60" s="53">
-        <f t="shared" si="76"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="H60" s="44" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="81"/>
         <v>2 qty Left</v>
       </c>
       <c r="I60" s="52">
         <v>2</v>
       </c>
       <c r="J60" s="52">
-        <v>55000</v>
+        <v>15000</v>
       </c>
       <c r="K60" s="52">
         <v>0</v>
       </c>
       <c r="L60" s="52">
-        <f t="shared" si="78"/>
-        <v>55000</v>
+        <f t="shared" si="82"/>
+        <v>15000</v>
       </c>
       <c r="M60" s="52">
-        <f t="shared" si="79"/>
-        <v>110000</v>
+        <f t="shared" si="83"/>
+        <v>30000</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="83">
         <f t="shared" si="43"/>
-        <v>420000</v>
-      </c>
-      <c r="B61" s="52" t="s">
-        <v>371</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>351</v>
+        <v>10000</v>
+      </c>
+      <c r="B61" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="97" t="s">
+        <v>372</v>
       </c>
       <c r="D61" s="52" t="s">
         <v>293</v>
       </c>
       <c r="E61" s="93">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F61" s="93">
         <v>25000</v>
       </c>
       <c r="G61" s="53">
-        <f t="shared" ref="G61" si="80">F61*E61</f>
-        <v>150000</v>
+        <f t="shared" si="80"/>
+        <v>0</v>
       </c>
       <c r="H61" s="44" t="str">
-        <f t="shared" ref="H61" si="81">IF(E61=I61,"Out of Stock",I61-E61&amp;" qty Left")</f>
-        <v>28 qty Left</v>
+        <f t="shared" si="81"/>
+        <v>1 qty Left</v>
       </c>
       <c r="I61" s="52">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="J61" s="52">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="K61" s="52">
         <v>0</v>
       </c>
       <c r="L61" s="52">
-        <f t="shared" ref="L61" si="82">(K61/I61)+J61</f>
-        <v>15000</v>
+        <f t="shared" si="82"/>
+        <v>10000</v>
       </c>
       <c r="M61" s="52">
-        <f t="shared" ref="M61" si="83">(J61*I61)+K61</f>
-        <v>510000</v>
+        <f t="shared" si="83"/>
+        <v>10000</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="83">
+      <c r="A62" s="83" t="b">
         <f t="shared" si="43"/>
-        <v>70000</v>
-      </c>
-      <c r="B62" s="72" t="s">
-        <v>219</v>
-      </c>
-      <c r="C62" s="97" t="s">
-        <v>352</v>
+        <v>0</v>
+      </c>
+      <c r="B62" s="103" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="100" t="s">
+        <v>242</v>
       </c>
       <c r="D62" s="52" t="s">
         <v>293</v>
       </c>
       <c r="E62" s="93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F62" s="93">
         <v>25000</v>
       </c>
       <c r="G62" s="53">
-        <f t="shared" ref="G62:G68" si="84">F62*E62</f>
-        <v>0</v>
+        <f t="shared" si="80"/>
+        <v>25000</v>
       </c>
       <c r="H62" s="44" t="str">
-        <f t="shared" ref="H62:H68" si="85">IF(E62=I62,"Out of Stock",I62-E62&amp;" qty Left")</f>
-        <v>2 qty Left</v>
+        <f t="shared" si="81"/>
+        <v>Out of Stock</v>
       </c>
       <c r="I62" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" s="52">
-        <v>35000</v>
+        <v>40000</v>
       </c>
       <c r="K62" s="52">
         <v>0</v>
       </c>
       <c r="L62" s="52">
-        <f t="shared" ref="L62:L68" si="86">(K62/I62)+J62</f>
-        <v>35000</v>
+        <f t="shared" si="82"/>
+        <v>40000</v>
       </c>
       <c r="M62" s="52">
-        <f t="shared" ref="M62:M68" si="87">(J62*I62)+K62</f>
-        <v>70000</v>
+        <f t="shared" si="83"/>
+        <v>40000</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="83">
         <f t="shared" si="43"/>
-        <v>60000</v>
+        <v>20000</v>
       </c>
       <c r="B63" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="97" t="s">
         <v>373</v>
       </c>
+      <c r="C63" s="52" t="s">
+        <v>383</v>
+      </c>
       <c r="D63" s="52" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="E63" s="93">
         <v>0</v>
       </c>
       <c r="F63" s="93">
-        <v>25000</v>
+        <v>55000</v>
       </c>
       <c r="G63" s="53">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="H63" s="44" t="str">
-        <f t="shared" si="85"/>
-        <v>4 qty Left</v>
+        <f t="shared" si="81"/>
+        <v>1 qty Left</v>
       </c>
       <c r="I63" s="52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J63" s="52">
-        <v>15000</v>
+        <v>20000</v>
       </c>
       <c r="K63" s="52">
         <v>0</v>
       </c>
       <c r="L63" s="52">
-        <f t="shared" si="86"/>
-        <v>15000</v>
+        <f t="shared" si="82"/>
+        <v>20000</v>
       </c>
       <c r="M63" s="52">
-        <f t="shared" si="87"/>
-        <v>60000</v>
+        <f t="shared" si="83"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="83">
         <f t="shared" si="43"/>
-        <v>30000</v>
-      </c>
-      <c r="B64" s="103" t="s">
-        <v>216</v>
-      </c>
-      <c r="C64" s="97" t="s">
-        <v>374</v>
+        <v>85000</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>356</v>
       </c>
       <c r="D64" s="52" t="s">
         <v>293</v>
@@ -20351,136 +20712,136 @@
         <v>0</v>
       </c>
       <c r="F64" s="93">
-        <v>25000</v>
+        <v>105000</v>
       </c>
       <c r="G64" s="53">
-        <f t="shared" si="84"/>
+        <f t="shared" si="80"/>
         <v>0</v>
       </c>
       <c r="H64" s="44" t="str">
-        <f t="shared" si="85"/>
-        <v>2 qty Left</v>
+        <f t="shared" si="81"/>
+        <v>1 qty Left</v>
       </c>
       <c r="I64" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" s="52">
-        <v>15000</v>
+        <v>85000</v>
       </c>
       <c r="K64" s="52">
         <v>0</v>
       </c>
       <c r="L64" s="52">
-        <f t="shared" si="86"/>
-        <v>15000</v>
+        <f t="shared" si="82"/>
+        <v>85000</v>
       </c>
       <c r="M64" s="52">
-        <f t="shared" si="87"/>
-        <v>30000</v>
+        <f t="shared" si="83"/>
+        <v>85000</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="83">
         <f t="shared" si="43"/>
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="B65" s="103" t="s">
-        <v>21</v>
-      </c>
-      <c r="C65" s="97" t="s">
-        <v>375</v>
+        <v>242</v>
+      </c>
+      <c r="C65" s="100" t="s">
+        <v>350</v>
       </c>
       <c r="D65" s="52" t="s">
         <v>293</v>
       </c>
       <c r="E65" s="93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F65" s="93">
-        <v>25000</v>
+        <v>42000</v>
       </c>
       <c r="G65" s="53">
-        <f t="shared" si="84"/>
-        <v>0</v>
+        <f t="shared" ref="G65:G67" si="84">F65*E65</f>
+        <v>42000</v>
       </c>
       <c r="H65" s="44" t="str">
-        <f t="shared" si="85"/>
-        <v>1 qty Left</v>
+        <f t="shared" ref="H65:H67" si="85">IF(E65=I65,"Out of Stock",I65-E65&amp;" qty Left")</f>
+        <v>Out of Stock</v>
       </c>
       <c r="I65" s="52">
         <v>1</v>
       </c>
       <c r="J65" s="52">
-        <v>10000</v>
+        <v>35000</v>
       </c>
       <c r="K65" s="52">
         <v>0</v>
       </c>
       <c r="L65" s="52">
-        <f t="shared" si="86"/>
-        <v>10000</v>
+        <f t="shared" ref="L65:L67" si="86">(K65/I65)+J65</f>
+        <v>35000</v>
       </c>
       <c r="M65" s="52">
-        <f t="shared" si="87"/>
-        <v>10000</v>
+        <f t="shared" ref="M65:M67" si="87">(J65*I65)+K65</f>
+        <v>35000</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="83" t="b">
+      <c r="A66" s="83">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="B66" s="103" t="s">
         <v>242</v>
       </c>
       <c r="C66" s="100" t="s">
-        <v>242</v>
+        <v>375</v>
       </c>
       <c r="D66" s="52" t="s">
         <v>293</v>
       </c>
       <c r="E66" s="93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="93">
         <v>25000</v>
       </c>
       <c r="G66" s="53">
         <f t="shared" si="84"/>
-        <v>25000</v>
+        <v>0</v>
       </c>
       <c r="H66" s="44" t="str">
         <f t="shared" si="85"/>
-        <v>Out of Stock</v>
+        <v>3 qty Left</v>
       </c>
       <c r="I66" s="52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J66" s="52">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="K66" s="52">
         <v>0</v>
       </c>
       <c r="L66" s="52">
         <f t="shared" si="86"/>
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="M66" s="52">
         <f t="shared" si="87"/>
-        <v>40000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="83">
         <f t="shared" si="43"/>
-        <v>20000</v>
+        <v>100000</v>
       </c>
       <c r="B67" s="72" t="s">
-        <v>376</v>
+        <v>218</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>386</v>
+        <v>366</v>
       </c>
       <c r="D67" s="52" t="s">
         <v>298</v>
@@ -20497,1600 +20858,2277 @@
       </c>
       <c r="H67" s="44" t="str">
         <f t="shared" si="85"/>
-        <v>1 qty Left</v>
+        <v>2 qty Left</v>
       </c>
       <c r="I67" s="52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" s="52">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="K67" s="52">
         <v>0</v>
       </c>
       <c r="L67" s="52">
         <f t="shared" si="86"/>
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="M67" s="52">
         <f t="shared" si="87"/>
-        <v>20000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="83">
         <f t="shared" si="43"/>
-        <v>85000</v>
-      </c>
-      <c r="B68" s="52" t="s">
+        <v>180000</v>
+      </c>
+      <c r="B68" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="C68" s="52" t="s">
-        <v>358</v>
-      </c>
-      <c r="D68" s="52" t="s">
+      <c r="C68" s="100" t="s">
+        <v>381</v>
+      </c>
+      <c r="D68" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="E68" s="93">
-        <v>0</v>
-      </c>
-      <c r="F68" s="93">
-        <v>105000</v>
-      </c>
-      <c r="G68" s="53">
-        <f t="shared" si="84"/>
+      <c r="E68" s="106">
+        <v>0</v>
+      </c>
+      <c r="F68" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G68" s="107">
+        <f t="shared" ref="G68" si="88">F68*E68</f>
         <v>0</v>
       </c>
       <c r="H68" s="44" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="H68" si="89">IF(E68=I68,"Out of Stock",I68-E68&amp;" qty Left")</f>
         <v>1 qty Left</v>
       </c>
       <c r="I68" s="52">
         <v>1</v>
       </c>
       <c r="J68" s="52">
-        <v>85000</v>
+        <v>180000</v>
       </c>
       <c r="K68" s="52">
         <v>0</v>
       </c>
       <c r="L68" s="52">
-        <f t="shared" si="86"/>
-        <v>85000</v>
+        <f t="shared" ref="L68" si="90">(K68/I68)+J68</f>
+        <v>180000</v>
       </c>
       <c r="M68" s="52">
-        <f t="shared" si="87"/>
-        <v>85000</v>
+        <f t="shared" ref="M68" si="91">(J68*I68)+K68</f>
+        <v>180000</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="83">
         <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="B69" s="103" t="s">
-        <v>242</v>
+        <v>130000</v>
+      </c>
+      <c r="B69" s="104" t="s">
+        <v>23</v>
       </c>
       <c r="C69" s="100" t="s">
-        <v>352</v>
-      </c>
-      <c r="D69" s="52" t="s">
+        <v>382</v>
+      </c>
+      <c r="D69" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="E69" s="93">
-        <v>1</v>
-      </c>
-      <c r="F69" s="93">
-        <v>42000</v>
-      </c>
-      <c r="G69" s="53">
-        <f t="shared" ref="G69:G71" si="88">F69*E69</f>
-        <v>42000</v>
+      <c r="E69" s="106">
+        <v>0</v>
+      </c>
+      <c r="F69" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G69" s="107">
+        <f t="shared" ref="G69" si="92">F69*E69</f>
+        <v>0</v>
       </c>
       <c r="H69" s="44" t="str">
-        <f t="shared" ref="H69:H71" si="89">IF(E69=I69,"Out of Stock",I69-E69&amp;" qty Left")</f>
-        <v>Out of Stock</v>
+        <f t="shared" ref="H69" si="93">IF(E69=I69,"Out of Stock",I69-E69&amp;" qty Left")</f>
+        <v>1 qty Left</v>
       </c>
       <c r="I69" s="52">
         <v>1</v>
       </c>
       <c r="J69" s="52">
-        <v>35000</v>
+        <v>130000</v>
       </c>
       <c r="K69" s="52">
         <v>0</v>
       </c>
       <c r="L69" s="52">
-        <f t="shared" ref="L69:L71" si="90">(K69/I69)+J69</f>
-        <v>35000</v>
+        <f t="shared" ref="L69" si="94">(K69/I69)+J69</f>
+        <v>130000</v>
       </c>
       <c r="M69" s="52">
-        <f t="shared" ref="M69:M71" si="91">(J69*I69)+K69</f>
-        <v>35000</v>
+        <f t="shared" ref="M69" si="95">(J69*I69)+K69</f>
+        <v>130000</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="83">
         <f t="shared" si="43"/>
-        <v>60000</v>
-      </c>
-      <c r="B70" s="103" t="s">
-        <v>242</v>
+        <v>346600</v>
+      </c>
+      <c r="B70" s="104" t="s">
+        <v>23</v>
       </c>
       <c r="C70" s="100" t="s">
-        <v>378</v>
-      </c>
-      <c r="D70" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="E70" s="93">
-        <v>0</v>
-      </c>
-      <c r="F70" s="93">
+        <v>386</v>
+      </c>
+      <c r="D70" s="101" t="s">
+        <v>299</v>
+      </c>
+      <c r="E70" s="106">
+        <v>0</v>
+      </c>
+      <c r="F70" s="106">
         <v>25000</v>
       </c>
-      <c r="G70" s="53">
-        <f t="shared" si="88"/>
+      <c r="G70" s="107">
+        <f t="shared" ref="G70:G71" si="96">F70*E70</f>
         <v>0</v>
       </c>
       <c r="H70" s="44" t="str">
-        <f t="shared" si="89"/>
-        <v>3 qty Left</v>
+        <f t="shared" ref="H70:H71" si="97">IF(E70=I70,"Out of Stock",I70-E70&amp;" qty Left")</f>
+        <v>1 qty Left</v>
       </c>
       <c r="I70" s="52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J70" s="52">
-        <v>20000</v>
+        <v>346600</v>
       </c>
       <c r="K70" s="52">
         <v>0</v>
       </c>
       <c r="L70" s="52">
-        <f t="shared" si="90"/>
-        <v>20000</v>
+        <f t="shared" ref="L70:L71" si="98">(K70/I70)+J70</f>
+        <v>346600</v>
       </c>
       <c r="M70" s="52">
-        <f t="shared" si="91"/>
-        <v>60000</v>
+        <f t="shared" ref="M70:M71" si="99">(J70*I70)+K70</f>
+        <v>346600</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="83">
         <f t="shared" si="43"/>
-        <v>100000</v>
-      </c>
-      <c r="B71" s="72" t="s">
-        <v>218</v>
-      </c>
-      <c r="C71" s="52" t="s">
-        <v>369</v>
-      </c>
-      <c r="D71" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="E71" s="93">
-        <v>0</v>
-      </c>
-      <c r="F71" s="93">
-        <v>55000</v>
-      </c>
-      <c r="G71" s="53">
-        <f t="shared" si="88"/>
+        <v>226800</v>
+      </c>
+      <c r="B71" s="104" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="100" t="s">
+        <v>387</v>
+      </c>
+      <c r="D71" s="101" t="s">
+        <v>299</v>
+      </c>
+      <c r="E71" s="106">
+        <v>0</v>
+      </c>
+      <c r="F71" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G71" s="107">
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="H71" s="44" t="str">
-        <f t="shared" si="89"/>
-        <v>2 qty Left</v>
+        <f t="shared" si="97"/>
+        <v>1 qty Left</v>
       </c>
       <c r="I71" s="52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J71" s="52">
-        <v>50000</v>
+        <v>226800</v>
       </c>
       <c r="K71" s="52">
         <v>0</v>
       </c>
       <c r="L71" s="52">
-        <f t="shared" si="90"/>
-        <v>50000</v>
+        <f t="shared" si="98"/>
+        <v>226800</v>
       </c>
       <c r="M71" s="52">
-        <f t="shared" si="91"/>
-        <v>100000</v>
+        <f t="shared" si="99"/>
+        <v>226800</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="83">
         <f t="shared" si="43"/>
-        <v>180000</v>
-      </c>
-      <c r="B72" s="105" t="s">
-        <v>219</v>
+        <v>120000</v>
+      </c>
+      <c r="B72" s="103" t="s">
+        <v>19</v>
       </c>
       <c r="C72" s="100" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="D72" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="E72" s="112">
-        <v>0</v>
-      </c>
-      <c r="F72" s="112">
+      <c r="E72" s="106">
+        <v>0</v>
+      </c>
+      <c r="F72" s="106">
         <v>25000</v>
       </c>
-      <c r="G72" s="113">
-        <f t="shared" ref="G72" si="92">F72*E72</f>
+      <c r="G72" s="107">
+        <f t="shared" ref="G72:G73" si="100">F72*E72</f>
         <v>0</v>
       </c>
       <c r="H72" s="44" t="str">
-        <f t="shared" ref="H72" si="93">IF(E72=I72,"Out of Stock",I72-E72&amp;" qty Left")</f>
-        <v>1 qty Left</v>
+        <f t="shared" ref="H72:H73" si="101">IF(E72=I72,"Out of Stock",I72-E72&amp;" qty Left")</f>
+        <v>4 qty Left</v>
       </c>
       <c r="I72" s="52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J72" s="52">
-        <v>180000</v>
+        <v>30000</v>
       </c>
       <c r="K72" s="52">
         <v>0</v>
       </c>
       <c r="L72" s="52">
-        <f t="shared" ref="L72" si="94">(K72/I72)+J72</f>
-        <v>180000</v>
+        <f t="shared" ref="L72:L73" si="102">(K72/I72)+J72</f>
+        <v>30000</v>
       </c>
       <c r="M72" s="52">
-        <f t="shared" ref="M72" si="95">(J72*I72)+K72</f>
-        <v>180000</v>
+        <f t="shared" ref="M72:M73" si="103">(J72*I72)+K72</f>
+        <v>120000</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="83">
         <f t="shared" si="43"/>
-        <v>130000</v>
-      </c>
-      <c r="B73" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="100" t="s">
-        <v>385</v>
+        <v>35000</v>
+      </c>
+      <c r="B73" s="103" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="97" t="s">
+        <v>350</v>
       </c>
       <c r="D73" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="E73" s="112">
-        <v>0</v>
-      </c>
-      <c r="F73" s="112">
+      <c r="E73" s="106">
+        <v>0</v>
+      </c>
+      <c r="F73" s="106">
         <v>25000</v>
       </c>
-      <c r="G73" s="113">
-        <f t="shared" ref="G73" si="96">F73*E73</f>
+      <c r="G73" s="107">
+        <f t="shared" si="100"/>
         <v>0</v>
       </c>
       <c r="H73" s="44" t="str">
-        <f t="shared" ref="H73" si="97">IF(E73=I73,"Out of Stock",I73-E73&amp;" qty Left")</f>
+        <f t="shared" si="101"/>
         <v>1 qty Left</v>
       </c>
       <c r="I73" s="52">
         <v>1</v>
       </c>
       <c r="J73" s="52">
-        <v>130000</v>
+        <v>35000</v>
       </c>
       <c r="K73" s="52">
         <v>0</v>
       </c>
       <c r="L73" s="52">
-        <f t="shared" ref="L73" si="98">(K73/I73)+J73</f>
-        <v>130000</v>
+        <f t="shared" si="102"/>
+        <v>35000</v>
       </c>
       <c r="M73" s="52">
-        <f t="shared" ref="M73" si="99">(J73*I73)+K73</f>
-        <v>130000</v>
+        <f t="shared" si="103"/>
+        <v>35000</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="83">
         <f t="shared" si="43"/>
-        <v>346600</v>
-      </c>
-      <c r="B74" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74" s="100" t="s">
-        <v>389</v>
+        <v>20000</v>
+      </c>
+      <c r="B74" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="C74" s="119" t="s">
+        <v>395</v>
       </c>
       <c r="D74" s="101" t="s">
-        <v>299</v>
-      </c>
-      <c r="E74" s="112">
-        <v>0</v>
-      </c>
-      <c r="F74" s="112">
+        <v>293</v>
+      </c>
+      <c r="E74" s="106">
+        <v>0</v>
+      </c>
+      <c r="F74" s="106">
         <v>25000</v>
       </c>
-      <c r="G74" s="113">
-        <f t="shared" ref="G74:G75" si="100">F74*E74</f>
+      <c r="G74" s="107">
+        <f t="shared" ref="G74:G85" si="104">F74*E74</f>
         <v>0</v>
       </c>
       <c r="H74" s="44" t="str">
-        <f t="shared" ref="H74:H75" si="101">IF(E74=I74,"Out of Stock",I74-E74&amp;" qty Left")</f>
-        <v>1 qty Left</v>
-      </c>
-      <c r="I74" s="52">
-        <v>1</v>
-      </c>
-      <c r="J74" s="52">
-        <v>346600</v>
+        <f t="shared" ref="H74:H85" si="105">IF(E74=I74,"Out of Stock",I74-E74&amp;" qty Left")</f>
+        <v>2 qty Left</v>
+      </c>
+      <c r="I74" s="53">
+        <v>2</v>
+      </c>
+      <c r="J74" s="53">
+        <v>10000</v>
       </c>
       <c r="K74" s="52">
         <v>0</v>
       </c>
       <c r="L74" s="52">
-        <f t="shared" ref="L74:L75" si="102">(K74/I74)+J74</f>
-        <v>346600</v>
+        <f t="shared" ref="L74:L85" si="106">(K74/I74)+J74</f>
+        <v>10000</v>
       </c>
       <c r="M74" s="52">
-        <f t="shared" ref="M74:M75" si="103">(J74*I74)+K74</f>
-        <v>346600</v>
+        <f t="shared" ref="M74:M85" si="107">(J74*I74)+K74</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="83">
         <f t="shared" si="43"/>
-        <v>226800</v>
-      </c>
-      <c r="B75" s="105" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75" s="100" t="s">
-        <v>390</v>
+        <v>25000</v>
+      </c>
+      <c r="B75" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="119" t="s">
+        <v>396</v>
       </c>
       <c r="D75" s="101" t="s">
-        <v>299</v>
-      </c>
-      <c r="E75" s="112">
-        <v>0</v>
-      </c>
-      <c r="F75" s="112">
+        <v>293</v>
+      </c>
+      <c r="E75" s="106">
+        <v>0</v>
+      </c>
+      <c r="F75" s="106">
         <v>25000</v>
       </c>
-      <c r="G75" s="113">
-        <f t="shared" si="100"/>
+      <c r="G75" s="107">
+        <f t="shared" si="104"/>
         <v>0</v>
       </c>
       <c r="H75" s="44" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="105"/>
         <v>1 qty Left</v>
       </c>
-      <c r="I75" s="52">
-        <v>1</v>
-      </c>
-      <c r="J75" s="52">
-        <v>226800</v>
+      <c r="I75" s="53">
+        <v>1</v>
+      </c>
+      <c r="J75" s="53">
+        <v>25000</v>
       </c>
       <c r="K75" s="52">
         <v>0</v>
       </c>
       <c r="L75" s="52">
-        <f t="shared" si="102"/>
-        <v>226800</v>
+        <f t="shared" si="106"/>
+        <v>25000</v>
       </c>
       <c r="M75" s="52">
-        <f t="shared" si="103"/>
-        <v>226800</v>
+        <f t="shared" si="107"/>
+        <v>25000</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="103"/>
-      <c r="C76" s="104"/>
-      <c r="D76" s="53"/>
-      <c r="E76" s="104"/>
-      <c r="F76" s="104"/>
-      <c r="G76" s="104"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="52"/>
-      <c r="K76" s="52"/>
-      <c r="L76" s="52"/>
-      <c r="M76" s="52"/>
+      <c r="A76" s="83">
+        <f t="shared" si="43"/>
+        <v>30000</v>
+      </c>
+      <c r="B76" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="119" t="s">
+        <v>370</v>
+      </c>
+      <c r="D76" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E76" s="106">
+        <v>0</v>
+      </c>
+      <c r="F76" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G76" s="107">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="44" t="str">
+        <f t="shared" si="105"/>
+        <v>2 qty Left</v>
+      </c>
+      <c r="I76" s="53">
+        <v>2</v>
+      </c>
+      <c r="J76" s="53">
+        <v>15000</v>
+      </c>
+      <c r="K76" s="52">
+        <v>0</v>
+      </c>
+      <c r="L76" s="52">
+        <f t="shared" si="106"/>
+        <v>15000</v>
+      </c>
+      <c r="M76" s="52">
+        <f t="shared" si="107"/>
+        <v>30000</v>
+      </c>
     </row>
     <row r="77" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="103"/>
-      <c r="C77" s="104"/>
-      <c r="D77" s="53"/>
-      <c r="E77" s="104"/>
-      <c r="F77" s="104"/>
-      <c r="G77" s="104"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="52"/>
-      <c r="L77" s="52"/>
-      <c r="M77" s="52"/>
+      <c r="A77" s="83">
+        <f t="shared" si="43"/>
+        <v>30000</v>
+      </c>
+      <c r="B77" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="119" t="s">
+        <v>362</v>
+      </c>
+      <c r="D77" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E77" s="106">
+        <v>0</v>
+      </c>
+      <c r="F77" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G77" s="107">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="44" t="str">
+        <f t="shared" si="105"/>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I77" s="53">
+        <v>1</v>
+      </c>
+      <c r="J77" s="53">
+        <v>30000</v>
+      </c>
+      <c r="K77" s="52">
+        <v>0</v>
+      </c>
+      <c r="L77" s="52">
+        <f t="shared" si="106"/>
+        <v>30000</v>
+      </c>
+      <c r="M77" s="52">
+        <f t="shared" si="107"/>
+        <v>30000</v>
+      </c>
     </row>
     <row r="78" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="103"/>
-      <c r="C78" s="104"/>
-      <c r="D78" s="53"/>
-      <c r="E78" s="104"/>
-      <c r="F78" s="104"/>
-      <c r="G78" s="104"/>
-      <c r="I78" s="52"/>
-      <c r="J78" s="52"/>
-      <c r="K78" s="52"/>
-      <c r="L78" s="52"/>
-      <c r="M78" s="52"/>
+      <c r="A78" s="83">
+        <f t="shared" si="43"/>
+        <v>44000</v>
+      </c>
+      <c r="B78" s="85" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D78" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E78" s="106">
+        <v>0</v>
+      </c>
+      <c r="F78" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G78" s="107">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="44" t="str">
+        <f t="shared" si="105"/>
+        <v>4 qty Left</v>
+      </c>
+      <c r="I78" s="53">
+        <v>4</v>
+      </c>
+      <c r="J78" s="53">
+        <v>11000</v>
+      </c>
+      <c r="K78" s="52">
+        <v>0</v>
+      </c>
+      <c r="L78" s="52">
+        <f t="shared" si="106"/>
+        <v>11000</v>
+      </c>
+      <c r="M78" s="52">
+        <f t="shared" si="107"/>
+        <v>44000</v>
+      </c>
     </row>
     <row r="79" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="103"/>
-      <c r="C79" s="104"/>
-      <c r="D79" s="53"/>
-      <c r="E79" s="104"/>
-      <c r="F79" s="104"/>
-      <c r="G79" s="104"/>
-      <c r="I79" s="52"/>
-      <c r="J79" s="52"/>
-      <c r="K79" s="52"/>
-      <c r="L79" s="52"/>
-      <c r="M79" s="52"/>
+      <c r="A79" s="83">
+        <f t="shared" si="43"/>
+        <v>25000</v>
+      </c>
+      <c r="B79" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E79" s="106">
+        <v>0</v>
+      </c>
+      <c r="F79" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G79" s="107">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="44" t="str">
+        <f t="shared" si="105"/>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I79" s="53">
+        <v>1</v>
+      </c>
+      <c r="J79" s="53">
+        <v>25000</v>
+      </c>
+      <c r="K79" s="52">
+        <v>0</v>
+      </c>
+      <c r="L79" s="52">
+        <f t="shared" si="106"/>
+        <v>25000</v>
+      </c>
+      <c r="M79" s="52">
+        <f t="shared" si="107"/>
+        <v>25000</v>
+      </c>
     </row>
     <row r="80" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="103"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="53"/>
-      <c r="E80" s="104"/>
-      <c r="F80" s="104"/>
-      <c r="G80" s="104"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="52"/>
-      <c r="L80" s="52"/>
-      <c r="M80" s="52"/>
-    </row>
-    <row r="81" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="103"/>
-      <c r="C81" s="104"/>
-      <c r="D81" s="53"/>
-      <c r="E81" s="104"/>
-      <c r="F81" s="104"/>
-      <c r="G81" s="104"/>
-      <c r="I81" s="52"/>
-      <c r="J81" s="52"/>
-      <c r="K81" s="52"/>
-      <c r="L81" s="52"/>
-      <c r="M81" s="52"/>
-    </row>
-    <row r="82" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="105"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="53"/>
-      <c r="E82" s="106"/>
-      <c r="F82" s="106"/>
-      <c r="G82" s="106"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="52"/>
-      <c r="L82" s="52"/>
-      <c r="M82" s="52"/>
+      <c r="A80" s="83">
+        <f t="shared" si="43"/>
+        <v>10000</v>
+      </c>
+      <c r="B80" s="72" t="s">
+        <v>271</v>
+      </c>
+      <c r="C80" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="D80" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E80" s="106">
+        <v>0</v>
+      </c>
+      <c r="F80" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G80" s="107">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="44" t="str">
+        <f t="shared" si="105"/>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I80" s="53">
+        <v>1</v>
+      </c>
+      <c r="J80" s="53">
+        <v>10000</v>
+      </c>
+      <c r="K80" s="52">
+        <v>0</v>
+      </c>
+      <c r="L80" s="52">
+        <f t="shared" si="106"/>
+        <v>10000</v>
+      </c>
+      <c r="M80" s="52">
+        <f t="shared" si="107"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="83">
+        <f t="shared" si="43"/>
+        <v>105000</v>
+      </c>
+      <c r="B81" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C81" s="119" t="s">
+        <v>391</v>
+      </c>
+      <c r="D81" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E81" s="106">
+        <v>0</v>
+      </c>
+      <c r="F81" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G81" s="107">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="44" t="str">
+        <f t="shared" si="105"/>
+        <v>3 qty Left</v>
+      </c>
+      <c r="I81" s="53">
+        <v>3</v>
+      </c>
+      <c r="J81" s="53">
+        <v>35000</v>
+      </c>
+      <c r="K81" s="52">
+        <v>0</v>
+      </c>
+      <c r="L81" s="52">
+        <f t="shared" si="106"/>
+        <v>35000</v>
+      </c>
+      <c r="M81" s="52">
+        <f t="shared" si="107"/>
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="83">
+        <f t="shared" si="43"/>
+        <v>30000</v>
+      </c>
+      <c r="B82" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C82" s="120" t="s">
+        <v>392</v>
+      </c>
+      <c r="D82" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E82" s="106">
+        <v>0</v>
+      </c>
+      <c r="F82" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G82" s="107">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="44" t="str">
+        <f t="shared" si="105"/>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I82" s="122">
+        <v>1</v>
+      </c>
+      <c r="J82" s="122">
+        <v>30000</v>
+      </c>
+      <c r="K82" s="52">
+        <v>0</v>
+      </c>
+      <c r="L82" s="52">
+        <f t="shared" si="106"/>
+        <v>30000</v>
+      </c>
+      <c r="M82" s="52">
+        <f t="shared" si="107"/>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="83">
+        <f t="shared" si="43"/>
+        <v>100000</v>
+      </c>
+      <c r="B83" s="72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C83" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="D83" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E83" s="106">
+        <v>0</v>
+      </c>
+      <c r="F83" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G83" s="107">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="44" t="str">
+        <f t="shared" si="105"/>
+        <v>5 qty Left</v>
+      </c>
+      <c r="I83" s="53">
+        <v>5</v>
+      </c>
+      <c r="J83" s="53">
+        <v>20000</v>
+      </c>
+      <c r="K83" s="52">
+        <v>0</v>
+      </c>
+      <c r="L83" s="52">
+        <f t="shared" si="106"/>
+        <v>20000</v>
+      </c>
+      <c r="M83" s="52">
+        <f t="shared" si="107"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="83">
+        <f t="shared" si="43"/>
+        <v>15000</v>
+      </c>
+      <c r="B84" s="72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="D84" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E84" s="106">
+        <v>0</v>
+      </c>
+      <c r="F84" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G84" s="107">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="44" t="str">
+        <f t="shared" si="105"/>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I84" s="53">
+        <v>1</v>
+      </c>
+      <c r="J84" s="53">
+        <v>15000</v>
+      </c>
+      <c r="K84" s="52">
+        <v>0</v>
+      </c>
+      <c r="L84" s="52">
+        <f t="shared" si="106"/>
+        <v>15000</v>
+      </c>
+      <c r="M84" s="52">
+        <f t="shared" si="107"/>
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="83">
+        <f t="shared" si="43"/>
+        <v>290000</v>
+      </c>
+      <c r="B85" s="72" t="s">
+        <v>373</v>
+      </c>
+      <c r="C85" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="E85" s="106">
+        <v>0</v>
+      </c>
+      <c r="F85" s="106">
+        <v>25000</v>
+      </c>
+      <c r="G85" s="107">
+        <f t="shared" si="104"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="44" t="str">
+        <f t="shared" si="105"/>
+        <v>1 qty Left</v>
+      </c>
+      <c r="I85" s="53">
+        <v>1</v>
+      </c>
+      <c r="J85" s="53">
+        <v>290000</v>
+      </c>
+      <c r="K85" s="52">
+        <v>0</v>
+      </c>
+      <c r="L85" s="52">
+        <f t="shared" si="106"/>
+        <v>290000</v>
+      </c>
+      <c r="M85" s="52">
+        <f t="shared" si="107"/>
+        <v>290000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="72"/>
+      <c r="C86" s="53"/>
+      <c r="D86" s="101"/>
+      <c r="E86" s="53"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="52"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="52"/>
+    </row>
+    <row r="87" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="72"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="101"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="53"/>
+      <c r="G87" s="53"/>
+      <c r="I87" s="52"/>
+      <c r="J87" s="52"/>
+      <c r="K87" s="52"/>
+      <c r="L87" s="52"/>
+      <c r="M87" s="52"/>
+    </row>
+    <row r="88" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="72"/>
+      <c r="C88" s="53"/>
+      <c r="D88" s="53"/>
+      <c r="E88" s="53"/>
+      <c r="F88" s="53"/>
+      <c r="G88" s="53"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="52"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="52"/>
+    </row>
+    <row r="89" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="72"/>
+      <c r="C89" s="53"/>
+      <c r="D89" s="53"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+      <c r="G89" s="53"/>
+      <c r="I89" s="52"/>
+      <c r="J89" s="52"/>
+      <c r="K89" s="52"/>
+      <c r="L89" s="52"/>
+      <c r="M89" s="52"/>
+    </row>
+    <row r="90" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="72"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53"/>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+    </row>
+    <row r="91" spans="1:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="85"/>
+      <c r="C91" s="107"/>
+      <c r="D91" s="53"/>
+      <c r="E91" s="107"/>
+      <c r="F91" s="107"/>
+      <c r="G91" s="107"/>
+      <c r="I91" s="52"/>
+      <c r="J91" s="52"/>
+      <c r="K91" s="52"/>
+      <c r="L91" s="52"/>
+      <c r="M91" s="52"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="247" priority="423" operator="equal">
+    <cfRule type="cellIs" dxfId="293" priority="479" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="246" priority="422" operator="equal">
+    <cfRule type="cellIs" dxfId="292" priority="478" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="245" priority="429" operator="equal">
+    <cfRule type="cellIs" dxfId="291" priority="485" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="244" priority="424" operator="equal">
+    <cfRule type="cellIs" dxfId="290" priority="480" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="243" priority="421" operator="equal">
+    <cfRule type="cellIs" dxfId="289" priority="477" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="242" priority="404" operator="equal">
+    <cfRule type="cellIs" dxfId="288" priority="460" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="cellIs" dxfId="241" priority="403" operator="equal">
+    <cfRule type="cellIs" dxfId="287" priority="459" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="240" priority="392" operator="equal">
+    <cfRule type="cellIs" dxfId="286" priority="448" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" dxfId="239" priority="391" operator="equal">
+    <cfRule type="cellIs" dxfId="285" priority="447" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="238" priority="390" operator="equal">
+    <cfRule type="cellIs" dxfId="284" priority="446" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="cellIs" dxfId="237" priority="389" operator="equal">
+    <cfRule type="cellIs" dxfId="283" priority="445" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="236" priority="382" operator="equal">
+    <cfRule type="cellIs" dxfId="282" priority="438" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="235" priority="381" operator="equal">
+    <cfRule type="cellIs" dxfId="281" priority="437" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="234" priority="378" operator="equal">
+    <cfRule type="cellIs" dxfId="280" priority="434" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" dxfId="233" priority="377" operator="equal">
+    <cfRule type="cellIs" dxfId="279" priority="433" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="232" priority="370" operator="equal">
+    <cfRule type="cellIs" dxfId="278" priority="426" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" dxfId="231" priority="369" operator="equal">
+    <cfRule type="cellIs" dxfId="277" priority="425" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="276" priority="424" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="cellIs" dxfId="275" priority="423" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="230" priority="368" operator="equal">
+    <cfRule type="cellIs" dxfId="274" priority="420" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="cellIs" dxfId="229" priority="367" operator="equal">
+    <cfRule type="cellIs" dxfId="273" priority="419" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="272" priority="400" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="cellIs" dxfId="271" priority="399" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="270" priority="398" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="269" priority="397" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="cellIs" dxfId="268" priority="384" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H33">
+    <cfRule type="cellIs" dxfId="267" priority="383" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" dxfId="266" priority="370" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H34">
+    <cfRule type="cellIs" dxfId="265" priority="369" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="228" priority="364" operator="equal">
+    <cfRule type="cellIs" dxfId="264" priority="356" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="cellIs" dxfId="227" priority="363" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="226" priority="344" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="225" priority="343" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="224" priority="342" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H33">
-    <cfRule type="cellIs" dxfId="223" priority="341" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="355" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="222" priority="328" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="340" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="cellIs" dxfId="221" priority="327" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="339" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="260" priority="317" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="259" priority="315" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="258" priority="318" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="257" priority="316" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="256" priority="312" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="255" priority="311" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="220" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="292" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="219" priority="313" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="218" priority="300" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H31">
-    <cfRule type="cellIs" dxfId="217" priority="299" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="291" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="216" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="290" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="cellIs" dxfId="215" priority="283" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="289" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="cellIs" dxfId="250" priority="524" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="214" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="521" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="248" priority="518" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="247" priority="523" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="cellIs" dxfId="246" priority="519" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="245" priority="513" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="213" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="516" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="243" priority="514" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="242" priority="507" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="241" priority="508" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="240" priority="509" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="cellIs" dxfId="239" priority="510" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="238" priority="500" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="cellIs" dxfId="237" priority="499" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="236" priority="488" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="235" priority="487" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="234" priority="498" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="cellIs" dxfId="233" priority="497" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="212" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="496" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="211" priority="260" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="210" priority="256" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="209" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="495" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="230" priority="492" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="229" priority="491" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="cellIs" dxfId="228" priority="486" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="227" priority="476" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="226" priority="475" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="225" priority="472" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="224" priority="471" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="223" priority="468" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="cellIs" dxfId="222" priority="467" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="221" priority="466" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="220" priority="465" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="219" priority="464" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="cellIs" dxfId="218" priority="463" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="217" priority="450" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="cellIs" dxfId="216" priority="449" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="duplicateValues" dxfId="215" priority="444"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="duplicateValues" dxfId="214" priority="443"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="duplicateValues" dxfId="213" priority="442"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="duplicateValues" dxfId="212" priority="441"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="duplicateValues" dxfId="211" priority="440"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="duplicateValues" dxfId="210" priority="439"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="209" priority="310" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="208" priority="309" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="208" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="264" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="207" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="263" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="206" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="262" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="cellIs" dxfId="205" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="261" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="204" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="260" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="203" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="259" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="202" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="258" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="201" priority="233" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="200" priority="468" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="199" priority="465" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="257" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="199" priority="252" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H38">
+    <cfRule type="cellIs" dxfId="198" priority="251" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="197" priority="232" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="196" priority="231" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="195" priority="230" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="194" priority="229" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="193" priority="214" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="192" priority="213" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="191" priority="212" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H40">
+    <cfRule type="cellIs" dxfId="190" priority="211" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="189" priority="210" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="188" priority="209" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="187" priority="208" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41">
+    <cfRule type="cellIs" dxfId="186" priority="207" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="cellIs" dxfId="185" priority="202" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="cellIs" dxfId="184" priority="201" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="cellIs" dxfId="183" priority="200" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="cellIs" dxfId="182" priority="199" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="181" priority="194" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="180" priority="193" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="179" priority="192" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H43">
+    <cfRule type="cellIs" dxfId="178" priority="191" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" dxfId="177" priority="182" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" dxfId="176" priority="181" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" dxfId="175" priority="180" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" dxfId="174" priority="179" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="173" priority="170" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="172" priority="169" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="171" priority="168" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" dxfId="170" priority="167" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="169" priority="166" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="168" priority="165" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="167" priority="164" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="cellIs" dxfId="166" priority="163" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="165" priority="162" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H47">
+    <cfRule type="cellIs" dxfId="164" priority="161" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="cellIs" dxfId="163" priority="160" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="cellIs" dxfId="162" priority="159" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="161" priority="158" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H49">
+    <cfRule type="cellIs" dxfId="160" priority="157" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="159" priority="106" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" dxfId="158" priority="105" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="157" priority="104" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H62">
+    <cfRule type="cellIs" dxfId="156" priority="103" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="155" priority="150" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H51">
+    <cfRule type="cellIs" dxfId="154" priority="149" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="153" priority="148" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="152" priority="147" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="151" priority="144" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="150" priority="143" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="149" priority="142" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="148" priority="141" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="147" priority="140" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="cellIs" dxfId="146" priority="139" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="145" priority="138" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="cellIs" dxfId="144" priority="137" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="143" priority="134" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H53">
+    <cfRule type="cellIs" dxfId="142" priority="133" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="141" priority="132" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="cellIs" dxfId="140" priority="131" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="139" priority="130" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H55">
+    <cfRule type="cellIs" dxfId="138" priority="129" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="137" priority="128" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="136" priority="127" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="135" priority="126" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H56">
+    <cfRule type="cellIs" dxfId="134" priority="125" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="133" priority="123" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="132" priority="124" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="131" priority="122" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H57">
+    <cfRule type="cellIs" dxfId="130" priority="121" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="129" priority="119" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="128" priority="120" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="127" priority="118" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H58">
+    <cfRule type="cellIs" dxfId="126" priority="117" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="198" priority="462" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="115" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="197" priority="467" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="cellIs" dxfId="196" priority="463" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="195" priority="457" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="194" priority="460" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="193" priority="458" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="192" priority="451" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="cellIs" dxfId="191" priority="452" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="190" priority="453" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" dxfId="189" priority="454" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="188" priority="444" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" dxfId="187" priority="443" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="186" priority="432" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="185" priority="431" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="184" priority="442" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="183" priority="441" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="182" priority="440" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="181" priority="439" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="180" priority="436" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="179" priority="435" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="178" priority="430" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="177" priority="420" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="176" priority="419" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="175" priority="416" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="174" priority="415" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="173" priority="412" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="172" priority="411" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="171" priority="410" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="170" priority="409" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="169" priority="408" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="cellIs" dxfId="168" priority="407" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="167" priority="394" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H22">
-    <cfRule type="cellIs" dxfId="166" priority="393" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="165" priority="388"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="duplicateValues" dxfId="164" priority="387"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="duplicateValues" dxfId="163" priority="386"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22">
-    <cfRule type="duplicateValues" dxfId="162" priority="385"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
-    <cfRule type="duplicateValues" dxfId="161" priority="384"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24">
-    <cfRule type="duplicateValues" dxfId="160" priority="383"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="159" priority="366" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" dxfId="158" priority="365" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="157" priority="254" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="156" priority="253" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="155" priority="208" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="154" priority="207" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="153" priority="206" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="152" priority="205" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="151" priority="204" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="150" priority="203" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="149" priority="202" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="148" priority="201" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="147" priority="196" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H40">
-    <cfRule type="cellIs" dxfId="146" priority="195" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="145" priority="176" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="144" priority="175" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="143" priority="174" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H41">
-    <cfRule type="cellIs" dxfId="142" priority="173" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="141" priority="158" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="140" priority="157" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="139" priority="156" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="cellIs" dxfId="138" priority="155" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="137" priority="154" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="136" priority="153" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="135" priority="152" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" dxfId="134" priority="151" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="133" priority="146" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="132" priority="145" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="131" priority="144" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" dxfId="130" priority="143" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="129" priority="138" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="128" priority="137" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="127" priority="136" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" dxfId="126" priority="135" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="125" priority="126" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="124" priority="125" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="123" priority="124" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="cellIs" dxfId="122" priority="123" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="121" priority="114" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="120" priority="113" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="119" priority="112" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H47">
-    <cfRule type="cellIs" dxfId="118" priority="111" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="117" priority="110" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="116" priority="109" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="115" priority="108" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" dxfId="114" priority="107" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="113" priority="106" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H49">
-    <cfRule type="cellIs" dxfId="112" priority="105" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="111" priority="104" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="cellIs" dxfId="110" priority="103" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="109" priority="102" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="cellIs" dxfId="108" priority="101" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="107" priority="98" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="cellIs" dxfId="106" priority="97" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="105" priority="96" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="cellIs" dxfId="104" priority="95" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="103" priority="94" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H55">
-    <cfRule type="cellIs" dxfId="102" priority="93" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="101" priority="92" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="100" priority="91" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="99" priority="88" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="98" priority="87" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="97" priority="86" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="96" priority="85" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="95" priority="84" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="cellIs" dxfId="94" priority="83" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="93" priority="82" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H56">
-    <cfRule type="cellIs" dxfId="92" priority="81" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="91" priority="78" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H57">
-    <cfRule type="cellIs" dxfId="90" priority="77" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="89" priority="76" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H58">
-    <cfRule type="cellIs" dxfId="88" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="116" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="87" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="114" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="cellIs" dxfId="86" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="113" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="85" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="111" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="84" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="112" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="83" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="110" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="cellIs" dxfId="82" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="109" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="81" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="107" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="80" priority="68" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="79" priority="66" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" dxfId="78" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="108" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="77" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="102" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="76" priority="64" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="75" priority="62" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H62">
-    <cfRule type="cellIs" dxfId="74" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="101" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="73" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="100" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="72" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="99" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="71" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="98" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" dxfId="70" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="97" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="109" priority="91" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="108" priority="92" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="107" priority="90" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H65">
+    <cfRule type="cellIs" dxfId="106" priority="89" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="105" priority="87" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="104" priority="88" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="103" priority="86" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H66">
+    <cfRule type="cellIs" dxfId="102" priority="85" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="69" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="84" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="68" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="83" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="67" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="82" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="cellIs" dxfId="66" priority="53" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="65" priority="51" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="64" priority="52" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="63" priority="50" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65">
-    <cfRule type="cellIs" dxfId="62" priority="49" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="59" priority="46" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H66">
-    <cfRule type="cellIs" dxfId="58" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="81" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="57" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="80" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="56" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="79" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="55" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="78" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="cellIs" dxfId="54" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="77" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="93" priority="71" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="92" priority="72" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="91" priority="70" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H68">
+    <cfRule type="cellIs" dxfId="90" priority="69" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="67" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="52" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="68" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="51" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="66" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="cellIs" dxfId="50" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="65" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="49" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="63" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="48" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="64" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="47" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="62" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="cellIs" dxfId="46" priority="29" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="45" priority="28" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="44" priority="27" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="43" priority="26" operator="equal">
-      <formula>"Out of Stock"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H68">
-    <cfRule type="cellIs" dxfId="42" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="61" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="41" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="59" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="40" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="60" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="39" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="58" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="cellIs" dxfId="38" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="57" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="77" priority="55" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="76" priority="56" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="75" priority="54" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H72">
+    <cfRule type="cellIs" dxfId="74" priority="53" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="73" priority="51" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="72" priority="52" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="71" priority="50" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H73">
+    <cfRule type="cellIs" dxfId="70" priority="49" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="69" priority="47" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="68" priority="48" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="67" priority="46" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H74">
+    <cfRule type="cellIs" dxfId="66" priority="45" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="65" priority="43" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="64" priority="44" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="63" priority="42" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H75">
+    <cfRule type="cellIs" dxfId="62" priority="41" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="61" priority="39" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="60" priority="40" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="59" priority="38" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H76">
+    <cfRule type="cellIs" dxfId="58" priority="37" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="57" priority="35" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="56" priority="36" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="55" priority="34" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H77">
+    <cfRule type="cellIs" dxfId="54" priority="33" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="53" priority="31" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="52" priority="32" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="51" priority="30" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H78">
+    <cfRule type="cellIs" dxfId="50" priority="29" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="49" priority="27" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="48" priority="28" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="47" priority="26" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H79">
+    <cfRule type="cellIs" dxfId="46" priority="25" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="45" priority="23" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="44" priority="24" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="43" priority="22" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H80">
+    <cfRule type="cellIs" dxfId="42" priority="21" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="41" priority="19" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H81">
+    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
+      <formula>"Out of Stock"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="37" priority="15" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="36" priority="16" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="35" priority="14" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H72">
+  <conditionalFormatting sqref="H82">
     <cfRule type="cellIs" dxfId="34" priority="13" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="33" priority="11" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="32" priority="12" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H73">
+  <conditionalFormatting sqref="H83">
     <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="29" priority="7" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="28" priority="8" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H74">
+  <conditionalFormatting sqref="H84">
     <cfRule type="cellIs" dxfId="26" priority="5" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H85">
     <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H85">
     <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H85">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H75">
+  <conditionalFormatting sqref="H85">
     <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>"Out of Stock"</formula>
     </cfRule>
@@ -22105,10 +23143,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M35"/>
+  <dimension ref="B2:M42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22134,25 +23172,25 @@
         <v>68</v>
       </c>
       <c r="F2" s="70" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G2" s="96" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="110" t="s">
-        <v>381</v>
+      <c r="H2" s="105" t="s">
+        <v>378</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="1">
-        <f>SUM(G3:G35)</f>
-        <v>2075000</v>
+        <f>SUM(G3:G42)</f>
+        <v>2554000</v>
       </c>
     </row>
     <row r="3" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="121" t="s">
-        <v>351</v>
+      <c r="B3" s="111" t="s">
+        <v>349</v>
       </c>
       <c r="C3" s="52">
         <v>10</v>
@@ -22169,11 +23207,11 @@
       <c r="G3" s="94">
         <v>150000</v>
       </c>
-      <c r="H3" s="114"/>
+      <c r="H3" s="108"/>
     </row>
     <row r="4" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="121" t="s">
-        <v>347</v>
+      <c r="B4" s="111" t="s">
+        <v>345</v>
       </c>
       <c r="C4" s="52">
         <v>1</v>
@@ -22190,11 +23228,11 @@
       <c r="G4" s="94">
         <v>25000</v>
       </c>
-      <c r="H4" s="115"/>
+      <c r="H4" s="109"/>
     </row>
     <row r="5" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="121" t="s">
-        <v>352</v>
+      <c r="B5" s="111" t="s">
+        <v>350</v>
       </c>
       <c r="C5" s="52">
         <v>2</v>
@@ -22211,11 +23249,11 @@
       <c r="G5" s="94">
         <v>105000</v>
       </c>
-      <c r="H5" s="115"/>
+      <c r="H5" s="109"/>
     </row>
     <row r="6" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="121" t="s">
-        <v>362</v>
+      <c r="B6" s="111" t="s">
+        <v>360</v>
       </c>
       <c r="C6" s="52">
         <v>2</v>
@@ -22227,18 +23265,18 @@
         <v>0</v>
       </c>
       <c r="F6" s="52">
-        <f t="shared" ref="F6:F16" si="0">(E6/C6)+D6</f>
+        <f t="shared" ref="F6:F14" si="0">(E6/C6)+D6</f>
         <v>20000</v>
       </c>
       <c r="G6" s="94">
-        <f t="shared" ref="G6:G16" si="1">(D6*C6)+E6</f>
+        <f t="shared" ref="G6:G13" si="1">(D6*C6)+E6</f>
         <v>40000</v>
       </c>
-      <c r="H6" s="115"/>
+      <c r="H6" s="109"/>
     </row>
     <row r="7" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="121" t="s">
-        <v>363</v>
+      <c r="B7" s="111" t="s">
+        <v>361</v>
       </c>
       <c r="C7" s="52">
         <v>3</v>
@@ -22257,611 +23295,859 @@
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="H7" s="115"/>
+      <c r="H7" s="109"/>
     </row>
     <row r="8" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="111" t="s">
         <v>364</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="52">
+        <v>1</v>
+      </c>
+      <c r="D8" s="52">
+        <v>55000</v>
+      </c>
+      <c r="E8" s="52">
+        <v>0</v>
+      </c>
+      <c r="F8" s="52">
+        <f t="shared" si="0"/>
+        <v>55000</v>
+      </c>
+      <c r="G8" s="94">
+        <f t="shared" si="1"/>
+        <v>55000</v>
+      </c>
+      <c r="H8" s="109"/>
+    </row>
+    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="111" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" s="52">
         <v>2</v>
       </c>
-      <c r="D8" s="108">
+      <c r="D9" s="52">
+        <v>10000</v>
+      </c>
+      <c r="E9" s="52">
+        <v>0</v>
+      </c>
+      <c r="F9" s="52">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="G9" s="94">
+        <f t="shared" si="1"/>
+        <v>20000</v>
+      </c>
+      <c r="H9" s="109"/>
+    </row>
+    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="115" t="s">
+        <v>377</v>
+      </c>
+      <c r="C10" s="116">
+        <v>1</v>
+      </c>
+      <c r="D10" s="116">
+        <v>90000</v>
+      </c>
+      <c r="E10" s="116">
+        <v>0</v>
+      </c>
+      <c r="F10" s="116">
+        <f t="shared" ref="F10" si="2">(E10/C10)+D10</f>
+        <v>90000</v>
+      </c>
+      <c r="G10" s="117" t="s">
+        <v>397</v>
+      </c>
+      <c r="H10" s="118">
+        <v>105000</v>
+      </c>
+      <c r="I10">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="111" t="s">
+        <v>376</v>
+      </c>
+      <c r="C11" s="52">
+        <v>1</v>
+      </c>
+      <c r="D11" s="52">
+        <v>75000</v>
+      </c>
+      <c r="E11" s="52">
+        <v>0</v>
+      </c>
+      <c r="F11" s="52">
+        <f t="shared" si="0"/>
+        <v>75000</v>
+      </c>
+      <c r="G11" s="94">
+        <f t="shared" si="1"/>
+        <v>75000</v>
+      </c>
+      <c r="H11" s="109"/>
+    </row>
+    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="111" t="s">
+        <v>358</v>
+      </c>
+      <c r="C12" s="52">
+        <v>1</v>
+      </c>
+      <c r="D12" s="52">
+        <v>240000</v>
+      </c>
+      <c r="E12" s="52">
+        <v>0</v>
+      </c>
+      <c r="F12" s="52">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+      <c r="G12" s="94">
+        <f t="shared" si="1"/>
+        <v>240000</v>
+      </c>
+      <c r="H12" s="109"/>
+    </row>
+    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="52">
+        <v>1</v>
+      </c>
+      <c r="D13" s="52">
         <v>30000</v>
       </c>
-      <c r="E8" s="108">
-        <v>0</v>
-      </c>
-      <c r="F8" s="108">
+      <c r="E13" s="52">
+        <v>0</v>
+      </c>
+      <c r="F13" s="52">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="G8" s="109">
-        <f t="shared" si="1"/>
-        <v>60000</v>
-      </c>
-      <c r="H8" s="111" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="107" t="s">
-        <v>365</v>
-      </c>
-      <c r="C9" s="108">
-        <v>1</v>
-      </c>
-      <c r="D9" s="108">
-        <v>55000</v>
-      </c>
-      <c r="E9" s="108">
-        <v>0</v>
-      </c>
-      <c r="F9" s="108">
-        <f t="shared" si="0"/>
-        <v>55000</v>
-      </c>
-      <c r="G9" s="109">
-        <f t="shared" si="1"/>
-        <v>55000</v>
-      </c>
-      <c r="H9" s="111" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="121" t="s">
-        <v>367</v>
-      </c>
-      <c r="C10" s="52">
-        <v>1</v>
-      </c>
-      <c r="D10" s="52">
-        <v>55000</v>
-      </c>
-      <c r="E10" s="52">
-        <v>0</v>
-      </c>
-      <c r="F10" s="52">
-        <f t="shared" si="0"/>
-        <v>55000</v>
-      </c>
-      <c r="G10" s="94">
-        <f t="shared" si="1"/>
-        <v>55000</v>
-      </c>
-      <c r="H10" s="115"/>
-    </row>
-    <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="121" t="s">
-        <v>366</v>
-      </c>
-      <c r="C11" s="52">
-        <v>2</v>
-      </c>
-      <c r="D11" s="52">
-        <v>10000</v>
-      </c>
-      <c r="E11" s="52">
-        <v>0</v>
-      </c>
-      <c r="F11" s="52">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-      <c r="G11" s="94">
-        <f t="shared" si="1"/>
-        <v>20000</v>
-      </c>
-      <c r="H11" s="115"/>
-    </row>
-    <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="107" t="s">
-        <v>380</v>
-      </c>
-      <c r="C12" s="108">
-        <v>1</v>
-      </c>
-      <c r="D12" s="108">
-        <v>90000</v>
-      </c>
-      <c r="E12" s="108">
-        <v>0</v>
-      </c>
-      <c r="F12" s="108">
-        <f t="shared" ref="F12" si="2">(E12/C12)+D12</f>
-        <v>90000</v>
-      </c>
-      <c r="G12" s="109">
-        <f t="shared" ref="G12" si="3">(D12*C12)+E12</f>
-        <v>90000</v>
-      </c>
-      <c r="H12" s="111">
-        <v>105000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="121" t="s">
-        <v>379</v>
-      </c>
-      <c r="C13" s="52">
-        <v>1</v>
-      </c>
-      <c r="D13" s="52">
-        <v>75000</v>
-      </c>
-      <c r="E13" s="52">
-        <v>0</v>
-      </c>
-      <c r="F13" s="52">
-        <f t="shared" si="0"/>
-        <v>75000</v>
-      </c>
       <c r="G13" s="94">
         <f t="shared" si="1"/>
-        <v>75000</v>
-      </c>
-      <c r="H13" s="115"/>
+        <v>30000</v>
+      </c>
+      <c r="H13" s="109"/>
     </row>
     <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="121" t="s">
-        <v>360</v>
-      </c>
-      <c r="C14" s="52">
-        <v>1</v>
-      </c>
-      <c r="D14" s="52">
-        <v>240000</v>
-      </c>
-      <c r="E14" s="52">
-        <v>0</v>
-      </c>
-      <c r="F14" s="52">
-        <f t="shared" si="0"/>
-        <v>240000</v>
-      </c>
-      <c r="G14" s="94">
-        <f t="shared" si="1"/>
-        <v>240000</v>
-      </c>
-      <c r="H14" s="115"/>
-    </row>
-    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="121" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="52">
-        <v>1</v>
-      </c>
-      <c r="D15" s="52">
+      <c r="B14" s="123" t="s">
+        <v>359</v>
+      </c>
+      <c r="C14" s="124">
+        <v>1</v>
+      </c>
+      <c r="D14" s="124">
         <v>30000</v>
       </c>
-      <c r="E15" s="52">
-        <v>0</v>
-      </c>
-      <c r="F15" s="52">
+      <c r="E14" s="124">
+        <v>0</v>
+      </c>
+      <c r="F14" s="124">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="G15" s="94">
-        <f t="shared" si="1"/>
+      <c r="G14" s="125" t="s">
+        <v>397</v>
+      </c>
+      <c r="H14" s="118">
+        <v>45000</v>
+      </c>
+      <c r="I14">
+        <v>7000</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="123" t="s">
+        <v>369</v>
+      </c>
+      <c r="C15" s="124">
+        <f>6+1-1</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="124">
+        <v>15000</v>
+      </c>
+      <c r="E15" s="124">
+        <v>0</v>
+      </c>
+      <c r="F15" s="124">
+        <f>(E15/C15)+D15</f>
+        <v>15000</v>
+      </c>
+      <c r="G15" s="125" t="s">
+        <v>397</v>
+      </c>
+      <c r="H15" s="118">
+        <v>159000</v>
+      </c>
+      <c r="I15">
         <v>30000</v>
       </c>
-      <c r="H15" s="115"/>
+      <c r="K15" s="1">
+        <v>30000</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="125" t="s">
-        <v>361</v>
-      </c>
-      <c r="C16" s="126">
-        <v>1</v>
-      </c>
-      <c r="D16" s="126">
-        <v>30000</v>
-      </c>
-      <c r="E16" s="126">
-        <v>0</v>
-      </c>
-      <c r="F16" s="126">
-        <f t="shared" si="0"/>
-        <v>30000</v>
-      </c>
-      <c r="G16" s="127">
-        <f t="shared" si="1"/>
-        <v>30000</v>
-      </c>
-      <c r="H16" s="111">
-        <v>45000</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="L16" s="2" t="s">
+      <c r="B16" s="100" t="s">
+        <v>369</v>
+      </c>
+      <c r="C16" s="101">
+        <v>28</v>
+      </c>
+      <c r="D16" s="101">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="101">
+        <v>0</v>
+      </c>
+      <c r="F16" s="101">
+        <f>(E16/C16)+D16</f>
+        <v>15000</v>
+      </c>
+      <c r="G16" s="102">
+        <f>(D16*C16)+E16</f>
+        <v>420000</v>
+      </c>
+      <c r="H16" s="109"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="97" t="s">
+        <v>350</v>
+      </c>
+      <c r="C17" s="98">
+        <v>2</v>
+      </c>
+      <c r="D17" s="98">
+        <v>35000</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98">
+        <f t="shared" ref="F17:F21" si="3">(E17/C17)+D17</f>
+        <v>35000</v>
+      </c>
+      <c r="G17" s="99">
+        <f t="shared" ref="G17:G20" si="4">(D17*C17)+E17</f>
+        <v>70000</v>
+      </c>
+      <c r="H17" s="109"/>
+      <c r="K17" s="1">
+        <v>25000</v>
+      </c>
+      <c r="L17" s="1">
+        <v>9</v>
+      </c>
+      <c r="M17" s="1">
+        <f>K17*L17</f>
+        <v>225000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="113" t="s">
+        <v>370</v>
+      </c>
+      <c r="C18" s="98">
+        <v>4</v>
+      </c>
+      <c r="D18" s="98">
+        <v>15000</v>
+      </c>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98">
+        <f t="shared" si="3"/>
+        <v>15000</v>
+      </c>
+      <c r="G18" s="99">
+        <f t="shared" si="4"/>
+        <v>60000</v>
+      </c>
+      <c r="H18" s="109"/>
+      <c r="K18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L18" s="1">
         <v>3</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="122" t="s">
-        <v>372</v>
-      </c>
-      <c r="C17" s="101">
-        <f>6+2</f>
-        <v>8</v>
-      </c>
-      <c r="D17" s="101">
-        <v>15000</v>
-      </c>
-      <c r="E17" s="101">
-        <v>0</v>
-      </c>
-      <c r="F17" s="101">
-        <f>(E17/C17)+D17</f>
-        <v>15000</v>
-      </c>
-      <c r="G17" s="102">
-        <f>(D17*C17)+E17</f>
-        <v>120000</v>
-      </c>
-      <c r="H17" s="115"/>
-      <c r="K17" s="1">
-        <v>35000</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="100" t="s">
-        <v>372</v>
-      </c>
-      <c r="C18" s="101">
-        <v>26</v>
-      </c>
-      <c r="D18" s="101">
-        <v>15000</v>
-      </c>
-      <c r="E18" s="101">
-        <v>0</v>
-      </c>
-      <c r="F18" s="101">
-        <f>(E18/C18)+D18</f>
-        <v>15000</v>
-      </c>
-      <c r="G18" s="102">
-        <f>(D18*C18)+E18</f>
-        <v>390000</v>
-      </c>
-      <c r="H18" s="115"/>
-      <c r="K18" s="1">
-        <v>30000</v>
-      </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1">
+        <f>K18*L18</f>
+        <v>60000</v>
+      </c>
     </row>
     <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="123" t="s">
-        <v>352</v>
+      <c r="B19" s="113" t="s">
+        <v>371</v>
       </c>
       <c r="C19" s="98">
         <v>2</v>
       </c>
       <c r="D19" s="98">
-        <v>35000</v>
+        <v>15000</v>
       </c>
       <c r="E19" s="98"/>
       <c r="F19" s="98">
-        <f t="shared" ref="F19:F23" si="4">(E19/C19)+D19</f>
-        <v>35000</v>
+        <f t="shared" si="3"/>
+        <v>15000</v>
       </c>
       <c r="G19" s="99">
-        <f t="shared" ref="G19:G23" si="5">(D19*C19)+E19</f>
-        <v>70000</v>
-      </c>
-      <c r="H19" s="115"/>
-      <c r="K19" s="1">
-        <v>25000</v>
-      </c>
-      <c r="L19" s="1">
-        <v>3</v>
-      </c>
+        <f t="shared" si="4"/>
+        <v>30000</v>
+      </c>
+      <c r="H19" s="109">
+        <v>20000</v>
+      </c>
+      <c r="K19" s="126" t="s">
+        <v>380</v>
+      </c>
+      <c r="L19" s="126"/>
       <c r="M19" s="1">
-        <f>K19*L19</f>
-        <v>75000</v>
+        <f>M18+M17+M16+M15</f>
+        <v>285000</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="123" t="s">
-        <v>373</v>
+      <c r="B20" s="97" t="s">
+        <v>372</v>
       </c>
       <c r="C20" s="98">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="98">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="E20" s="98"/>
       <c r="F20" s="98">
+        <f t="shared" si="3"/>
+        <v>10000</v>
+      </c>
+      <c r="G20" s="99">
         <f t="shared" si="4"/>
-        <v>15000</v>
-      </c>
-      <c r="G20" s="99">
-        <f t="shared" si="5"/>
-        <v>60000</v>
-      </c>
-      <c r="H20" s="115"/>
-      <c r="K20" s="1">
-        <v>20000</v>
-      </c>
-      <c r="L20" s="1">
-        <v>3</v>
-      </c>
-      <c r="M20" s="1">
-        <f>K20*L20</f>
-        <v>60000</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="H20" s="109"/>
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="123" t="s">
-        <v>374</v>
-      </c>
-      <c r="C21" s="98">
-        <v>2</v>
-      </c>
-      <c r="D21" s="98">
-        <v>15000</v>
-      </c>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98">
-        <f t="shared" si="4"/>
-        <v>15000</v>
-      </c>
-      <c r="G21" s="99">
+        <v>242</v>
+      </c>
+      <c r="C21" s="124">
+        <v>1</v>
+      </c>
+      <c r="D21" s="124">
+        <v>40000</v>
+      </c>
+      <c r="E21" s="124"/>
+      <c r="F21" s="124">
+        <f t="shared" si="3"/>
+        <v>40000</v>
+      </c>
+      <c r="G21" s="125" t="s">
+        <v>397</v>
+      </c>
+      <c r="H21" s="118">
+        <v>40000</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="L21" s="1">
+        <f>L18+L17+L16+L15</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="114" t="s">
+        <v>356</v>
+      </c>
+      <c r="C22" s="98">
+        <v>1</v>
+      </c>
+      <c r="D22" s="98">
+        <v>85000</v>
+      </c>
+      <c r="E22" s="101">
+        <v>0</v>
+      </c>
+      <c r="F22" s="101">
+        <f t="shared" ref="F22:F27" si="5">(E22/C22)+D22</f>
+        <v>85000</v>
+      </c>
+      <c r="G22" s="102">
+        <f t="shared" ref="G22:G27" si="6">(D22*C22)+E22</f>
+        <v>85000</v>
+      </c>
+      <c r="H22" s="109"/>
+      <c r="K22" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="123" t="s">
+        <v>350</v>
+      </c>
+      <c r="C23" s="116">
+        <v>1</v>
+      </c>
+      <c r="D23" s="116">
+        <v>35000</v>
+      </c>
+      <c r="E23" s="124">
+        <v>0</v>
+      </c>
+      <c r="F23" s="124">
+        <f t="shared" si="5"/>
+        <v>35000</v>
+      </c>
+      <c r="G23" s="125" t="s">
+        <v>397</v>
+      </c>
+      <c r="H23" s="118">
+        <v>42000</v>
+      </c>
+      <c r="I23">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="112" t="s">
+        <v>375</v>
+      </c>
+      <c r="C24" s="98">
+        <v>3</v>
+      </c>
+      <c r="D24" s="98">
+        <v>20000</v>
+      </c>
+      <c r="E24" s="101">
+        <v>0</v>
+      </c>
+      <c r="F24" s="101">
+        <f t="shared" si="5"/>
+        <v>20000</v>
+      </c>
+      <c r="G24" s="102">
+        <f t="shared" si="6"/>
+        <v>60000</v>
+      </c>
+      <c r="H24" s="109"/>
+    </row>
+    <row r="25" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="97" t="s">
+        <v>381</v>
+      </c>
+      <c r="C25" s="98">
+        <v>1</v>
+      </c>
+      <c r="D25" s="98">
+        <v>170000</v>
+      </c>
+      <c r="E25" s="101">
+        <v>0</v>
+      </c>
+      <c r="F25" s="101">
+        <f t="shared" si="5"/>
+        <v>170000</v>
+      </c>
+      <c r="G25" s="102">
+        <f t="shared" si="6"/>
+        <v>170000</v>
+      </c>
+      <c r="H25" s="109"/>
+    </row>
+    <row r="26" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="100" t="s">
+        <v>389</v>
+      </c>
+      <c r="C26" s="98">
+        <v>4</v>
+      </c>
+      <c r="D26" s="98">
+        <v>30000</v>
+      </c>
+      <c r="E26" s="101">
+        <v>0</v>
+      </c>
+      <c r="F26" s="101">
         <f t="shared" si="5"/>
         <v>30000</v>
       </c>
-      <c r="H21" s="115">
-        <v>20000</v>
-      </c>
-      <c r="K21" s="128" t="s">
-        <v>383</v>
-      </c>
-      <c r="L21" s="128"/>
-      <c r="M21" s="1">
-        <f>M20+M19+M18+M17</f>
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="97" t="s">
-        <v>375</v>
-      </c>
-      <c r="C22" s="98">
-        <v>1</v>
-      </c>
-      <c r="D22" s="98">
-        <v>10000</v>
-      </c>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98">
-        <f t="shared" si="4"/>
-        <v>10000</v>
-      </c>
-      <c r="G22" s="99">
-        <f t="shared" si="5"/>
-        <v>10000</v>
-      </c>
-      <c r="H22" s="115"/>
-    </row>
-    <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="117" t="s">
-        <v>242</v>
-      </c>
-      <c r="C23" s="119">
-        <v>1</v>
-      </c>
-      <c r="D23" s="119">
-        <v>40000</v>
-      </c>
-      <c r="E23" s="119"/>
-      <c r="F23" s="119">
-        <f t="shared" si="4"/>
-        <v>40000</v>
-      </c>
-      <c r="G23" s="120">
-        <f t="shared" si="5"/>
-        <v>40000</v>
-      </c>
-      <c r="H23" s="111">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="124" t="s">
-        <v>358</v>
-      </c>
-      <c r="C24" s="98">
-        <v>1</v>
-      </c>
-      <c r="D24" s="98">
-        <v>85000</v>
-      </c>
-      <c r="E24" s="101">
-        <v>0</v>
-      </c>
-      <c r="F24" s="101">
-        <f>(E24/C24)+D24</f>
-        <v>85000</v>
-      </c>
-      <c r="G24" s="102">
-        <f>(D24*C24)+E24</f>
-        <v>85000</v>
-      </c>
-      <c r="H24" s="115"/>
-    </row>
-    <row r="25" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="117" t="s">
-        <v>352</v>
-      </c>
-      <c r="C25" s="118">
-        <v>1</v>
-      </c>
-      <c r="D25" s="118">
-        <v>35000</v>
-      </c>
-      <c r="E25" s="119">
-        <v>0</v>
-      </c>
-      <c r="F25" s="119">
-        <f>(E25/C25)+D25</f>
-        <v>35000</v>
-      </c>
-      <c r="G25" s="120">
-        <f>(D25*C25)+E25</f>
-        <v>35000</v>
-      </c>
-      <c r="H25" s="111">
-        <v>42000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="122" t="s">
-        <v>378</v>
-      </c>
-      <c r="C26" s="98">
-        <v>3</v>
-      </c>
-      <c r="D26" s="98">
-        <v>20000</v>
-      </c>
-      <c r="E26" s="101">
-        <v>0</v>
-      </c>
-      <c r="F26" s="101">
-        <f>(E26/C26)+D26</f>
-        <v>20000</v>
-      </c>
       <c r="G26" s="102">
-        <f>(D26*C26)+E26</f>
-        <v>60000</v>
-      </c>
-      <c r="H26" s="115"/>
+        <f t="shared" si="6"/>
+        <v>120000</v>
+      </c>
+      <c r="H26" s="110"/>
     </row>
     <row r="27" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="97" t="s">
+        <v>350</v>
+      </c>
+      <c r="C27" s="98">
+        <v>1</v>
+      </c>
+      <c r="D27" s="98">
+        <v>35000</v>
+      </c>
+      <c r="E27" s="101">
+        <v>0</v>
+      </c>
+      <c r="F27" s="101">
+        <f t="shared" si="5"/>
+        <v>35000</v>
+      </c>
+      <c r="G27" s="102">
+        <f t="shared" si="6"/>
+        <v>35000</v>
+      </c>
+      <c r="H27" s="109"/>
+    </row>
+    <row r="28" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="119" t="s">
+        <v>395</v>
+      </c>
+      <c r="C28" s="52">
+        <v>2</v>
+      </c>
+      <c r="D28" s="52">
+        <v>10000</v>
+      </c>
+      <c r="E28" s="101">
+        <v>0</v>
+      </c>
+      <c r="F28" s="101">
+        <f t="shared" ref="F28:F31" si="7">(E28/C28)+D28</f>
+        <v>10000</v>
+      </c>
+      <c r="G28" s="102">
+        <f t="shared" ref="G28:G31" si="8">(D28*C28)+E28</f>
+        <v>20000</v>
+      </c>
+      <c r="H28" s="57"/>
+    </row>
+    <row r="29" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="111" t="s">
+        <v>396</v>
+      </c>
+      <c r="C29" s="52">
+        <v>1</v>
+      </c>
+      <c r="D29" s="52">
+        <v>25000</v>
+      </c>
+      <c r="E29" s="101">
+        <v>0</v>
+      </c>
+      <c r="F29" s="101">
+        <f t="shared" si="7"/>
+        <v>25000</v>
+      </c>
+      <c r="G29" s="102">
+        <f t="shared" si="8"/>
+        <v>25000</v>
+      </c>
+      <c r="H29" s="57"/>
+    </row>
+    <row r="30" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="111" t="s">
+        <v>370</v>
+      </c>
+      <c r="C30" s="52">
+        <v>2</v>
+      </c>
+      <c r="D30" s="52">
+        <v>15000</v>
+      </c>
+      <c r="E30" s="101">
+        <v>0</v>
+      </c>
+      <c r="F30" s="101">
+        <f t="shared" si="7"/>
+        <v>15000</v>
+      </c>
+      <c r="G30" s="102">
+        <f t="shared" si="8"/>
+        <v>30000</v>
+      </c>
+      <c r="H30" s="57"/>
+    </row>
+    <row r="31" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="111" t="s">
+        <v>362</v>
+      </c>
+      <c r="C31" s="52">
+        <v>1</v>
+      </c>
+      <c r="D31" s="52">
+        <v>30000</v>
+      </c>
+      <c r="E31" s="101">
+        <v>0</v>
+      </c>
+      <c r="F31" s="101">
+        <f t="shared" si="7"/>
+        <v>30000</v>
+      </c>
+      <c r="G31" s="102">
+        <f t="shared" si="8"/>
+        <v>30000</v>
+      </c>
+      <c r="H31" s="57"/>
+    </row>
+    <row r="32" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="52">
+        <v>4</v>
+      </c>
+      <c r="D32" s="52">
+        <v>11000</v>
+      </c>
+      <c r="E32" s="52">
+        <v>0</v>
+      </c>
+      <c r="F32" s="52">
+        <f t="shared" ref="F32:F38" si="9">(E32/C32)+D32</f>
+        <v>11000</v>
+      </c>
+      <c r="G32" s="52">
+        <f t="shared" ref="G32:G38" si="10">(D32*C32)+E32</f>
+        <v>44000</v>
+      </c>
+      <c r="H32" s="57"/>
+    </row>
+    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="52">
+        <v>1</v>
+      </c>
+      <c r="D33" s="52">
+        <v>25000</v>
+      </c>
+      <c r="E33" s="52">
+        <v>0</v>
+      </c>
+      <c r="F33" s="52">
+        <f t="shared" si="9"/>
+        <v>25000</v>
+      </c>
+      <c r="G33" s="52">
+        <f t="shared" si="10"/>
+        <v>25000</v>
+      </c>
+      <c r="H33" s="57"/>
+    </row>
+    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="119" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" s="52">
+        <v>1</v>
+      </c>
+      <c r="D34" s="52">
+        <v>10000</v>
+      </c>
+      <c r="E34" s="52">
+        <v>0</v>
+      </c>
+      <c r="F34" s="52">
+        <f t="shared" si="9"/>
+        <v>10000</v>
+      </c>
+      <c r="G34" s="52">
+        <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+      <c r="H34" s="57"/>
+    </row>
+    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="119" t="s">
+        <v>391</v>
+      </c>
+      <c r="C35" s="52">
+        <v>3</v>
+      </c>
+      <c r="D35" s="52">
+        <v>35000</v>
+      </c>
+      <c r="E35" s="52">
+        <v>0</v>
+      </c>
+      <c r="F35" s="52">
+        <f t="shared" si="9"/>
+        <v>35000</v>
+      </c>
+      <c r="G35" s="52">
+        <f t="shared" si="10"/>
+        <v>105000</v>
+      </c>
+      <c r="H35" s="57"/>
+    </row>
+    <row r="36" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="120" t="s">
+        <v>392</v>
+      </c>
+      <c r="C36" s="101">
+        <v>1</v>
+      </c>
+      <c r="D36" s="101">
+        <v>30000</v>
+      </c>
+      <c r="E36" s="101">
+        <v>0</v>
+      </c>
+      <c r="F36" s="101">
+        <f t="shared" si="9"/>
+        <v>30000</v>
+      </c>
+      <c r="G36" s="102">
+        <f t="shared" si="10"/>
+        <v>30000</v>
+      </c>
+      <c r="H36" s="109"/>
+    </row>
+    <row r="37" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="119" t="s">
+        <v>393</v>
+      </c>
+      <c r="C37" s="52">
+        <v>5</v>
+      </c>
+      <c r="D37" s="52">
+        <v>20000</v>
+      </c>
+      <c r="E37" s="101">
+        <v>0</v>
+      </c>
+      <c r="F37" s="101">
+        <f t="shared" si="9"/>
+        <v>20000</v>
+      </c>
+      <c r="G37" s="102">
+        <f t="shared" si="10"/>
+        <v>100000</v>
+      </c>
+      <c r="H37" s="109"/>
+    </row>
+    <row r="38" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="119" t="s">
+        <v>394</v>
+      </c>
+      <c r="C38" s="52">
+        <v>1</v>
+      </c>
+      <c r="D38" s="52">
+        <v>15000</v>
+      </c>
+      <c r="E38" s="101">
+        <v>0</v>
+      </c>
+      <c r="F38" s="101">
+        <f t="shared" si="9"/>
+        <v>15000</v>
+      </c>
+      <c r="G38" s="102">
+        <f t="shared" si="10"/>
+        <v>15000</v>
+      </c>
+      <c r="H38" s="109"/>
+    </row>
+    <row r="39" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="119" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="52">
+        <v>1</v>
+      </c>
+      <c r="D39" s="52">
+        <v>290000</v>
+      </c>
+      <c r="E39" s="101">
+        <v>0</v>
+      </c>
+      <c r="F39" s="101">
+        <f t="shared" ref="F39" si="11">(E39/C39)+D39</f>
+        <v>290000</v>
+      </c>
+      <c r="G39" s="102">
+        <f t="shared" ref="G39" si="12">(D39*C39)+E39</f>
+        <v>290000</v>
+      </c>
+      <c r="H39" s="109"/>
+    </row>
+    <row r="40" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="112" t="s">
         <v>384</v>
       </c>
-      <c r="C27" s="98">
-        <v>1</v>
-      </c>
-      <c r="D27" s="98">
-        <v>170000</v>
-      </c>
-      <c r="E27" s="101">
-        <v>0</v>
-      </c>
-      <c r="F27" s="101">
-        <f>(E27/C27)+D27</f>
-        <v>170000</v>
-      </c>
-      <c r="G27" s="102">
-        <f>(D27*C27)+E27</f>
-        <v>170000</v>
-      </c>
-      <c r="H27" s="115"/>
-    </row>
-    <row r="28" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="122" t="s">
-        <v>387</v>
-      </c>
-      <c r="C28" s="101" t="s">
-        <v>388</v>
-      </c>
-      <c r="D28" s="101" t="s">
-        <v>388</v>
-      </c>
-      <c r="E28" s="101" t="s">
-        <v>388</v>
-      </c>
-      <c r="F28" s="101" t="s">
-        <v>388</v>
-      </c>
-      <c r="G28" s="102" t="s">
-        <v>388</v>
-      </c>
-      <c r="H28" s="116"/>
-    </row>
-    <row r="29" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="97"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="98"/>
-      <c r="F29" s="98"/>
-      <c r="G29" s="98"/>
-      <c r="H29" s="115"/>
-    </row>
-    <row r="30" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="97"/>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="98"/>
-      <c r="G30" s="98"/>
-      <c r="H30" s="115"/>
-    </row>
-    <row r="31" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="97"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="115"/>
-    </row>
-    <row r="32" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="97"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="115"/>
-    </row>
-    <row r="33" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="98"/>
-      <c r="G33" s="98"/>
-      <c r="H33" s="115"/>
-    </row>
-    <row r="34" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="97"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="115"/>
-    </row>
-    <row r="35" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="100"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="101"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="101"/>
-      <c r="G35" s="101"/>
-      <c r="H35" s="116"/>
+      <c r="C40" s="101" t="s">
+        <v>385</v>
+      </c>
+      <c r="D40" s="101" t="s">
+        <v>385</v>
+      </c>
+      <c r="E40" s="101" t="s">
+        <v>385</v>
+      </c>
+      <c r="F40" s="101" t="s">
+        <v>385</v>
+      </c>
+      <c r="G40" s="102" t="s">
+        <v>385</v>
+      </c>
+      <c r="H40" s="110"/>
+    </row>
+    <row r="41" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="119"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="57"/>
+    </row>
+    <row r="42" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="120"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
+      <c r="E42" s="61"/>
+      <c r="F42" s="61"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -22883,21 +24169,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="89" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B2" s="90" t="s">
+        <v>329</v>
+      </c>
+      <c r="C2" s="90" t="s">
         <v>330</v>
-      </c>
-      <c r="C2" s="90" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -22905,52 +24191,52 @@
         <v>58</v>
       </c>
       <c r="B3" s="90" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="90" t="s">
         <v>325</v>
-      </c>
-      <c r="C3" s="90" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4" s="90" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="90" t="s">
         <v>319</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B5" s="90" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="C5" s="90" t="s">
         <v>323</v>
-      </c>
-      <c r="C5" s="90" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="90" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B7" s="90"/>
       <c r="C7" s="90" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="4" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -23091,7 +24377,7 @@
         <v>45080</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
